--- a/spreadsheet.xlsx
+++ b/spreadsheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aseve\Documents\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aseve\Documents\promed-clicker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0415AF86-5293-429B-B4BD-BE0C51BA8FEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5564FB-75F8-4236-85B2-A4E509F5E5FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{6CCF5E32-90BF-4976-8CE3-9868609CAAE5}"/>
   </bookViews>
@@ -33,16 +33,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
   <si>
     <t>Серов Денис Оскарович</t>
+  </si>
+  <si>
+    <t>Кабинет компьютерной томографии</t>
+  </si>
+  <si>
+    <t>Серов Оскар Валентинович</t>
+  </si>
+  <si>
+    <t>A00.0</t>
+  </si>
+  <si>
+    <t>A06.09.005</t>
+  </si>
+  <si>
+    <t>23.05.1995</t>
+  </si>
+  <si>
+    <t>Серова Оксана Васильевна</t>
+  </si>
+  <si>
+    <t>Серов Оскар Валентинович</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,6 +71,13 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -72,9 +100,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -389,27 +420,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027DBE9-90F8-4510-9A2A-0DC7F76ECC31}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="34.44140625" customWidth="1"/>
     <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
-        <v>34842</v>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1">
+        <v>874737</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1">
+        <v>874737</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>874737</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/spreadsheet.xlsx
+++ b/spreadsheet.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aseve\Documents\promed-clicker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Documents\GitHub\promed-clicker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5564FB-75F8-4236-85B2-A4E509F5E5FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FEA222-9442-4F93-AD96-20BDAE7F97FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{6CCF5E32-90BF-4976-8CE3-9868609CAAE5}"/>
+    <workbookView xWindow="840" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{6CCF5E32-90BF-4976-8CE3-9868609CAAE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,30 +37,231 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
-  <si>
-    <t>Серов Денис Оскарович</t>
-  </si>
-  <si>
-    <t>Кабинет компьютерной томографии</t>
-  </si>
-  <si>
-    <t>Серов Оскар Валентинович</t>
-  </si>
-  <si>
-    <t>A00.0</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="75">
   <si>
     <t>A06.09.005</t>
   </si>
   <si>
-    <t>23.05.1995</t>
-  </si>
-  <si>
-    <t>Серова Оксана Васильевна</t>
-  </si>
-  <si>
-    <t>Серов Оскар Валентинович</t>
+    <t>Каргина Елена Геннадьевна</t>
+  </si>
+  <si>
+    <t>Нет</t>
+  </si>
+  <si>
+    <t>Да</t>
+  </si>
+  <si>
+    <t>ГАУЗ РКОД МЗ РБ, ЛОР (ГОЛОВА-ШЕЯ)</t>
+  </si>
+  <si>
+    <t>9273022398 (БД)</t>
+  </si>
+  <si>
+    <t>Компьютерная томография органов грудной полости </t>
+  </si>
+  <si>
+    <t>Мусин Ш И</t>
+  </si>
+  <si>
+    <t>ГАЛИЯКБЕРОВ АЛЬФИЗ ИСКАНДАРОВИЧ</t>
+  </si>
+  <si>
+    <t>9272304164 (БД)</t>
+  </si>
+  <si>
+    <t>ГАУЗ РКОД МЗ РБ, ОНКО-ПРОКТОЛОГ</t>
+  </si>
+  <si>
+    <t>Сарапулов Виталий Андреевич</t>
+  </si>
+  <si>
+    <t>9279372429 (БД)</t>
+  </si>
+  <si>
+    <t>ФЕОКТИСТОВ Д В</t>
+  </si>
+  <si>
+    <t>Докучаев Сергей Александрович</t>
+  </si>
+  <si>
+    <t>9174482289 (БД)</t>
+  </si>
+  <si>
+    <t>ГАУЗ РКОД МЗ РБ, ОНКО-ГИНЕКОЛОГ (1 пол)</t>
+  </si>
+  <si>
+    <t>Никитина Валентина Петровна</t>
+  </si>
+  <si>
+    <t>9613690620 (БД)</t>
+  </si>
+  <si>
+    <t>Фаисханова Р Р</t>
+  </si>
+  <si>
+    <t>Челищева Наталья Владимировна</t>
+  </si>
+  <si>
+    <t>9638970516 (БД)</t>
+  </si>
+  <si>
+    <t>Закомлистова Раиса Федоровна</t>
+  </si>
+  <si>
+    <t>9870345106 (БД)</t>
+  </si>
+  <si>
+    <t>Земерев Виктор Васильевич</t>
+  </si>
+  <si>
+    <t>9174331054 (БД)</t>
+  </si>
+  <si>
+    <t>Аралкина Оксана Анатольевна</t>
+  </si>
+  <si>
+    <t>9177698407 (БД)</t>
+  </si>
+  <si>
+    <t>Гайфуллина Лиана Римовна</t>
+  </si>
+  <si>
+    <t>(портал самозаписи); 9173598637 (БД)</t>
+  </si>
+  <si>
+    <t>ГАУЗ РКОД МЗ РБ, ОНКО-ПУЛЬМОНОЛОГ</t>
+  </si>
+  <si>
+    <t>Кулмухаметова Диана Олеговна</t>
+  </si>
+  <si>
+    <t>9053543541 (БД)</t>
+  </si>
+  <si>
+    <t>Бикметов А Ф</t>
+  </si>
+  <si>
+    <t>ПУСЕНКОВА ТАТЬЯНА ВАСИЛЬЕВНА</t>
+  </si>
+  <si>
+    <t>Бубеев Владимир Николаевич</t>
+  </si>
+  <si>
+    <t>9174962590 (БД)</t>
+  </si>
+  <si>
+    <t>ГАНЕЕВА ЛЮБОВЬ ГЕННАДЬЕВНА</t>
+  </si>
+  <si>
+    <t>9174648035 (БД)</t>
+  </si>
+  <si>
+    <t>Кашапова Рафина Шараевна</t>
+  </si>
+  <si>
+    <t>Хайруллина Жумадия Галиповна</t>
+  </si>
+  <si>
+    <t>9033545250 (БД)</t>
+  </si>
+  <si>
+    <t>Зайдуллина Рамзия Афтаховна</t>
+  </si>
+  <si>
+    <t>9378315116 (БД)</t>
+  </si>
+  <si>
+    <t>Петрова Тамара Павловна</t>
+  </si>
+  <si>
+    <t>9603942768 (БД)</t>
+  </si>
+  <si>
+    <t>ГАУЗ РКОД МЗ РБ, ОНКО-МАММОЛОГ (1 пол)</t>
+  </si>
+  <si>
+    <t>Кипкало Надежда Александровна</t>
+  </si>
+  <si>
+    <t>89871451650 (портал самозаписи); 9871451650 (БД)</t>
+  </si>
+  <si>
+    <t>ГАЛЕЕВ М Г</t>
+  </si>
+  <si>
+    <t>СОКОЛОВА ИРИНА ГЕННАДЬЕВНА</t>
+  </si>
+  <si>
+    <t>9373360734 (БД)</t>
+  </si>
+  <si>
+    <t>Шакирова Альбина Валириановна</t>
+  </si>
+  <si>
+    <t>89061064066 (БД)</t>
+  </si>
+  <si>
+    <t>б/з</t>
+  </si>
+  <si>
+    <t>ГАУЗ РКОД МЗ РБ,</t>
+  </si>
+  <si>
+    <t>ХАКИМОВА ГУЛЬНАРА ФАРИТОВНА</t>
+  </si>
+  <si>
+    <t>9173678678 (БД)</t>
+  </si>
+  <si>
+    <t>Бикметова И Р</t>
+  </si>
+  <si>
+    <t>Гайнетдинова Залия Рафкатовна</t>
+  </si>
+  <si>
+    <t>9870498750 (БД)</t>
+  </si>
+  <si>
+    <t>ИЗИКАЕВА Олеся Сергеевна</t>
+  </si>
+  <si>
+    <t>9871359435 (БД)</t>
+  </si>
+  <si>
+    <t>Мусин Шамиль Исмагилович</t>
+  </si>
+  <si>
+    <t>ФЕОКТИСТОВ ДМИТРИЙ ВЛАДИМИРОВИЧ</t>
+  </si>
+  <si>
+    <t>ФАИСХАНОВА Рания Разяповна</t>
+  </si>
+  <si>
+    <t>C44.3</t>
+  </si>
+  <si>
+    <t>Бикметова Ильмира Ринатовна</t>
+  </si>
+  <si>
+    <t>А06.01.001</t>
+  </si>
+  <si>
+    <t>А06.03.062</t>
+  </si>
+  <si>
+    <t>C53.0</t>
+  </si>
+  <si>
+    <t>C56</t>
+  </si>
+  <si>
+    <t>C18.7</t>
+  </si>
+  <si>
+    <t>C20</t>
+  </si>
+  <si>
+    <t>C73</t>
   </si>
 </sst>
 </file>
@@ -73,22 +278,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FFCE9178"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <sz val="12"/>
+      <name val="PT Sans Narrow"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -96,16 +312,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -121,6 +368,86 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="G1" t="str">
+            <v>Каргина Елена Геннадьевна</v>
+          </cell>
+          <cell r="H1">
+            <v>26862</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4" t="str">
+            <v>Докучаев Сергей Александрович</v>
+          </cell>
+          <cell r="H4">
+            <v>22136</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="G5" t="str">
+            <v>Никитина Валентина Петровна</v>
+          </cell>
+          <cell r="H5">
+            <v>19647</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="G6" t="str">
+            <v>Челищева Наталья Владимировна</v>
+          </cell>
+          <cell r="H6">
+            <v>21078</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="G7" t="str">
+            <v>Закомлистова Раиса Федоровна</v>
+          </cell>
+          <cell r="H7">
+            <v>17351</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="G8" t="str">
+            <v>Земерев Виктор Васильевич</v>
+          </cell>
+          <cell r="H8">
+            <v>21227</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="G9" t="str">
+            <v>Аралкина Оксана Анатольевна</v>
+          </cell>
+          <cell r="H9">
+            <v>28474</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="G10" t="str">
+            <v>Гайфуллина Лиана Римовна</v>
+          </cell>
+          <cell r="H10">
+            <v>32372</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -420,90 +747,1105 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027DBE9-90F8-4510-9A2A-0DC7F76ECC31}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.44140625" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.33203125" customWidth="1"/>
+    <col min="1" max="1" width="48.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5703125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="35.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="19.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="str">
+        <f>[1]Лист2!G1</f>
+        <v>Каргина Елена Геннадьевна</v>
+      </c>
+      <c r="B1" s="6">
+        <f>[1]Лист2!H1</f>
+        <v>26862</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="8">
+        <v>874737</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1">
-        <v>874737</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="6">
+        <v>26862</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="8">
+        <v>874735</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1">
-        <v>874737</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1">
-        <v>874737</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="B3" s="6">
+        <v>26862</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="8">
+        <v>874733</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="str">
+        <f>[1]Лист2!G4</f>
+        <v>Докучаев Сергей Александрович</v>
+      </c>
+      <c r="B4" s="6">
+        <f>[1]Лист2!H4</f>
+        <v>22136</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="str">
+        <f>[1]Лист2!G5</f>
+        <v>Никитина Валентина Петровна</v>
+      </c>
+      <c r="B5" s="6">
+        <f>[1]Лист2!H5</f>
+        <v>19647</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="str">
+        <f>[1]Лист2!G6</f>
+        <v>Челищева Наталья Владимировна</v>
+      </c>
+      <c r="B6" s="6">
+        <f>[1]Лист2!H6</f>
+        <v>21078</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="str">
+        <f>[1]Лист2!G7</f>
+        <v>Закомлистова Раиса Федоровна</v>
+      </c>
+      <c r="B7" s="6">
+        <f>[1]Лист2!H7</f>
+        <v>17351</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="str">
+        <f>[1]Лист2!G8</f>
+        <v>Земерев Виктор Васильевич</v>
+      </c>
+      <c r="B8" s="6">
+        <f>[1]Лист2!H8</f>
+        <v>21227</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="str">
+        <f>[1]Лист2!G9</f>
+        <v>Аралкина Оксана Анатольевна</v>
+      </c>
+      <c r="B9" s="6">
+        <f>[1]Лист2!H9</f>
+        <v>28474</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="str">
+        <f>[1]Лист2!G10</f>
+        <v>Гайфуллина Лиана Римовна</v>
+      </c>
+      <c r="B10" s="6">
+        <f>[1]Лист2!H10</f>
+        <v>32372</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE245E9-7BBB-4B60-A4DB-BD39DD0FE660}">
+  <dimension ref="A1:K24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="38.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3">
+        <v>44067</v>
+      </c>
+      <c r="D1" s="4">
+        <v>0.4375</v>
+      </c>
+      <c r="E1">
+        <v>1299788</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="3">
+        <v>26862</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3">
+        <v>44067</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="E2">
+        <v>1299807</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="3">
+        <v>24183</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3">
+        <v>44067</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="E3">
+        <v>1299879</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="3">
+        <v>13641</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3">
+        <v>44067</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E4">
+        <v>1299951</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="3">
+        <v>22136</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3">
+        <v>44067</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="E5">
+        <v>1299960</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="3">
+        <v>19647</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3">
+        <v>44069</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E6">
+        <v>1303523</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="3">
+        <v>21078</v>
+      </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>44067</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E7">
+        <v>1299999</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="3">
+        <v>17351</v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44067</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="E8">
+        <v>1300004</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="3">
+        <v>21227</v>
+      </c>
+      <c r="I8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3">
+        <v>44068</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="E9">
+        <v>1300748</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="3">
+        <v>28474</v>
+      </c>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="3">
+        <v>44068</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E10">
+        <v>1301395</v>
+      </c>
+      <c r="F10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="3">
+        <v>32372</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3">
+        <v>44067</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="E11">
+        <v>1300309</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="3">
+        <v>36367</v>
+      </c>
+      <c r="I11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3">
+        <v>44068</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="E12">
+        <v>1301451</v>
+      </c>
+      <c r="F12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="3">
+        <v>22580</v>
+      </c>
+      <c r="J12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="3">
+        <v>44068</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E13">
+        <v>1301537</v>
+      </c>
+      <c r="F13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="3">
+        <v>21567</v>
+      </c>
+      <c r="I13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="3">
+        <v>44068</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="E14">
+        <v>1301574</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="3">
+        <v>22072</v>
+      </c>
+      <c r="I14" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="3">
+        <v>44068</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="E15">
+        <v>1301580</v>
+      </c>
+      <c r="F15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="3">
+        <v>18032</v>
+      </c>
+      <c r="J15" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="3">
+        <v>44068</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E16">
+        <v>1301601</v>
+      </c>
+      <c r="F16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="3">
+        <v>23670</v>
+      </c>
+      <c r="I16" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="3">
+        <v>44068</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="E17">
+        <v>1301621</v>
+      </c>
+      <c r="F17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" s="3">
+        <v>19864</v>
+      </c>
+      <c r="I17" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="3">
+        <v>44068</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="E18">
+        <v>1301652</v>
+      </c>
+      <c r="F18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="3">
+        <v>21500</v>
+      </c>
+      <c r="I18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J18" t="s">
+        <v>6</v>
+      </c>
+      <c r="K18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="3">
+        <v>44070</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.5625</v>
+      </c>
+      <c r="E19">
+        <v>1304556</v>
+      </c>
+      <c r="F19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" s="3">
+        <v>27474</v>
+      </c>
+      <c r="I19" t="s">
+        <v>48</v>
+      </c>
+      <c r="J19" t="s">
+        <v>6</v>
+      </c>
+      <c r="K19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="3">
+        <v>44070</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="E20">
+        <v>1304596</v>
+      </c>
+      <c r="F20" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" s="3">
+        <v>25239</v>
+      </c>
+      <c r="I20" t="s">
+        <v>51</v>
+      </c>
+      <c r="J20" t="s">
+        <v>6</v>
+      </c>
+      <c r="K20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="3">
+        <v>44070</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="E21">
+        <v>1304620</v>
+      </c>
+      <c r="F21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" s="3">
+        <v>27800</v>
+      </c>
+      <c r="I21" t="s">
+        <v>53</v>
+      </c>
+      <c r="J21" t="s">
+        <v>6</v>
+      </c>
+      <c r="K21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="3">
+        <v>44073</v>
+      </c>
+      <c r="D22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22">
+        <v>1306814</v>
+      </c>
+      <c r="F22" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" t="s">
+        <v>56</v>
+      </c>
+      <c r="H22" s="3">
+        <v>28356</v>
+      </c>
+      <c r="I22" t="s">
+        <v>57</v>
+      </c>
+      <c r="J22" t="s">
+        <v>6</v>
+      </c>
+      <c r="K22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="3">
+        <v>44073</v>
+      </c>
+      <c r="D23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23">
+        <v>1306822</v>
+      </c>
+      <c r="F23" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23" t="s">
+        <v>59</v>
+      </c>
+      <c r="H23" s="3">
+        <v>23193</v>
+      </c>
+      <c r="I23" t="s">
+        <v>60</v>
+      </c>
+      <c r="J23" t="s">
+        <v>6</v>
+      </c>
+      <c r="K23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="3">
+        <v>44073</v>
+      </c>
+      <c r="D24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24">
+        <v>1306842</v>
+      </c>
+      <c r="F24" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" t="s">
+        <v>61</v>
+      </c>
+      <c r="H24" s="3">
+        <v>29221</v>
+      </c>
+      <c r="I24" t="s">
+        <v>62</v>
+      </c>
+      <c r="J24" t="s">
+        <v>6</v>
+      </c>
+      <c r="K24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/spreadsheet.xlsx
+++ b/spreadsheet.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Documents\GitHub\promed-clicker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aseve\Documents\promed-clicker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FEA222-9442-4F93-AD96-20BDAE7F97FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7B8308-753F-401C-A6CB-53672644B841}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{6CCF5E32-90BF-4976-8CE3-9868609CAAE5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{6CCF5E32-90BF-4976-8CE3-9868609CAAE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист1 (2)" sheetId="3" r:id="rId2"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="74">
   <si>
     <t>A06.09.005</t>
   </si>
@@ -238,9 +239,6 @@
   </si>
   <si>
     <t>C44.3</t>
-  </si>
-  <si>
-    <t>Бикметова Ильмира Ринатовна</t>
   </si>
   <si>
     <t>А06.01.001</t>
@@ -284,7 +282,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -300,6 +298,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,7 +354,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -747,24 +751,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027DBE9-90F8-4510-9A2A-0DC7F76ECC31}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34.5703125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="35.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="19.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="48.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="35.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="1"/>
+    <col min="7" max="7" width="19.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="str">
         <f>[1]Лист2!G1</f>
         <v>Каргина Елена Геннадьевна</v>
@@ -780,17 +784,14 @@
       <c r="E1" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" s="8">
+      <c r="F1" s="8">
         <v>874737</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -804,17 +805,14 @@
       <c r="E2" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="8">
+        <v>874735</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="8">
-        <v>874735</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -828,169 +826,12 @@
       <c r="E3" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" s="8">
+      <c r="F3" s="8">
         <v>874733</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="str">
-        <f>[1]Лист2!G4</f>
-        <v>Докучаев Сергей Александрович</v>
-      </c>
-      <c r="B4" s="6">
-        <f>[1]Лист2!H4</f>
-        <v>22136</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="str">
-        <f>[1]Лист2!G5</f>
-        <v>Никитина Валентина Петровна</v>
-      </c>
-      <c r="B5" s="6">
-        <f>[1]Лист2!H5</f>
-        <v>19647</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="str">
-        <f>[1]Лист2!G6</f>
-        <v>Челищева Наталья Владимировна</v>
-      </c>
-      <c r="B6" s="6">
-        <f>[1]Лист2!H6</f>
-        <v>21078</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="str">
-        <f>[1]Лист2!G7</f>
-        <v>Закомлистова Раиса Федоровна</v>
-      </c>
-      <c r="B7" s="6">
-        <f>[1]Лист2!H7</f>
-        <v>17351</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="str">
-        <f>[1]Лист2!G8</f>
-        <v>Земерев Виктор Васильевич</v>
-      </c>
-      <c r="B8" s="6">
-        <f>[1]Лист2!H8</f>
-        <v>21227</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="str">
-        <f>[1]Лист2!G9</f>
-        <v>Аралкина Оксана Анатольевна</v>
-      </c>
-      <c r="B9" s="6">
-        <f>[1]Лист2!H9</f>
-        <v>28474</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="str">
-        <f>[1]Лист2!G10</f>
-        <v>Гайфуллина Лиана Римовна</v>
-      </c>
-      <c r="B10" s="6">
-        <f>[1]Лист2!H10</f>
-        <v>32372</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+      <c r="G3" s="8" t="s">
+        <v>68</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -999,6 +840,229 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7DB53C3-3DE8-452D-A061-B42C08640916}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="48.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="35.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="19.33203125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="str">
+        <f>[1]Лист2!G1</f>
+        <v>Каргина Елена Геннадьевна</v>
+      </c>
+      <c r="B1" s="6">
+        <f>[1]Лист2!H1</f>
+        <v>26862</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="8">
+        <v>874737</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>26862</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="8">
+        <v>874735</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
+        <v>26862</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="8">
+        <v>874733</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="str">
+        <f>[1]Лист2!G4</f>
+        <v>Докучаев Сергей Александрович</v>
+      </c>
+      <c r="B4" s="6">
+        <f>[1]Лист2!H4</f>
+        <v>22136</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="str">
+        <f>[1]Лист2!G5</f>
+        <v>Никитина Валентина Петровна</v>
+      </c>
+      <c r="B5" s="6">
+        <f>[1]Лист2!H5</f>
+        <v>19647</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="str">
+        <f>[1]Лист2!G6</f>
+        <v>Челищева Наталья Владимировна</v>
+      </c>
+      <c r="B6" s="6">
+        <f>[1]Лист2!H6</f>
+        <v>21078</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="str">
+        <f>[1]Лист2!G7</f>
+        <v>Закомлистова Раиса Федоровна</v>
+      </c>
+      <c r="B7" s="6">
+        <f>[1]Лист2!H7</f>
+        <v>17351</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="str">
+        <f>[1]Лист2!G8</f>
+        <v>Земерев Виктор Васильевич</v>
+      </c>
+      <c r="B8" s="6">
+        <f>[1]Лист2!H8</f>
+        <v>21227</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="str">
+        <f>[1]Лист2!G9</f>
+        <v>Аралкина Оксана Анатольевна</v>
+      </c>
+      <c r="B9" s="6">
+        <f>[1]Лист2!H9</f>
+        <v>28474</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="str">
+        <f>[1]Лист2!G10</f>
+        <v>Гайфуллина Лиана Римовна</v>
+      </c>
+      <c r="B10" s="6">
+        <f>[1]Лист2!H10</f>
+        <v>32372</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE245E9-7BBB-4B60-A4DB-BD39DD0FE660}">
   <dimension ref="A1:K24"/>
   <sheetViews>
@@ -1006,12 +1070,12 @@
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="10" max="10" width="38.42578125" customWidth="1"/>
+    <col min="10" max="10" width="38.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1046,7 +1110,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1081,7 +1145,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1116,7 +1180,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1151,7 +1215,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1186,7 +1250,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1221,7 +1285,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1256,7 +1320,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1291,7 +1355,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1326,7 +1390,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1361,7 +1425,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -1396,7 +1460,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -1428,7 +1492,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -1463,7 +1527,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -1498,7 +1562,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1530,7 +1594,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1565,7 +1629,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -1600,7 +1664,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -1635,7 +1699,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -1670,7 +1734,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -1705,7 +1769,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -1740,7 +1804,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -1775,7 +1839,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -1810,7 +1874,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>2</v>
       </c>

--- a/spreadsheet.xlsx
+++ b/spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aseve\Documents\promed-clicker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7B8308-753F-401C-A6CB-53672644B841}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D265BD6-5893-4E0A-8DF4-0346CDB5078F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{6CCF5E32-90BF-4976-8CE3-9868609CAAE5}"/>
   </bookViews>
@@ -754,7 +754,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -773,9 +773,9 @@
         <f>[1]Лист2!G1</f>
         <v>Каргина Елена Геннадьевна</v>
       </c>
-      <c r="B1" s="6">
-        <f>[1]Лист2!H1</f>
-        <v>26862</v>
+      <c r="B1" s="6" t="str">
+        <f>TEXT("17.07.1973", "ДД.ММ.ГГГГ")</f>
+        <v>17.07.1973</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7" t="s">
@@ -795,8 +795,9 @@
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
-        <v>26862</v>
+      <c r="B2" s="6" t="str">
+        <f>TEXT("17.07.1973", "ДД.ММ.ГГГГ")</f>
+        <v>17.07.1973</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7" t="s">
@@ -816,8 +817,9 @@
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6">
-        <v>26862</v>
+      <c r="B3" s="6" t="str">
+        <f>TEXT("17.07.1973", "ДД.ММ.ГГГГ")</f>
+        <v>17.07.1973</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7" t="s">

--- a/spreadsheet.xlsx
+++ b/spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aseve\Documents\promed-clicker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D265BD6-5893-4E0A-8DF4-0346CDB5078F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114B513D-5C35-479E-8928-773BEDA97B37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{6CCF5E32-90BF-4976-8CE3-9868609CAAE5}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="75">
   <si>
     <t>A06.09.005</t>
   </si>
@@ -260,6 +260,9 @@
   </si>
   <si>
     <t>C73</t>
+  </si>
+  <si>
+    <t>A06.03.062</t>
   </si>
 </sst>
 </file>
@@ -754,7 +757,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -810,7 +813,7 @@
         <v>874735</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
@@ -832,7 +835,7 @@
         <v>874733</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/spreadsheet.xlsx
+++ b/spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aseve\Documents\promed-clicker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114B513D-5C35-479E-8928-773BEDA97B37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9A7D4F-883E-47B5-8067-EEC8170F005C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{6CCF5E32-90BF-4976-8CE3-9868609CAAE5}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="78">
   <si>
     <t>A06.09.005</t>
   </si>
@@ -263,6 +263,15 @@
   </si>
   <si>
     <t>A06.03.062</t>
+  </si>
+  <si>
+    <t>пац стац?</t>
+  </si>
+  <si>
+    <t>д00 код диагноза</t>
+  </si>
+  <si>
+    <t>A06.01.001</t>
   </si>
 </sst>
 </file>
@@ -364,7 +373,18 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -754,10 +774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027DBE9-90F8-4510-9A2A-0DC7F76ECC31}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -769,9 +789,10 @@
     <col min="5" max="5" width="35.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.109375" style="1"/>
     <col min="7" max="7" width="19.33203125" style="1" customWidth="1"/>
+    <col min="8" max="9" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="str">
         <f>[1]Лист2!G1</f>
         <v>Каргина Елена Геннадьевна</v>
@@ -793,8 +814,23 @@
       <c r="G1" s="8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="H1" s="8">
+        <v>874735</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" s="8">
+        <v>874733</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -813,10 +849,13 @@
         <v>874735</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+      <c r="L2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -849,7 +888,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B4" sqref="B4:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1072,12 +1111,15 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="H2" sqref="H2:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="10" max="10" width="38.44140625" customWidth="1"/>
+    <col min="7" max="7" width="36.77734375" customWidth="1"/>
+    <col min="8" max="8" width="24.5546875" customWidth="1"/>
+    <col min="10" max="10" width="60.6640625" customWidth="1"/>
+    <col min="11" max="11" width="34.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -1915,6 +1957,9 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="G2:G24">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/spreadsheet.xlsx
+++ b/spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aseve\Documents\promed-clicker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9A7D4F-883E-47B5-8067-EEC8170F005C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F731D782-9A78-4CF9-90FB-BD036B42268C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{6CCF5E32-90BF-4976-8CE3-9868609CAAE5}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="78">
   <si>
     <t>A06.09.005</t>
   </si>
@@ -405,8 +405,8 @@
       <sheetName val="Лист2"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1">
         <row r="1">
           <cell r="G1" t="str">
             <v>Каргина Елена Геннадьевна</v>
@@ -774,10 +774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027DBE9-90F8-4510-9A2A-0DC7F76ECC31}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -790,15 +790,16 @@
     <col min="6" max="6" width="9.109375" style="1"/>
     <col min="7" max="7" width="19.33203125" style="1" customWidth="1"/>
     <col min="8" max="9" width="8.88671875" style="1"/>
+    <col min="14" max="14" width="19.21875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="str">
         <f>[1]Лист2!G1</f>
         <v>Каргина Елена Геннадьевна</v>
       </c>
       <c r="B1" s="6" t="str">
-        <f>TEXT("17.07.1973", "ДД.ММ.ГГГГ")</f>
+        <f>TEXT(N1, "ДД.ММ.ГГГГ")</f>
         <v>17.07.1973</v>
       </c>
       <c r="C1" s="7"/>
@@ -829,13 +830,16 @@
       <c r="L1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="N1" s="3">
+        <v>26862</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="str">
-        <f>TEXT("17.07.1973", "ДД.ММ.ГГГГ")</f>
+        <f t="shared" ref="B2:B24" si="0">TEXT(N2, "ДД.ММ.ГГГГ")</f>
         <v>17.07.1973</v>
       </c>
       <c r="C2" s="7"/>
@@ -854,13 +858,16 @@
       <c r="L2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="N2" s="3">
+        <v>26862</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="str">
-        <f>TEXT("17.07.1973", "ДД.ММ.ГГГГ")</f>
+        <f t="shared" si="0"/>
         <v>17.07.1973</v>
       </c>
       <c r="C3" s="7"/>
@@ -875,6 +882,516 @@
       </c>
       <c r="G3" s="8" t="s">
         <v>74</v>
+      </c>
+      <c r="N3" s="3">
+        <v>26862</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>08.08.1960</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="8">
+        <v>874737</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3">
+        <v>22136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>08.08.1960</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="8">
+        <v>874735</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="N5" s="3">
+        <v>22136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>08.08.1960</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="8">
+        <v>874733</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="N6" s="3">
+        <v>22136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>15.10.1953</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="8">
+        <v>874737</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>19647</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>15.10.1953</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="8">
+        <v>874735</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="N8" s="1">
+        <v>19647</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>15.10.1953</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="8">
+        <v>874733</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="N9" s="1">
+        <v>19647</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>15.09.1957</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="8">
+        <v>874737</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <v>21078</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>15.09.1957</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="8">
+        <v>874735</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="N11" s="1">
+        <v>21078</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>15.09.1957</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="8">
+        <v>874733</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="N12" s="1">
+        <v>21078</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>03.07.1947</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="8">
+        <v>874737</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>17351</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>03.07.1947</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="8">
+        <v>874735</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="N14" s="1">
+        <v>17351</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>03.07.1947</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="8">
+        <v>874733</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="N15" s="1">
+        <v>17351</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>11.02.1958</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="8">
+        <v>874737</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <v>21227</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>11.02.1958</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="8">
+        <v>874735</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="N17" s="1">
+        <v>21227</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>11.02.1958</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="8">
+        <v>874733</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="N18" s="1">
+        <v>21227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>15.12.1977</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="8">
+        <v>874737</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
+        <v>28474</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>15.12.1977</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="8">
+        <v>874735</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="N20" s="1">
+        <v>28474</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>15.12.1977</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="8">
+        <v>874733</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="N21" s="1">
+        <v>28474</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>17.08.1988</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="8">
+        <v>874737</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1">
+        <v>32372</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>17.08.1988</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" s="8">
+        <v>874735</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="N23" s="1">
+        <v>32372</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>17.08.1988</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="8">
+        <v>874733</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="N24" s="1">
+        <v>32372</v>
       </c>
     </row>
   </sheetData>
@@ -888,7 +1405,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B23"/>
+      <selection activeCell="B10" sqref="B1:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/spreadsheet.xlsx
+++ b/spreadsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aseve\Documents\promed-clicker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Documents\GitHub\promed-clicker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F731D782-9A78-4CF9-90FB-BD036B42268C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F44ABA4-012B-4BD5-81A4-C433DA95C166}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{6CCF5E32-90BF-4976-8CE3-9868609CAAE5}"/>
+    <workbookView xWindow="840" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{6CCF5E32-90BF-4976-8CE3-9868609CAAE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -777,23 +777,23 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="35.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="1"/>
-    <col min="7" max="7" width="19.33203125" style="1" customWidth="1"/>
-    <col min="8" max="9" width="8.88671875" style="1"/>
-    <col min="14" max="14" width="19.21875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="48.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="19.28515625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="8.85546875" style="1"/>
+    <col min="14" max="14" width="19.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="str">
         <f>[1]Лист2!G1</f>
         <v>Каргина Елена Геннадьевна</v>
@@ -834,7 +834,7 @@
         <v>26862</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -862,7 +862,7 @@
         <v>26862</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -887,7 +887,7 @@
         <v>26862</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
@@ -912,7 +912,7 @@
         <v>22136</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
@@ -937,7 +937,7 @@
         <v>22136</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
@@ -962,7 +962,7 @@
         <v>22136</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -986,7 +986,7 @@
         <v>19647</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>19647</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>19647</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>21078</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>21078</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>21078</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>17351</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>17351</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>17351</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>24</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>21227</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>21227</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>24</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>21227</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>28474</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>28474</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>28474</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>28</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>32372</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>32372</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
@@ -1408,18 +1408,18 @@
       <selection activeCell="B10" sqref="B1:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="35.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="1"/>
-    <col min="7" max="7" width="19.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="48.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="1"/>
+    <col min="7" max="7" width="19.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="str">
         <f>[1]Лист2!G1</f>
         <v>Каргина Елена Геннадьевна</v>
@@ -1442,7 +1442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="str">
         <f>[1]Лист2!G4</f>
         <v>Докучаев Сергей Александрович</v>
@@ -1503,7 +1503,7 @@
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="str">
         <f>[1]Лист2!G5</f>
         <v>Никитина Валентина Петровна</v>
@@ -1522,7 +1522,7 @@
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="str">
         <f>[1]Лист2!G6</f>
         <v>Челищева Наталья Владимировна</v>
@@ -1541,7 +1541,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="str">
         <f>[1]Лист2!G7</f>
         <v>Закомлистова Раиса Федоровна</v>
@@ -1560,7 +1560,7 @@
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="str">
         <f>[1]Лист2!G8</f>
         <v>Земерев Виктор Васильевич</v>
@@ -1579,7 +1579,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="str">
         <f>[1]Лист2!G9</f>
         <v>Аралкина Оксана Анатольевна</v>
@@ -1598,7 +1598,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="str">
         <f>[1]Лист2!G10</f>
         <v>Гайфуллина Лиана Римовна</v>
@@ -1631,15 +1631,15 @@
       <selection activeCell="H2" sqref="H2:H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="36.77734375" customWidth="1"/>
-    <col min="8" max="8" width="24.5546875" customWidth="1"/>
-    <col min="10" max="10" width="60.6640625" customWidth="1"/>
-    <col min="11" max="11" width="34.109375" customWidth="1"/>
+    <col min="7" max="7" width="36.7109375" customWidth="1"/>
+    <col min="8" max="8" width="24.5703125" customWidth="1"/>
+    <col min="10" max="10" width="60.7109375" customWidth="1"/>
+    <col min="11" max="11" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -2024,7 +2024,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -2091,7 +2091,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -2263,7 +2263,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -2333,7 +2333,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -2403,7 +2403,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -2438,7 +2438,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>2</v>
       </c>

--- a/spreadsheet.xlsx
+++ b/spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Documents\GitHub\promed-clicker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F44ABA4-012B-4BD5-81A4-C433DA95C166}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66D4C6F-771B-4DEE-907F-C7995FF3028F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{6CCF5E32-90BF-4976-8CE3-9868609CAAE5}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="76">
   <si>
     <t>A06.09.005</t>
   </si>
@@ -263,12 +263,6 @@
   </si>
   <si>
     <t>A06.03.062</t>
-  </si>
-  <si>
-    <t>пац стац?</t>
-  </si>
-  <si>
-    <t>д00 код диагноза</t>
   </si>
   <si>
     <t>A06.01.001</t>
@@ -774,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027DBE9-90F8-4510-9A2A-0DC7F76ECC31}">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,13 +788,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="str">
-        <f>[1]Лист2!G1</f>
-        <v>Каргина Елена Геннадьевна</v>
+      <c r="A1" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="B1" s="6" t="str">
-        <f>TEXT(N1, "ДД.ММ.ГГГГ")</f>
-        <v>17.07.1973</v>
+        <f t="shared" ref="B1:B21" si="0">TEXT(N1, "ДД.ММ.ГГГГ")</f>
+        <v>08.08.1960</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7" t="s">
@@ -815,32 +808,17 @@
       <c r="G1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="8">
-        <v>874735</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="J1" s="8">
-        <v>874733</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="L1" t="s">
-        <v>75</v>
-      </c>
       <c r="N1" s="3">
-        <v>26862</v>
+        <v>22136</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B2" s="6" t="str">
-        <f t="shared" ref="B2:B24" si="0">TEXT(N2, "ДД.ММ.ГГГГ")</f>
-        <v>17.07.1973</v>
+        <f t="shared" si="0"/>
+        <v>08.08.1960</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7" t="s">
@@ -853,22 +831,19 @@
         <v>874735</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="L2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N2" s="3">
-        <v>26862</v>
+        <v>22136</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B3" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>17.07.1973</v>
+        <v>08.08.1960</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7" t="s">
@@ -884,23 +859,22 @@
         <v>74</v>
       </c>
       <c r="N3" s="3">
-        <v>26862</v>
+        <v>22136</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>14</v>
+      <c r="A4" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="B4" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>08.08.1960</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>66</v>
+        <v>15.10.1953</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="F4" s="8">
         <v>874737</v>
@@ -908,49 +882,47 @@
       <c r="G4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="N4" s="3">
-        <v>22136</v>
+      <c r="N4" s="1">
+        <v>19647</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>14</v>
+      <c r="A5" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="B5" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>08.08.1960</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>66</v>
+        <v>15.10.1953</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="F5" s="8">
         <v>874735</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="N5" s="3">
-        <v>22136</v>
+        <v>75</v>
+      </c>
+      <c r="N5" s="1">
+        <v>19647</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>14</v>
+      <c r="A6" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="B6" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>08.08.1960</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>66</v>
+        <v>15.10.1953</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="F6" s="8">
         <v>874733</v>
@@ -958,23 +930,23 @@
       <c r="G6" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="N6" s="3">
-        <v>22136</v>
+      <c r="N6" s="1">
+        <v>19647</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B7" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>15.10.1953</v>
+        <v>15.09.1957</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F7" s="8">
         <v>874737</v>
@@ -983,46 +955,46 @@
         <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>19647</v>
+        <v>21078</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B8" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>15.10.1953</v>
+        <v>15.09.1957</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F8" s="8">
         <v>874735</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N8" s="1">
-        <v>19647</v>
+        <v>21078</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B9" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>15.10.1953</v>
+        <v>15.09.1957</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F9" s="8">
         <v>874733</v>
@@ -1031,22 +1003,22 @@
         <v>74</v>
       </c>
       <c r="N9" s="1">
-        <v>19647</v>
+        <v>21078</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B10" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>15.09.1957</v>
+        <v>03.07.1947</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F10" s="8">
         <v>874737</v>
@@ -1055,46 +1027,46 @@
         <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>21078</v>
+        <v>17351</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B11" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>15.09.1957</v>
+        <v>03.07.1947</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F11" s="8">
         <v>874735</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N11" s="1">
-        <v>21078</v>
+        <v>17351</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B12" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>15.09.1957</v>
+        <v>03.07.1947</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F12" s="8">
         <v>874733</v>
@@ -1103,22 +1075,22 @@
         <v>74</v>
       </c>
       <c r="N12" s="1">
-        <v>21078</v>
+        <v>17351</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B13" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>03.07.1947</v>
+        <v>11.02.1958</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F13" s="8">
         <v>874737</v>
@@ -1127,46 +1099,46 @@
         <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>17351</v>
+        <v>21227</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>03.07.1947</v>
+        <v>11.02.1958</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F14" s="8">
         <v>874735</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N14" s="1">
-        <v>17351</v>
+        <v>21227</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B15" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>03.07.1947</v>
+        <v>11.02.1958</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F15" s="8">
         <v>874733</v>
@@ -1175,22 +1147,22 @@
         <v>74</v>
       </c>
       <c r="N15" s="1">
-        <v>17351</v>
+        <v>21227</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B16" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>11.02.1958</v>
+        <v>15.12.1977</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F16" s="8">
         <v>874737</v>
@@ -1199,46 +1171,46 @@
         <v>0</v>
       </c>
       <c r="N16" s="1">
-        <v>21227</v>
+        <v>28474</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B17" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>11.02.1958</v>
+        <v>15.12.1977</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F17" s="8">
         <v>874735</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N17" s="1">
-        <v>21227</v>
+        <v>28474</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B18" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>11.02.1958</v>
+        <v>15.12.1977</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F18" s="8">
         <v>874733</v>
@@ -1247,22 +1219,22 @@
         <v>74</v>
       </c>
       <c r="N18" s="1">
-        <v>21227</v>
+        <v>28474</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B19" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>15.12.1977</v>
+        <v>17.08.1988</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F19" s="8">
         <v>874737</v>
@@ -1271,46 +1243,46 @@
         <v>0</v>
       </c>
       <c r="N19" s="1">
-        <v>28474</v>
+        <v>32372</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B20" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>15.12.1977</v>
+        <v>17.08.1988</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F20" s="8">
         <v>874735</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N20" s="1">
-        <v>28474</v>
+        <v>32372</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B21" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>15.12.1977</v>
+        <v>17.08.1988</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F21" s="8">
         <v>874733</v>
@@ -1319,78 +1291,6 @@
         <v>74</v>
       </c>
       <c r="N21" s="1">
-        <v>28474</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>17.08.1988</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F22" s="8">
-        <v>874737</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="N22" s="1">
-        <v>32372</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>17.08.1988</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F23" s="8">
-        <v>874735</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="N23" s="1">
-        <v>32372</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>17.08.1988</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F24" s="8">
-        <v>874733</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="N24" s="1">
         <v>32372</v>
       </c>
     </row>

--- a/spreadsheet.xlsx
+++ b/spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Documents\GitHub\promed-clicker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66D4C6F-771B-4DEE-907F-C7995FF3028F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E468FB92-2B16-456A-A50C-5D539C9DCDFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{6CCF5E32-90BF-4976-8CE3-9868609CAAE5}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="76">
   <si>
     <t>A06.09.005</t>
   </si>
@@ -768,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027DBE9-90F8-4510-9A2A-0DC7F76ECC31}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,19 +788,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>14</v>
+      <c r="A1" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="B1" s="6" t="str">
-        <f t="shared" ref="B1:B21" si="0">TEXT(N1, "ДД.ММ.ГГГГ")</f>
-        <v>08.08.1960</v>
-      </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>66</v>
+        <f t="shared" ref="B1:B18" si="0">TEXT(N1, "ДД.ММ.ГГГГ")</f>
+        <v>15.10.1953</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="F1" s="8">
         <v>874737</v>
@@ -808,24 +807,23 @@
       <c r="G1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="3">
-        <v>22136</v>
+      <c r="N1" s="1">
+        <v>19647</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>14</v>
+      <c r="A2" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="B2" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>08.08.1960</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>66</v>
+        <v>15.10.1953</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="F2" s="8">
         <v>874735</v>
@@ -833,24 +831,23 @@
       <c r="G2" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="N2" s="3">
-        <v>22136</v>
+      <c r="N2" s="1">
+        <v>19647</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>14</v>
+      <c r="A3" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="B3" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>08.08.1960</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>66</v>
+        <v>15.10.1953</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="F3" s="8">
         <v>874733</v>
@@ -858,23 +855,23 @@
       <c r="G3" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="N3" s="3">
-        <v>22136</v>
+      <c r="N3" s="1">
+        <v>19647</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B4" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>15.10.1953</v>
+        <v>15.09.1957</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F4" s="8">
         <v>874737</v>
@@ -883,22 +880,22 @@
         <v>0</v>
       </c>
       <c r="N4" s="1">
-        <v>19647</v>
+        <v>21078</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B5" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>15.10.1953</v>
+        <v>15.09.1957</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F5" s="8">
         <v>874735</v>
@@ -907,22 +904,22 @@
         <v>75</v>
       </c>
       <c r="N5" s="1">
-        <v>19647</v>
+        <v>21078</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B6" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>15.10.1953</v>
+        <v>15.09.1957</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F6" s="8">
         <v>874733</v>
@@ -931,22 +928,22 @@
         <v>74</v>
       </c>
       <c r="N6" s="1">
-        <v>19647</v>
+        <v>21078</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B7" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>15.09.1957</v>
+        <v>03.07.1947</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F7" s="8">
         <v>874737</v>
@@ -955,22 +952,22 @@
         <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>21078</v>
+        <v>17351</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B8" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>15.09.1957</v>
+        <v>03.07.1947</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F8" s="8">
         <v>874735</v>
@@ -979,22 +976,22 @@
         <v>75</v>
       </c>
       <c r="N8" s="1">
-        <v>21078</v>
+        <v>17351</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B9" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>15.09.1957</v>
+        <v>03.07.1947</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F9" s="8">
         <v>874733</v>
@@ -1003,22 +1000,22 @@
         <v>74</v>
       </c>
       <c r="N9" s="1">
-        <v>21078</v>
+        <v>17351</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>03.07.1947</v>
+        <v>11.02.1958</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F10" s="8">
         <v>874737</v>
@@ -1027,22 +1024,22 @@
         <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>17351</v>
+        <v>21227</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>03.07.1947</v>
+        <v>11.02.1958</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F11" s="8">
         <v>874735</v>
@@ -1051,22 +1048,22 @@
         <v>75</v>
       </c>
       <c r="N11" s="1">
-        <v>17351</v>
+        <v>21227</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B12" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>03.07.1947</v>
+        <v>11.02.1958</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F12" s="8">
         <v>874733</v>
@@ -1075,22 +1072,22 @@
         <v>74</v>
       </c>
       <c r="N12" s="1">
-        <v>17351</v>
+        <v>21227</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B13" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>11.02.1958</v>
+        <v>15.12.1977</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F13" s="8">
         <v>874737</v>
@@ -1099,22 +1096,22 @@
         <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>21227</v>
+        <v>28474</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B14" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>11.02.1958</v>
+        <v>15.12.1977</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F14" s="8">
         <v>874735</v>
@@ -1123,22 +1120,22 @@
         <v>75</v>
       </c>
       <c r="N14" s="1">
-        <v>21227</v>
+        <v>28474</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B15" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>11.02.1958</v>
+        <v>15.12.1977</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F15" s="8">
         <v>874733</v>
@@ -1147,22 +1144,22 @@
         <v>74</v>
       </c>
       <c r="N15" s="1">
-        <v>21227</v>
+        <v>28474</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B16" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>15.12.1977</v>
+        <v>17.08.1988</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F16" s="8">
         <v>874737</v>
@@ -1171,22 +1168,22 @@
         <v>0</v>
       </c>
       <c r="N16" s="1">
-        <v>28474</v>
+        <v>32372</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B17" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>15.12.1977</v>
+        <v>17.08.1988</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F17" s="8">
         <v>874735</v>
@@ -1195,22 +1192,22 @@
         <v>75</v>
       </c>
       <c r="N17" s="1">
-        <v>28474</v>
+        <v>32372</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B18" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>15.12.1977</v>
+        <v>17.08.1988</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F18" s="8">
         <v>874733</v>
@@ -1219,78 +1216,6 @@
         <v>74</v>
       </c>
       <c r="N18" s="1">
-        <v>28474</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>17.08.1988</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" s="8">
-        <v>874737</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="N19" s="1">
-        <v>32372</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>17.08.1988</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F20" s="8">
-        <v>874735</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="N20" s="1">
-        <v>32372</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>17.08.1988</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F21" s="8">
-        <v>874733</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="N21" s="1">
         <v>32372</v>
       </c>
     </row>

--- a/spreadsheet.xlsx
+++ b/spreadsheet.xlsx
@@ -1,25 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Documents\GitHub\promed-clicker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aseve\Documents\promed-clicker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E468FB92-2B16-456A-A50C-5D539C9DCDFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1702F8B5-3FB3-4039-96AE-36F4F680AF42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{6CCF5E32-90BF-4976-8CE3-9868609CAAE5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{6CCF5E32-90BF-4976-8CE3-9868609CAAE5}" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист1 (2)" sheetId="3" r:id="rId2"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId3"/>
+    <sheet name="My Sheet" sheetId="4" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId2"/>
+    <sheet name="Лист1 (2)" sheetId="3" r:id="rId3"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'My Sheet'!$A$1:$H$19</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
     <t>A06.09.005</t>
   </si>
@@ -266,13 +270,44 @@
   </si>
   <si>
     <t>A06.01.001</t>
+  </si>
+  <si>
+    <t>КАБИНЕТ ВРАЧА-КЛИНИЦИСТА</t>
+  </si>
+  <si>
+    <t>ФАМИЛИЯ И.О ВРАЧА КЛИНИЦИСТА</t>
+  </si>
+  <si>
+    <t>КОД ДИАГНОЗА</t>
+  </si>
+  <si>
+    <t>КОД ПОСЕЩЕНИЯ</t>
+  </si>
+  <si>
+    <t>КОД УСЛУГИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДАТА РОЖДЕНИЯ </t>
+  </si>
+  <si>
+    <t>ВВОД</t>
+  </si>
+  <si>
+    <t>ПАЦИЕНТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">пидор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts/>
+  <fonts x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,8 +322,32 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="PT Sans Narrow"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="PT Sans Narrow"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills>
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -313,8 +372,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders>
     <border>
       <left/>
       <right/>
@@ -337,11 +408,106 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -361,6 +527,93 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -767,680 +1020,931 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027DBE9-90F8-4510-9A2A-0DC7F76ECC31}">
-  <dimension ref="A1:N18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95C91358-37E6-4149-BBCE-8F9D3F17590A}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="35.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="19.28515625" style="1" customWidth="1"/>
-    <col min="8" max="9" width="8.85546875" style="1"/>
-    <col min="14" max="14" width="19.28515625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="40.77734375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" style="14" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="40.77734375" style="15" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" style="12" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" style="12" customWidth="1"/>
+    <col min="7" max="7" width="20.77734375" style="12" customWidth="1"/>
+    <col min="8" max="13" width="8.88671875" style="12"/>
+    <col min="14" max="14" width="19.33203125" style="13" customWidth="1"/>
+    <col min="15" max="30" width="8.88671875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:30" s="18" customFormat="1" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s" s="20">
+        <v>83</v>
+      </c>
+      <c r="B1" t="s" s="21">
+        <v>81</v>
+      </c>
+      <c r="C1" t="s" s="22">
+        <v>76</v>
+      </c>
+      <c r="D1" t="s" s="23">
+        <v>77</v>
+      </c>
+      <c r="E1" t="s" s="21">
+        <v>78</v>
+      </c>
+      <c r="F1" t="s" s="21">
+        <v>79</v>
+      </c>
+      <c r="G1" t="s" s="35">
+        <v>80</v>
+      </c>
+      <c r="H1" t="s" s="24">
+        <v>82</v>
+      </c>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+    </row>
+    <row r="2" spans="1:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s" s="25">
         <v>17</v>
       </c>
-      <c r="B1" s="6" t="str">
-        <f t="shared" ref="B1:B18" si="0">TEXT(N1, "ДД.ММ.ГГГГ")</f>
-        <v>15.10.1953</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="B2" s="9">
+        <f t="shared" ref="B2:B19" si="0">TEXT(N2, "ДД.ММ.ГГГГ")</f>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="28"/>
+      <c r="E2" t="s" s="31">
         <v>69</v>
       </c>
-      <c r="F1" s="8">
+      <c r="F2" s="32">
         <v>874737</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G2" t="s" s="36">
         <v>0</v>
       </c>
-      <c r="N1" s="1">
+      <c r="H2" s="19"/>
+      <c r="N2" s="12">
         <v>19647</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s" s="26">
         <v>17</v>
       </c>
-      <c r="B2" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>15.10.1953</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="B3" s="10">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="30"/>
+      <c r="E3" t="s" s="33">
         <v>69</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F3" s="34">
         <v>874735</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G3" t="s" s="37">
         <v>75</v>
       </c>
-      <c r="N2" s="1">
+      <c r="H3" s="11"/>
+      <c r="N3" s="12">
         <v>19647</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s" s="26">
         <v>17</v>
       </c>
-      <c r="B3" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>15.10.1953</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="B4" s="10">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="30"/>
+      <c r="E4" t="s" s="33">
         <v>69</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F4" s="34">
         <v>874733</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G4" t="s" s="37">
         <v>74</v>
       </c>
-      <c r="N3" s="1">
+      <c r="H4" s="11"/>
+      <c r="N4" s="12">
         <v>19647</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s" s="26">
         <v>20</v>
       </c>
-      <c r="B4" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>15.09.1957</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="B5" s="10">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="30"/>
+      <c r="E5" t="s" s="33">
         <v>70</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F5" s="34">
         <v>874737</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G5" t="s" s="37">
         <v>0</v>
       </c>
-      <c r="N4" s="1">
+      <c r="H5" s="11"/>
+      <c r="N5" s="12">
         <v>21078</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s" s="26">
         <v>20</v>
       </c>
-      <c r="B5" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>15.09.1957</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="B6" s="10">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="30"/>
+      <c r="E6" t="s" s="33">
         <v>70</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F6" s="34">
         <v>874735</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G6" t="s" s="37">
         <v>75</v>
       </c>
-      <c r="N5" s="1">
+      <c r="H6" s="11"/>
+      <c r="N6" s="12">
         <v>21078</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s" s="26">
         <v>20</v>
       </c>
-      <c r="B6" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>15.09.1957</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="B7" s="10">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="30"/>
+      <c r="E7" t="s" s="33">
         <v>70</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F7" s="34">
         <v>874733</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G7" t="s" s="37">
         <v>74</v>
       </c>
-      <c r="N6" s="1">
+      <c r="H7" s="11"/>
+      <c r="N7" s="12">
         <v>21078</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="1:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s" s="26">
         <v>22</v>
       </c>
-      <c r="B7" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>03.07.1947</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="B8" s="10">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="30"/>
+      <c r="E8" t="s" s="33">
         <v>71</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F8" s="34">
         <v>874737</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G8" t="s" s="37">
         <v>0</v>
       </c>
-      <c r="N7" s="1">
+      <c r="H8" s="11"/>
+      <c r="N8" s="12">
         <v>17351</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s" s="26">
         <v>22</v>
       </c>
-      <c r="B8" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>03.07.1947</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="B9" s="10">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="C9" s="29"/>
+      <c r="D9" s="30"/>
+      <c r="E9" t="s" s="33">
         <v>71</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F9" s="34">
         <v>874735</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G9" t="s" s="37">
         <v>75</v>
       </c>
-      <c r="N8" s="1">
+      <c r="H9" s="11"/>
+      <c r="N9" s="12">
         <v>17351</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s" s="26">
         <v>22</v>
       </c>
-      <c r="B9" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>03.07.1947</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="B10" s="10">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="C10" s="29"/>
+      <c r="D10" s="30"/>
+      <c r="E10" t="s" s="33">
         <v>71</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F10" s="34">
         <v>874733</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G10" t="s" s="37">
         <v>74</v>
       </c>
-      <c r="N9" s="1">
+      <c r="H10" s="11"/>
+      <c r="N10" s="12">
         <v>17351</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s" s="26">
         <v>24</v>
       </c>
-      <c r="B10" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>11.02.1958</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="B11" s="10">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="C11" s="29"/>
+      <c r="D11" s="30"/>
+      <c r="E11" t="s" s="33">
         <v>72</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F11" s="34">
         <v>874737</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G11" t="s" s="37">
         <v>0</v>
       </c>
-      <c r="N10" s="1">
+      <c r="H11" s="11"/>
+      <c r="N11" s="12">
         <v>21227</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="1:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s" s="26">
         <v>24</v>
       </c>
-      <c r="B11" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>11.02.1958</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="B12" s="10">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="30"/>
+      <c r="E12" t="s" s="33">
         <v>72</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F12" s="34">
         <v>874735</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G12" t="s" s="37">
         <v>75</v>
       </c>
-      <c r="N11" s="1">
+      <c r="H12" s="11"/>
+      <c r="N12" s="12">
         <v>21227</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="13" spans="1:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s" s="26">
         <v>24</v>
       </c>
-      <c r="B12" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>11.02.1958</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="B13" s="10">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="30"/>
+      <c r="E13" t="s" s="33">
         <v>72</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F13" s="34">
         <v>874733</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G13" t="s" s="37">
         <v>74</v>
       </c>
-      <c r="N12" s="1">
+      <c r="H13" s="11"/>
+      <c r="N13" s="12">
         <v>21227</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="14" spans="1:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s" s="26">
         <v>26</v>
       </c>
-      <c r="B13" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>15.12.1977</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="B14" s="10">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="30"/>
+      <c r="E14" t="s" s="33">
         <v>70</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F14" s="34">
         <v>874737</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G14" t="s" s="37">
         <v>0</v>
       </c>
-      <c r="N13" s="1">
+      <c r="H14" s="11"/>
+      <c r="N14" s="12">
         <v>28474</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="15" spans="1:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s" s="26">
         <v>26</v>
       </c>
-      <c r="B14" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>15.12.1977</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="B15" s="10">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="C15" s="29"/>
+      <c r="D15" s="30"/>
+      <c r="E15" t="s" s="33">
         <v>70</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F15" s="34">
         <v>874735</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G15" t="s" s="37">
         <v>75</v>
       </c>
-      <c r="N14" s="1">
+      <c r="H15" s="11"/>
+      <c r="N15" s="12">
         <v>28474</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="16" spans="1:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s" s="26">
         <v>26</v>
       </c>
-      <c r="B15" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>15.12.1977</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="B16" s="10">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="D16" s="30"/>
+      <c r="E16" t="s" s="33">
         <v>70</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F16" s="34">
         <v>874733</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G16" t="s" s="37">
         <v>74</v>
       </c>
-      <c r="N15" s="1">
+      <c r="H16" s="11"/>
+      <c r="N16" s="12">
         <v>28474</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="17" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s" s="26">
         <v>28</v>
       </c>
-      <c r="B16" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>17.08.1988</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="B17" s="10">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="C17" s="29"/>
+      <c r="D17" s="30"/>
+      <c r="E17" t="s" s="33">
         <v>73</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F17" s="34">
         <v>874737</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G17" t="s" s="37">
         <v>0</v>
       </c>
-      <c r="N16" s="1">
+      <c r="H17" s="11"/>
+      <c r="N17" s="12">
         <v>32372</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="18" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s" s="26">
         <v>28</v>
       </c>
-      <c r="B17" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>17.08.1988</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="B18" s="10">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="C18" s="29"/>
+      <c r="D18" s="30"/>
+      <c r="E18" t="s" s="33">
         <v>73</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F18" s="34">
         <v>874735</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G18" t="s" s="37">
         <v>75</v>
       </c>
-      <c r="N17" s="1">
+      <c r="H18" s="11"/>
+      <c r="N18" s="12">
         <v>32372</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="19" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s" s="26">
         <v>28</v>
       </c>
-      <c r="B18" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>17.08.1988</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="B19" s="10">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="C19" s="29"/>
+      <c r="D19" s="30"/>
+      <c r="E19" t="s" s="33">
         <v>73</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F19" s="34">
         <v>874733</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G19" t="s" s="37">
         <v>74</v>
       </c>
-      <c r="N18" s="1">
+      <c r="H19" s="11"/>
+      <c r="N19" s="12">
         <v>32372</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="81" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7DB53C3-3DE8-452D-A061-B42C08640916}">
-  <dimension ref="A1:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027DBE9-90F8-4510-9A2A-0DC7F76ECC31}">
+  <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B10" sqref="B1:B10"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="35.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="1"/>
-    <col min="7" max="7" width="19.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="48.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="35.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="1"/>
+    <col min="7" max="7" width="19.33203125" style="1" customWidth="1"/>
+    <col min="8" max="9" width="8.88671875" style="1"/>
+    <col min="14" max="14" width="19.33203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="str">
-        <f>[1]Лист2!G1</f>
-        <v>Каргина Елена Геннадьевна</v>
+    <row r="1" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s" s="2">
+        <v>17</v>
       </c>
       <c r="B1" s="6">
-        <f>[1]Лист2!H1</f>
-        <v>26862</v>
-      </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>66</v>
+        <f t="shared" ref="B1:B18" si="0">TEXT(N1, "ДД.ММ.ГГГГ")</f>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>69</v>
       </c>
       <c r="F1" s="8">
         <v>874737</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" t="s" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
+      <c r="N1" s="1">
+        <v>19647</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s" s="2">
+        <v>17</v>
       </c>
       <c r="B2" s="6">
-        <v>26862</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>66</v>
+        <f t="shared" si="0"/>
+      </c>
+      <c r="D2" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="E2" t="s" s="1">
+        <v>69</v>
       </c>
       <c r="F2" s="8">
         <v>874735</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>1</v>
+      <c r="G2" t="s" s="8">
+        <v>75</v>
+      </c>
+      <c r="N2" s="1">
+        <v>19647</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s" s="2">
+        <v>17</v>
       </c>
       <c r="B3" s="6">
-        <v>26862</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>66</v>
+        <f t="shared" si="0"/>
+      </c>
+      <c r="D3" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="E3" t="s" s="1">
+        <v>69</v>
       </c>
       <c r="F3" s="8">
         <v>874733</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="str">
-        <f>[1]Лист2!G4</f>
-        <v>Докучаев Сергей Александрович</v>
+      <c r="G3" t="s" s="8">
+        <v>74</v>
+      </c>
+      <c r="N3" s="1">
+        <v>19647</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s" s="2">
+        <v>20</v>
       </c>
       <c r="B4" s="6">
-        <f>[1]Лист2!H4</f>
-        <v>22136</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7" t="s">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="D4" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="E4" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="F4" s="8">
+        <v>874737</v>
+      </c>
+      <c r="G4" t="s" s="8">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>21078</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B5" s="6">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="D5" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="E5" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="F5" s="8">
+        <v>874735</v>
+      </c>
+      <c r="G5" t="s" s="8">
+        <v>75</v>
+      </c>
+      <c r="N5" s="1">
+        <v>21078</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B6" s="6">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="D6" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="E6" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="F6" s="8">
+        <v>874733</v>
+      </c>
+      <c r="G6" t="s" s="8">
+        <v>74</v>
+      </c>
+      <c r="N6" s="1">
+        <v>21078</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B7" s="6">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="D7" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="E7" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="F7" s="8">
+        <v>874737</v>
+      </c>
+      <c r="G7" t="s" s="8">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>17351</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B8" s="6">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="D8" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="E8" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="F8" s="8">
+        <v>874735</v>
+      </c>
+      <c r="G8" t="s" s="8">
+        <v>75</v>
+      </c>
+      <c r="N8" s="1">
+        <v>17351</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B9" s="6">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="D9" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="E9" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="F9" s="8">
+        <v>874733</v>
+      </c>
+      <c r="G9" t="s" s="8">
+        <v>74</v>
+      </c>
+      <c r="N9" s="1">
+        <v>17351</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B10" s="6">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="D10" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="E10" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="F10" s="8">
+        <v>874737</v>
+      </c>
+      <c r="G10" t="s" s="8">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <v>21227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B11" s="6">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="D11" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="E11" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="F11" s="8">
+        <v>874735</v>
+      </c>
+      <c r="G11" t="s" s="8">
+        <v>75</v>
+      </c>
+      <c r="N11" s="1">
+        <v>21227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B12" s="6">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="D12" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="E12" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="F12" s="8">
+        <v>874733</v>
+      </c>
+      <c r="G12" t="s" s="8">
+        <v>74</v>
+      </c>
+      <c r="N12" s="1">
+        <v>21227</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B13" s="6">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="D13" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="E13" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="F13" s="8">
+        <v>874737</v>
+      </c>
+      <c r="G13" t="s" s="8">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>28474</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B14" s="6">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="D14" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="E14" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="F14" s="8">
+        <v>874735</v>
+      </c>
+      <c r="G14" t="s" s="8">
+        <v>75</v>
+      </c>
+      <c r="N14" s="1">
+        <v>28474</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B15" s="6">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="D15" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="E15" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="F15" s="8">
+        <v>874733</v>
+      </c>
+      <c r="G15" t="s" s="8">
+        <v>74</v>
+      </c>
+      <c r="N15" s="1">
+        <v>28474</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B16" s="6">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="D16" t="s" s="1">
         <v>63</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="str">
-        <f>[1]Лист2!G5</f>
-        <v>Никитина Валентина Петровна</v>
-      </c>
-      <c r="B5" s="6">
-        <f>[1]Лист2!H5</f>
-        <v>19647</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="str">
-        <f>[1]Лист2!G6</f>
-        <v>Челищева Наталья Владимировна</v>
-      </c>
-      <c r="B6" s="6">
-        <f>[1]Лист2!H6</f>
-        <v>21078</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="str">
-        <f>[1]Лист2!G7</f>
-        <v>Закомлистова Раиса Федоровна</v>
-      </c>
-      <c r="B7" s="6">
-        <f>[1]Лист2!H7</f>
-        <v>17351</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="str">
-        <f>[1]Лист2!G8</f>
-        <v>Земерев Виктор Васильевич</v>
-      </c>
-      <c r="B8" s="6">
-        <f>[1]Лист2!H8</f>
-        <v>21227</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="str">
-        <f>[1]Лист2!G9</f>
-        <v>Аралкина Оксана Анатольевна</v>
-      </c>
-      <c r="B9" s="6">
-        <f>[1]Лист2!H9</f>
-        <v>28474</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="str">
-        <f>[1]Лист2!G10</f>
-        <v>Гайфуллина Лиана Римовна</v>
-      </c>
-      <c r="B10" s="6">
-        <f>[1]Лист2!H10</f>
+      <c r="E16" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="F16" s="8">
+        <v>874737</v>
+      </c>
+      <c r="G16" t="s" s="8">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
         <v>32372</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7" t="s">
+    </row>
+    <row r="17" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B17" s="6">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="D17" t="s" s="1">
         <v>63</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E17" t="s" s="1">
         <v>73</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
+      <c r="F17" s="8">
+        <v>874735</v>
+      </c>
+      <c r="G17" t="s" s="8">
+        <v>75</v>
+      </c>
+      <c r="N17" s="1">
+        <v>32372</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B18" s="6">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="D18" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="E18" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="F18" s="8">
+        <v>874733</v>
+      </c>
+      <c r="G18" t="s" s="8">
+        <v>74</v>
+      </c>
+      <c r="N18" s="1">
+        <v>32372</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1449,22 +1953,229 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7DB53C3-3DE8-452D-A061-B42C08640916}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B10" sqref="B1:B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="48.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="35.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="19.33203125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="5">
+        <f>[1]Лист2!G1</f>
+      </c>
+      <c r="B1" s="6">
+        <f>[1]Лист2!H1</f>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" t="s" s="7">
+        <v>63</v>
+      </c>
+      <c r="E1" t="s" s="7">
+        <v>66</v>
+      </c>
+      <c r="F1" s="8">
+        <v>874737</v>
+      </c>
+      <c r="G1" t="s" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>26862</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" t="s" s="7">
+        <v>63</v>
+      </c>
+      <c r="E2" t="s" s="7">
+        <v>66</v>
+      </c>
+      <c r="F2" s="8">
+        <v>874735</v>
+      </c>
+      <c r="G2" t="s" s="8">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
+        <v>26862</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" t="s" s="7">
+        <v>63</v>
+      </c>
+      <c r="E3" t="s" s="7">
+        <v>66</v>
+      </c>
+      <c r="F3" s="8">
+        <v>874733</v>
+      </c>
+      <c r="G3" t="s" s="8">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <f>[1]Лист2!G4</f>
+      </c>
+      <c r="B4" s="6">
+        <f>[1]Лист2!H4</f>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" t="s" s="7">
+        <v>63</v>
+      </c>
+      <c r="E4" t="s" s="7">
+        <v>66</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <f>[1]Лист2!G5</f>
+      </c>
+      <c r="B5" s="6">
+        <f>[1]Лист2!H5</f>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" t="s" s="7">
+        <v>65</v>
+      </c>
+      <c r="E5" t="s" s="7">
+        <v>69</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <f>[1]Лист2!G6</f>
+      </c>
+      <c r="B6" s="6">
+        <f>[1]Лист2!H6</f>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" t="s" s="7">
+        <v>65</v>
+      </c>
+      <c r="E6" t="s" s="7">
+        <v>70</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <f>[1]Лист2!G7</f>
+      </c>
+      <c r="B7" s="6">
+        <f>[1]Лист2!H7</f>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" t="s" s="7">
+        <v>64</v>
+      </c>
+      <c r="E7" t="s" s="7">
+        <v>71</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <f>[1]Лист2!G8</f>
+      </c>
+      <c r="B8" s="6">
+        <f>[1]Лист2!H8</f>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" t="s" s="7">
+        <v>64</v>
+      </c>
+      <c r="E8" t="s" s="7">
+        <v>72</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <f>[1]Лист2!G9</f>
+      </c>
+      <c r="B9" s="6">
+        <f>[1]Лист2!H9</f>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" t="s" s="7">
+        <v>64</v>
+      </c>
+      <c r="E9" t="s" s="7">
+        <v>70</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <f>[1]Лист2!G10</f>
+      </c>
+      <c r="B10" s="6">
+        <f>[1]Лист2!H10</f>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" t="s" s="7">
+        <v>63</v>
+      </c>
+      <c r="E10" t="s" s="7">
+        <v>73</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE245E9-7BBB-4B60-A4DB-BD39DD0FE660}">
-  <dimension ref="A1:K24"/>
+  <sheetPr/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="36.7109375" customWidth="1"/>
-    <col min="8" max="8" width="24.5703125" customWidth="1"/>
-    <col min="10" max="10" width="60.7109375" customWidth="1"/>
-    <col min="11" max="11" width="34.140625" customWidth="1"/>
+    <col min="7" max="7" width="36.6640625" customWidth="1"/>
+    <col min="8" max="8" width="24.5546875" customWidth="1"/>
+    <col min="10" max="10" width="60.6640625" customWidth="1"/>
+    <col min="11" max="11" width="34.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1499,7 +2210,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1510,7 +2221,7 @@
         <v>44067</v>
       </c>
       <c r="D2" s="4">
-        <v>0.44444444444444442</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="E2">
         <v>1299807</v>
@@ -1534,7 +2245,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1569,7 +2280,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1580,7 +2291,7 @@
         <v>44067</v>
       </c>
       <c r="D4" s="4">
-        <v>0.45833333333333331</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="E4">
         <v>1299951</v>
@@ -1604,7 +2315,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1639,7 +2350,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1674,7 +2385,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1685,7 +2396,7 @@
         <v>44067</v>
       </c>
       <c r="D7" s="4">
-        <v>0.47916666666666669</v>
+        <v>0.4791666666666667</v>
       </c>
       <c r="E7">
         <v>1299999</v>
@@ -1709,7 +2420,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1744,7 +2455,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1755,7 +2466,7 @@
         <v>44068</v>
       </c>
       <c r="D9" s="4">
-        <v>0.49305555555555558</v>
+        <v>0.4930555555555556</v>
       </c>
       <c r="E9">
         <v>1300748</v>
@@ -1779,7 +2490,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1814,7 +2525,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -1825,7 +2536,7 @@
         <v>44067</v>
       </c>
       <c r="D11" s="4">
-        <v>0.50694444444444442</v>
+        <v>0.5069444444444444</v>
       </c>
       <c r="E11">
         <v>1300309</v>
@@ -1849,7 +2560,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -1860,7 +2571,7 @@
         <v>44068</v>
       </c>
       <c r="D12" s="4">
-        <v>0.51388888888888895</v>
+        <v>0.513888888888889</v>
       </c>
       <c r="E12">
         <v>1301451</v>
@@ -1881,7 +2592,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -1892,7 +2603,7 @@
         <v>44068</v>
       </c>
       <c r="D13" s="4">
-        <v>0.52083333333333337</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="E13">
         <v>1301537</v>
@@ -1916,7 +2627,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -1927,7 +2638,7 @@
         <v>44068</v>
       </c>
       <c r="D14" s="4">
-        <v>0.52777777777777779</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="E14">
         <v>1301574</v>
@@ -1951,7 +2662,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1962,7 +2673,7 @@
         <v>44068</v>
       </c>
       <c r="D15" s="4">
-        <v>0.53472222222222221</v>
+        <v>0.5347222222222222</v>
       </c>
       <c r="E15">
         <v>1301580</v>
@@ -1983,7 +2694,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1994,7 +2705,7 @@
         <v>44068</v>
       </c>
       <c r="D16" s="4">
-        <v>0.54166666666666663</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="E16">
         <v>1301601</v>
@@ -2018,7 +2729,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -2029,7 +2740,7 @@
         <v>44068</v>
       </c>
       <c r="D17" s="4">
-        <v>0.54861111111111105</v>
+        <v>0.548611111111111</v>
       </c>
       <c r="E17">
         <v>1301621</v>
@@ -2053,7 +2764,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -2064,7 +2775,7 @@
         <v>44068</v>
       </c>
       <c r="D18" s="4">
-        <v>0.55555555555555558</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="E18">
         <v>1301652</v>
@@ -2088,7 +2799,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -2123,7 +2834,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -2134,7 +2845,7 @@
         <v>44070</v>
       </c>
       <c r="D20" s="4">
-        <v>0.56944444444444442</v>
+        <v>0.5694444444444444</v>
       </c>
       <c r="E20">
         <v>1304596</v>
@@ -2158,7 +2869,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -2169,7 +2880,7 @@
         <v>44070</v>
       </c>
       <c r="D21" s="4">
-        <v>0.57638888888888895</v>
+        <v>0.576388888888889</v>
       </c>
       <c r="E21">
         <v>1304620</v>
@@ -2193,7 +2904,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -2228,7 +2939,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -2263,7 +2974,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>2</v>
       </c>

--- a/spreadsheet.xlsx
+++ b/spreadsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aseve\Documents\promed-clicker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Documents\GitHub\promed-clicker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1702F8B5-3FB3-4039-96AE-36F4F680AF42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3503D1F2-45F5-4231-8858-A4FD6B57ACCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{6CCF5E32-90BF-4976-8CE3-9868609CAAE5}" activeTab="0"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6CCF5E32-90BF-4976-8CE3-9868609CAAE5}"/>
   </bookViews>
   <sheets>
     <sheet name="My Sheet" sheetId="4" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="84">
   <si>
     <t>A06.09.005</t>
   </si>
@@ -290,24 +290,17 @@
     <t xml:space="preserve">ДАТА РОЖДЕНИЯ </t>
   </si>
   <si>
-    <t>ВВОД</t>
-  </si>
-  <si>
     <t>ПАЦИЕНТ</t>
   </si>
   <si>
-    <t xml:space="preserve">пидор</t>
-  </si>
-  <si>
-    <t xml:space="preserve">j</t>
+    <t>РЕЗУЛЬТАТ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts/>
-  <fonts x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,7 +340,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills>
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -385,7 +378,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders>
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -507,7 +500,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs>
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -529,12 +522,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -614,6 +601,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -652,8 +651,8 @@
       <sheetName val="Лист2"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1">
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
         <row r="1">
           <cell r="G1" t="str">
             <v>Каргина Елена Геннадьевна</v>
@@ -1024,922 +1023,960 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:AD19"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.77734375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" style="12" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" style="14" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="40.77734375" style="15" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" style="12" customWidth="1"/>
-    <col min="6" max="6" width="15.77734375" style="12" customWidth="1"/>
-    <col min="7" max="7" width="20.77734375" style="12" customWidth="1"/>
-    <col min="8" max="13" width="8.88671875" style="12"/>
-    <col min="14" max="14" width="19.33203125" style="13" customWidth="1"/>
-    <col min="15" max="30" width="8.88671875" style="12"/>
+    <col min="1" max="1" width="40.7109375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="37" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="12" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" style="13" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="10" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="10" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="10" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="10" customWidth="1"/>
+    <col min="9" max="13" width="8.85546875" style="10"/>
+    <col min="14" max="14" width="19.28515625" style="11" customWidth="1"/>
+    <col min="15" max="30" width="8.85546875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="18" customFormat="1" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="20">
+    <row r="1" spans="1:30" s="16" customFormat="1" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="B1" t="s" s="21">
-        <v>81</v>
-      </c>
-      <c r="C1" t="s" s="22">
-        <v>76</v>
-      </c>
-      <c r="D1" t="s" s="23">
-        <v>77</v>
-      </c>
-      <c r="E1" t="s" s="21">
-        <v>78</v>
-      </c>
-      <c r="F1" t="s" s="21">
-        <v>79</v>
-      </c>
-      <c r="G1" t="s" s="35">
-        <v>80</v>
-      </c>
-      <c r="H1" t="s" s="24">
-        <v>82</v>
-      </c>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="16"/>
-    </row>
-    <row r="2" spans="1:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="25">
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14"/>
+      <c r="AD1" s="14"/>
+    </row>
+    <row r="2" spans="1:30" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="9">
-        <f t="shared" ref="B2:B19" si="0">TEXT(N2, "ДД.ММ.ГГГГ")</f>
-      </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="28"/>
-      <c r="E2" t="s" s="31">
+      <c r="B2" s="38" t="str">
+        <f>TEXT(N2, "ДД.ММ.ГГГГ")</f>
+        <v>15.10.1953</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="32">
+      <c r="F2" s="30">
         <v>874737</v>
       </c>
-      <c r="G2" t="s" s="36">
+      <c r="G2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="19"/>
-      <c r="N2" s="12">
+      <c r="H2" s="17"/>
+      <c r="N2" s="10">
         <v>19647</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s" s="26">
+    <row r="3" spans="1:30" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="10">
-        <f t="shared" si="0"/>
-      </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30"/>
-      <c r="E3" t="s" s="33">
+      <c r="B3" s="39" t="str">
+        <f t="shared" ref="B3:B19" si="0">TEXT(N3, "ДД.ММ.ГГГГ")</f>
+        <v>15.10.1953</v>
+      </c>
+      <c r="C3" s="27"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="34">
+      <c r="F3" s="32">
         <v>874735</v>
       </c>
-      <c r="G3" t="s" s="37">
+      <c r="G3" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="N3" s="12">
+      <c r="H3" s="9"/>
+      <c r="N3" s="10">
         <v>19647</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s" s="26">
+    <row r="4" spans="1:30" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="10">
-        <f t="shared" si="0"/>
-      </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="30"/>
-      <c r="E4" t="s" s="33">
+      <c r="B4" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>15.10.1953</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="34">
+      <c r="F4" s="32">
         <v>874733</v>
       </c>
-      <c r="G4" t="s" s="37">
+      <c r="G4" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="N4" s="12">
+      <c r="H4" s="9"/>
+      <c r="N4" s="10">
         <v>19647</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s" s="26">
+    <row r="5" spans="1:30" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="10">
-        <f t="shared" si="0"/>
-      </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="30"/>
-      <c r="E5" t="s" s="33">
+      <c r="B5" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>15.09.1957</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="34">
+      <c r="F5" s="32">
         <v>874737</v>
       </c>
-      <c r="G5" t="s" s="37">
+      <c r="G5" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="11"/>
-      <c r="N5" s="12">
+      <c r="H5" s="9"/>
+      <c r="N5" s="10">
         <v>21078</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s" s="26">
+    <row r="6" spans="1:30" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="10">
-        <f t="shared" si="0"/>
-      </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="30"/>
-      <c r="E6" t="s" s="33">
+      <c r="B6" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>15.09.1957</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F6" s="32">
         <v>874735</v>
       </c>
-      <c r="G6" t="s" s="37">
+      <c r="G6" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="H6" s="11"/>
-      <c r="N6" s="12">
+      <c r="H6" s="9"/>
+      <c r="N6" s="10">
         <v>21078</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s" s="26">
+    <row r="7" spans="1:30" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="10">
-        <f t="shared" si="0"/>
-      </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="30"/>
-      <c r="E7" t="s" s="33">
+      <c r="B7" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>15.09.1957</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F7" s="32">
         <v>874733</v>
       </c>
-      <c r="G7" t="s" s="37">
+      <c r="G7" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="N7" s="12">
+      <c r="H7" s="9"/>
+      <c r="N7" s="10">
         <v>21078</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s" s="26">
+    <row r="8" spans="1:30" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="10">
-        <f t="shared" si="0"/>
-      </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="30"/>
-      <c r="E8" t="s" s="33">
+      <c r="B8" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>03.07.1947</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="F8" s="34">
+      <c r="F8" s="32">
         <v>874737</v>
       </c>
-      <c r="G8" t="s" s="37">
+      <c r="G8" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="H8" s="11"/>
-      <c r="N8" s="12">
+      <c r="H8" s="9"/>
+      <c r="N8" s="10">
         <v>17351</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s" s="26">
+    <row r="9" spans="1:30" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="10">
-        <f t="shared" si="0"/>
-      </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="30"/>
-      <c r="E9" t="s" s="33">
+      <c r="B9" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>03.07.1947</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="F9" s="34">
+      <c r="F9" s="32">
         <v>874735</v>
       </c>
-      <c r="G9" t="s" s="37">
+      <c r="G9" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="H9" s="11"/>
-      <c r="N9" s="12">
+      <c r="H9" s="9"/>
+      <c r="N9" s="10">
         <v>17351</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s" s="26">
+    <row r="10" spans="1:30" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="10">
-        <f t="shared" si="0"/>
-      </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="30"/>
-      <c r="E10" t="s" s="33">
+      <c r="B10" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>03.07.1947</v>
+      </c>
+      <c r="C10" s="27"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="F10" s="34">
+      <c r="F10" s="32">
         <v>874733</v>
       </c>
-      <c r="G10" t="s" s="37">
+      <c r="G10" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="H10" s="11"/>
-      <c r="N10" s="12">
+      <c r="H10" s="9"/>
+      <c r="N10" s="10">
         <v>17351</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s" s="26">
+    <row r="11" spans="1:30" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="10">
-        <f t="shared" si="0"/>
-      </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="30"/>
-      <c r="E11" t="s" s="33">
+      <c r="B11" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>11.02.1958</v>
+      </c>
+      <c r="C11" s="27"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="34">
+      <c r="F11" s="32">
         <v>874737</v>
       </c>
-      <c r="G11" t="s" s="37">
+      <c r="G11" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="H11" s="11"/>
-      <c r="N11" s="12">
+      <c r="H11" s="9"/>
+      <c r="N11" s="10">
         <v>21227</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s" s="26">
+    <row r="12" spans="1:30" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="10">
-        <f t="shared" si="0"/>
-      </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="30"/>
-      <c r="E12" t="s" s="33">
+      <c r="B12" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>11.02.1958</v>
+      </c>
+      <c r="C12" s="27"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="34">
+      <c r="F12" s="32">
         <v>874735</v>
       </c>
-      <c r="G12" t="s" s="37">
+      <c r="G12" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="H12" s="11"/>
-      <c r="N12" s="12">
+      <c r="H12" s="9"/>
+      <c r="N12" s="10">
         <v>21227</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s" s="26">
+    <row r="13" spans="1:30" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="10">
-        <f t="shared" si="0"/>
-      </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="30"/>
-      <c r="E13" t="s" s="33">
+      <c r="B13" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>11.02.1958</v>
+      </c>
+      <c r="C13" s="27"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="34">
+      <c r="F13" s="32">
         <v>874733</v>
       </c>
-      <c r="G13" t="s" s="37">
+      <c r="G13" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="H13" s="11"/>
-      <c r="N13" s="12">
+      <c r="H13" s="9"/>
+      <c r="N13" s="10">
         <v>21227</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s" s="26">
+    <row r="14" spans="1:30" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="10">
-        <f t="shared" si="0"/>
-      </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="30"/>
-      <c r="E14" t="s" s="33">
+      <c r="B14" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>15.12.1977</v>
+      </c>
+      <c r="C14" s="27"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="F14" s="34">
+      <c r="F14" s="32">
         <v>874737</v>
       </c>
-      <c r="G14" t="s" s="37">
+      <c r="G14" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="H14" s="11"/>
-      <c r="N14" s="12">
+      <c r="H14" s="9"/>
+      <c r="N14" s="10">
         <v>28474</v>
       </c>
     </row>
-    <row r="15" spans="1:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s" s="26">
+    <row r="15" spans="1:30" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="10">
-        <f t="shared" si="0"/>
-      </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="30"/>
-      <c r="E15" t="s" s="33">
+      <c r="B15" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>15.12.1977</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="34">
+      <c r="F15" s="32">
         <v>874735</v>
       </c>
-      <c r="G15" t="s" s="37">
+      <c r="G15" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="H15" s="11"/>
-      <c r="N15" s="12">
+      <c r="H15" s="9"/>
+      <c r="N15" s="10">
         <v>28474</v>
       </c>
     </row>
-    <row r="16" spans="1:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s" s="26">
+    <row r="16" spans="1:30" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="10">
-        <f t="shared" si="0"/>
-      </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="30"/>
-      <c r="E16" t="s" s="33">
+      <c r="B16" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>15.12.1977</v>
+      </c>
+      <c r="C16" s="27"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="F16" s="34">
+      <c r="F16" s="32">
         <v>874733</v>
       </c>
-      <c r="G16" t="s" s="37">
+      <c r="G16" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="H16" s="11"/>
-      <c r="N16" s="12">
+      <c r="H16" s="9"/>
+      <c r="N16" s="10">
         <v>28474</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s" s="26">
+    <row r="17" spans="1:14" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="10">
-        <f t="shared" si="0"/>
-      </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="30"/>
-      <c r="E17" t="s" s="33">
+      <c r="B17" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>17.08.1988</v>
+      </c>
+      <c r="C17" s="27"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="F17" s="34">
+      <c r="F17" s="32">
         <v>874737</v>
       </c>
-      <c r="G17" t="s" s="37">
+      <c r="G17" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="H17" s="11"/>
-      <c r="N17" s="12">
+      <c r="H17" s="9"/>
+      <c r="N17" s="10">
         <v>32372</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s" s="26">
+    <row r="18" spans="1:14" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="10">
-        <f t="shared" si="0"/>
-      </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="30"/>
-      <c r="E18" t="s" s="33">
+      <c r="B18" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>17.08.1988</v>
+      </c>
+      <c r="C18" s="27"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="F18" s="34">
+      <c r="F18" s="32">
         <v>874735</v>
       </c>
-      <c r="G18" t="s" s="37">
+      <c r="G18" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="H18" s="11"/>
-      <c r="N18" s="12">
+      <c r="H18" s="9"/>
+      <c r="N18" s="10">
         <v>32372</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s" s="26">
+    <row r="19" spans="1:14" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="10">
-        <f t="shared" si="0"/>
-      </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="30"/>
-      <c r="E19" t="s" s="33">
+      <c r="B19" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>17.08.1988</v>
+      </c>
+      <c r="C19" s="27"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="34">
+      <c r="F19" s="32">
         <v>874733</v>
       </c>
-      <c r="G19" t="s" s="37">
+      <c r="G19" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="H19" s="11"/>
-      <c r="N19" s="12">
+      <c r="H19" s="9"/>
+      <c r="N19" s="10">
         <v>32372</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="81" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027DBE9-90F8-4510-9A2A-0DC7F76ECC31}">
-  <sheetPr/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="35.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="1"/>
-    <col min="7" max="7" width="19.33203125" style="1" customWidth="1"/>
-    <col min="8" max="9" width="8.88671875" style="1"/>
-    <col min="14" max="14" width="19.33203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="48.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="19.28515625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="8.85546875" style="1"/>
+    <col min="14" max="14" width="19.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="6">
+      <c r="B1" s="6" t="str">
         <f t="shared" ref="B1:B18" si="0">TEXT(N1, "ДД.ММ.ГГГГ")</f>
-      </c>
-      <c r="D1" t="s" s="1">
+        <v>15.10.1953</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="E1" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F1" s="8">
         <v>874737</v>
       </c>
-      <c r="G1" t="s" s="8">
+      <c r="G1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="N1" s="1">
         <v>19647</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="2">
+    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="6">
-        <f t="shared" si="0"/>
-      </c>
-      <c r="D2" t="s" s="1">
+      <c r="B2" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>15.10.1953</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E2" t="s" s="1">
+      <c r="E2" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F2" s="8">
         <v>874735</v>
       </c>
-      <c r="G2" t="s" s="8">
+      <c r="G2" s="8" t="s">
         <v>75</v>
       </c>
       <c r="N2" s="1">
         <v>19647</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s" s="2">
+    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="6">
-        <f t="shared" si="0"/>
-      </c>
-      <c r="D3" t="s" s="1">
+      <c r="B3" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>15.10.1953</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E3" t="s" s="1">
+      <c r="E3" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F3" s="8">
         <v>874733</v>
       </c>
-      <c r="G3" t="s" s="8">
+      <c r="G3" s="8" t="s">
         <v>74</v>
       </c>
       <c r="N3" s="1">
         <v>19647</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s" s="2">
+    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="6">
-        <f t="shared" si="0"/>
-      </c>
-      <c r="D4" t="s" s="1">
+      <c r="B4" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>15.09.1957</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E4" t="s" s="1">
+      <c r="E4" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F4" s="8">
         <v>874737</v>
       </c>
-      <c r="G4" t="s" s="8">
+      <c r="G4" s="8" t="s">
         <v>0</v>
       </c>
       <c r="N4" s="1">
         <v>21078</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s" s="2">
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="6">
-        <f t="shared" si="0"/>
-      </c>
-      <c r="D5" t="s" s="1">
+      <c r="B5" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>15.09.1957</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E5" t="s" s="1">
+      <c r="E5" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F5" s="8">
         <v>874735</v>
       </c>
-      <c r="G5" t="s" s="8">
+      <c r="G5" s="8" t="s">
         <v>75</v>
       </c>
       <c r="N5" s="1">
         <v>21078</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s" s="2">
+    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="6">
-        <f t="shared" si="0"/>
-      </c>
-      <c r="D6" t="s" s="1">
+      <c r="B6" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>15.09.1957</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E6" t="s" s="1">
+      <c r="E6" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F6" s="8">
         <v>874733</v>
       </c>
-      <c r="G6" t="s" s="8">
+      <c r="G6" s="8" t="s">
         <v>74</v>
       </c>
       <c r="N6" s="1">
         <v>21078</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s" s="2">
+    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="6">
-        <f t="shared" si="0"/>
-      </c>
-      <c r="D7" t="s" s="1">
+      <c r="B7" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>03.07.1947</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E7" t="s" s="1">
+      <c r="E7" s="1" t="s">
         <v>71</v>
       </c>
       <c r="F7" s="8">
         <v>874737</v>
       </c>
-      <c r="G7" t="s" s="8">
+      <c r="G7" s="8" t="s">
         <v>0</v>
       </c>
       <c r="N7" s="1">
         <v>17351</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s" s="2">
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="6">
-        <f t="shared" si="0"/>
-      </c>
-      <c r="D8" t="s" s="1">
+      <c r="B8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>03.07.1947</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E8" t="s" s="1">
+      <c r="E8" s="1" t="s">
         <v>71</v>
       </c>
       <c r="F8" s="8">
         <v>874735</v>
       </c>
-      <c r="G8" t="s" s="8">
+      <c r="G8" s="8" t="s">
         <v>75</v>
       </c>
       <c r="N8" s="1">
         <v>17351</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s" s="2">
+    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="6">
-        <f t="shared" si="0"/>
-      </c>
-      <c r="D9" t="s" s="1">
+      <c r="B9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>03.07.1947</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E9" t="s" s="1">
+      <c r="E9" s="1" t="s">
         <v>71</v>
       </c>
       <c r="F9" s="8">
         <v>874733</v>
       </c>
-      <c r="G9" t="s" s="8">
+      <c r="G9" s="8" t="s">
         <v>74</v>
       </c>
       <c r="N9" s="1">
         <v>17351</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s" s="2">
+    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="6">
-        <f t="shared" si="0"/>
-      </c>
-      <c r="D10" t="s" s="1">
+      <c r="B10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>11.02.1958</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E10" t="s" s="1">
+      <c r="E10" s="1" t="s">
         <v>72</v>
       </c>
       <c r="F10" s="8">
         <v>874737</v>
       </c>
-      <c r="G10" t="s" s="8">
+      <c r="G10" s="8" t="s">
         <v>0</v>
       </c>
       <c r="N10" s="1">
         <v>21227</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s" s="2">
+    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="6">
-        <f t="shared" si="0"/>
-      </c>
-      <c r="D11" t="s" s="1">
+      <c r="B11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>11.02.1958</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E11" t="s" s="1">
+      <c r="E11" s="1" t="s">
         <v>72</v>
       </c>
       <c r="F11" s="8">
         <v>874735</v>
       </c>
-      <c r="G11" t="s" s="8">
+      <c r="G11" s="8" t="s">
         <v>75</v>
       </c>
       <c r="N11" s="1">
         <v>21227</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s" s="2">
+    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="6">
-        <f t="shared" si="0"/>
-      </c>
-      <c r="D12" t="s" s="1">
+      <c r="B12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>11.02.1958</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E12" t="s" s="1">
+      <c r="E12" s="1" t="s">
         <v>72</v>
       </c>
       <c r="F12" s="8">
         <v>874733</v>
       </c>
-      <c r="G12" t="s" s="8">
+      <c r="G12" s="8" t="s">
         <v>74</v>
       </c>
       <c r="N12" s="1">
         <v>21227</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s" s="2">
+    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="6">
-        <f t="shared" si="0"/>
-      </c>
-      <c r="D13" t="s" s="1">
+      <c r="B13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>15.12.1977</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E13" t="s" s="1">
+      <c r="E13" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F13" s="8">
         <v>874737</v>
       </c>
-      <c r="G13" t="s" s="8">
+      <c r="G13" s="8" t="s">
         <v>0</v>
       </c>
       <c r="N13" s="1">
         <v>28474</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s" s="2">
+    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="6">
-        <f t="shared" si="0"/>
-      </c>
-      <c r="D14" t="s" s="1">
+      <c r="B14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>15.12.1977</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E14" t="s" s="1">
+      <c r="E14" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F14" s="8">
         <v>874735</v>
       </c>
-      <c r="G14" t="s" s="8">
+      <c r="G14" s="8" t="s">
         <v>75</v>
       </c>
       <c r="N14" s="1">
         <v>28474</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s" s="2">
+    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="6">
-        <f t="shared" si="0"/>
-      </c>
-      <c r="D15" t="s" s="1">
+      <c r="B15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>15.12.1977</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E15" t="s" s="1">
+      <c r="E15" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F15" s="8">
         <v>874733</v>
       </c>
-      <c r="G15" t="s" s="8">
+      <c r="G15" s="8" t="s">
         <v>74</v>
       </c>
       <c r="N15" s="1">
         <v>28474</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s" s="2">
+    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="6">
-        <f t="shared" si="0"/>
-      </c>
-      <c r="D16" t="s" s="1">
+      <c r="B16" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>17.08.1988</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E16" t="s" s="1">
+      <c r="E16" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F16" s="8">
         <v>874737</v>
       </c>
-      <c r="G16" t="s" s="8">
+      <c r="G16" s="8" t="s">
         <v>0</v>
       </c>
       <c r="N16" s="1">
         <v>32372</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s" s="2">
+    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="6">
-        <f t="shared" si="0"/>
-      </c>
-      <c r="D17" t="s" s="1">
+      <c r="B17" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>17.08.1988</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E17" t="s" s="1">
+      <c r="E17" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F17" s="8">
         <v>874735</v>
       </c>
-      <c r="G17" t="s" s="8">
+      <c r="G17" s="8" t="s">
         <v>75</v>
       </c>
       <c r="N17" s="1">
         <v>32372</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s" s="2">
+    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="6">
-        <f t="shared" si="0"/>
-      </c>
-      <c r="D18" t="s" s="1">
+      <c r="B18" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>17.08.1988</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E18" t="s" s="1">
+      <c r="E18" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F18" s="8">
         <v>874733</v>
       </c>
-      <c r="G18" t="s" s="8">
+      <c r="G18" s="8" t="s">
         <v>74</v>
       </c>
       <c r="N18" s="1">
@@ -1954,200 +1991,216 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7DB53C3-3DE8-452D-A061-B42C08640916}">
-  <sheetPr/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B10" sqref="B1:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="35.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="1"/>
-    <col min="7" max="7" width="19.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="48.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="1"/>
+    <col min="7" max="7" width="19.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="5">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="str">
         <f>[1]Лист2!G1</f>
+        <v>Каргина Елена Геннадьевна</v>
       </c>
       <c r="B1" s="6">
         <f>[1]Лист2!H1</f>
+        <v>26862</v>
       </c>
       <c r="C1" s="7"/>
-      <c r="D1" t="s" s="7">
+      <c r="D1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E1" t="s" s="7">
+      <c r="E1" s="7" t="s">
         <v>66</v>
       </c>
       <c r="F1" s="8">
         <v>874737</v>
       </c>
-      <c r="G1" t="s" s="8">
+      <c r="G1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="5">
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="6">
         <v>26862</v>
       </c>
       <c r="C2" s="7"/>
-      <c r="D2" t="s" s="7">
+      <c r="D2" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E2" t="s" s="7">
+      <c r="E2" s="7" t="s">
         <v>66</v>
       </c>
       <c r="F2" s="8">
         <v>874735</v>
       </c>
-      <c r="G2" t="s" s="8">
+      <c r="G2" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s" s="5">
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="6">
         <v>26862</v>
       </c>
       <c r="C3" s="7"/>
-      <c r="D3" t="s" s="7">
+      <c r="D3" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E3" t="s" s="7">
+      <c r="E3" s="7" t="s">
         <v>66</v>
       </c>
       <c r="F3" s="8">
         <v>874733</v>
       </c>
-      <c r="G3" t="s" s="8">
+      <c r="G3" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="str">
         <f>[1]Лист2!G4</f>
+        <v>Докучаев Сергей Александрович</v>
       </c>
       <c r="B4" s="6">
         <f>[1]Лист2!H4</f>
+        <v>22136</v>
       </c>
       <c r="C4" s="7"/>
-      <c r="D4" t="s" s="7">
+      <c r="D4" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E4" t="s" s="7">
+      <c r="E4" s="7" t="s">
         <v>66</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="str">
         <f>[1]Лист2!G5</f>
+        <v>Никитина Валентина Петровна</v>
       </c>
       <c r="B5" s="6">
         <f>[1]Лист2!H5</f>
+        <v>19647</v>
       </c>
       <c r="C5" s="7"/>
-      <c r="D5" t="s" s="7">
+      <c r="D5" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E5" t="s" s="7">
+      <c r="E5" s="7" t="s">
         <v>69</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="str">
         <f>[1]Лист2!G6</f>
+        <v>Челищева Наталья Владимировна</v>
       </c>
       <c r="B6" s="6">
         <f>[1]Лист2!H6</f>
+        <v>21078</v>
       </c>
       <c r="C6" s="7"/>
-      <c r="D6" t="s" s="7">
+      <c r="D6" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E6" t="s" s="7">
+      <c r="E6" s="7" t="s">
         <v>70</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="str">
         <f>[1]Лист2!G7</f>
+        <v>Закомлистова Раиса Федоровна</v>
       </c>
       <c r="B7" s="6">
         <f>[1]Лист2!H7</f>
+        <v>17351</v>
       </c>
       <c r="C7" s="7"/>
-      <c r="D7" t="s" s="7">
+      <c r="D7" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E7" t="s" s="7">
+      <c r="E7" s="7" t="s">
         <v>71</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="str">
         <f>[1]Лист2!G8</f>
+        <v>Земерев Виктор Васильевич</v>
       </c>
       <c r="B8" s="6">
         <f>[1]Лист2!H8</f>
+        <v>21227</v>
       </c>
       <c r="C8" s="7"/>
-      <c r="D8" t="s" s="7">
+      <c r="D8" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E8" t="s" s="7">
+      <c r="E8" s="7" t="s">
         <v>72</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="str">
         <f>[1]Лист2!G9</f>
+        <v>Аралкина Оксана Анатольевна</v>
       </c>
       <c r="B9" s="6">
         <f>[1]Лист2!H9</f>
+        <v>28474</v>
       </c>
       <c r="C9" s="7"/>
-      <c r="D9" t="s" s="7">
+      <c r="D9" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E9" t="s" s="7">
+      <c r="E9" s="7" t="s">
         <v>70</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="str">
         <f>[1]Лист2!G10</f>
+        <v>Гайфуллина Лиана Римовна</v>
       </c>
       <c r="B10" s="6">
         <f>[1]Лист2!H10</f>
+        <v>32372</v>
       </c>
       <c r="C10" s="7"/>
-      <c r="D10" t="s" s="7">
+      <c r="D10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E10" t="s" s="7">
+      <c r="E10" s="7" t="s">
         <v>73</v>
       </c>
       <c r="F10" s="8"/>
@@ -2161,21 +2214,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE245E9-7BBB-4B60-A4DB-BD39DD0FE660}">
-  <sheetPr/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="36.6640625" customWidth="1"/>
-    <col min="8" max="8" width="24.5546875" customWidth="1"/>
-    <col min="10" max="10" width="60.6640625" customWidth="1"/>
-    <col min="11" max="11" width="34.109375" customWidth="1"/>
+    <col min="7" max="7" width="36.7109375" customWidth="1"/>
+    <col min="8" max="8" width="24.5703125" customWidth="1"/>
+    <col min="10" max="10" width="60.7109375" customWidth="1"/>
+    <col min="11" max="11" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2210,7 +2263,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2221,7 +2274,7 @@
         <v>44067</v>
       </c>
       <c r="D2" s="4">
-        <v>0.4444444444444444</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="E2">
         <v>1299807</v>
@@ -2245,7 +2298,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2280,7 +2333,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2291,7 +2344,7 @@
         <v>44067</v>
       </c>
       <c r="D4" s="4">
-        <v>0.4583333333333333</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="E4">
         <v>1299951</v>
@@ -2315,7 +2368,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2350,7 +2403,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -2385,7 +2438,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -2396,7 +2449,7 @@
         <v>44067</v>
       </c>
       <c r="D7" s="4">
-        <v>0.4791666666666667</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="E7">
         <v>1299999</v>
@@ -2420,7 +2473,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -2455,7 +2508,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -2466,7 +2519,7 @@
         <v>44068</v>
       </c>
       <c r="D9" s="4">
-        <v>0.4930555555555556</v>
+        <v>0.49305555555555558</v>
       </c>
       <c r="E9">
         <v>1300748</v>
@@ -2490,7 +2543,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -2525,7 +2578,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -2536,7 +2589,7 @@
         <v>44067</v>
       </c>
       <c r="D11" s="4">
-        <v>0.5069444444444444</v>
+        <v>0.50694444444444442</v>
       </c>
       <c r="E11">
         <v>1300309</v>
@@ -2560,7 +2613,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -2571,7 +2624,7 @@
         <v>44068</v>
       </c>
       <c r="D12" s="4">
-        <v>0.513888888888889</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="E12">
         <v>1301451</v>
@@ -2592,7 +2645,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -2603,7 +2656,7 @@
         <v>44068</v>
       </c>
       <c r="D13" s="4">
-        <v>0.5208333333333334</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="E13">
         <v>1301537</v>
@@ -2627,7 +2680,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -2638,7 +2691,7 @@
         <v>44068</v>
       </c>
       <c r="D14" s="4">
-        <v>0.5277777777777778</v>
+        <v>0.52777777777777779</v>
       </c>
       <c r="E14">
         <v>1301574</v>
@@ -2662,7 +2715,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -2673,7 +2726,7 @@
         <v>44068</v>
       </c>
       <c r="D15" s="4">
-        <v>0.5347222222222222</v>
+        <v>0.53472222222222221</v>
       </c>
       <c r="E15">
         <v>1301580</v>
@@ -2694,7 +2747,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -2705,7 +2758,7 @@
         <v>44068</v>
       </c>
       <c r="D16" s="4">
-        <v>0.5416666666666666</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="E16">
         <v>1301601</v>
@@ -2729,7 +2782,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -2740,7 +2793,7 @@
         <v>44068</v>
       </c>
       <c r="D17" s="4">
-        <v>0.548611111111111</v>
+        <v>0.54861111111111105</v>
       </c>
       <c r="E17">
         <v>1301621</v>
@@ -2764,7 +2817,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -2775,7 +2828,7 @@
         <v>44068</v>
       </c>
       <c r="D18" s="4">
-        <v>0.5555555555555556</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="E18">
         <v>1301652</v>
@@ -2799,7 +2852,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -2834,7 +2887,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -2845,7 +2898,7 @@
         <v>44070</v>
       </c>
       <c r="D20" s="4">
-        <v>0.5694444444444444</v>
+        <v>0.56944444444444442</v>
       </c>
       <c r="E20">
         <v>1304596</v>
@@ -2869,7 +2922,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -2880,7 +2933,7 @@
         <v>44070</v>
       </c>
       <c r="D21" s="4">
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="E21">
         <v>1304620</v>
@@ -2904,7 +2957,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -2939,7 +2992,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -2974,7 +3027,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>2</v>
       </c>

--- a/spreadsheet.xlsx
+++ b/spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Documents\GitHub\promed-clicker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3503D1F2-45F5-4231-8858-A4FD6B57ACCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728777EC-1791-455C-82A3-D0D956820214}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6CCF5E32-90BF-4976-8CE3-9868609CAAE5}"/>
   </bookViews>
@@ -18,9 +18,6 @@
     <sheet name="Лист1 (2)" sheetId="3" r:id="rId3"/>
     <sheet name="Лист2" sheetId="2" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'My Sheet'!$A$1:$H$19</definedName>
   </definedNames>
@@ -42,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="84">
   <si>
     <t>A06.09.005</t>
   </si>
@@ -641,86 +638,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Лист1"/>
-      <sheetName val="Лист2"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="G1" t="str">
-            <v>Каргина Елена Геннадьевна</v>
-          </cell>
-          <cell r="H1">
-            <v>26862</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="G4" t="str">
-            <v>Докучаев Сергей Александрович</v>
-          </cell>
-          <cell r="H4">
-            <v>22136</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="G5" t="str">
-            <v>Никитина Валентина Петровна</v>
-          </cell>
-          <cell r="H5">
-            <v>19647</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="G6" t="str">
-            <v>Челищева Наталья Владимировна</v>
-          </cell>
-          <cell r="H6">
-            <v>21078</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="G7" t="str">
-            <v>Закомлистова Раиса Федоровна</v>
-          </cell>
-          <cell r="H7">
-            <v>17351</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="G8" t="str">
-            <v>Земерев Виктор Васильевич</v>
-          </cell>
-          <cell r="H8">
-            <v>21227</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="G9" t="str">
-            <v>Аралкина Оксана Анатольевна</v>
-          </cell>
-          <cell r="H9">
-            <v>28474</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="G10" t="str">
-            <v>Гайфуллина Лиана Римовна</v>
-          </cell>
-          <cell r="H10">
-            <v>32372</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2009,12 +1926,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="str">
-        <f>[1]Лист2!G1</f>
-        <v>Каргина Елена Геннадьевна</v>
+      <c r="A1" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="B1" s="6">
-        <f>[1]Лист2!H1</f>
         <v>26862</v>
       </c>
       <c r="C1" s="7"/>
@@ -2074,12 +1989,10 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="str">
-        <f>[1]Лист2!G4</f>
-        <v>Докучаев Сергей Александрович</v>
+      <c r="A4" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="B4" s="6">
-        <f>[1]Лист2!H4</f>
         <v>22136</v>
       </c>
       <c r="C4" s="7"/>
@@ -2093,12 +2006,10 @@
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="str">
-        <f>[1]Лист2!G5</f>
-        <v>Никитина Валентина Петровна</v>
+      <c r="A5" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="B5" s="6">
-        <f>[1]Лист2!H5</f>
         <v>19647</v>
       </c>
       <c r="C5" s="7"/>
@@ -2112,12 +2023,10 @@
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="str">
-        <f>[1]Лист2!G6</f>
-        <v>Челищева Наталья Владимировна</v>
+      <c r="A6" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="B6" s="6">
-        <f>[1]Лист2!H6</f>
         <v>21078</v>
       </c>
       <c r="C6" s="7"/>
@@ -2131,12 +2040,10 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="str">
-        <f>[1]Лист2!G7</f>
-        <v>Закомлистова Раиса Федоровна</v>
+      <c r="A7" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="B7" s="6">
-        <f>[1]Лист2!H7</f>
         <v>17351</v>
       </c>
       <c r="C7" s="7"/>
@@ -2150,12 +2057,10 @@
       <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="str">
-        <f>[1]Лист2!G8</f>
-        <v>Земерев Виктор Васильевич</v>
+      <c r="A8" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="B8" s="6">
-        <f>[1]Лист2!H8</f>
         <v>21227</v>
       </c>
       <c r="C8" s="7"/>
@@ -2169,12 +2074,10 @@
       <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="str">
-        <f>[1]Лист2!G9</f>
-        <v>Аралкина Оксана Анатольевна</v>
+      <c r="A9" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B9" s="6">
-        <f>[1]Лист2!H9</f>
         <v>28474</v>
       </c>
       <c r="C9" s="7"/>
@@ -2188,12 +2091,10 @@
       <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="str">
-        <f>[1]Лист2!G10</f>
-        <v>Гайфуллина Лиана Римовна</v>
+      <c r="A10" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="B10" s="6">
-        <f>[1]Лист2!H10</f>
         <v>32372</v>
       </c>
       <c r="C10" s="7"/>

--- a/spreadsheet.xlsx
+++ b/spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Documents\GitHub\promed-clicker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728777EC-1791-455C-82A3-D0D956820214}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EC172B-2811-4335-BC9B-EDACF32C0885}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6CCF5E32-90BF-4976-8CE3-9868609CAAE5}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'My Sheet'!$A$1:$H$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'My Sheet'!$A$1:$J$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="95">
   <si>
     <t>A06.09.005</t>
   </si>
@@ -291,13 +291,46 @@
   </si>
   <si>
     <t>РЕЗУЛЬТАТ</t>
+  </si>
+  <si>
+    <t>БАДАМШИН САЛАВАТ ЯНГАЛИЕВИЧ</t>
+  </si>
+  <si>
+    <t>D14.1</t>
+  </si>
+  <si>
+    <t>А06.09.005</t>
+  </si>
+  <si>
+    <t>А06.03.058</t>
+  </si>
+  <si>
+    <t>Домрачев Николай Никитич</t>
+  </si>
+  <si>
+    <t>C83.0</t>
+  </si>
+  <si>
+    <t>Федотова Людмила Ивановна</t>
+  </si>
+  <si>
+    <t>N85.0</t>
+  </si>
+  <si>
+    <t>ВРАЧ-ДИАГНОСТ</t>
+  </si>
+  <si>
+    <t>Ибрагимов Булат Айдарович</t>
+  </si>
+  <si>
+    <t>ДАТА</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -331,6 +364,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="PT Sans Narrow"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="PT Sans Narrow"/>
       <family val="2"/>
@@ -497,7 +537,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -606,10 +646,22 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -940,10 +992,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:AB19"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,13 +1007,15 @@
     <col min="5" max="5" width="10.7109375" style="10" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="10" customWidth="1"/>
     <col min="7" max="7" width="20.7109375" style="10" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="10" customWidth="1"/>
-    <col min="9" max="13" width="8.85546875" style="10"/>
-    <col min="14" max="14" width="19.28515625" style="11" customWidth="1"/>
-    <col min="15" max="30" width="8.85546875" style="10"/>
+    <col min="8" max="8" width="40.7109375" style="10" customWidth="1"/>
+    <col min="9" max="10" width="10.7109375" style="10" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="10"/>
+    <col min="12" max="12" width="19.28515625" style="11" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="28" width="8.85546875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="16" customFormat="1" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" s="16" customFormat="1" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>82</v>
       </c>
@@ -983,15 +1037,19 @@
       <c r="G1" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
       <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
+      <c r="L1" s="15"/>
       <c r="M1" s="14"/>
-      <c r="N1" s="15"/>
+      <c r="N1" s="14"/>
       <c r="O1" s="14"/>
       <c r="P1" s="14"/>
       <c r="Q1" s="14"/>
@@ -1006,444 +1064,442 @@
       <c r="Z1" s="14"/>
       <c r="AA1" s="14"/>
       <c r="AB1" s="14"/>
-      <c r="AC1" s="14"/>
-      <c r="AD1" s="14"/>
-    </row>
-    <row r="2" spans="1:30" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="38" t="str">
-        <f>TEXT(N2, "ДД.ММ.ГГГГ")</f>
-        <v>15.10.1953</v>
+        <v>84</v>
+      </c>
+      <c r="B2" s="39" t="str">
+        <f>TEXT(L2, "ДД.ММ.ГГГГ")</f>
+        <v>10.04.1958</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="26"/>
       <c r="E2" s="29" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="F2" s="30">
         <v>874737</v>
       </c>
       <c r="G2" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="17"/>
-      <c r="N2" s="10">
-        <v>19647</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
-        <v>17</v>
+        <v>86</v>
+      </c>
+      <c r="H2" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="I2" s="43" t="str">
+        <f>TEXT(M2, "ДД.ММ.ГГГГ")</f>
+        <v>31.08.2020</v>
+      </c>
+      <c r="J2" s="17"/>
+      <c r="L2" s="11">
+        <v>21285</v>
+      </c>
+      <c r="M2" s="43">
+        <v>44074</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>84</v>
       </c>
       <c r="B3" s="39" t="str">
-        <f t="shared" ref="B3:B19" si="0">TEXT(N3, "ДД.ММ.ГГГГ")</f>
-        <v>15.10.1953</v>
-      </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="31" t="s">
-        <v>69</v>
+        <f t="shared" ref="B3:B4" si="0">TEXT(L3, "ДД.ММ.ГГГГ")</f>
+        <v>10.04.1958</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="29" t="s">
+        <v>85</v>
       </c>
       <c r="F3" s="32">
-        <v>874735</v>
+        <v>874739</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="H3" s="9"/>
-      <c r="N3" s="10">
-        <v>19647</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
-        <v>17</v>
+        <v>87</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="I3" s="43" t="str">
+        <f t="shared" ref="I3:I9" si="1">TEXT(M3, "ДД.ММ.ГГГГ")</f>
+        <v>31.08.2020</v>
+      </c>
+      <c r="J3" s="9"/>
+      <c r="L3" s="11">
+        <v>21285</v>
+      </c>
+      <c r="M3" s="43">
+        <v>44074</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>84</v>
       </c>
       <c r="B4" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>15.10.1953</v>
-      </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="31" t="s">
-        <v>69</v>
+        <v>10.04.1958</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="29" t="s">
+        <v>85</v>
       </c>
       <c r="F4" s="32">
-        <v>874733</v>
+        <v>874735</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="H4" s="9"/>
-      <c r="N4" s="10">
-        <v>19647</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="H4" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="I4" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>31.08.2020</v>
+      </c>
+      <c r="J4" s="9"/>
+      <c r="L4" s="11">
+        <v>21285</v>
+      </c>
+      <c r="M4" s="43">
+        <v>44074</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>15.09.1957</v>
+        <v>88</v>
+      </c>
+      <c r="B5" s="38" t="str">
+        <f>TEXT(L5, "ДД.ММ.ГГГГ")</f>
+        <v>31.03.1955</v>
       </c>
       <c r="C5" s="27"/>
       <c r="D5" s="28"/>
       <c r="E5" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="F5" s="32">
+        <v>89</v>
+      </c>
+      <c r="F5" s="30">
         <v>874737</v>
       </c>
-      <c r="G5" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="9"/>
-      <c r="N5" s="10">
-        <v>21078</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="I5" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>31.08.2020</v>
+      </c>
+      <c r="J5" s="9"/>
+      <c r="L5" s="10">
+        <v>20179</v>
+      </c>
+      <c r="M5" s="43">
+        <v>44074</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>15.09.1957</v>
+        <v>88</v>
+      </c>
+      <c r="B6" s="38" t="str">
+        <f>TEXT(L6, "ДД.ММ.ГГГГ")</f>
+        <v>31.03.1955</v>
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="28"/>
       <c r="E6" s="31" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="F6" s="32">
-        <v>874735</v>
+        <v>874739</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="H6" s="9"/>
-      <c r="N6" s="10">
-        <v>21078</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="H6" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="I6" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>31.08.2020</v>
+      </c>
+      <c r="J6" s="9"/>
+      <c r="L6" s="10">
+        <v>20179</v>
+      </c>
+      <c r="M6" s="43">
+        <v>44074</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>15.09.1957</v>
+        <v>88</v>
+      </c>
+      <c r="B7" s="38" t="str">
+        <f>TEXT(L7, "ДД.ММ.ГГГГ")</f>
+        <v>31.03.1955</v>
       </c>
       <c r="C7" s="27"/>
       <c r="D7" s="28"/>
       <c r="E7" s="31" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="F7" s="32">
-        <v>874733</v>
+        <v>874735</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="H7" s="9"/>
-      <c r="N7" s="10">
-        <v>21078</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="H7" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="I7" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>31.08.2020</v>
+      </c>
+      <c r="J7" s="9"/>
+      <c r="L7" s="10">
+        <v>20179</v>
+      </c>
+      <c r="M7" s="43">
+        <v>44074</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>03.07.1947</v>
+        <v>90</v>
+      </c>
+      <c r="B8" s="38" t="str">
+        <f>TEXT(L8, "ДД.ММ.ГГГГ")</f>
+        <v>29.09.1960</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="28"/>
       <c r="E8" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="F8" s="32">
+        <v>91</v>
+      </c>
+      <c r="F8" s="30">
         <v>874737</v>
       </c>
-      <c r="G8" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="9"/>
-      <c r="N8" s="10">
-        <v>17351</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="I8" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>31.08.2020</v>
+      </c>
+      <c r="J8" s="9"/>
+      <c r="L8" s="40">
+        <v>22188</v>
+      </c>
+      <c r="M8" s="43">
+        <v>44074</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>03.07.1947</v>
+        <v>90</v>
+      </c>
+      <c r="B9" s="38" t="str">
+        <f>TEXT(L9, "ДД.ММ.ГГГГ")</f>
+        <v>29.09.1960</v>
       </c>
       <c r="C9" s="27"/>
       <c r="D9" s="28"/>
       <c r="E9" s="31" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="F9" s="32">
-        <v>874735</v>
+        <v>874739</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="H9" s="9"/>
-      <c r="N9" s="10">
-        <v>17351</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>03.07.1947</v>
+        <v>87</v>
+      </c>
+      <c r="H9" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="I9" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>31.08.2020</v>
+      </c>
+      <c r="J9" s="9"/>
+      <c r="L9" s="40">
+        <v>22188</v>
+      </c>
+      <c r="M9" s="43">
+        <v>44074</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="24"/>
+      <c r="B10" s="38" t="str">
+        <f>TEXT(L10, "ДД.ММ.ГГГГ")</f>
+        <v>00.01.1900</v>
       </c>
       <c r="C10" s="27"/>
       <c r="D10" s="28"/>
-      <c r="E10" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="F10" s="32">
-        <v>874733</v>
-      </c>
-      <c r="G10" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="H10" s="9"/>
-      <c r="N10" s="10">
-        <v>17351</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>11.02.1958</v>
+      <c r="E10" s="31"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="9"/>
+      <c r="L10" s="10"/>
+    </row>
+    <row r="11" spans="1:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="24"/>
+      <c r="B11" s="38" t="str">
+        <f>TEXT(L11, "ДД.ММ.ГГГГ")</f>
+        <v>00.01.1900</v>
       </c>
       <c r="C11" s="27"/>
       <c r="D11" s="28"/>
-      <c r="E11" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" s="32">
-        <v>874737</v>
-      </c>
-      <c r="G11" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="H11" s="9"/>
-      <c r="N11" s="10">
-        <v>21227</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>11.02.1958</v>
+      <c r="E11" s="31"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="9"/>
+      <c r="L11" s="10"/>
+    </row>
+    <row r="12" spans="1:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="24"/>
+      <c r="B12" s="38" t="str">
+        <f>TEXT(L12, "ДД.ММ.ГГГГ")</f>
+        <v>00.01.1900</v>
       </c>
       <c r="C12" s="27"/>
       <c r="D12" s="28"/>
-      <c r="E12" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" s="32">
-        <v>874735</v>
-      </c>
-      <c r="G12" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="H12" s="9"/>
-      <c r="N12" s="10">
-        <v>21227</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>11.02.1958</v>
+      <c r="E12" s="31"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="9"/>
+      <c r="L12" s="10"/>
+    </row>
+    <row r="13" spans="1:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="24"/>
+      <c r="B13" s="38" t="str">
+        <f>TEXT(L13, "ДД.ММ.ГГГГ")</f>
+        <v>00.01.1900</v>
       </c>
       <c r="C13" s="27"/>
       <c r="D13" s="28"/>
-      <c r="E13" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="F13" s="32">
-        <v>874733</v>
-      </c>
-      <c r="G13" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="H13" s="9"/>
-      <c r="N13" s="10">
-        <v>21227</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>15.12.1977</v>
+      <c r="E13" s="31"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="9"/>
+      <c r="L13" s="10"/>
+    </row>
+    <row r="14" spans="1:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="24"/>
+      <c r="B14" s="38" t="str">
+        <f>TEXT(L14, "ДД.ММ.ГГГГ")</f>
+        <v>00.01.1900</v>
       </c>
       <c r="C14" s="27"/>
       <c r="D14" s="28"/>
-      <c r="E14" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" s="32">
-        <v>874737</v>
-      </c>
-      <c r="G14" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" s="9"/>
-      <c r="N14" s="10">
-        <v>28474</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>15.12.1977</v>
+      <c r="E14" s="31"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="9"/>
+      <c r="L14" s="10"/>
+    </row>
+    <row r="15" spans="1:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="24"/>
+      <c r="B15" s="38" t="str">
+        <f>TEXT(L15, "ДД.ММ.ГГГГ")</f>
+        <v>00.01.1900</v>
       </c>
       <c r="C15" s="27"/>
       <c r="D15" s="28"/>
-      <c r="E15" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="F15" s="32">
-        <v>874735</v>
-      </c>
-      <c r="G15" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="H15" s="9"/>
-      <c r="N15" s="10">
-        <v>28474</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>15.12.1977</v>
+      <c r="E15" s="31"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="9"/>
+      <c r="L15" s="10"/>
+    </row>
+    <row r="16" spans="1:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="24"/>
+      <c r="B16" s="38" t="str">
+        <f>TEXT(L16, "ДД.ММ.ГГГГ")</f>
+        <v>00.01.1900</v>
       </c>
       <c r="C16" s="27"/>
       <c r="D16" s="28"/>
-      <c r="E16" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16" s="32">
-        <v>874733</v>
-      </c>
-      <c r="G16" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="H16" s="9"/>
-      <c r="N16" s="10">
-        <v>28474</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>17.08.1988</v>
+      <c r="E16" s="31"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="9"/>
+      <c r="L16" s="10"/>
+    </row>
+    <row r="17" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="24"/>
+      <c r="B17" s="38" t="str">
+        <f>TEXT(L17, "ДД.ММ.ГГГГ")</f>
+        <v>00.01.1900</v>
       </c>
       <c r="C17" s="27"/>
       <c r="D17" s="28"/>
-      <c r="E17" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" s="32">
-        <v>874737</v>
-      </c>
-      <c r="G17" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" s="9"/>
-      <c r="N17" s="10">
-        <v>32372</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>17.08.1988</v>
+      <c r="E17" s="31"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="9"/>
+      <c r="L17" s="10"/>
+    </row>
+    <row r="18" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="24"/>
+      <c r="B18" s="38" t="str">
+        <f>TEXT(L18, "ДД.ММ.ГГГГ")</f>
+        <v>00.01.1900</v>
       </c>
       <c r="C18" s="27"/>
       <c r="D18" s="28"/>
-      <c r="E18" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" s="32">
-        <v>874735</v>
-      </c>
-      <c r="G18" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="H18" s="9"/>
-      <c r="N18" s="10">
-        <v>32372</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>17.08.1988</v>
+      <c r="E18" s="31"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="9"/>
+      <c r="L18" s="10"/>
+    </row>
+    <row r="19" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="24"/>
+      <c r="B19" s="38" t="str">
+        <f>TEXT(L19, "ДД.ММ.ГГГГ")</f>
+        <v>00.01.1900</v>
       </c>
       <c r="C19" s="27"/>
       <c r="D19" s="28"/>
-      <c r="E19" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" s="32">
-        <v>874733</v>
-      </c>
-      <c r="G19" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="H19" s="9"/>
-      <c r="N19" s="10">
-        <v>32372</v>
-      </c>
+      <c r="E19" s="31"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="9"/>
+      <c r="L19" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="54" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/spreadsheet.xlsx
+++ b/spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Documents\GitHub\promed-clicker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EC172B-2811-4335-BC9B-EDACF32C0885}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87DA82AE-696C-4B47-AEF0-72867E0EFF57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6CCF5E32-90BF-4976-8CE3-9868609CAAE5}"/>
   </bookViews>
@@ -537,7 +537,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -649,9 +649,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -662,6 +659,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -995,7 +998,7 @@
   <dimension ref="A1:AB19"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="L2" sqref="L2:M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1069,7 +1072,7 @@
       <c r="A2" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="39" t="str">
+      <c r="B2" s="44" t="str">
         <f>TEXT(L2, "ДД.ММ.ГГГГ")</f>
         <v>10.04.1958</v>
       </c>
@@ -1084,7 +1087,7 @@
       <c r="G2" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="40" t="s">
         <v>93</v>
       </c>
       <c r="I2" s="43" t="str">
@@ -1095,7 +1098,7 @@
       <c r="L2" s="11">
         <v>21285</v>
       </c>
-      <c r="M2" s="43">
+      <c r="M2" s="42">
         <v>44074</v>
       </c>
     </row>
@@ -1103,7 +1106,7 @@
       <c r="A3" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="39" t="str">
+      <c r="B3" s="44" t="str">
         <f t="shared" ref="B3:B4" si="0">TEXT(L3, "ДД.ММ.ГГГГ")</f>
         <v>10.04.1958</v>
       </c>
@@ -1118,18 +1121,18 @@
       <c r="G3" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="40" t="s">
         <v>93</v>
       </c>
       <c r="I3" s="43" t="str">
-        <f t="shared" ref="I3:I9" si="1">TEXT(M3, "ДД.ММ.ГГГГ")</f>
+        <f>TEXT(M3, "ДД.ММ.ГГГГ")</f>
         <v>31.08.2020</v>
       </c>
       <c r="J3" s="9"/>
       <c r="L3" s="11">
         <v>21285</v>
       </c>
-      <c r="M3" s="43">
+      <c r="M3" s="42">
         <v>44074</v>
       </c>
     </row>
@@ -1137,7 +1140,7 @@
       <c r="A4" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="39" t="str">
+      <c r="B4" s="44" t="str">
         <f t="shared" si="0"/>
         <v>10.04.1958</v>
       </c>
@@ -1152,18 +1155,18 @@
       <c r="G4" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="41" t="s">
+      <c r="H4" s="40" t="s">
         <v>93</v>
       </c>
       <c r="I4" s="43" t="str">
-        <f t="shared" si="1"/>
+        <f>TEXT(M4, "ДД.ММ.ГГГГ")</f>
         <v>31.08.2020</v>
       </c>
       <c r="J4" s="9"/>
       <c r="L4" s="11">
         <v>21285</v>
       </c>
-      <c r="M4" s="43">
+      <c r="M4" s="42">
         <v>44074</v>
       </c>
     </row>
@@ -1172,7 +1175,7 @@
         <v>88</v>
       </c>
       <c r="B5" s="38" t="str">
-        <f>TEXT(L5, "ДД.ММ.ГГГГ")</f>
+        <f t="shared" ref="B5:B19" si="1">TEXT(L5, "ДД.ММ.ГГГГ")</f>
         <v>31.03.1955</v>
       </c>
       <c r="C5" s="27"/>
@@ -1186,18 +1189,18 @@
       <c r="G5" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="H5" s="41" t="s">
+      <c r="H5" s="40" t="s">
         <v>93</v>
       </c>
       <c r="I5" s="43" t="str">
-        <f t="shared" si="1"/>
+        <f>TEXT(M5, "ДД.ММ.ГГГГ")</f>
         <v>31.08.2020</v>
       </c>
       <c r="J5" s="9"/>
       <c r="L5" s="10">
         <v>20179</v>
       </c>
-      <c r="M5" s="43">
+      <c r="M5" s="42">
         <v>44074</v>
       </c>
     </row>
@@ -1206,7 +1209,7 @@
         <v>88</v>
       </c>
       <c r="B6" s="38" t="str">
-        <f>TEXT(L6, "ДД.ММ.ГГГГ")</f>
+        <f t="shared" si="1"/>
         <v>31.03.1955</v>
       </c>
       <c r="C6" s="27"/>
@@ -1220,18 +1223,18 @@
       <c r="G6" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="H6" s="41" t="s">
+      <c r="H6" s="40" t="s">
         <v>93</v>
       </c>
       <c r="I6" s="43" t="str">
-        <f t="shared" si="1"/>
+        <f>TEXT(M6, "ДД.ММ.ГГГГ")</f>
         <v>31.08.2020</v>
       </c>
       <c r="J6" s="9"/>
       <c r="L6" s="10">
         <v>20179</v>
       </c>
-      <c r="M6" s="43">
+      <c r="M6" s="42">
         <v>44074</v>
       </c>
     </row>
@@ -1240,7 +1243,7 @@
         <v>88</v>
       </c>
       <c r="B7" s="38" t="str">
-        <f>TEXT(L7, "ДД.ММ.ГГГГ")</f>
+        <f t="shared" si="1"/>
         <v>31.03.1955</v>
       </c>
       <c r="C7" s="27"/>
@@ -1254,18 +1257,18 @@
       <c r="G7" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="41" t="s">
+      <c r="H7" s="40" t="s">
         <v>93</v>
       </c>
       <c r="I7" s="43" t="str">
-        <f t="shared" si="1"/>
+        <f>TEXT(M7, "ДД.ММ.ГГГГ")</f>
         <v>31.08.2020</v>
       </c>
       <c r="J7" s="9"/>
       <c r="L7" s="10">
         <v>20179</v>
       </c>
-      <c r="M7" s="43">
+      <c r="M7" s="42">
         <v>44074</v>
       </c>
     </row>
@@ -1274,7 +1277,7 @@
         <v>90</v>
       </c>
       <c r="B8" s="38" t="str">
-        <f>TEXT(L8, "ДД.ММ.ГГГГ")</f>
+        <f t="shared" si="1"/>
         <v>29.09.1960</v>
       </c>
       <c r="C8" s="27"/>
@@ -1288,18 +1291,18 @@
       <c r="G8" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="H8" s="41" t="s">
+      <c r="H8" s="40" t="s">
         <v>93</v>
       </c>
       <c r="I8" s="43" t="str">
-        <f t="shared" si="1"/>
+        <f>TEXT(M8, "ДД.ММ.ГГГГ")</f>
         <v>31.08.2020</v>
       </c>
       <c r="J8" s="9"/>
-      <c r="L8" s="40">
+      <c r="L8" s="39">
         <v>22188</v>
       </c>
-      <c r="M8" s="43">
+      <c r="M8" s="42">
         <v>44074</v>
       </c>
     </row>
@@ -1308,7 +1311,7 @@
         <v>90</v>
       </c>
       <c r="B9" s="38" t="str">
-        <f>TEXT(L9, "ДД.ММ.ГГГГ")</f>
+        <f t="shared" si="1"/>
         <v>29.09.1960</v>
       </c>
       <c r="C9" s="27"/>
@@ -1322,25 +1325,25 @@
       <c r="G9" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="H9" s="41" t="s">
+      <c r="H9" s="40" t="s">
         <v>93</v>
       </c>
       <c r="I9" s="43" t="str">
-        <f t="shared" si="1"/>
+        <f>TEXT(M9, "ДД.ММ.ГГГГ")</f>
         <v>31.08.2020</v>
       </c>
       <c r="J9" s="9"/>
-      <c r="L9" s="40">
+      <c r="L9" s="39">
         <v>22188</v>
       </c>
-      <c r="M9" s="43">
+      <c r="M9" s="42">
         <v>44074</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
       <c r="B10" s="38" t="str">
-        <f>TEXT(L10, "ДД.ММ.ГГГГ")</f>
+        <f t="shared" si="1"/>
         <v>00.01.1900</v>
       </c>
       <c r="C10" s="27"/>
@@ -1348,15 +1351,15 @@
       <c r="E10" s="31"/>
       <c r="F10" s="32"/>
       <c r="G10" s="35"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
       <c r="J10" s="9"/>
       <c r="L10" s="10"/>
     </row>
     <row r="11" spans="1:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24"/>
       <c r="B11" s="38" t="str">
-        <f>TEXT(L11, "ДД.ММ.ГГГГ")</f>
+        <f t="shared" si="1"/>
         <v>00.01.1900</v>
       </c>
       <c r="C11" s="27"/>
@@ -1364,15 +1367,15 @@
       <c r="E11" s="31"/>
       <c r="F11" s="32"/>
       <c r="G11" s="35"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
       <c r="J11" s="9"/>
       <c r="L11" s="10"/>
     </row>
     <row r="12" spans="1:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
       <c r="B12" s="38" t="str">
-        <f>TEXT(L12, "ДД.ММ.ГГГГ")</f>
+        <f t="shared" si="1"/>
         <v>00.01.1900</v>
       </c>
       <c r="C12" s="27"/>
@@ -1380,15 +1383,15 @@
       <c r="E12" s="31"/>
       <c r="F12" s="32"/>
       <c r="G12" s="35"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
       <c r="J12" s="9"/>
       <c r="L12" s="10"/>
     </row>
     <row r="13" spans="1:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="24"/>
       <c r="B13" s="38" t="str">
-        <f>TEXT(L13, "ДД.ММ.ГГГГ")</f>
+        <f t="shared" si="1"/>
         <v>00.01.1900</v>
       </c>
       <c r="C13" s="27"/>
@@ -1396,15 +1399,15 @@
       <c r="E13" s="31"/>
       <c r="F13" s="32"/>
       <c r="G13" s="35"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
       <c r="J13" s="9"/>
       <c r="L13" s="10"/>
     </row>
     <row r="14" spans="1:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24"/>
       <c r="B14" s="38" t="str">
-        <f>TEXT(L14, "ДД.ММ.ГГГГ")</f>
+        <f t="shared" si="1"/>
         <v>00.01.1900</v>
       </c>
       <c r="C14" s="27"/>
@@ -1412,15 +1415,15 @@
       <c r="E14" s="31"/>
       <c r="F14" s="32"/>
       <c r="G14" s="35"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
       <c r="J14" s="9"/>
       <c r="L14" s="10"/>
     </row>
     <row r="15" spans="1:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
       <c r="B15" s="38" t="str">
-        <f>TEXT(L15, "ДД.ММ.ГГГГ")</f>
+        <f t="shared" si="1"/>
         <v>00.01.1900</v>
       </c>
       <c r="C15" s="27"/>
@@ -1428,15 +1431,15 @@
       <c r="E15" s="31"/>
       <c r="F15" s="32"/>
       <c r="G15" s="35"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
       <c r="J15" s="9"/>
       <c r="L15" s="10"/>
     </row>
     <row r="16" spans="1:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
       <c r="B16" s="38" t="str">
-        <f>TEXT(L16, "ДД.ММ.ГГГГ")</f>
+        <f t="shared" si="1"/>
         <v>00.01.1900</v>
       </c>
       <c r="C16" s="27"/>
@@ -1444,15 +1447,15 @@
       <c r="E16" s="31"/>
       <c r="F16" s="32"/>
       <c r="G16" s="35"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
       <c r="J16" s="9"/>
       <c r="L16" s="10"/>
     </row>
     <row r="17" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="38" t="str">
-        <f>TEXT(L17, "ДД.ММ.ГГГГ")</f>
+        <f t="shared" si="1"/>
         <v>00.01.1900</v>
       </c>
       <c r="C17" s="27"/>
@@ -1460,15 +1463,15 @@
       <c r="E17" s="31"/>
       <c r="F17" s="32"/>
       <c r="G17" s="35"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
       <c r="J17" s="9"/>
       <c r="L17" s="10"/>
     </row>
     <row r="18" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="38" t="str">
-        <f>TEXT(L18, "ДД.ММ.ГГГГ")</f>
+        <f t="shared" si="1"/>
         <v>00.01.1900</v>
       </c>
       <c r="C18" s="27"/>
@@ -1476,15 +1479,15 @@
       <c r="E18" s="31"/>
       <c r="F18" s="32"/>
       <c r="G18" s="35"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
       <c r="J18" s="9"/>
       <c r="L18" s="10"/>
     </row>
     <row r="19" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
       <c r="B19" s="38" t="str">
-        <f>TEXT(L19, "ДД.ММ.ГГГГ")</f>
+        <f t="shared" si="1"/>
         <v>00.01.1900</v>
       </c>
       <c r="C19" s="27"/>
@@ -1492,8 +1495,8 @@
       <c r="E19" s="31"/>
       <c r="F19" s="32"/>
       <c r="G19" s="35"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
       <c r="J19" s="9"/>
       <c r="L19" s="10"/>
     </row>

--- a/spreadsheet.xlsx
+++ b/spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Documents\GitHub\promed-clicker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87DA82AE-696C-4B47-AEF0-72867E0EFF57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CA06F8-A90E-4199-9D1C-BD1549BCABD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6CCF5E32-90BF-4976-8CE3-9868609CAAE5}"/>
   </bookViews>
@@ -537,7 +537,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -652,9 +652,6 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -665,6 +662,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -998,7 +1001,7 @@
   <dimension ref="A1:AB19"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:M9"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1072,7 +1075,7 @@
       <c r="A2" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="44" t="str">
+      <c r="B2" s="43" t="str">
         <f>TEXT(L2, "ДД.ММ.ГГГГ")</f>
         <v>10.04.1958</v>
       </c>
@@ -1087,18 +1090,18 @@
       <c r="G2" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="I2" s="43" t="str">
-        <f>TEXT(M2, "ДД.ММ.ГГГГ")</f>
+      <c r="I2" s="42" t="str">
+        <f t="shared" ref="I2:I9" si="0">TEXT(M2, "ДД.ММ.ГГГГ")</f>
         <v>31.08.2020</v>
       </c>
       <c r="J2" s="17"/>
       <c r="L2" s="11">
         <v>21285</v>
       </c>
-      <c r="M2" s="42">
+      <c r="M2" s="41">
         <v>44074</v>
       </c>
     </row>
@@ -1106,8 +1109,8 @@
       <c r="A3" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="44" t="str">
-        <f t="shared" ref="B3:B4" si="0">TEXT(L3, "ДД.ММ.ГГГГ")</f>
+      <c r="B3" s="43" t="str">
+        <f t="shared" ref="B3:B4" si="1">TEXT(L3, "ДД.ММ.ГГГГ")</f>
         <v>10.04.1958</v>
       </c>
       <c r="C3" s="25"/>
@@ -1121,18 +1124,18 @@
       <c r="G3" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="H3" s="40" t="s">
+      <c r="H3" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="I3" s="43" t="str">
-        <f>TEXT(M3, "ДД.ММ.ГГГГ")</f>
+      <c r="I3" s="42" t="str">
+        <f t="shared" si="0"/>
         <v>31.08.2020</v>
       </c>
       <c r="J3" s="9"/>
       <c r="L3" s="11">
         <v>21285</v>
       </c>
-      <c r="M3" s="42">
+      <c r="M3" s="41">
         <v>44074</v>
       </c>
     </row>
@@ -1140,8 +1143,8 @@
       <c r="A4" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="44" t="str">
-        <f t="shared" si="0"/>
+      <c r="B4" s="43" t="str">
+        <f t="shared" si="1"/>
         <v>10.04.1958</v>
       </c>
       <c r="C4" s="25"/>
@@ -1155,18 +1158,18 @@
       <c r="G4" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="40" t="s">
+      <c r="H4" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="I4" s="43" t="str">
-        <f>TEXT(M4, "ДД.ММ.ГГГГ")</f>
+      <c r="I4" s="42" t="str">
+        <f t="shared" si="0"/>
         <v>31.08.2020</v>
       </c>
       <c r="J4" s="9"/>
       <c r="L4" s="11">
         <v>21285</v>
       </c>
-      <c r="M4" s="42">
+      <c r="M4" s="41">
         <v>44074</v>
       </c>
     </row>
@@ -1175,7 +1178,7 @@
         <v>88</v>
       </c>
       <c r="B5" s="38" t="str">
-        <f t="shared" ref="B5:B19" si="1">TEXT(L5, "ДД.ММ.ГГГГ")</f>
+        <f t="shared" ref="B5:B19" si="2">TEXT(L5, "ДД.ММ.ГГГГ")</f>
         <v>31.03.1955</v>
       </c>
       <c r="C5" s="27"/>
@@ -1189,18 +1192,18 @@
       <c r="G5" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="H5" s="40" t="s">
+      <c r="H5" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="I5" s="43" t="str">
-        <f>TEXT(M5, "ДД.ММ.ГГГГ")</f>
+      <c r="I5" s="42" t="str">
+        <f t="shared" si="0"/>
         <v>31.08.2020</v>
       </c>
       <c r="J5" s="9"/>
       <c r="L5" s="10">
         <v>20179</v>
       </c>
-      <c r="M5" s="42">
+      <c r="M5" s="41">
         <v>44074</v>
       </c>
     </row>
@@ -1209,7 +1212,7 @@
         <v>88</v>
       </c>
       <c r="B6" s="38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31.03.1955</v>
       </c>
       <c r="C6" s="27"/>
@@ -1223,18 +1226,18 @@
       <c r="G6" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="H6" s="40" t="s">
+      <c r="H6" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="I6" s="43" t="str">
-        <f>TEXT(M6, "ДД.ММ.ГГГГ")</f>
+      <c r="I6" s="42" t="str">
+        <f t="shared" si="0"/>
         <v>31.08.2020</v>
       </c>
       <c r="J6" s="9"/>
       <c r="L6" s="10">
         <v>20179</v>
       </c>
-      <c r="M6" s="42">
+      <c r="M6" s="41">
         <v>44074</v>
       </c>
     </row>
@@ -1243,7 +1246,7 @@
         <v>88</v>
       </c>
       <c r="B7" s="38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31.03.1955</v>
       </c>
       <c r="C7" s="27"/>
@@ -1257,18 +1260,18 @@
       <c r="G7" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="40" t="s">
+      <c r="H7" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="I7" s="43" t="str">
-        <f>TEXT(M7, "ДД.ММ.ГГГГ")</f>
+      <c r="I7" s="42" t="str">
+        <f t="shared" si="0"/>
         <v>31.08.2020</v>
       </c>
       <c r="J7" s="9"/>
       <c r="L7" s="10">
         <v>20179</v>
       </c>
-      <c r="M7" s="42">
+      <c r="M7" s="41">
         <v>44074</v>
       </c>
     </row>
@@ -1277,7 +1280,7 @@
         <v>90</v>
       </c>
       <c r="B8" s="38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29.09.1960</v>
       </c>
       <c r="C8" s="27"/>
@@ -1291,18 +1294,18 @@
       <c r="G8" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="H8" s="40" t="s">
+      <c r="H8" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="I8" s="43" t="str">
-        <f>TEXT(M8, "ДД.ММ.ГГГГ")</f>
+      <c r="I8" s="42" t="str">
+        <f t="shared" si="0"/>
         <v>31.08.2020</v>
       </c>
       <c r="J8" s="9"/>
       <c r="L8" s="39">
         <v>22188</v>
       </c>
-      <c r="M8" s="42">
+      <c r="M8" s="41">
         <v>44074</v>
       </c>
     </row>
@@ -1311,7 +1314,7 @@
         <v>90</v>
       </c>
       <c r="B9" s="38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29.09.1960</v>
       </c>
       <c r="C9" s="27"/>
@@ -1325,25 +1328,25 @@
       <c r="G9" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="H9" s="40" t="s">
+      <c r="H9" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="I9" s="43" t="str">
-        <f>TEXT(M9, "ДД.ММ.ГГГГ")</f>
+      <c r="I9" s="42" t="str">
+        <f t="shared" si="0"/>
         <v>31.08.2020</v>
       </c>
       <c r="J9" s="9"/>
       <c r="L9" s="39">
         <v>22188</v>
       </c>
-      <c r="M9" s="42">
+      <c r="M9" s="41">
         <v>44074</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
       <c r="B10" s="38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00.01.1900</v>
       </c>
       <c r="C10" s="27"/>
@@ -1351,15 +1354,15 @@
       <c r="E10" s="31"/>
       <c r="F10" s="32"/>
       <c r="G10" s="35"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="40"/>
       <c r="J10" s="9"/>
       <c r="L10" s="10"/>
     </row>
     <row r="11" spans="1:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24"/>
       <c r="B11" s="38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00.01.1900</v>
       </c>
       <c r="C11" s="27"/>
@@ -1367,15 +1370,15 @@
       <c r="E11" s="31"/>
       <c r="F11" s="32"/>
       <c r="G11" s="35"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="40"/>
       <c r="J11" s="9"/>
       <c r="L11" s="10"/>
     </row>
     <row r="12" spans="1:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
       <c r="B12" s="38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00.01.1900</v>
       </c>
       <c r="C12" s="27"/>
@@ -1383,15 +1386,15 @@
       <c r="E12" s="31"/>
       <c r="F12" s="32"/>
       <c r="G12" s="35"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="40"/>
       <c r="J12" s="9"/>
       <c r="L12" s="10"/>
     </row>
     <row r="13" spans="1:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="24"/>
       <c r="B13" s="38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00.01.1900</v>
       </c>
       <c r="C13" s="27"/>
@@ -1399,15 +1402,15 @@
       <c r="E13" s="31"/>
       <c r="F13" s="32"/>
       <c r="G13" s="35"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="40"/>
       <c r="J13" s="9"/>
       <c r="L13" s="10"/>
     </row>
     <row r="14" spans="1:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24"/>
       <c r="B14" s="38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00.01.1900</v>
       </c>
       <c r="C14" s="27"/>
@@ -1415,15 +1418,15 @@
       <c r="E14" s="31"/>
       <c r="F14" s="32"/>
       <c r="G14" s="35"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="40"/>
       <c r="J14" s="9"/>
       <c r="L14" s="10"/>
     </row>
     <row r="15" spans="1:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
       <c r="B15" s="38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00.01.1900</v>
       </c>
       <c r="C15" s="27"/>
@@ -1431,15 +1434,15 @@
       <c r="E15" s="31"/>
       <c r="F15" s="32"/>
       <c r="G15" s="35"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
       <c r="J15" s="9"/>
       <c r="L15" s="10"/>
     </row>
     <row r="16" spans="1:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
       <c r="B16" s="38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00.01.1900</v>
       </c>
       <c r="C16" s="27"/>
@@ -1447,15 +1450,15 @@
       <c r="E16" s="31"/>
       <c r="F16" s="32"/>
       <c r="G16" s="35"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
       <c r="J16" s="9"/>
       <c r="L16" s="10"/>
     </row>
     <row r="17" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00.01.1900</v>
       </c>
       <c r="C17" s="27"/>
@@ -1463,15 +1466,15 @@
       <c r="E17" s="31"/>
       <c r="F17" s="32"/>
       <c r="G17" s="35"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
       <c r="J17" s="9"/>
       <c r="L17" s="10"/>
     </row>
     <row r="18" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00.01.1900</v>
       </c>
       <c r="C18" s="27"/>
@@ -1479,15 +1482,15 @@
       <c r="E18" s="31"/>
       <c r="F18" s="32"/>
       <c r="G18" s="35"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
       <c r="J18" s="9"/>
       <c r="L18" s="10"/>
     </row>
     <row r="19" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
       <c r="B19" s="38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00.01.1900</v>
       </c>
       <c r="C19" s="27"/>
@@ -1495,8 +1498,8 @@
       <c r="E19" s="31"/>
       <c r="F19" s="32"/>
       <c r="G19" s="35"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
       <c r="J19" s="9"/>
       <c r="L19" s="10"/>
     </row>

--- a/spreadsheet.xlsx
+++ b/spreadsheet.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Documents\GitHub\promed-clicker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CA06F8-A90E-4199-9D1C-BD1549BCABD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2578FD9-267E-4610-B0FF-154758E3C3E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6CCF5E32-90BF-4976-8CE3-9868609CAAE5}"/>
   </bookViews>
   <sheets>
-    <sheet name="My Sheet" sheetId="4" r:id="rId1"/>
-    <sheet name="Лист1" sheetId="1" r:id="rId2"/>
-    <sheet name="Лист1 (2)" sheetId="3" r:id="rId3"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId4"/>
+    <sheet name="My Sheet (2)" sheetId="5" r:id="rId1"/>
+    <sheet name="My Sheet" sheetId="4" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId3"/>
+    <sheet name="Лист1 (2)" sheetId="3" r:id="rId4"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'My Sheet'!$A$1:$J$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'My Sheet'!$A$1:$J$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'My Sheet (2)'!$A$1:$M$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="167">
   <si>
     <t>A06.09.005</t>
   </si>
@@ -293,9 +295,6 @@
     <t>РЕЗУЛЬТАТ</t>
   </si>
   <si>
-    <t>БАДАМШИН САЛАВАТ ЯНГАЛИЕВИЧ</t>
-  </si>
-  <si>
     <t>D14.1</t>
   </si>
   <si>
@@ -305,15 +304,9 @@
     <t>А06.03.058</t>
   </si>
   <si>
-    <t>Домрачев Николай Никитич</t>
-  </si>
-  <si>
     <t>C83.0</t>
   </si>
   <si>
-    <t>Федотова Людмила Ивановна</t>
-  </si>
-  <si>
     <t>N85.0</t>
   </si>
   <si>
@@ -324,13 +317,238 @@
   </si>
   <si>
     <t>ДАТА</t>
+  </si>
+  <si>
+    <t>ет</t>
+  </si>
+  <si>
+    <t>Расулов Радик Шамсутдинович</t>
+  </si>
+  <si>
+    <t>9279278240 (БД)</t>
+  </si>
+  <si>
+    <t>Новиков Николай Владимирович</t>
+  </si>
+  <si>
+    <t>9174365453 (БД)</t>
+  </si>
+  <si>
+    <t>АХМЕРОВ ЮРИЙ НИКОЛАЕВИЧ</t>
+  </si>
+  <si>
+    <t>9270812255 (БД)</t>
+  </si>
+  <si>
+    <t>ДАВЛЕТЯРОВ ФАНУС ГАББАСОВИЧ</t>
+  </si>
+  <si>
+    <t>9613570108 (БД)</t>
+  </si>
+  <si>
+    <t>Габитова Умугульсум Салимьяновна</t>
+  </si>
+  <si>
+    <t>9613703460 (БД)</t>
+  </si>
+  <si>
+    <t>ДЮСМЕТОВА АЛИЯ ИЛЮСОВНА</t>
+  </si>
+  <si>
+    <t>9371629297 (БД)</t>
+  </si>
+  <si>
+    <t>Субботкина Александра Петровна</t>
+  </si>
+  <si>
+    <t>9053597578 (БД)</t>
+  </si>
+  <si>
+    <t>ГАУЗ РКОД МЗ РБ, ОНКО-УРОЛОГ</t>
+  </si>
+  <si>
+    <t>Коротков Владимир Александрович</t>
+  </si>
+  <si>
+    <t>9273298877 (БД)</t>
+  </si>
+  <si>
+    <t>Хазиев А Р</t>
+  </si>
+  <si>
+    <t>Костюкевич Елена Петровна</t>
+  </si>
+  <si>
+    <t>9871060727 (БД)</t>
+  </si>
+  <si>
+    <t>Шагимарданова Ольга Михайловна</t>
+  </si>
+  <si>
+    <t>9613581026 (БД)</t>
+  </si>
+  <si>
+    <t>ГАУЗ РКОД МЗ РБ, ОБЩИЙ ОНКОЛОГ (1 пол)</t>
+  </si>
+  <si>
+    <t>Коробкина Татьяна Валериановна</t>
+  </si>
+  <si>
+    <t>3475023116 (БД)</t>
+  </si>
+  <si>
+    <t>Фархутдинова Е Ф</t>
+  </si>
+  <si>
+    <t>Казаченко Виктор Лаврентьевич</t>
+  </si>
+  <si>
+    <t>0002442637 (БД)</t>
+  </si>
+  <si>
+    <t>Мухаметдинова Райса Юсуповна</t>
+  </si>
+  <si>
+    <t>3477028125 (БД)</t>
+  </si>
+  <si>
+    <t>Афзалетдинова Зиля Радиковна</t>
+  </si>
+  <si>
+    <t>9273012307 (БД)</t>
+  </si>
+  <si>
+    <t>Мухамедьянов Валерий Анатолеевич</t>
+  </si>
+  <si>
+    <t>9174150248 (БД)</t>
+  </si>
+  <si>
+    <t>Закиров Рашит Исмагилович</t>
+  </si>
+  <si>
+    <t>9174401679 (БД)</t>
+  </si>
+  <si>
+    <t>ГАУЗ РКОД МЗ РБ, 1.ПАЛЛИАТИВНАЯ ПОМОЩЬ</t>
+  </si>
+  <si>
+    <t>МИХАЙЛОВ СЕРГЕЙ ВЛАДИМИРОВИЧ</t>
+  </si>
+  <si>
+    <t>9174353729 (БД)</t>
+  </si>
+  <si>
+    <t>МЕЛЬНИЧУК А В</t>
+  </si>
+  <si>
+    <t>ЛЫСКОВА ГАЛИНА ВАСИЛЬЕВНА</t>
+  </si>
+  <si>
+    <t>9173642103 (БД)</t>
+  </si>
+  <si>
+    <t>Кудряшов А А</t>
+  </si>
+  <si>
+    <t>Акбатыров Миняй Иманбаевич</t>
+  </si>
+  <si>
+    <t>9273248153 (БД)</t>
+  </si>
+  <si>
+    <t>Нечитайло Нина Яновна</t>
+  </si>
+  <si>
+    <t>9174714456 (БД)</t>
+  </si>
+  <si>
+    <t>НУГУМАНОВА ДИНА ГАЙНУТДИНОВНА</t>
+  </si>
+  <si>
+    <t>+79174241257 (портал самозаписи); 9174241257 (БД)</t>
+  </si>
+  <si>
+    <t>Валиахметова Ч Х</t>
+  </si>
+  <si>
+    <t>Тугалуков Владимир Михайлович</t>
+  </si>
+  <si>
+    <t>9279679021 (БД)</t>
+  </si>
+  <si>
+    <t>Белихова Роза Абдурахмановна</t>
+  </si>
+  <si>
+    <t>9050043225 (БД)</t>
+  </si>
+  <si>
+    <t>C32.3</t>
+  </si>
+  <si>
+    <t>C32.9</t>
+  </si>
+  <si>
+    <t>D23.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D12.5 </t>
+  </si>
+  <si>
+    <t>D27</t>
+  </si>
+  <si>
+    <t>D06.7</t>
+  </si>
+  <si>
+    <t>N87.1</t>
+  </si>
+  <si>
+    <t>C61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D48.6 </t>
+  </si>
+  <si>
+    <t>D21.3</t>
+  </si>
+  <si>
+    <t>C67.9</t>
+  </si>
+  <si>
+    <t>C50.4</t>
+  </si>
+  <si>
+    <t>D12.8</t>
+  </si>
+  <si>
+    <t>C34.8</t>
+  </si>
+  <si>
+    <t>C19</t>
+  </si>
+  <si>
+    <t>D40.9</t>
+  </si>
+  <si>
+    <t>C54.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C20 </t>
+  </si>
+  <si>
+    <t>C50.2</t>
+  </si>
+  <si>
+    <t>А06.30.005.001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,6 +591,27 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="PT Sans Narrow"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
@@ -537,7 +776,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -668,6 +907,42 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -994,14 +1269,753 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5082DBDE-3286-4633-AF7C-B43FDC366AA9}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AI25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.7109375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="37" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="12" customWidth="1"/>
+    <col min="5" max="5" width="40.7109375" style="13" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="10" customWidth="1"/>
+    <col min="7" max="7" width="40.7109375" style="10" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="10" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" style="10" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" style="10" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" style="10" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" style="10" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" style="10" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" style="10"/>
+    <col min="15" max="15" width="19.28515625" style="11" customWidth="1"/>
+    <col min="16" max="16" width="9.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="23" width="8.85546875" style="10"/>
+    <col min="24" max="24" width="30.42578125" style="10" customWidth="1"/>
+    <col min="25" max="29" width="8.85546875" style="10"/>
+    <col min="30" max="30" width="20.7109375" style="10" customWidth="1"/>
+    <col min="31" max="31" width="31.5703125" style="10" customWidth="1"/>
+    <col min="32" max="32" width="26.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" s="16" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="K1" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="L1" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="M1" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="N1" s="14"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14"/>
+      <c r="AD1" s="14"/>
+      <c r="AE1" s="14"/>
+    </row>
+    <row r="2" spans="1:35" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="55" t="str">
+        <f>TEXT(O2, "ДД.ММ.ГГГГ")</f>
+        <v>04.12.1954</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="54"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="55" t="str">
+        <f>TEXT(P2, "ДД.ММ.ГГГГ")</f>
+        <v>31.08.2020</v>
+      </c>
+      <c r="G2" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="59">
+        <v>874737</v>
+      </c>
+      <c r="I2" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" s="59">
+        <v>874735</v>
+      </c>
+      <c r="K2" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" s="59">
+        <v>874733</v>
+      </c>
+      <c r="M2" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="O2" s="11">
+        <v>20062</v>
+      </c>
+      <c r="P2" s="41">
+        <v>44074</v>
+      </c>
+      <c r="T2" s="11"/>
+      <c r="U2" s="46"/>
+      <c r="Y2" s="11"/>
+      <c r="AD2" s="47"/>
+      <c r="AE2" s="47"/>
+    </row>
+    <row r="3" spans="1:35" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="54"/>
+      <c r="B3" s="55" t="str">
+        <f t="shared" ref="B3:B19" si="0">TEXT(O3, "ДД.ММ.ГГГГ")</f>
+        <v>10.04.1958</v>
+      </c>
+      <c r="C3" s="56"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="55" t="str">
+        <f>TEXT(P3, "ДД.ММ.ГГГГ")</f>
+        <v>31.08.2020</v>
+      </c>
+      <c r="G3" s="58"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="O3" s="11">
+        <v>21285</v>
+      </c>
+      <c r="P3" s="41">
+        <v>44074</v>
+      </c>
+      <c r="T3" s="11"/>
+      <c r="U3" s="46"/>
+      <c r="Y3" s="11"/>
+      <c r="AD3" s="47"/>
+      <c r="AE3" s="47"/>
+    </row>
+    <row r="4" spans="1:35" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="54"/>
+      <c r="B4" s="55" t="str">
+        <f t="shared" si="0"/>
+        <v>10.04.1958</v>
+      </c>
+      <c r="C4" s="56"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="55" t="str">
+        <f>TEXT(P4, "ДД.ММ.ГГГГ")</f>
+        <v>31.08.2020</v>
+      </c>
+      <c r="G4" s="58"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="O4" s="11">
+        <v>21285</v>
+      </c>
+      <c r="P4" s="41">
+        <v>44074</v>
+      </c>
+      <c r="T4" s="11"/>
+      <c r="U4" s="46"/>
+      <c r="Y4" s="11"/>
+      <c r="AD4" s="47"/>
+      <c r="AE4" s="47"/>
+      <c r="AF4" s="47"/>
+      <c r="AG4" s="47"/>
+      <c r="AH4" s="47"/>
+      <c r="AI4" s="47"/>
+    </row>
+    <row r="5" spans="1:35" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="54"/>
+      <c r="B5" s="55" t="str">
+        <f t="shared" si="0"/>
+        <v>31.03.1955</v>
+      </c>
+      <c r="C5" s="56"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="55" t="str">
+        <f>TEXT(P5, "ДД.ММ.ГГГГ")</f>
+        <v>31.08.2020</v>
+      </c>
+      <c r="G5" s="58"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
+      <c r="O5" s="10">
+        <v>20179</v>
+      </c>
+      <c r="P5" s="41">
+        <v>44074</v>
+      </c>
+      <c r="T5" s="11"/>
+      <c r="U5" s="46"/>
+      <c r="Y5" s="11"/>
+      <c r="AD5" s="47"/>
+      <c r="AE5" s="47"/>
+      <c r="AF5" s="47"/>
+      <c r="AG5" s="47"/>
+      <c r="AH5" s="47"/>
+      <c r="AI5" s="47"/>
+    </row>
+    <row r="6" spans="1:35" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="54"/>
+      <c r="B6" s="55" t="str">
+        <f t="shared" si="0"/>
+        <v>31.03.1955</v>
+      </c>
+      <c r="C6" s="56"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="55" t="str">
+        <f>TEXT(P6, "ДД.ММ.ГГГГ")</f>
+        <v>31.08.2020</v>
+      </c>
+      <c r="G6" s="58"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="O6" s="10">
+        <v>20179</v>
+      </c>
+      <c r="P6" s="41">
+        <v>44074</v>
+      </c>
+      <c r="T6" s="11"/>
+      <c r="U6" s="46"/>
+      <c r="Y6" s="11"/>
+      <c r="AD6" s="47"/>
+      <c r="AE6" s="47"/>
+      <c r="AF6" s="47"/>
+      <c r="AG6" s="47"/>
+      <c r="AH6" s="47"/>
+      <c r="AI6" s="47"/>
+    </row>
+    <row r="7" spans="1:35" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="54"/>
+      <c r="B7" s="55" t="str">
+        <f t="shared" si="0"/>
+        <v>31.03.1955</v>
+      </c>
+      <c r="C7" s="56"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="55" t="str">
+        <f>TEXT(P7, "ДД.ММ.ГГГГ")</f>
+        <v>31.08.2020</v>
+      </c>
+      <c r="G7" s="58"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="O7" s="10">
+        <v>20179</v>
+      </c>
+      <c r="P7" s="41">
+        <v>44074</v>
+      </c>
+      <c r="T7" s="11"/>
+      <c r="U7" s="46"/>
+      <c r="Y7" s="11"/>
+      <c r="AD7" s="47"/>
+      <c r="AE7" s="47"/>
+      <c r="AF7" s="47"/>
+      <c r="AG7" s="47"/>
+      <c r="AH7" s="47"/>
+      <c r="AI7" s="47"/>
+    </row>
+    <row r="8" spans="1:35" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="54"/>
+      <c r="B8" s="55" t="str">
+        <f t="shared" si="0"/>
+        <v>29.09.1960</v>
+      </c>
+      <c r="C8" s="56"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="55" t="str">
+        <f>TEXT(P8, "ДД.ММ.ГГГГ")</f>
+        <v>31.08.2020</v>
+      </c>
+      <c r="G8" s="58"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="59"/>
+      <c r="O8" s="39">
+        <v>22188</v>
+      </c>
+      <c r="P8" s="41">
+        <v>44074</v>
+      </c>
+      <c r="T8" s="11"/>
+      <c r="U8" s="46"/>
+      <c r="Y8" s="11"/>
+      <c r="AD8" s="47"/>
+      <c r="AE8" s="47"/>
+      <c r="AF8" s="47"/>
+      <c r="AG8" s="47"/>
+      <c r="AH8" s="47"/>
+      <c r="AI8" s="47"/>
+    </row>
+    <row r="9" spans="1:35" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="54"/>
+      <c r="B9" s="55" t="str">
+        <f t="shared" si="0"/>
+        <v>29.09.1960</v>
+      </c>
+      <c r="C9" s="56"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="55" t="str">
+        <f>TEXT(P9, "ДД.ММ.ГГГГ")</f>
+        <v>31.08.2020</v>
+      </c>
+      <c r="G9" s="58"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="O9" s="39">
+        <v>22188</v>
+      </c>
+      <c r="P9" s="41">
+        <v>44074</v>
+      </c>
+      <c r="T9" s="11"/>
+      <c r="U9" s="46"/>
+      <c r="Y9" s="11"/>
+      <c r="AD9" s="47"/>
+      <c r="AE9" s="47"/>
+      <c r="AF9" s="47"/>
+      <c r="AG9" s="47"/>
+      <c r="AH9" s="47"/>
+      <c r="AI9" s="47"/>
+    </row>
+    <row r="10" spans="1:35" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="54"/>
+      <c r="B10" s="55" t="str">
+        <f t="shared" si="0"/>
+        <v>00.01.1900</v>
+      </c>
+      <c r="C10" s="56"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="O10" s="10"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="46"/>
+      <c r="Y10" s="11"/>
+      <c r="AD10" s="47"/>
+      <c r="AE10" s="47"/>
+      <c r="AF10" s="47"/>
+      <c r="AG10" s="47"/>
+      <c r="AH10" s="47"/>
+      <c r="AI10" s="47"/>
+    </row>
+    <row r="11" spans="1:35" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="54"/>
+      <c r="B11" s="55" t="str">
+        <f t="shared" si="0"/>
+        <v>00.01.1900</v>
+      </c>
+      <c r="C11" s="56"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
+      <c r="O11" s="10"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="46"/>
+      <c r="Y11" s="11"/>
+      <c r="AD11" s="47"/>
+      <c r="AE11" s="47"/>
+      <c r="AF11" s="47"/>
+      <c r="AG11" s="47"/>
+      <c r="AH11" s="47"/>
+      <c r="AI11" s="47"/>
+    </row>
+    <row r="12" spans="1:35" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="54"/>
+      <c r="B12" s="55" t="str">
+        <f t="shared" si="0"/>
+        <v>00.01.1900</v>
+      </c>
+      <c r="C12" s="56"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="59"/>
+      <c r="O12" s="10"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="46"/>
+      <c r="Y12" s="11"/>
+      <c r="AD12" s="47"/>
+      <c r="AE12" s="47"/>
+      <c r="AF12" s="47"/>
+      <c r="AG12" s="47"/>
+      <c r="AH12" s="47"/>
+      <c r="AI12" s="47"/>
+    </row>
+    <row r="13" spans="1:35" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="54"/>
+      <c r="B13" s="55" t="str">
+        <f t="shared" si="0"/>
+        <v>00.01.1900</v>
+      </c>
+      <c r="C13" s="56"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="O13" s="10"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="46"/>
+      <c r="Y13" s="11"/>
+      <c r="AD13" s="47"/>
+      <c r="AE13" s="47"/>
+      <c r="AF13" s="47"/>
+      <c r="AG13" s="47"/>
+      <c r="AH13" s="47"/>
+      <c r="AI13" s="47"/>
+    </row>
+    <row r="14" spans="1:35" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="54"/>
+      <c r="B14" s="55" t="str">
+        <f t="shared" si="0"/>
+        <v>00.01.1900</v>
+      </c>
+      <c r="C14" s="56"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+      <c r="O14" s="10"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="46"/>
+      <c r="Y14" s="11"/>
+      <c r="AD14" s="47"/>
+      <c r="AE14" s="47"/>
+      <c r="AF14" s="47"/>
+      <c r="AG14" s="47"/>
+      <c r="AH14" s="47"/>
+      <c r="AI14" s="47"/>
+    </row>
+    <row r="15" spans="1:35" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="54"/>
+      <c r="B15" s="55" t="str">
+        <f t="shared" si="0"/>
+        <v>00.01.1900</v>
+      </c>
+      <c r="C15" s="56"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="O15" s="10"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="46"/>
+      <c r="Y15" s="11"/>
+      <c r="AD15" s="47"/>
+      <c r="AE15" s="47"/>
+      <c r="AF15" s="47"/>
+      <c r="AG15" s="47"/>
+      <c r="AH15" s="47"/>
+      <c r="AI15" s="47"/>
+    </row>
+    <row r="16" spans="1:35" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="54"/>
+      <c r="B16" s="55" t="str">
+        <f t="shared" si="0"/>
+        <v>00.01.1900</v>
+      </c>
+      <c r="C16" s="56"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="59"/>
+      <c r="O16" s="10"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="46"/>
+      <c r="Y16" s="11"/>
+      <c r="AD16" s="47"/>
+      <c r="AE16" s="47"/>
+      <c r="AF16" s="47"/>
+      <c r="AG16" s="47"/>
+      <c r="AH16" s="47"/>
+      <c r="AI16" s="47"/>
+    </row>
+    <row r="17" spans="1:35" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="54"/>
+      <c r="B17" s="55" t="str">
+        <f t="shared" si="0"/>
+        <v>00.01.1900</v>
+      </c>
+      <c r="C17" s="56"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="O17" s="10"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="46"/>
+      <c r="Y17" s="11"/>
+      <c r="AD17" s="47"/>
+      <c r="AE17" s="47"/>
+      <c r="AF17" s="47"/>
+      <c r="AG17" s="47"/>
+      <c r="AH17" s="47"/>
+      <c r="AI17" s="47"/>
+    </row>
+    <row r="18" spans="1:35" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="54"/>
+      <c r="B18" s="55" t="str">
+        <f t="shared" si="0"/>
+        <v>00.01.1900</v>
+      </c>
+      <c r="C18" s="56"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="59"/>
+      <c r="O18" s="10"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="46"/>
+      <c r="Y18" s="11"/>
+      <c r="AD18" s="47"/>
+      <c r="AE18" s="47"/>
+      <c r="AF18" s="47"/>
+      <c r="AG18" s="47"/>
+      <c r="AH18" s="47"/>
+      <c r="AI18" s="47"/>
+    </row>
+    <row r="19" spans="1:35" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="54"/>
+      <c r="B19" s="55" t="str">
+        <f t="shared" si="0"/>
+        <v>00.01.1900</v>
+      </c>
+      <c r="C19" s="56"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="O19" s="10"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="46"/>
+      <c r="Y19" s="11"/>
+      <c r="AD19" s="47"/>
+      <c r="AE19" s="47"/>
+      <c r="AF19" s="48"/>
+      <c r="AG19" s="48"/>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="T20" s="11"/>
+      <c r="U20" s="46"/>
+      <c r="Y20" s="11"/>
+      <c r="AD20" s="47"/>
+      <c r="AE20" s="47"/>
+      <c r="AF20" s="47"/>
+      <c r="AG20" s="47"/>
+      <c r="AH20" s="47"/>
+      <c r="AI20" s="47"/>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="T21" s="11"/>
+      <c r="U21" s="46"/>
+      <c r="Y21" s="11"/>
+      <c r="AD21" s="47"/>
+      <c r="AE21" s="47"/>
+      <c r="AF21" s="47"/>
+      <c r="AG21" s="47"/>
+      <c r="AH21" s="47"/>
+      <c r="AI21" s="47"/>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="T22" s="11"/>
+      <c r="U22" s="46"/>
+      <c r="Y22" s="11"/>
+      <c r="AD22" s="47"/>
+      <c r="AE22" s="47"/>
+      <c r="AF22" s="49"/>
+      <c r="AG22" s="47"/>
+      <c r="AH22" s="47"/>
+      <c r="AI22" s="47"/>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="T23" s="11"/>
+      <c r="U23" s="46"/>
+      <c r="Y23" s="11"/>
+      <c r="AD23" s="47"/>
+      <c r="AE23" s="47"/>
+      <c r="AF23" s="47"/>
+      <c r="AG23" s="47"/>
+      <c r="AH23" s="47"/>
+      <c r="AI23" s="47"/>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="T24" s="11"/>
+      <c r="U24" s="46"/>
+      <c r="Y24" s="11"/>
+      <c r="AD24" s="47"/>
+      <c r="AE24" s="47"/>
+      <c r="AF24" s="47"/>
+      <c r="AG24" s="47"/>
+      <c r="AH24" s="47"/>
+      <c r="AI24" s="47"/>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AF25" s="47"/>
+      <c r="AG25" s="48"/>
+      <c r="AH25" s="47"/>
+      <c r="AI25" s="47"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="31" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95C91358-37E6-4149-BBCE-8F9D3F17590A}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB19"/>
+  <dimension ref="A1:AF25"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,10 +2032,15 @@
     <col min="11" max="11" width="8.85546875" style="10"/>
     <col min="12" max="12" width="19.28515625" style="11" customWidth="1"/>
     <col min="13" max="13" width="9.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="28" width="8.85546875" style="10"/>
+    <col min="14" max="20" width="8.85546875" style="10"/>
+    <col min="21" max="21" width="30.42578125" style="10" customWidth="1"/>
+    <col min="22" max="26" width="8.85546875" style="10"/>
+    <col min="27" max="27" width="20.7109375" style="10" customWidth="1"/>
+    <col min="28" max="28" width="31.5703125" style="10" customWidth="1"/>
+    <col min="29" max="29" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="16" customFormat="1" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" s="16" customFormat="1" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>82</v>
       </c>
@@ -1044,10 +2063,10 @@
         <v>80</v>
       </c>
       <c r="H1" s="33" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I1" s="33" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J1" s="22" t="s">
         <v>83</v>
@@ -1071,10 +2090,8 @@
       <c r="AA1" s="14"/>
       <c r="AB1" s="14"/>
     </row>
-    <row r="2" spans="1:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
-        <v>84</v>
-      </c>
+    <row r="2" spans="1:32" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23"/>
       <c r="B2" s="43" t="str">
         <f>TEXT(L2, "ДД.ММ.ГГГГ")</f>
         <v>10.04.1958</v>
@@ -1082,16 +2099,16 @@
       <c r="C2" s="25"/>
       <c r="D2" s="26"/>
       <c r="E2" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F2" s="30">
         <v>874737</v>
       </c>
       <c r="G2" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H2" s="44" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I2" s="42" t="str">
         <f t="shared" ref="I2:I9" si="0">TEXT(M2, "ДД.ММ.ГГГГ")</f>
@@ -1104,11 +2121,51 @@
       <c r="M2" s="41">
         <v>44074</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
-        <v>84</v>
-      </c>
+      <c r="O2" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="11">
+        <v>44069</v>
+      </c>
+      <c r="R2" s="46">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="S2" s="10">
+        <v>1303219</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="V2" s="11">
+        <v>20062</v>
+      </c>
+      <c r="W2" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="X2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z2" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA2" s="47">
+        <v>874737</v>
+      </c>
+      <c r="AB2" s="47" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23"/>
       <c r="B3" s="43" t="str">
         <f t="shared" ref="B3:B4" si="1">TEXT(L3, "ДД.ММ.ГГГГ")</f>
         <v>10.04.1958</v>
@@ -1116,16 +2173,16 @@
       <c r="C3" s="25"/>
       <c r="D3" s="26"/>
       <c r="E3" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F3" s="32">
         <v>874739</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H3" s="44" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I3" s="42" t="str">
         <f t="shared" si="0"/>
@@ -1138,11 +2195,51 @@
       <c r="M3" s="41">
         <v>44074</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
-        <v>84</v>
-      </c>
+      <c r="O3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="11">
+        <v>44076</v>
+      </c>
+      <c r="R3" s="46">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="S3" s="10">
+        <v>1311731</v>
+      </c>
+      <c r="T3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="U3" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="V3" s="11">
+        <v>28778</v>
+      </c>
+      <c r="W3" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="X3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z3" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA3" s="47">
+        <v>874737</v>
+      </c>
+      <c r="AB3" s="47" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23"/>
       <c r="B4" s="43" t="str">
         <f t="shared" si="1"/>
         <v>10.04.1958</v>
@@ -1150,7 +2247,7 @@
       <c r="C4" s="25"/>
       <c r="D4" s="26"/>
       <c r="E4" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F4" s="32">
         <v>874735</v>
@@ -1159,7 +2256,7 @@
         <v>67</v>
       </c>
       <c r="H4" s="44" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I4" s="42" t="str">
         <f t="shared" si="0"/>
@@ -1172,11 +2269,63 @@
       <c r="M4" s="41">
         <v>44074</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
-        <v>88</v>
-      </c>
+      <c r="O4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>44071</v>
+      </c>
+      <c r="R4" s="46">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="S4" s="10">
+        <v>1306221</v>
+      </c>
+      <c r="T4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="U4" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="V4" s="11">
+        <v>20845</v>
+      </c>
+      <c r="W4" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="X4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z4" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA4" s="47">
+        <v>874737</v>
+      </c>
+      <c r="AB4" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC4" s="47">
+        <v>874735</v>
+      </c>
+      <c r="AD4" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE4" s="47">
+        <v>874733</v>
+      </c>
+      <c r="AF4" s="47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="24"/>
       <c r="B5" s="38" t="str">
         <f t="shared" ref="B5:B19" si="2">TEXT(L5, "ДД.ММ.ГГГГ")</f>
         <v>31.03.1955</v>
@@ -1184,16 +2333,16 @@
       <c r="C5" s="27"/>
       <c r="D5" s="28"/>
       <c r="E5" s="31" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F5" s="30">
         <v>874737</v>
       </c>
       <c r="G5" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H5" s="44" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I5" s="42" t="str">
         <f t="shared" si="0"/>
@@ -1206,11 +2355,63 @@
       <c r="M5" s="41">
         <v>44074</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
-        <v>88</v>
-      </c>
+      <c r="O5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>44071</v>
+      </c>
+      <c r="R5" s="46">
+        <v>0.4375</v>
+      </c>
+      <c r="S5" s="10">
+        <v>1306373</v>
+      </c>
+      <c r="T5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="U5" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="V5" s="11">
+        <v>17715</v>
+      </c>
+      <c r="W5" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="X5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z5" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA5" s="47">
+        <v>874737</v>
+      </c>
+      <c r="AB5" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC5" s="47">
+        <v>874735</v>
+      </c>
+      <c r="AD5" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE5" s="47">
+        <v>874733</v>
+      </c>
+      <c r="AF5" s="47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="24"/>
       <c r="B6" s="38" t="str">
         <f t="shared" si="2"/>
         <v>31.03.1955</v>
@@ -1218,16 +2419,16 @@
       <c r="C6" s="27"/>
       <c r="D6" s="28"/>
       <c r="E6" s="31" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F6" s="32">
         <v>874739</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H6" s="44" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I6" s="42" t="str">
         <f t="shared" si="0"/>
@@ -1240,11 +2441,63 @@
       <c r="M6" s="41">
         <v>44074</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
-        <v>88</v>
-      </c>
+      <c r="O6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>44072</v>
+      </c>
+      <c r="R6" s="46">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="S6" s="10">
+        <v>1306616</v>
+      </c>
+      <c r="T6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="U6" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="V6" s="11">
+        <v>15436</v>
+      </c>
+      <c r="W6" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="X6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z6" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA6" s="47">
+        <v>874737</v>
+      </c>
+      <c r="AB6" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC6" s="47">
+        <v>874735</v>
+      </c>
+      <c r="AD6" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE6" s="47">
+        <v>874733</v>
+      </c>
+      <c r="AF6" s="47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24"/>
       <c r="B7" s="38" t="str">
         <f t="shared" si="2"/>
         <v>31.03.1955</v>
@@ -1252,7 +2505,7 @@
       <c r="C7" s="27"/>
       <c r="D7" s="28"/>
       <c r="E7" s="31" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F7" s="32">
         <v>874735</v>
@@ -1261,7 +2514,7 @@
         <v>67</v>
       </c>
       <c r="H7" s="44" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I7" s="42" t="str">
         <f t="shared" si="0"/>
@@ -1274,11 +2527,63 @@
       <c r="M7" s="41">
         <v>44074</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
-        <v>90</v>
-      </c>
+      <c r="O7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>44074</v>
+      </c>
+      <c r="R7" s="46">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="S7" s="10">
+        <v>1308175</v>
+      </c>
+      <c r="T7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="U7" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="V7" s="11">
+        <v>32745</v>
+      </c>
+      <c r="W7" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="X7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z7" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA7" s="47">
+        <v>874737</v>
+      </c>
+      <c r="AB7" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC7" s="47">
+        <v>874735</v>
+      </c>
+      <c r="AD7" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE7" s="47">
+        <v>874733</v>
+      </c>
+      <c r="AF7" s="47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="24"/>
       <c r="B8" s="38" t="str">
         <f t="shared" si="2"/>
         <v>29.09.1960</v>
@@ -1286,16 +2591,16 @@
       <c r="C8" s="27"/>
       <c r="D8" s="28"/>
       <c r="E8" s="31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F8" s="30">
         <v>874737</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H8" s="44" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I8" s="42" t="str">
         <f t="shared" si="0"/>
@@ -1308,11 +2613,63 @@
       <c r="M8" s="41">
         <v>44074</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
-        <v>90</v>
-      </c>
+      <c r="O8" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>44077</v>
+      </c>
+      <c r="R8" s="46">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="S8" s="10">
+        <v>1312753</v>
+      </c>
+      <c r="T8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="U8" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="V8" s="11">
+        <v>17069</v>
+      </c>
+      <c r="W8" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="X8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z8" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA8" s="47">
+        <v>874737</v>
+      </c>
+      <c r="AB8" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC8" s="47">
+        <v>874735</v>
+      </c>
+      <c r="AD8" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE8" s="47">
+        <v>874733</v>
+      </c>
+      <c r="AF8" s="47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="24"/>
       <c r="B9" s="38" t="str">
         <f t="shared" si="2"/>
         <v>29.09.1960</v>
@@ -1320,16 +2677,16 @@
       <c r="C9" s="27"/>
       <c r="D9" s="28"/>
       <c r="E9" s="31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F9" s="32">
         <v>874739</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H9" s="44" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I9" s="42" t="str">
         <f t="shared" si="0"/>
@@ -1342,8 +2699,62 @@
       <c r="M9" s="41">
         <v>44074</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O9" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>44075</v>
+      </c>
+      <c r="R9" s="46">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="S9" s="10">
+        <v>1309022</v>
+      </c>
+      <c r="T9" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="U9" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="V9" s="11">
+        <v>19063</v>
+      </c>
+      <c r="W9" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="X9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y9" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z9" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA9" s="47">
+        <v>874737</v>
+      </c>
+      <c r="AB9" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC9" s="47">
+        <v>874735</v>
+      </c>
+      <c r="AD9" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE9" s="47">
+        <v>874733</v>
+      </c>
+      <c r="AF9" s="47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
       <c r="B10" s="38" t="str">
         <f t="shared" si="2"/>
@@ -1358,8 +2769,62 @@
       <c r="I10" s="40"/>
       <c r="J10" s="9"/>
       <c r="L10" s="10"/>
-    </row>
-    <row r="11" spans="1:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O10" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P10" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>44075</v>
+      </c>
+      <c r="R10" s="46">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="S10" s="10">
+        <v>1309440</v>
+      </c>
+      <c r="T10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="U10" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="V10" s="11">
+        <v>30913</v>
+      </c>
+      <c r="W10" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="X10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z10" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA10" s="47">
+        <v>874737</v>
+      </c>
+      <c r="AB10" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC10" s="47">
+        <v>874735</v>
+      </c>
+      <c r="AD10" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE10" s="47">
+        <v>874733</v>
+      </c>
+      <c r="AF10" s="47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24"/>
       <c r="B11" s="38" t="str">
         <f t="shared" si="2"/>
@@ -1374,8 +2839,62 @@
       <c r="I11" s="40"/>
       <c r="J11" s="9"/>
       <c r="L11" s="10"/>
-    </row>
-    <row r="12" spans="1:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O11" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P11" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>44075</v>
+      </c>
+      <c r="R11" s="46">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="S11" s="10">
+        <v>1309877</v>
+      </c>
+      <c r="T11" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="U11" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="V11" s="11">
+        <v>29448</v>
+      </c>
+      <c r="W11" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="X11" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y11" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z11" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA11" s="47">
+        <v>874737</v>
+      </c>
+      <c r="AB11" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC11" s="47">
+        <v>874735</v>
+      </c>
+      <c r="AD11" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE11" s="47">
+        <v>874733</v>
+      </c>
+      <c r="AF11" s="47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
       <c r="B12" s="38" t="str">
         <f t="shared" si="2"/>
@@ -1390,8 +2909,62 @@
       <c r="I12" s="40"/>
       <c r="J12" s="9"/>
       <c r="L12" s="10"/>
-    </row>
-    <row r="13" spans="1:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O12" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P12" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="11">
+        <v>44076</v>
+      </c>
+      <c r="R12" s="46">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="S12" s="10">
+        <v>1311019</v>
+      </c>
+      <c r="T12" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="U12" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="V12" s="11">
+        <v>30134</v>
+      </c>
+      <c r="W12" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="X12" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y12" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z12" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA12" s="47">
+        <v>874737</v>
+      </c>
+      <c r="AB12" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC12" s="47">
+        <v>874735</v>
+      </c>
+      <c r="AD12" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE12" s="47">
+        <v>874733</v>
+      </c>
+      <c r="AF12" s="47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="24"/>
       <c r="B13" s="38" t="str">
         <f t="shared" si="2"/>
@@ -1406,8 +2979,62 @@
       <c r="I13" s="40"/>
       <c r="J13" s="9"/>
       <c r="L13" s="10"/>
-    </row>
-    <row r="14" spans="1:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O13" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P13" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>44076</v>
+      </c>
+      <c r="R13" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="S13" s="10">
+        <v>1311144</v>
+      </c>
+      <c r="T13" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="U13" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="V13" s="11">
+        <v>20058</v>
+      </c>
+      <c r="W13" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="X13" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y13" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z13" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA13" s="47">
+        <v>874737</v>
+      </c>
+      <c r="AB13" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC13" s="47">
+        <v>874735</v>
+      </c>
+      <c r="AD13" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE13" s="47">
+        <v>874733</v>
+      </c>
+      <c r="AF13" s="47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24"/>
       <c r="B14" s="38" t="str">
         <f t="shared" si="2"/>
@@ -1422,8 +3049,62 @@
       <c r="I14" s="40"/>
       <c r="J14" s="9"/>
       <c r="L14" s="10"/>
-    </row>
-    <row r="15" spans="1:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O14" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P14" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="11">
+        <v>44076</v>
+      </c>
+      <c r="R14" s="46">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="S14" s="10">
+        <v>1311678</v>
+      </c>
+      <c r="T14" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="U14" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="V14" s="11">
+        <v>19392</v>
+      </c>
+      <c r="W14" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="X14" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y14" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z14" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA14" s="47">
+        <v>874737</v>
+      </c>
+      <c r="AB14" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC14" s="47">
+        <v>874735</v>
+      </c>
+      <c r="AD14" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE14" s="47">
+        <v>874733</v>
+      </c>
+      <c r="AF14" s="47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
       <c r="B15" s="38" t="str">
         <f t="shared" si="2"/>
@@ -1438,8 +3119,62 @@
       <c r="I15" s="40"/>
       <c r="J15" s="9"/>
       <c r="L15" s="10"/>
-    </row>
-    <row r="16" spans="1:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O15" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P15" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="11">
+        <v>44076</v>
+      </c>
+      <c r="R15" s="46">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="S15" s="10">
+        <v>1311688</v>
+      </c>
+      <c r="T15" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="U15" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="V15" s="11">
+        <v>22246</v>
+      </c>
+      <c r="W15" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="X15" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y15" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z15" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA15" s="47">
+        <v>874737</v>
+      </c>
+      <c r="AB15" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC15" s="47">
+        <v>874735</v>
+      </c>
+      <c r="AD15" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE15" s="47">
+        <v>874733</v>
+      </c>
+      <c r="AF15" s="47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
       <c r="B16" s="38" t="str">
         <f t="shared" si="2"/>
@@ -1454,8 +3189,62 @@
       <c r="I16" s="40"/>
       <c r="J16" s="9"/>
       <c r="L16" s="10"/>
-    </row>
-    <row r="17" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O16" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P16" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="11">
+        <v>44076</v>
+      </c>
+      <c r="R16" s="46">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="S16" s="10">
+        <v>1312029</v>
+      </c>
+      <c r="T16" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="U16" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="V16" s="11">
+        <v>21992</v>
+      </c>
+      <c r="W16" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="X16" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y16" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z16" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA16" s="47">
+        <v>874737</v>
+      </c>
+      <c r="AB16" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC16" s="47">
+        <v>874735</v>
+      </c>
+      <c r="AD16" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE16" s="47">
+        <v>874733</v>
+      </c>
+      <c r="AF16" s="47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="38" t="str">
         <f t="shared" si="2"/>
@@ -1470,8 +3259,62 @@
       <c r="I17" s="40"/>
       <c r="J17" s="9"/>
       <c r="L17" s="10"/>
-    </row>
-    <row r="18" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O17" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P17" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="11">
+        <v>44077</v>
+      </c>
+      <c r="R17" s="46">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="S17" s="10">
+        <v>1312781</v>
+      </c>
+      <c r="T17" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="U17" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="V17" s="11">
+        <v>20653</v>
+      </c>
+      <c r="W17" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="X17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y17" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z17" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA17" s="47">
+        <v>874737</v>
+      </c>
+      <c r="AB17" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC17" s="47">
+        <v>874735</v>
+      </c>
+      <c r="AD17" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE17" s="47">
+        <v>874733</v>
+      </c>
+      <c r="AF17" s="47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="38" t="str">
         <f t="shared" si="2"/>
@@ -1486,8 +3329,62 @@
       <c r="I18" s="40"/>
       <c r="J18" s="9"/>
       <c r="L18" s="10"/>
-    </row>
-    <row r="19" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O18" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P18" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="11">
+        <v>44077</v>
+      </c>
+      <c r="R18" s="46">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="S18" s="10">
+        <v>1312842</v>
+      </c>
+      <c r="T18" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="U18" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="V18" s="11">
+        <v>18667</v>
+      </c>
+      <c r="W18" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="X18" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y18" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z18" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA18" s="47">
+        <v>874737</v>
+      </c>
+      <c r="AB18" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC18" s="47">
+        <v>874735</v>
+      </c>
+      <c r="AD18" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE18" s="47">
+        <v>874733</v>
+      </c>
+      <c r="AF18" s="47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
       <c r="B19" s="38" t="str">
         <f t="shared" si="2"/>
@@ -1502,6 +3399,348 @@
       <c r="I19" s="40"/>
       <c r="J19" s="9"/>
       <c r="L19" s="10"/>
+      <c r="O19" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P19" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="11">
+        <v>44077</v>
+      </c>
+      <c r="R19" s="46">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="S19" s="10">
+        <v>1312866</v>
+      </c>
+      <c r="T19" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="U19" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="V19" s="11">
+        <v>21792</v>
+      </c>
+      <c r="W19" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="X19" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y19" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z19" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA19" s="47">
+        <v>874737</v>
+      </c>
+      <c r="AB19" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC19" s="48">
+        <v>874739</v>
+      </c>
+      <c r="AD19" s="48" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="O20" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P20" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="11">
+        <v>44077</v>
+      </c>
+      <c r="R20" s="46">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="S20" s="10">
+        <v>1313147</v>
+      </c>
+      <c r="T20" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="U20" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="V20" s="11">
+        <v>21116</v>
+      </c>
+      <c r="W20" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="X20" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y20" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z20" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA20" s="47">
+        <v>874737</v>
+      </c>
+      <c r="AB20" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC20" s="47">
+        <v>874735</v>
+      </c>
+      <c r="AD20" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE20" s="47">
+        <v>874733</v>
+      </c>
+      <c r="AF20" s="47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="O21" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P21" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="11">
+        <v>44077</v>
+      </c>
+      <c r="R21" s="46">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="S21" s="10">
+        <v>1313198</v>
+      </c>
+      <c r="T21" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="U21" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="V21" s="11">
+        <v>18433</v>
+      </c>
+      <c r="W21" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="X21" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y21" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z21" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA21" s="47">
+        <v>874737</v>
+      </c>
+      <c r="AB21" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC21" s="47">
+        <v>874735</v>
+      </c>
+      <c r="AD21" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE21" s="47">
+        <v>874733</v>
+      </c>
+      <c r="AF21" s="47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="O22" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P22" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="11">
+        <v>44077</v>
+      </c>
+      <c r="R22" s="46">
+        <v>0.5625</v>
+      </c>
+      <c r="S22" s="10">
+        <v>1313247</v>
+      </c>
+      <c r="T22" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="U22" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="V22" s="11">
+        <v>21396</v>
+      </c>
+      <c r="W22" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="X22" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y22" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z22" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA22" s="47">
+        <v>874737</v>
+      </c>
+      <c r="AB22" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC22" s="49">
+        <v>874736</v>
+      </c>
+      <c r="AD22" s="47" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE22" s="47">
+        <v>874733</v>
+      </c>
+      <c r="AF22" s="47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="O23" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P23" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="11">
+        <v>44077</v>
+      </c>
+      <c r="R23" s="46">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="S23" s="10">
+        <v>1313344</v>
+      </c>
+      <c r="T23" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="U23" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="V23" s="11">
+        <v>20786</v>
+      </c>
+      <c r="W23" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="X23" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y23" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z23" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA23" s="47">
+        <v>874737</v>
+      </c>
+      <c r="AB23" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC23" s="47">
+        <v>874735</v>
+      </c>
+      <c r="AD23" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE23" s="47">
+        <v>874733</v>
+      </c>
+      <c r="AF23" s="47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="O24" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P24" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="11">
+        <v>44077</v>
+      </c>
+      <c r="R24" s="46">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="S24" s="10">
+        <v>1313462</v>
+      </c>
+      <c r="T24" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="U24" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="V24" s="11">
+        <v>22272</v>
+      </c>
+      <c r="W24" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="X24" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y24" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z24" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA24" s="47">
+        <v>874737</v>
+      </c>
+      <c r="AB24" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC24" s="47">
+        <v>874735</v>
+      </c>
+      <c r="AD24" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE24" s="47">
+        <v>874733</v>
+      </c>
+      <c r="AF24" s="47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AC25" s="47">
+        <v>874739</v>
+      </c>
+      <c r="AD25" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE25" s="47">
+        <v>874735</v>
+      </c>
+      <c r="AF25" s="47" t="s">
+        <v>67</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1509,7 +3748,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027DBE9-90F8-4510-9A2A-0DC7F76ECC31}">
   <dimension ref="A1:N18"/>
   <sheetViews>
@@ -1968,7 +4207,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7DB53C3-3DE8-452D-A061-B42C08640916}">
   <dimension ref="A1:G10"/>
   <sheetViews>
@@ -2175,7 +4414,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE245E9-7BBB-4B60-A4DB-BD39DD0FE660}">
   <dimension ref="A1:K24"/>
   <sheetViews>

--- a/spreadsheet.xlsx
+++ b/spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Documents\GitHub\promed-clicker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2578FD9-267E-4610-B0FF-154758E3C3E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78ECE1DA-D019-4FA9-AB9D-2C8B9721840E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6CCF5E32-90BF-4976-8CE3-9868609CAAE5}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'My Sheet'!$A$1:$J$19</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'My Sheet (2)'!$A$1:$M$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'My Sheet (2)'!$A$1:$M$24</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="167">
   <si>
     <t>A06.09.005</t>
   </si>
@@ -1275,8 +1275,8 @@
   </sheetPr>
   <dimension ref="A1:AI25"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1379,7 +1379,7 @@
       <c r="E2" s="57"/>
       <c r="F2" s="55" t="str">
         <f>TEXT(P2, "ДД.ММ.ГГГГ")</f>
-        <v>31.08.2020</v>
+        <v>03.09.2020</v>
       </c>
       <c r="G2" s="58" t="s">
         <v>90</v>
@@ -1390,23 +1390,15 @@
       <c r="I2" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="J2" s="59">
-        <v>874735</v>
-      </c>
-      <c r="K2" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="L2" s="59">
-        <v>874733</v>
-      </c>
-      <c r="M2" s="59" t="s">
-        <v>68</v>
-      </c>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
       <c r="O2" s="11">
         <v>20062</v>
       </c>
       <c r="P2" s="41">
-        <v>44074</v>
+        <v>44077</v>
       </c>
       <c r="T2" s="11"/>
       <c r="U2" s="46"/>
@@ -1415,30 +1407,40 @@
       <c r="AE2" s="47"/>
     </row>
     <row r="3" spans="1:35" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
+      <c r="A3" s="54" t="s">
+        <v>95</v>
+      </c>
       <c r="B3" s="55" t="str">
-        <f t="shared" ref="B3:B19" si="0">TEXT(O3, "ДД.ММ.ГГГГ")</f>
-        <v>10.04.1958</v>
-      </c>
-      <c r="C3" s="56"/>
+        <f t="shared" ref="B3:B24" si="0">TEXT(O3, "ДД.ММ.ГГГГ")</f>
+        <v>15.10.1978</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>148</v>
+      </c>
       <c r="D3" s="54"/>
       <c r="E3" s="57"/>
       <c r="F3" s="55" t="str">
-        <f>TEXT(P3, "ДД.ММ.ГГГГ")</f>
-        <v>31.08.2020</v>
-      </c>
-      <c r="G3" s="58"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
+        <f t="shared" ref="F3:F24" si="1">TEXT(P3, "ДД.ММ.ГГГГ")</f>
+        <v>03.09.2020</v>
+      </c>
+      <c r="G3" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" s="59">
+        <v>874737</v>
+      </c>
+      <c r="I3" s="59" t="s">
+        <v>85</v>
+      </c>
       <c r="J3" s="59"/>
       <c r="K3" s="59"/>
       <c r="L3" s="59"/>
       <c r="M3" s="59"/>
       <c r="O3" s="11">
-        <v>21285</v>
+        <v>28778</v>
       </c>
       <c r="P3" s="41">
-        <v>44074</v>
+        <v>44077</v>
       </c>
       <c r="T3" s="11"/>
       <c r="U3" s="46"/>
@@ -1447,30 +1449,48 @@
       <c r="AE3" s="47"/>
     </row>
     <row r="4" spans="1:35" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
+      <c r="A4" s="54" t="s">
+        <v>97</v>
+      </c>
       <c r="B4" s="55" t="str">
         <f t="shared" si="0"/>
-        <v>10.04.1958</v>
-      </c>
-      <c r="C4" s="56"/>
+        <v>25.01.1957</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>149</v>
+      </c>
       <c r="D4" s="54"/>
       <c r="E4" s="57"/>
       <c r="F4" s="55" t="str">
-        <f>TEXT(P4, "ДД.ММ.ГГГГ")</f>
-        <v>31.08.2020</v>
-      </c>
-      <c r="G4" s="58"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
+        <f t="shared" si="1"/>
+        <v>03.09.2020</v>
+      </c>
+      <c r="G4" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" s="59">
+        <v>874737</v>
+      </c>
+      <c r="I4" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="J4" s="59">
+        <v>874735</v>
+      </c>
+      <c r="K4" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" s="59">
+        <v>874733</v>
+      </c>
+      <c r="M4" s="59" t="s">
+        <v>68</v>
+      </c>
       <c r="O4" s="11">
-        <v>21285</v>
+        <v>20845</v>
       </c>
       <c r="P4" s="41">
-        <v>44074</v>
+        <v>44077</v>
       </c>
       <c r="T4" s="11"/>
       <c r="U4" s="46"/>
@@ -1483,30 +1503,48 @@
       <c r="AI4" s="47"/>
     </row>
     <row r="5" spans="1:35" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="54"/>
+      <c r="A5" s="54" t="s">
+        <v>99</v>
+      </c>
       <c r="B5" s="55" t="str">
         <f t="shared" si="0"/>
-        <v>31.03.1955</v>
-      </c>
-      <c r="C5" s="56"/>
+        <v>01.07.1948</v>
+      </c>
+      <c r="C5" s="56" t="s">
+        <v>150</v>
+      </c>
       <c r="D5" s="54"/>
       <c r="E5" s="57"/>
       <c r="F5" s="55" t="str">
-        <f>TEXT(P5, "ДД.ММ.ГГГГ")</f>
-        <v>31.08.2020</v>
-      </c>
-      <c r="G5" s="58"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
+        <f t="shared" si="1"/>
+        <v>03.09.2020</v>
+      </c>
+      <c r="G5" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" s="59">
+        <v>874737</v>
+      </c>
+      <c r="I5" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="J5" s="59">
+        <v>874735</v>
+      </c>
+      <c r="K5" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="L5" s="59">
+        <v>874733</v>
+      </c>
+      <c r="M5" s="59" t="s">
+        <v>68</v>
+      </c>
       <c r="O5" s="10">
-        <v>20179</v>
+        <v>17715</v>
       </c>
       <c r="P5" s="41">
-        <v>44074</v>
+        <v>44077</v>
       </c>
       <c r="T5" s="11"/>
       <c r="U5" s="46"/>
@@ -1519,30 +1557,48 @@
       <c r="AI5" s="47"/>
     </row>
     <row r="6" spans="1:35" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="54"/>
+      <c r="A6" s="54" t="s">
+        <v>101</v>
+      </c>
       <c r="B6" s="55" t="str">
         <f t="shared" si="0"/>
-        <v>31.03.1955</v>
-      </c>
-      <c r="C6" s="56"/>
+        <v>05.04.1942</v>
+      </c>
+      <c r="C6" s="56" t="s">
+        <v>151</v>
+      </c>
       <c r="D6" s="54"/>
       <c r="E6" s="57"/>
       <c r="F6" s="55" t="str">
-        <f>TEXT(P6, "ДД.ММ.ГГГГ")</f>
-        <v>31.08.2020</v>
-      </c>
-      <c r="G6" s="58"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
+        <f t="shared" si="1"/>
+        <v>03.09.2020</v>
+      </c>
+      <c r="G6" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6" s="59">
+        <v>874737</v>
+      </c>
+      <c r="I6" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" s="59">
+        <v>874735</v>
+      </c>
+      <c r="K6" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="L6" s="59">
+        <v>874733</v>
+      </c>
+      <c r="M6" s="59" t="s">
+        <v>68</v>
+      </c>
       <c r="O6" s="10">
-        <v>20179</v>
+        <v>15436</v>
       </c>
       <c r="P6" s="41">
-        <v>44074</v>
+        <v>44077</v>
       </c>
       <c r="T6" s="11"/>
       <c r="U6" s="46"/>
@@ -1555,30 +1611,48 @@
       <c r="AI6" s="47"/>
     </row>
     <row r="7" spans="1:35" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="54"/>
+      <c r="A7" s="54" t="s">
+        <v>103</v>
+      </c>
       <c r="B7" s="55" t="str">
         <f t="shared" si="0"/>
-        <v>31.03.1955</v>
-      </c>
-      <c r="C7" s="56"/>
+        <v>25.08.1989</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>152</v>
+      </c>
       <c r="D7" s="54"/>
       <c r="E7" s="57"/>
       <c r="F7" s="55" t="str">
-        <f>TEXT(P7, "ДД.ММ.ГГГГ")</f>
-        <v>31.08.2020</v>
-      </c>
-      <c r="G7" s="58"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
+        <f t="shared" si="1"/>
+        <v>03.09.2020</v>
+      </c>
+      <c r="G7" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" s="59">
+        <v>874737</v>
+      </c>
+      <c r="I7" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" s="59">
+        <v>874735</v>
+      </c>
+      <c r="K7" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="L7" s="59">
+        <v>874733</v>
+      </c>
+      <c r="M7" s="59" t="s">
+        <v>68</v>
+      </c>
       <c r="O7" s="10">
-        <v>20179</v>
+        <v>32745</v>
       </c>
       <c r="P7" s="41">
-        <v>44074</v>
+        <v>44077</v>
       </c>
       <c r="T7" s="11"/>
       <c r="U7" s="46"/>
@@ -1591,30 +1665,48 @@
       <c r="AI7" s="47"/>
     </row>
     <row r="8" spans="1:35" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="54"/>
+      <c r="A8" s="54" t="s">
+        <v>105</v>
+      </c>
       <c r="B8" s="55" t="str">
         <f t="shared" si="0"/>
-        <v>29.09.1960</v>
-      </c>
-      <c r="C8" s="56"/>
+        <v>24.09.1946</v>
+      </c>
+      <c r="C8" s="56" t="s">
+        <v>153</v>
+      </c>
       <c r="D8" s="54"/>
       <c r="E8" s="57"/>
       <c r="F8" s="55" t="str">
-        <f>TEXT(P8, "ДД.ММ.ГГГГ")</f>
-        <v>31.08.2020</v>
-      </c>
-      <c r="G8" s="58"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="59"/>
+        <f t="shared" si="1"/>
+        <v>03.09.2020</v>
+      </c>
+      <c r="G8" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" s="59">
+        <v>874737</v>
+      </c>
+      <c r="I8" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" s="59">
+        <v>874735</v>
+      </c>
+      <c r="K8" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="L8" s="59">
+        <v>874733</v>
+      </c>
+      <c r="M8" s="59" t="s">
+        <v>68</v>
+      </c>
       <c r="O8" s="39">
-        <v>22188</v>
+        <v>17069</v>
       </c>
       <c r="P8" s="41">
-        <v>44074</v>
+        <v>44077</v>
       </c>
       <c r="T8" s="11"/>
       <c r="U8" s="46"/>
@@ -1627,30 +1719,48 @@
       <c r="AI8" s="47"/>
     </row>
     <row r="9" spans="1:35" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="54"/>
+      <c r="A9" s="54" t="s">
+        <v>108</v>
+      </c>
       <c r="B9" s="55" t="str">
         <f t="shared" si="0"/>
-        <v>29.09.1960</v>
-      </c>
-      <c r="C9" s="56"/>
+        <v>10.03.1952</v>
+      </c>
+      <c r="C9" s="56" t="s">
+        <v>154</v>
+      </c>
       <c r="D9" s="54"/>
       <c r="E9" s="57"/>
       <c r="F9" s="55" t="str">
-        <f>TEXT(P9, "ДД.ММ.ГГГГ")</f>
-        <v>31.08.2020</v>
-      </c>
-      <c r="G9" s="58"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
+        <f t="shared" si="1"/>
+        <v>03.09.2020</v>
+      </c>
+      <c r="G9" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" s="59">
+        <v>874737</v>
+      </c>
+      <c r="I9" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="J9" s="59">
+        <v>874735</v>
+      </c>
+      <c r="K9" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="L9" s="59">
+        <v>874733</v>
+      </c>
+      <c r="M9" s="59" t="s">
+        <v>68</v>
+      </c>
       <c r="O9" s="39">
-        <v>22188</v>
+        <v>19063</v>
       </c>
       <c r="P9" s="41">
-        <v>44074</v>
+        <v>44077</v>
       </c>
       <c r="T9" s="11"/>
       <c r="U9" s="46"/>
@@ -1663,23 +1773,49 @@
       <c r="AI9" s="47"/>
     </row>
     <row r="10" spans="1:35" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="54"/>
+      <c r="A10" s="54" t="s">
+        <v>111</v>
+      </c>
       <c r="B10" s="55" t="str">
         <f t="shared" si="0"/>
-        <v>00.01.1900</v>
-      </c>
-      <c r="C10" s="56"/>
+        <v>19.08.1984</v>
+      </c>
+      <c r="C10" s="56" t="s">
+        <v>152</v>
+      </c>
       <c r="D10" s="54"/>
       <c r="E10" s="57"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="O10" s="10"/>
+      <c r="F10" s="59" t="str">
+        <f t="shared" si="1"/>
+        <v>03.09.2020</v>
+      </c>
+      <c r="G10" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="H10" s="59">
+        <v>874737</v>
+      </c>
+      <c r="I10" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="J10" s="59">
+        <v>874735</v>
+      </c>
+      <c r="K10" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="L10" s="59">
+        <v>874733</v>
+      </c>
+      <c r="M10" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="O10" s="10">
+        <v>30913</v>
+      </c>
+      <c r="P10" s="41">
+        <v>44077</v>
+      </c>
       <c r="T10" s="11"/>
       <c r="U10" s="46"/>
       <c r="Y10" s="11"/>
@@ -1691,23 +1827,49 @@
       <c r="AI10" s="47"/>
     </row>
     <row r="11" spans="1:35" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="54"/>
+      <c r="A11" s="54" t="s">
+        <v>113</v>
+      </c>
       <c r="B11" s="55" t="str">
         <f t="shared" si="0"/>
-        <v>00.01.1900</v>
-      </c>
-      <c r="C11" s="56"/>
+        <v>15.08.1980</v>
+      </c>
+      <c r="C11" s="56" t="s">
+        <v>155</v>
+      </c>
       <c r="D11" s="54"/>
       <c r="E11" s="57"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="O11" s="10"/>
+      <c r="F11" s="59" t="str">
+        <f t="shared" si="1"/>
+        <v>03.09.2020</v>
+      </c>
+      <c r="G11" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" s="59">
+        <v>874737</v>
+      </c>
+      <c r="I11" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="J11" s="59">
+        <v>874735</v>
+      </c>
+      <c r="K11" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="L11" s="59">
+        <v>874733</v>
+      </c>
+      <c r="M11" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="O11" s="10">
+        <v>29448</v>
+      </c>
+      <c r="P11" s="41">
+        <v>44077</v>
+      </c>
       <c r="T11" s="11"/>
       <c r="U11" s="46"/>
       <c r="Y11" s="11"/>
@@ -1719,23 +1881,49 @@
       <c r="AI11" s="47"/>
     </row>
     <row r="12" spans="1:35" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="54"/>
+      <c r="A12" s="54" t="s">
+        <v>116</v>
+      </c>
       <c r="B12" s="55" t="str">
         <f t="shared" si="0"/>
-        <v>00.01.1900</v>
-      </c>
-      <c r="C12" s="56"/>
+        <v>02.07.1982</v>
+      </c>
+      <c r="C12" s="56" t="s">
+        <v>156</v>
+      </c>
       <c r="D12" s="54"/>
       <c r="E12" s="57"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="59"/>
-      <c r="O12" s="10"/>
+      <c r="F12" s="59" t="str">
+        <f t="shared" si="1"/>
+        <v>03.09.2020</v>
+      </c>
+      <c r="G12" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" s="59">
+        <v>874737</v>
+      </c>
+      <c r="I12" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="J12" s="59">
+        <v>874735</v>
+      </c>
+      <c r="K12" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="L12" s="59">
+        <v>874733</v>
+      </c>
+      <c r="M12" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="O12" s="10">
+        <v>30134</v>
+      </c>
+      <c r="P12" s="41">
+        <v>44077</v>
+      </c>
       <c r="T12" s="11"/>
       <c r="U12" s="46"/>
       <c r="Y12" s="11"/>
@@ -1747,23 +1935,49 @@
       <c r="AI12" s="47"/>
     </row>
     <row r="13" spans="1:35" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="54"/>
+      <c r="A13" s="54" t="s">
+        <v>119</v>
+      </c>
       <c r="B13" s="55" t="str">
         <f t="shared" si="0"/>
-        <v>00.01.1900</v>
-      </c>
-      <c r="C13" s="56"/>
+        <v>30.11.1954</v>
+      </c>
+      <c r="C13" s="56" t="s">
+        <v>157</v>
+      </c>
       <c r="D13" s="54"/>
       <c r="E13" s="57"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="O13" s="10"/>
+      <c r="F13" s="59" t="str">
+        <f t="shared" si="1"/>
+        <v>03.09.2020</v>
+      </c>
+      <c r="G13" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" s="59">
+        <v>874737</v>
+      </c>
+      <c r="I13" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="J13" s="59">
+        <v>874735</v>
+      </c>
+      <c r="K13" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="L13" s="59">
+        <v>874733</v>
+      </c>
+      <c r="M13" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="O13" s="10">
+        <v>20058</v>
+      </c>
+      <c r="P13" s="41">
+        <v>44077</v>
+      </c>
       <c r="T13" s="11"/>
       <c r="U13" s="46"/>
       <c r="Y13" s="11"/>
@@ -1775,23 +1989,49 @@
       <c r="AI13" s="47"/>
     </row>
     <row r="14" spans="1:35" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="54"/>
+      <c r="A14" s="54" t="s">
+        <v>121</v>
+      </c>
       <c r="B14" s="55" t="str">
         <f t="shared" si="0"/>
-        <v>00.01.1900</v>
-      </c>
-      <c r="C14" s="56"/>
+        <v>02.02.1953</v>
+      </c>
+      <c r="C14" s="56" t="s">
+        <v>158</v>
+      </c>
       <c r="D14" s="54"/>
       <c r="E14" s="57"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="59"/>
-      <c r="O14" s="10"/>
+      <c r="F14" s="59" t="str">
+        <f t="shared" si="1"/>
+        <v>03.09.2020</v>
+      </c>
+      <c r="G14" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" s="59">
+        <v>874737</v>
+      </c>
+      <c r="I14" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="J14" s="59">
+        <v>874735</v>
+      </c>
+      <c r="K14" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="L14" s="59">
+        <v>874733</v>
+      </c>
+      <c r="M14" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="O14" s="10">
+        <v>19392</v>
+      </c>
+      <c r="P14" s="41">
+        <v>44077</v>
+      </c>
       <c r="T14" s="11"/>
       <c r="U14" s="46"/>
       <c r="Y14" s="11"/>
@@ -1803,23 +2043,49 @@
       <c r="AI14" s="47"/>
     </row>
     <row r="15" spans="1:35" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="54"/>
+      <c r="A15" s="54" t="s">
+        <v>123</v>
+      </c>
       <c r="B15" s="55" t="str">
         <f t="shared" si="0"/>
-        <v>00.01.1900</v>
-      </c>
-      <c r="C15" s="56"/>
+        <v>26.11.1960</v>
+      </c>
+      <c r="C15" s="56" t="s">
+        <v>72</v>
+      </c>
       <c r="D15" s="54"/>
       <c r="E15" s="57"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="O15" s="10"/>
+      <c r="F15" s="59" t="str">
+        <f t="shared" si="1"/>
+        <v>03.09.2020</v>
+      </c>
+      <c r="G15" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15" s="59">
+        <v>874737</v>
+      </c>
+      <c r="I15" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="J15" s="59">
+        <v>874735</v>
+      </c>
+      <c r="K15" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="L15" s="59">
+        <v>874733</v>
+      </c>
+      <c r="M15" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="O15" s="10">
+        <v>22246</v>
+      </c>
+      <c r="P15" s="41">
+        <v>44077</v>
+      </c>
       <c r="T15" s="11"/>
       <c r="U15" s="46"/>
       <c r="Y15" s="11"/>
@@ -1831,23 +2097,49 @@
       <c r="AI15" s="47"/>
     </row>
     <row r="16" spans="1:35" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="54"/>
+      <c r="A16" s="54" t="s">
+        <v>125</v>
+      </c>
       <c r="B16" s="55" t="str">
         <f t="shared" si="0"/>
-        <v>00.01.1900</v>
-      </c>
-      <c r="C16" s="56"/>
+        <v>17.03.1960</v>
+      </c>
+      <c r="C16" s="56" t="s">
+        <v>159</v>
+      </c>
       <c r="D16" s="54"/>
       <c r="E16" s="57"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="59"/>
-      <c r="O16" s="10"/>
+      <c r="F16" s="59" t="str">
+        <f t="shared" si="1"/>
+        <v>03.09.2020</v>
+      </c>
+      <c r="G16" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="59">
+        <v>874737</v>
+      </c>
+      <c r="I16" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="J16" s="59">
+        <v>874735</v>
+      </c>
+      <c r="K16" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="L16" s="59">
+        <v>874733</v>
+      </c>
+      <c r="M16" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="O16" s="10">
+        <v>21992</v>
+      </c>
+      <c r="P16" s="41">
+        <v>44077</v>
+      </c>
       <c r="T16" s="11"/>
       <c r="U16" s="46"/>
       <c r="Y16" s="11"/>
@@ -1859,23 +2151,49 @@
       <c r="AI16" s="47"/>
     </row>
     <row r="17" spans="1:35" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="54"/>
+      <c r="A17" s="54" t="s">
+        <v>127</v>
+      </c>
       <c r="B17" s="55" t="str">
         <f t="shared" si="0"/>
-        <v>00.01.1900</v>
-      </c>
-      <c r="C17" s="56"/>
+        <v>17.07.1956</v>
+      </c>
+      <c r="C17" s="56" t="s">
+        <v>154</v>
+      </c>
       <c r="D17" s="54"/>
       <c r="E17" s="57"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="O17" s="10"/>
+      <c r="F17" s="59" t="str">
+        <f t="shared" si="1"/>
+        <v>03.09.2020</v>
+      </c>
+      <c r="G17" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="H17" s="59">
+        <v>874737</v>
+      </c>
+      <c r="I17" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="J17" s="59">
+        <v>874735</v>
+      </c>
+      <c r="K17" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="L17" s="59">
+        <v>874733</v>
+      </c>
+      <c r="M17" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="O17" s="10">
+        <v>20653</v>
+      </c>
+      <c r="P17" s="41">
+        <v>44077</v>
+      </c>
       <c r="T17" s="11"/>
       <c r="U17" s="46"/>
       <c r="Y17" s="11"/>
@@ -1887,23 +2205,49 @@
       <c r="AI17" s="47"/>
     </row>
     <row r="18" spans="1:35" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="54"/>
+      <c r="A18" s="54" t="s">
+        <v>130</v>
+      </c>
       <c r="B18" s="55" t="str">
         <f t="shared" si="0"/>
-        <v>00.01.1900</v>
-      </c>
-      <c r="C18" s="56"/>
+        <v>08.02.1951</v>
+      </c>
+      <c r="C18" s="56" t="s">
+        <v>160</v>
+      </c>
       <c r="D18" s="54"/>
       <c r="E18" s="57"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59"/>
-      <c r="O18" s="10"/>
+      <c r="F18" s="59" t="str">
+        <f t="shared" si="1"/>
+        <v>03.09.2020</v>
+      </c>
+      <c r="G18" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="H18" s="59">
+        <v>874737</v>
+      </c>
+      <c r="I18" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="J18" s="59">
+        <v>874735</v>
+      </c>
+      <c r="K18" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="L18" s="59">
+        <v>874733</v>
+      </c>
+      <c r="M18" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="O18" s="10">
+        <v>18667</v>
+      </c>
+      <c r="P18" s="41">
+        <v>44077</v>
+      </c>
       <c r="T18" s="11"/>
       <c r="U18" s="46"/>
       <c r="Y18" s="11"/>
@@ -1915,23 +2259,45 @@
       <c r="AI18" s="47"/>
     </row>
     <row r="19" spans="1:35" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="54"/>
+      <c r="A19" s="54" t="s">
+        <v>133</v>
+      </c>
       <c r="B19" s="55" t="str">
         <f t="shared" si="0"/>
-        <v>00.01.1900</v>
-      </c>
-      <c r="C19" s="56"/>
+        <v>30.08.1959</v>
+      </c>
+      <c r="C19" s="56" t="s">
+        <v>161</v>
+      </c>
       <c r="D19" s="54"/>
       <c r="E19" s="57"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
+      <c r="F19" s="59" t="str">
+        <f t="shared" si="1"/>
+        <v>03.09.2020</v>
+      </c>
+      <c r="G19" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="H19" s="59">
+        <v>874737</v>
+      </c>
+      <c r="I19" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="J19" s="59">
+        <v>874739</v>
+      </c>
+      <c r="K19" s="59" t="s">
+        <v>86</v>
+      </c>
       <c r="L19" s="59"/>
       <c r="M19" s="59"/>
-      <c r="O19" s="10"/>
+      <c r="O19" s="10">
+        <v>21792</v>
+      </c>
+      <c r="P19" s="41">
+        <v>44077</v>
+      </c>
       <c r="T19" s="11"/>
       <c r="U19" s="46"/>
       <c r="Y19" s="11"/>
@@ -1940,7 +2306,48 @@
       <c r="AF19" s="48"/>
       <c r="AG19" s="48"/>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>23.10.1957</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="F20" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>03.09.2020</v>
+      </c>
+      <c r="G20" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="H20" s="10">
+        <v>874737</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="J20" s="10">
+        <v>874735</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L20" s="10">
+        <v>874733</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="O20" s="11">
+        <v>21116</v>
+      </c>
+      <c r="P20" s="41">
+        <v>44077</v>
+      </c>
       <c r="T20" s="11"/>
       <c r="U20" s="46"/>
       <c r="Y20" s="11"/>
@@ -1951,7 +2358,48 @@
       <c r="AH20" s="47"/>
       <c r="AI20" s="47"/>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B21" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>19.06.1950</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>03.09.2020</v>
+      </c>
+      <c r="G21" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="H21" s="10">
+        <v>874737</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="J21" s="10">
+        <v>874735</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L21" s="10">
+        <v>874733</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="O21" s="11">
+        <v>18433</v>
+      </c>
+      <c r="P21" s="41">
+        <v>44077</v>
+      </c>
       <c r="T21" s="11"/>
       <c r="U21" s="46"/>
       <c r="Y21" s="11"/>
@@ -1962,7 +2410,48 @@
       <c r="AH21" s="47"/>
       <c r="AI21" s="47"/>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>30.07.1958</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F22" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>03.09.2020</v>
+      </c>
+      <c r="G22" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="H22" s="10">
+        <v>874737</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="J22" s="10">
+        <v>874736</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="L22" s="10">
+        <v>874733</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="O22" s="11">
+        <v>21396</v>
+      </c>
+      <c r="P22" s="41">
+        <v>44077</v>
+      </c>
       <c r="T22" s="11"/>
       <c r="U22" s="46"/>
       <c r="Y22" s="11"/>
@@ -1973,7 +2462,48 @@
       <c r="AH22" s="47"/>
       <c r="AI22" s="47"/>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B23" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>27.11.1956</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F23" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>03.09.2020</v>
+      </c>
+      <c r="G23" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="H23" s="10">
+        <v>874737</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="J23" s="10">
+        <v>874735</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L23" s="10">
+        <v>874733</v>
+      </c>
+      <c r="M23" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="O23" s="11">
+        <v>20786</v>
+      </c>
+      <c r="P23" s="41">
+        <v>44077</v>
+      </c>
       <c r="T23" s="11"/>
       <c r="U23" s="46"/>
       <c r="Y23" s="11"/>
@@ -1984,7 +2514,48 @@
       <c r="AH23" s="47"/>
       <c r="AI23" s="47"/>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B24" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>22.12.1960</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="F24" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>03.09.2020</v>
+      </c>
+      <c r="G24" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="H24" s="10">
+        <v>874737</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="J24" s="10">
+        <v>874735</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L24" s="10">
+        <v>874733</v>
+      </c>
+      <c r="M24" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="O24" s="11">
+        <v>22272</v>
+      </c>
+      <c r="P24" s="41">
+        <v>44077</v>
+      </c>
       <c r="T24" s="11"/>
       <c r="U24" s="46"/>
       <c r="Y24" s="11"/>

--- a/spreadsheet.xlsx
+++ b/spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Documents\GitHub\promed-clicker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78ECE1DA-D019-4FA9-AB9D-2C8B9721840E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66953749-AF4C-47FB-AE5F-BECE77E1CF91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6CCF5E32-90BF-4976-8CE3-9868609CAAE5}"/>
   </bookViews>
@@ -1276,7 +1276,7 @@
   <dimension ref="A1:AI25"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/spreadsheet.xlsx
+++ b/spreadsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Documents\GitHub\promed-clicker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aseve\Documents\promed-clicker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78ECE1DA-D019-4FA9-AB9D-2C8B9721840E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399BD9FD-5541-4613-A38E-717762D152FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6CCF5E32-90BF-4976-8CE3-9868609CAAE5}"/>
+    <workbookView xWindow="-8280" yWindow="3828" windowWidth="16584" windowHeight="9420" xr2:uid="{6CCF5E32-90BF-4976-8CE3-9868609CAAE5}"/>
   </bookViews>
   <sheets>
     <sheet name="My Sheet (2)" sheetId="5" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'My Sheet'!$A$1:$J$19</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'My Sheet (2)'!$A$1:$M$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'My Sheet (2)'!$A$1:$M$500</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="167">
   <si>
     <t>A06.09.005</t>
   </si>
@@ -548,7 +548,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -612,6 +612,12 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="PT Sans Narrow"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
@@ -776,7 +782,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -928,21 +934,63 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1273,102 +1321,103 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI25"/>
+  <dimension ref="A1:AI500"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="37" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="10" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="12" customWidth="1"/>
-    <col min="5" max="5" width="40.7109375" style="13" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="10" customWidth="1"/>
-    <col min="7" max="7" width="40.7109375" style="10" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="10" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" style="10" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" style="10" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" style="10" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="10" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" style="10" customWidth="1"/>
-    <col min="14" max="14" width="8.85546875" style="10"/>
-    <col min="15" max="15" width="19.28515625" style="11" customWidth="1"/>
-    <col min="16" max="16" width="9.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="23" width="8.85546875" style="10"/>
-    <col min="24" max="24" width="30.42578125" style="10" customWidth="1"/>
-    <col min="25" max="29" width="8.85546875" style="10"/>
-    <col min="30" max="30" width="20.7109375" style="10" customWidth="1"/>
-    <col min="31" max="31" width="31.5703125" style="10" customWidth="1"/>
-    <col min="32" max="32" width="26.28515625" customWidth="1"/>
+    <col min="1" max="1" width="40.6640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="37" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="10" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="40.6640625" style="10" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="10" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="40.6640625" style="12" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" style="12" customWidth="1"/>
+    <col min="9" max="9" width="15.77734375" style="13" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" style="12" customWidth="1"/>
+    <col min="11" max="11" width="15.77734375" style="13" customWidth="1"/>
+    <col min="12" max="12" width="10.77734375" style="12" customWidth="1"/>
+    <col min="13" max="13" width="15.77734375" style="13" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" style="63"/>
+    <col min="15" max="15" width="19.33203125" style="64" customWidth="1"/>
+    <col min="16" max="16" width="9.88671875" style="64" bestFit="1" customWidth="1"/>
+    <col min="17" max="23" width="8.88671875" style="63"/>
+    <col min="24" max="24" width="30.44140625" style="63" customWidth="1"/>
+    <col min="25" max="27" width="8.88671875" style="63"/>
+    <col min="28" max="29" width="8.88671875" style="10"/>
+    <col min="30" max="30" width="20.6640625" style="10" customWidth="1"/>
+    <col min="31" max="31" width="31.5546875" style="10" customWidth="1"/>
+    <col min="32" max="32" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="16" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" s="16" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="51" t="s">
         <v>82</v>
       </c>
       <c r="B1" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="50" t="s">
         <v>77</v>
       </c>
       <c r="F1" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="J1" s="50" t="s">
+      <c r="J1" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="K1" s="50" t="s">
+      <c r="K1" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="50" t="s">
+      <c r="L1" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="M1" s="50" t="s">
+      <c r="M1" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="N1" s="14"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
+      <c r="W1" s="61"/>
+      <c r="X1" s="61"/>
+      <c r="Y1" s="61"/>
+      <c r="Z1" s="61"/>
+      <c r="AA1" s="61"/>
       <c r="AB1" s="14"/>
       <c r="AC1" s="14"/>
       <c r="AD1" s="14"/>
       <c r="AE1" s="14"/>
     </row>
-    <row r="2" spans="1:35" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+    <row r="2" spans="1:35" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="55" t="str">
+      <c r="B2" s="73" t="str">
         <f>TEXT(O2, "ДД.ММ.ГГГГ")</f>
         <v>04.12.1954</v>
       </c>
@@ -1376,41 +1425,41 @@
         <v>147</v>
       </c>
       <c r="D2" s="54"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="55" t="str">
+      <c r="E2" s="54"/>
+      <c r="F2" s="67" t="str">
         <f>TEXT(P2, "ДД.ММ.ГГГГ")</f>
         <v>03.09.2020</v>
       </c>
-      <c r="G2" s="58" t="s">
+      <c r="G2" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="H2" s="59">
+      <c r="H2" s="69">
         <v>874737</v>
       </c>
-      <c r="I2" s="59" t="s">
+      <c r="I2" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="O2" s="11">
+      <c r="J2" s="69"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="71"/>
+      <c r="O2" s="64">
         <v>20062</v>
       </c>
-      <c r="P2" s="41">
+      <c r="P2" s="65">
         <v>44077</v>
       </c>
-      <c r="T2" s="11"/>
-      <c r="U2" s="46"/>
-      <c r="Y2" s="11"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="66"/>
+      <c r="Y2" s="64"/>
       <c r="AD2" s="47"/>
       <c r="AE2" s="47"/>
     </row>
-    <row r="3" spans="1:35" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
+    <row r="3" spans="1:35" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="55" t="str">
+      <c r="B3" s="73" t="str">
         <f t="shared" ref="B3:B24" si="0">TEXT(O3, "ДД.ММ.ГГГГ")</f>
         <v>15.10.1978</v>
       </c>
@@ -1418,41 +1467,49 @@
         <v>148</v>
       </c>
       <c r="D3" s="54"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="55" t="str">
+      <c r="E3" s="54"/>
+      <c r="F3" s="67" t="str">
         <f t="shared" ref="F3:F24" si="1">TEXT(P3, "ДД.ММ.ГГГГ")</f>
         <v>03.09.2020</v>
       </c>
-      <c r="G3" s="58" t="s">
+      <c r="G3" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="H3" s="59">
+      <c r="H3" s="69">
         <v>874737</v>
       </c>
-      <c r="I3" s="59" t="s">
+      <c r="I3" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="O3" s="11">
+      <c r="J3" s="69">
+        <v>874735</v>
+      </c>
+      <c r="K3" s="70" t="s">
+        <v>67</v>
+      </c>
+      <c r="L3" s="69">
+        <v>874733</v>
+      </c>
+      <c r="M3" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="O3" s="64">
         <v>28778</v>
       </c>
-      <c r="P3" s="41">
+      <c r="P3" s="65">
         <v>44077</v>
       </c>
-      <c r="T3" s="11"/>
-      <c r="U3" s="46"/>
-      <c r="Y3" s="11"/>
+      <c r="T3" s="64"/>
+      <c r="U3" s="66"/>
+      <c r="Y3" s="64"/>
       <c r="AD3" s="47"/>
       <c r="AE3" s="47"/>
     </row>
-    <row r="4" spans="1:35" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
+    <row r="4" spans="1:35" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="55" t="str">
+      <c r="B4" s="73" t="str">
         <f t="shared" si="0"/>
         <v>25.01.1957</v>
       </c>
@@ -1460,41 +1517,41 @@
         <v>149</v>
       </c>
       <c r="D4" s="54"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="55" t="str">
+      <c r="E4" s="54"/>
+      <c r="F4" s="67" t="str">
         <f t="shared" si="1"/>
         <v>03.09.2020</v>
       </c>
-      <c r="G4" s="58" t="s">
+      <c r="G4" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="H4" s="59">
+      <c r="H4" s="69">
         <v>874737</v>
       </c>
-      <c r="I4" s="59" t="s">
+      <c r="I4" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="J4" s="59">
+      <c r="J4" s="69">
         <v>874735</v>
       </c>
-      <c r="K4" s="59" t="s">
+      <c r="K4" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="L4" s="59">
+      <c r="L4" s="69">
         <v>874733</v>
       </c>
-      <c r="M4" s="59" t="s">
+      <c r="M4" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="O4" s="11">
+      <c r="O4" s="64">
         <v>20845</v>
       </c>
-      <c r="P4" s="41">
+      <c r="P4" s="65">
         <v>44077</v>
       </c>
-      <c r="T4" s="11"/>
-      <c r="U4" s="46"/>
-      <c r="Y4" s="11"/>
+      <c r="T4" s="64"/>
+      <c r="U4" s="66"/>
+      <c r="Y4" s="64"/>
       <c r="AD4" s="47"/>
       <c r="AE4" s="47"/>
       <c r="AF4" s="47"/>
@@ -1502,11 +1559,11 @@
       <c r="AH4" s="47"/>
       <c r="AI4" s="47"/>
     </row>
-    <row r="5" spans="1:35" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
+    <row r="5" spans="1:35" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="B5" s="55" t="str">
+      <c r="B5" s="73" t="str">
         <f t="shared" si="0"/>
         <v>01.07.1948</v>
       </c>
@@ -1514,41 +1571,41 @@
         <v>150</v>
       </c>
       <c r="D5" s="54"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="55" t="str">
+      <c r="E5" s="54"/>
+      <c r="F5" s="67" t="str">
         <f t="shared" si="1"/>
         <v>03.09.2020</v>
       </c>
-      <c r="G5" s="58" t="s">
+      <c r="G5" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="H5" s="59">
+      <c r="H5" s="69">
         <v>874737</v>
       </c>
-      <c r="I5" s="59" t="s">
+      <c r="I5" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="J5" s="59">
+      <c r="J5" s="69">
         <v>874735</v>
       </c>
-      <c r="K5" s="59" t="s">
+      <c r="K5" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="L5" s="59">
+      <c r="L5" s="69">
         <v>874733</v>
       </c>
-      <c r="M5" s="59" t="s">
+      <c r="M5" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="O5" s="10">
+      <c r="O5" s="64">
         <v>17715</v>
       </c>
-      <c r="P5" s="41">
+      <c r="P5" s="65">
         <v>44077</v>
       </c>
-      <c r="T5" s="11"/>
-      <c r="U5" s="46"/>
-      <c r="Y5" s="11"/>
+      <c r="T5" s="64"/>
+      <c r="U5" s="66"/>
+      <c r="Y5" s="64"/>
       <c r="AD5" s="47"/>
       <c r="AE5" s="47"/>
       <c r="AF5" s="47"/>
@@ -1556,11 +1613,11 @@
       <c r="AH5" s="47"/>
       <c r="AI5" s="47"/>
     </row>
-    <row r="6" spans="1:35" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="54" t="s">
+    <row r="6" spans="1:35" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="B6" s="55" t="str">
+      <c r="B6" s="73" t="str">
         <f t="shared" si="0"/>
         <v>05.04.1942</v>
       </c>
@@ -1568,41 +1625,41 @@
         <v>151</v>
       </c>
       <c r="D6" s="54"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="55" t="str">
+      <c r="E6" s="54"/>
+      <c r="F6" s="67" t="str">
         <f t="shared" si="1"/>
         <v>03.09.2020</v>
       </c>
-      <c r="G6" s="58" t="s">
+      <c r="G6" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="H6" s="59">
+      <c r="H6" s="69">
         <v>874737</v>
       </c>
-      <c r="I6" s="59" t="s">
+      <c r="I6" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="J6" s="59">
+      <c r="J6" s="69">
         <v>874735</v>
       </c>
-      <c r="K6" s="59" t="s">
+      <c r="K6" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="L6" s="59">
+      <c r="L6" s="69">
         <v>874733</v>
       </c>
-      <c r="M6" s="59" t="s">
+      <c r="M6" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="O6" s="10">
+      <c r="O6" s="64">
         <v>15436</v>
       </c>
-      <c r="P6" s="41">
+      <c r="P6" s="65">
         <v>44077</v>
       </c>
-      <c r="T6" s="11"/>
-      <c r="U6" s="46"/>
-      <c r="Y6" s="11"/>
+      <c r="T6" s="64"/>
+      <c r="U6" s="66"/>
+      <c r="Y6" s="64"/>
       <c r="AD6" s="47"/>
       <c r="AE6" s="47"/>
       <c r="AF6" s="47"/>
@@ -1610,11 +1667,11 @@
       <c r="AH6" s="47"/>
       <c r="AI6" s="47"/>
     </row>
-    <row r="7" spans="1:35" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="54" t="s">
+    <row r="7" spans="1:35" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="B7" s="55" t="str">
+      <c r="B7" s="73" t="str">
         <f t="shared" si="0"/>
         <v>25.08.1989</v>
       </c>
@@ -1622,41 +1679,41 @@
         <v>152</v>
       </c>
       <c r="D7" s="54"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="55" t="str">
+      <c r="E7" s="54"/>
+      <c r="F7" s="67" t="str">
         <f t="shared" si="1"/>
         <v>03.09.2020</v>
       </c>
-      <c r="G7" s="58" t="s">
+      <c r="G7" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="H7" s="59">
+      <c r="H7" s="69">
         <v>874737</v>
       </c>
-      <c r="I7" s="59" t="s">
+      <c r="I7" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="J7" s="59">
+      <c r="J7" s="69">
         <v>874735</v>
       </c>
-      <c r="K7" s="59" t="s">
+      <c r="K7" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="L7" s="59">
+      <c r="L7" s="69">
         <v>874733</v>
       </c>
-      <c r="M7" s="59" t="s">
+      <c r="M7" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="O7" s="10">
+      <c r="O7" s="64">
         <v>32745</v>
       </c>
-      <c r="P7" s="41">
+      <c r="P7" s="65">
         <v>44077</v>
       </c>
-      <c r="T7" s="11"/>
-      <c r="U7" s="46"/>
-      <c r="Y7" s="11"/>
+      <c r="T7" s="64"/>
+      <c r="U7" s="66"/>
+      <c r="Y7" s="64"/>
       <c r="AD7" s="47"/>
       <c r="AE7" s="47"/>
       <c r="AF7" s="47"/>
@@ -1664,11 +1721,11 @@
       <c r="AH7" s="47"/>
       <c r="AI7" s="47"/>
     </row>
-    <row r="8" spans="1:35" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="54" t="s">
+    <row r="8" spans="1:35" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="55" t="str">
+      <c r="B8" s="73" t="str">
         <f t="shared" si="0"/>
         <v>24.09.1946</v>
       </c>
@@ -1676,41 +1733,41 @@
         <v>153</v>
       </c>
       <c r="D8" s="54"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="55" t="str">
+      <c r="E8" s="54"/>
+      <c r="F8" s="67" t="str">
         <f t="shared" si="1"/>
         <v>03.09.2020</v>
       </c>
-      <c r="G8" s="58" t="s">
+      <c r="G8" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="H8" s="59">
+      <c r="H8" s="69">
         <v>874737</v>
       </c>
-      <c r="I8" s="59" t="s">
+      <c r="I8" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="J8" s="59">
+      <c r="J8" s="69">
         <v>874735</v>
       </c>
-      <c r="K8" s="59" t="s">
+      <c r="K8" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="L8" s="59">
+      <c r="L8" s="69">
         <v>874733</v>
       </c>
-      <c r="M8" s="59" t="s">
+      <c r="M8" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="O8" s="39">
+      <c r="O8" s="64">
         <v>17069</v>
       </c>
-      <c r="P8" s="41">
+      <c r="P8" s="65">
         <v>44077</v>
       </c>
-      <c r="T8" s="11"/>
-      <c r="U8" s="46"/>
-      <c r="Y8" s="11"/>
+      <c r="T8" s="64"/>
+      <c r="U8" s="66"/>
+      <c r="Y8" s="64"/>
       <c r="AD8" s="47"/>
       <c r="AE8" s="47"/>
       <c r="AF8" s="47"/>
@@ -1718,11 +1775,11 @@
       <c r="AH8" s="47"/>
       <c r="AI8" s="47"/>
     </row>
-    <row r="9" spans="1:35" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="54" t="s">
+    <row r="9" spans="1:35" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="B9" s="55" t="str">
+      <c r="B9" s="73" t="str">
         <f t="shared" si="0"/>
         <v>10.03.1952</v>
       </c>
@@ -1730,41 +1787,41 @@
         <v>154</v>
       </c>
       <c r="D9" s="54"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="55" t="str">
+      <c r="E9" s="54"/>
+      <c r="F9" s="67" t="str">
         <f t="shared" si="1"/>
         <v>03.09.2020</v>
       </c>
-      <c r="G9" s="58" t="s">
+      <c r="G9" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="H9" s="59">
+      <c r="H9" s="69">
         <v>874737</v>
       </c>
-      <c r="I9" s="59" t="s">
+      <c r="I9" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="J9" s="59">
+      <c r="J9" s="69">
         <v>874735</v>
       </c>
-      <c r="K9" s="59" t="s">
+      <c r="K9" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="L9" s="59">
+      <c r="L9" s="69">
         <v>874733</v>
       </c>
-      <c r="M9" s="59" t="s">
+      <c r="M9" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="O9" s="39">
+      <c r="O9" s="64">
         <v>19063</v>
       </c>
-      <c r="P9" s="41">
+      <c r="P9" s="65">
         <v>44077</v>
       </c>
-      <c r="T9" s="11"/>
-      <c r="U9" s="46"/>
-      <c r="Y9" s="11"/>
+      <c r="T9" s="64"/>
+      <c r="U9" s="66"/>
+      <c r="Y9" s="64"/>
       <c r="AD9" s="47"/>
       <c r="AE9" s="47"/>
       <c r="AF9" s="47"/>
@@ -1772,11 +1829,11 @@
       <c r="AH9" s="47"/>
       <c r="AI9" s="47"/>
     </row>
-    <row r="10" spans="1:35" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="54" t="s">
+    <row r="10" spans="1:35" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="B10" s="55" t="str">
+      <c r="B10" s="73" t="str">
         <f t="shared" si="0"/>
         <v>19.08.1984</v>
       </c>
@@ -1784,41 +1841,41 @@
         <v>152</v>
       </c>
       <c r="D10" s="54"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="59" t="str">
+      <c r="E10" s="54"/>
+      <c r="F10" s="72" t="str">
         <f t="shared" si="1"/>
         <v>03.09.2020</v>
       </c>
-      <c r="G10" s="58" t="s">
+      <c r="G10" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="H10" s="59">
+      <c r="H10" s="69">
         <v>874737</v>
       </c>
-      <c r="I10" s="59" t="s">
+      <c r="I10" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="J10" s="59">
+      <c r="J10" s="69">
         <v>874735</v>
       </c>
-      <c r="K10" s="59" t="s">
+      <c r="K10" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="L10" s="59">
+      <c r="L10" s="69">
         <v>874733</v>
       </c>
-      <c r="M10" s="59" t="s">
+      <c r="M10" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="O10" s="10">
+      <c r="O10" s="64">
         <v>30913</v>
       </c>
-      <c r="P10" s="41">
+      <c r="P10" s="65">
         <v>44077</v>
       </c>
-      <c r="T10" s="11"/>
-      <c r="U10" s="46"/>
-      <c r="Y10" s="11"/>
+      <c r="T10" s="64"/>
+      <c r="U10" s="66"/>
+      <c r="Y10" s="64"/>
       <c r="AD10" s="47"/>
       <c r="AE10" s="47"/>
       <c r="AF10" s="47"/>
@@ -1826,11 +1883,11 @@
       <c r="AH10" s="47"/>
       <c r="AI10" s="47"/>
     </row>
-    <row r="11" spans="1:35" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="54" t="s">
+    <row r="11" spans="1:35" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="B11" s="55" t="str">
+      <c r="B11" s="73" t="str">
         <f t="shared" si="0"/>
         <v>15.08.1980</v>
       </c>
@@ -1838,41 +1895,41 @@
         <v>155</v>
       </c>
       <c r="D11" s="54"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="59" t="str">
+      <c r="E11" s="54"/>
+      <c r="F11" s="72" t="str">
         <f t="shared" si="1"/>
         <v>03.09.2020</v>
       </c>
-      <c r="G11" s="58" t="s">
+      <c r="G11" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="H11" s="59">
+      <c r="H11" s="69">
         <v>874737</v>
       </c>
-      <c r="I11" s="59" t="s">
+      <c r="I11" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="J11" s="59">
+      <c r="J11" s="69">
         <v>874735</v>
       </c>
-      <c r="K11" s="59" t="s">
+      <c r="K11" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="L11" s="59">
+      <c r="L11" s="69">
         <v>874733</v>
       </c>
-      <c r="M11" s="59" t="s">
+      <c r="M11" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="O11" s="10">
+      <c r="O11" s="64">
         <v>29448</v>
       </c>
-      <c r="P11" s="41">
+      <c r="P11" s="65">
         <v>44077</v>
       </c>
-      <c r="T11" s="11"/>
-      <c r="U11" s="46"/>
-      <c r="Y11" s="11"/>
+      <c r="T11" s="64"/>
+      <c r="U11" s="66"/>
+      <c r="Y11" s="64"/>
       <c r="AD11" s="47"/>
       <c r="AE11" s="47"/>
       <c r="AF11" s="47"/>
@@ -1880,11 +1937,11 @@
       <c r="AH11" s="47"/>
       <c r="AI11" s="47"/>
     </row>
-    <row r="12" spans="1:35" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="54" t="s">
+    <row r="12" spans="1:35" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="B12" s="55" t="str">
+      <c r="B12" s="73" t="str">
         <f t="shared" si="0"/>
         <v>02.07.1982</v>
       </c>
@@ -1892,41 +1949,41 @@
         <v>156</v>
       </c>
       <c r="D12" s="54"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="59" t="str">
+      <c r="E12" s="54"/>
+      <c r="F12" s="72" t="str">
         <f t="shared" si="1"/>
         <v>03.09.2020</v>
       </c>
-      <c r="G12" s="58" t="s">
+      <c r="G12" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="H12" s="59">
+      <c r="H12" s="69">
         <v>874737</v>
       </c>
-      <c r="I12" s="59" t="s">
+      <c r="I12" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="J12" s="59">
+      <c r="J12" s="69">
         <v>874735</v>
       </c>
-      <c r="K12" s="59" t="s">
+      <c r="K12" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="L12" s="59">
+      <c r="L12" s="69">
         <v>874733</v>
       </c>
-      <c r="M12" s="59" t="s">
+      <c r="M12" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="O12" s="10">
+      <c r="O12" s="64">
         <v>30134</v>
       </c>
-      <c r="P12" s="41">
+      <c r="P12" s="65">
         <v>44077</v>
       </c>
-      <c r="T12" s="11"/>
-      <c r="U12" s="46"/>
-      <c r="Y12" s="11"/>
+      <c r="T12" s="64"/>
+      <c r="U12" s="66"/>
+      <c r="Y12" s="64"/>
       <c r="AD12" s="47"/>
       <c r="AE12" s="47"/>
       <c r="AF12" s="47"/>
@@ -1934,11 +1991,11 @@
       <c r="AH12" s="47"/>
       <c r="AI12" s="47"/>
     </row>
-    <row r="13" spans="1:35" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="54" t="s">
+    <row r="13" spans="1:35" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="B13" s="55" t="str">
+      <c r="B13" s="73" t="str">
         <f t="shared" si="0"/>
         <v>30.11.1954</v>
       </c>
@@ -1946,41 +2003,41 @@
         <v>157</v>
       </c>
       <c r="D13" s="54"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="59" t="str">
+      <c r="E13" s="54"/>
+      <c r="F13" s="72" t="str">
         <f t="shared" si="1"/>
         <v>03.09.2020</v>
       </c>
-      <c r="G13" s="58" t="s">
+      <c r="G13" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="H13" s="59">
+      <c r="H13" s="69">
         <v>874737</v>
       </c>
-      <c r="I13" s="59" t="s">
+      <c r="I13" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="J13" s="59">
+      <c r="J13" s="69">
         <v>874735</v>
       </c>
-      <c r="K13" s="59" t="s">
+      <c r="K13" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="L13" s="59">
+      <c r="L13" s="69">
         <v>874733</v>
       </c>
-      <c r="M13" s="59" t="s">
+      <c r="M13" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="O13" s="10">
+      <c r="O13" s="64">
         <v>20058</v>
       </c>
-      <c r="P13" s="41">
+      <c r="P13" s="65">
         <v>44077</v>
       </c>
-      <c r="T13" s="11"/>
-      <c r="U13" s="46"/>
-      <c r="Y13" s="11"/>
+      <c r="T13" s="64"/>
+      <c r="U13" s="66"/>
+      <c r="Y13" s="64"/>
       <c r="AD13" s="47"/>
       <c r="AE13" s="47"/>
       <c r="AF13" s="47"/>
@@ -1988,11 +2045,11 @@
       <c r="AH13" s="47"/>
       <c r="AI13" s="47"/>
     </row>
-    <row r="14" spans="1:35" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="54" t="s">
+    <row r="14" spans="1:35" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="55" t="str">
+      <c r="B14" s="73" t="str">
         <f t="shared" si="0"/>
         <v>02.02.1953</v>
       </c>
@@ -2000,41 +2057,41 @@
         <v>158</v>
       </c>
       <c r="D14" s="54"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="59" t="str">
+      <c r="E14" s="54"/>
+      <c r="F14" s="72" t="str">
         <f t="shared" si="1"/>
         <v>03.09.2020</v>
       </c>
-      <c r="G14" s="58" t="s">
+      <c r="G14" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="H14" s="59">
+      <c r="H14" s="69">
         <v>874737</v>
       </c>
-      <c r="I14" s="59" t="s">
+      <c r="I14" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="J14" s="59">
+      <c r="J14" s="69">
         <v>874735</v>
       </c>
-      <c r="K14" s="59" t="s">
+      <c r="K14" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="L14" s="59">
+      <c r="L14" s="69">
         <v>874733</v>
       </c>
-      <c r="M14" s="59" t="s">
+      <c r="M14" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="O14" s="10">
+      <c r="O14" s="64">
         <v>19392</v>
       </c>
-      <c r="P14" s="41">
+      <c r="P14" s="65">
         <v>44077</v>
       </c>
-      <c r="T14" s="11"/>
-      <c r="U14" s="46"/>
-      <c r="Y14" s="11"/>
+      <c r="T14" s="64"/>
+      <c r="U14" s="66"/>
+      <c r="Y14" s="64"/>
       <c r="AD14" s="47"/>
       <c r="AE14" s="47"/>
       <c r="AF14" s="47"/>
@@ -2042,11 +2099,11 @@
       <c r="AH14" s="47"/>
       <c r="AI14" s="47"/>
     </row>
-    <row r="15" spans="1:35" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="54" t="s">
+    <row r="15" spans="1:35" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="B15" s="55" t="str">
+      <c r="B15" s="73" t="str">
         <f t="shared" si="0"/>
         <v>26.11.1960</v>
       </c>
@@ -2054,41 +2111,41 @@
         <v>72</v>
       </c>
       <c r="D15" s="54"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="59" t="str">
+      <c r="E15" s="54"/>
+      <c r="F15" s="72" t="str">
         <f t="shared" si="1"/>
         <v>03.09.2020</v>
       </c>
-      <c r="G15" s="58" t="s">
+      <c r="G15" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="H15" s="59">
+      <c r="H15" s="69">
         <v>874737</v>
       </c>
-      <c r="I15" s="59" t="s">
+      <c r="I15" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="J15" s="59">
+      <c r="J15" s="69">
         <v>874735</v>
       </c>
-      <c r="K15" s="59" t="s">
+      <c r="K15" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="L15" s="59">
+      <c r="L15" s="69">
         <v>874733</v>
       </c>
-      <c r="M15" s="59" t="s">
+      <c r="M15" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="O15" s="10">
+      <c r="O15" s="64">
         <v>22246</v>
       </c>
-      <c r="P15" s="41">
+      <c r="P15" s="65">
         <v>44077</v>
       </c>
-      <c r="T15" s="11"/>
-      <c r="U15" s="46"/>
-      <c r="Y15" s="11"/>
+      <c r="T15" s="64"/>
+      <c r="U15" s="66"/>
+      <c r="Y15" s="64"/>
       <c r="AD15" s="47"/>
       <c r="AE15" s="47"/>
       <c r="AF15" s="47"/>
@@ -2096,11 +2153,11 @@
       <c r="AH15" s="47"/>
       <c r="AI15" s="47"/>
     </row>
-    <row r="16" spans="1:35" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="54" t="s">
+    <row r="16" spans="1:35" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="B16" s="55" t="str">
+      <c r="B16" s="73" t="str">
         <f t="shared" si="0"/>
         <v>17.03.1960</v>
       </c>
@@ -2108,41 +2165,41 @@
         <v>159</v>
       </c>
       <c r="D16" s="54"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="59" t="str">
+      <c r="E16" s="54"/>
+      <c r="F16" s="72" t="str">
         <f t="shared" si="1"/>
         <v>03.09.2020</v>
       </c>
-      <c r="G16" s="58" t="s">
+      <c r="G16" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="H16" s="59">
+      <c r="H16" s="69">
         <v>874737</v>
       </c>
-      <c r="I16" s="59" t="s">
+      <c r="I16" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="J16" s="59">
+      <c r="J16" s="69">
         <v>874735</v>
       </c>
-      <c r="K16" s="59" t="s">
+      <c r="K16" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="L16" s="59">
+      <c r="L16" s="69">
         <v>874733</v>
       </c>
-      <c r="M16" s="59" t="s">
+      <c r="M16" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="O16" s="10">
+      <c r="O16" s="64">
         <v>21992</v>
       </c>
-      <c r="P16" s="41">
+      <c r="P16" s="65">
         <v>44077</v>
       </c>
-      <c r="T16" s="11"/>
-      <c r="U16" s="46"/>
-      <c r="Y16" s="11"/>
+      <c r="T16" s="64"/>
+      <c r="U16" s="66"/>
+      <c r="Y16" s="64"/>
       <c r="AD16" s="47"/>
       <c r="AE16" s="47"/>
       <c r="AF16" s="47"/>
@@ -2150,11 +2207,11 @@
       <c r="AH16" s="47"/>
       <c r="AI16" s="47"/>
     </row>
-    <row r="17" spans="1:35" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="54" t="s">
+    <row r="17" spans="1:35" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="B17" s="55" t="str">
+      <c r="B17" s="73" t="str">
         <f t="shared" si="0"/>
         <v>17.07.1956</v>
       </c>
@@ -2162,41 +2219,41 @@
         <v>154</v>
       </c>
       <c r="D17" s="54"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="59" t="str">
+      <c r="E17" s="54"/>
+      <c r="F17" s="72" t="str">
         <f t="shared" si="1"/>
         <v>03.09.2020</v>
       </c>
-      <c r="G17" s="58" t="s">
+      <c r="G17" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="H17" s="59">
+      <c r="H17" s="69">
         <v>874737</v>
       </c>
-      <c r="I17" s="59" t="s">
+      <c r="I17" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="J17" s="59">
+      <c r="J17" s="69">
         <v>874735</v>
       </c>
-      <c r="K17" s="59" t="s">
+      <c r="K17" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="L17" s="59">
+      <c r="L17" s="69">
         <v>874733</v>
       </c>
-      <c r="M17" s="59" t="s">
+      <c r="M17" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="O17" s="10">
+      <c r="O17" s="64">
         <v>20653</v>
       </c>
-      <c r="P17" s="41">
+      <c r="P17" s="65">
         <v>44077</v>
       </c>
-      <c r="T17" s="11"/>
-      <c r="U17" s="46"/>
-      <c r="Y17" s="11"/>
+      <c r="T17" s="64"/>
+      <c r="U17" s="66"/>
+      <c r="Y17" s="64"/>
       <c r="AD17" s="47"/>
       <c r="AE17" s="47"/>
       <c r="AF17" s="47"/>
@@ -2204,11 +2261,11 @@
       <c r="AH17" s="47"/>
       <c r="AI17" s="47"/>
     </row>
-    <row r="18" spans="1:35" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="54" t="s">
+    <row r="18" spans="1:35" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="B18" s="55" t="str">
+      <c r="B18" s="73" t="str">
         <f t="shared" si="0"/>
         <v>08.02.1951</v>
       </c>
@@ -2216,41 +2273,37 @@
         <v>160</v>
       </c>
       <c r="D18" s="54"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="59" t="str">
+      <c r="E18" s="54"/>
+      <c r="F18" s="72" t="str">
         <f t="shared" si="1"/>
         <v>03.09.2020</v>
       </c>
-      <c r="G18" s="58" t="s">
+      <c r="G18" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="H18" s="59">
+      <c r="H18" s="69">
         <v>874737</v>
       </c>
-      <c r="I18" s="59" t="s">
+      <c r="I18" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="J18" s="59">
-        <v>874735</v>
-      </c>
-      <c r="K18" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="L18" s="59">
-        <v>874733</v>
-      </c>
-      <c r="M18" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="O18" s="10">
+      <c r="J18" s="69">
+        <v>874739</v>
+      </c>
+      <c r="K18" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="L18" s="69"/>
+      <c r="M18" s="71"/>
+      <c r="O18" s="64">
         <v>18667</v>
       </c>
-      <c r="P18" s="41">
+      <c r="P18" s="65">
         <v>44077</v>
       </c>
-      <c r="T18" s="11"/>
-      <c r="U18" s="46"/>
-      <c r="Y18" s="11"/>
+      <c r="T18" s="64"/>
+      <c r="U18" s="66"/>
+      <c r="Y18" s="64"/>
       <c r="AD18" s="47"/>
       <c r="AE18" s="47"/>
       <c r="AF18" s="47"/>
@@ -2258,11 +2311,11 @@
       <c r="AH18" s="47"/>
       <c r="AI18" s="47"/>
     </row>
-    <row r="19" spans="1:35" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="54" t="s">
+    <row r="19" spans="1:35" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="B19" s="55" t="str">
+      <c r="B19" s="73" t="str">
         <f t="shared" si="0"/>
         <v>30.08.1959</v>
       </c>
@@ -2270,87 +2323,93 @@
         <v>161</v>
       </c>
       <c r="D19" s="54"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="59" t="str">
+      <c r="E19" s="54"/>
+      <c r="F19" s="72" t="str">
         <f t="shared" si="1"/>
         <v>03.09.2020</v>
       </c>
-      <c r="G19" s="58" t="s">
+      <c r="G19" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="H19" s="59">
+      <c r="H19" s="69">
         <v>874737</v>
       </c>
-      <c r="I19" s="59" t="s">
+      <c r="I19" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="J19" s="59">
-        <v>874739</v>
-      </c>
-      <c r="K19" s="59" t="s">
-        <v>86</v>
-      </c>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="O19" s="10">
+      <c r="J19" s="69">
+        <v>874735</v>
+      </c>
+      <c r="K19" s="70" t="s">
+        <v>67</v>
+      </c>
+      <c r="L19" s="69">
+        <v>874733</v>
+      </c>
+      <c r="M19" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="O19" s="64">
         <v>21792</v>
       </c>
-      <c r="P19" s="41">
+      <c r="P19" s="65">
         <v>44077</v>
       </c>
-      <c r="T19" s="11"/>
-      <c r="U19" s="46"/>
-      <c r="Y19" s="11"/>
+      <c r="T19" s="64"/>
+      <c r="U19" s="66"/>
+      <c r="Y19" s="64"/>
       <c r="AD19" s="47"/>
       <c r="AE19" s="47"/>
       <c r="AF19" s="48"/>
       <c r="AG19" s="48"/>
     </row>
-    <row r="20" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+    <row r="20" spans="1:35" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="B20" s="37" t="str">
+      <c r="B20" s="55" t="str">
         <f t="shared" si="0"/>
         <v>23.10.1957</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="56" t="s">
         <v>162</v>
       </c>
-      <c r="F20" s="10" t="str">
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="57" t="str">
         <f t="shared" si="1"/>
         <v>03.09.2020</v>
       </c>
-      <c r="G20" s="58" t="s">
+      <c r="G20" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H20" s="69">
         <v>874737</v>
       </c>
-      <c r="I20" s="10" t="s">
+      <c r="I20" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="J20" s="10">
+      <c r="J20" s="69">
         <v>874735</v>
       </c>
-      <c r="K20" s="10" t="s">
+      <c r="K20" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="L20" s="10">
+      <c r="L20" s="69">
         <v>874733</v>
       </c>
-      <c r="M20" s="10" t="s">
+      <c r="M20" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="O20" s="11">
+      <c r="O20" s="64">
         <v>21116</v>
       </c>
-      <c r="P20" s="41">
+      <c r="P20" s="65">
         <v>44077</v>
       </c>
-      <c r="T20" s="11"/>
-      <c r="U20" s="46"/>
-      <c r="Y20" s="11"/>
+      <c r="T20" s="64"/>
+      <c r="U20" s="66"/>
+      <c r="Y20" s="64"/>
       <c r="AD20" s="47"/>
       <c r="AE20" s="47"/>
       <c r="AF20" s="47"/>
@@ -2358,51 +2417,53 @@
       <c r="AH20" s="47"/>
       <c r="AI20" s="47"/>
     </row>
-    <row r="21" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+    <row r="21" spans="1:35" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="B21" s="37" t="str">
+      <c r="B21" s="55" t="str">
         <f t="shared" si="0"/>
         <v>19.06.1950</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="F21" s="10" t="str">
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="57" t="str">
         <f t="shared" si="1"/>
         <v>03.09.2020</v>
       </c>
-      <c r="G21" s="58" t="s">
+      <c r="G21" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21" s="69">
         <v>874737</v>
       </c>
-      <c r="I21" s="10" t="s">
+      <c r="I21" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="J21" s="10">
+      <c r="J21" s="69">
         <v>874735</v>
       </c>
-      <c r="K21" s="10" t="s">
+      <c r="K21" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="L21" s="10">
-        <v>874733</v>
-      </c>
-      <c r="M21" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="O21" s="11">
+      <c r="L21" s="69">
+        <v>874736</v>
+      </c>
+      <c r="M21" s="71" t="s">
+        <v>166</v>
+      </c>
+      <c r="O21" s="64">
         <v>18433</v>
       </c>
-      <c r="P21" s="41">
+      <c r="P21" s="65">
         <v>44077</v>
       </c>
-      <c r="T21" s="11"/>
-      <c r="U21" s="46"/>
-      <c r="Y21" s="11"/>
+      <c r="T21" s="64"/>
+      <c r="U21" s="66"/>
+      <c r="Y21" s="64"/>
       <c r="AD21" s="47"/>
       <c r="AE21" s="47"/>
       <c r="AF21" s="47"/>
@@ -2410,51 +2471,53 @@
       <c r="AH21" s="47"/>
       <c r="AI21" s="47"/>
     </row>
-    <row r="22" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+    <row r="22" spans="1:35" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="B22" s="37" t="str">
+      <c r="B22" s="55" t="str">
         <f t="shared" si="0"/>
         <v>30.07.1958</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="56" t="s">
         <v>163</v>
       </c>
-      <c r="F22" s="10" t="str">
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="57" t="str">
         <f t="shared" si="1"/>
         <v>03.09.2020</v>
       </c>
-      <c r="G22" s="58" t="s">
+      <c r="G22" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="69">
         <v>874737</v>
       </c>
-      <c r="I22" s="10" t="s">
+      <c r="I22" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="J22" s="10">
-        <v>874736</v>
-      </c>
-      <c r="K22" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="L22" s="10">
+      <c r="J22" s="69">
+        <v>874735</v>
+      </c>
+      <c r="K22" s="70" t="s">
+        <v>67</v>
+      </c>
+      <c r="L22" s="69">
         <v>874733</v>
       </c>
-      <c r="M22" s="10" t="s">
+      <c r="M22" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="O22" s="11">
+      <c r="O22" s="64">
         <v>21396</v>
       </c>
-      <c r="P22" s="41">
+      <c r="P22" s="65">
         <v>44077</v>
       </c>
-      <c r="T22" s="11"/>
-      <c r="U22" s="46"/>
-      <c r="Y22" s="11"/>
+      <c r="T22" s="64"/>
+      <c r="U22" s="66"/>
+      <c r="Y22" s="64"/>
       <c r="AD22" s="47"/>
       <c r="AE22" s="47"/>
       <c r="AF22" s="49"/>
@@ -2462,51 +2525,53 @@
       <c r="AH22" s="47"/>
       <c r="AI22" s="47"/>
     </row>
-    <row r="23" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+    <row r="23" spans="1:35" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="B23" s="37" t="str">
+      <c r="B23" s="55" t="str">
         <f t="shared" si="0"/>
         <v>27.11.1956</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="56" t="s">
         <v>164</v>
       </c>
-      <c r="F23" s="10" t="str">
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="57" t="str">
         <f t="shared" si="1"/>
         <v>03.09.2020</v>
       </c>
-      <c r="G23" s="58" t="s">
+      <c r="G23" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H23" s="69">
         <v>874737</v>
       </c>
-      <c r="I23" s="10" t="s">
+      <c r="I23" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="J23" s="10">
+      <c r="J23" s="69">
         <v>874735</v>
       </c>
-      <c r="K23" s="10" t="s">
+      <c r="K23" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="L23" s="10">
+      <c r="L23" s="69">
         <v>874733</v>
       </c>
-      <c r="M23" s="10" t="s">
+      <c r="M23" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="O23" s="11">
+      <c r="O23" s="64">
         <v>20786</v>
       </c>
-      <c r="P23" s="41">
+      <c r="P23" s="65">
         <v>44077</v>
       </c>
-      <c r="T23" s="11"/>
-      <c r="U23" s="46"/>
-      <c r="Y23" s="11"/>
+      <c r="T23" s="64"/>
+      <c r="U23" s="66"/>
+      <c r="Y23" s="64"/>
       <c r="AD23" s="47"/>
       <c r="AE23" s="47"/>
       <c r="AF23" s="47"/>
@@ -2514,51 +2579,53 @@
       <c r="AH23" s="47"/>
       <c r="AI23" s="47"/>
     </row>
-    <row r="24" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+    <row r="24" spans="1:35" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="B24" s="37" t="str">
+      <c r="B24" s="55" t="str">
         <f t="shared" si="0"/>
         <v>22.12.1960</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="56" t="s">
         <v>165</v>
       </c>
-      <c r="F24" s="10" t="str">
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="57" t="str">
         <f t="shared" si="1"/>
         <v>03.09.2020</v>
       </c>
-      <c r="G24" s="58" t="s">
+      <c r="G24" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H24" s="69">
         <v>874737</v>
       </c>
-      <c r="I24" s="10" t="s">
+      <c r="I24" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="J24" s="10">
-        <v>874735</v>
-      </c>
-      <c r="K24" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="L24" s="10">
+      <c r="J24" s="69">
+        <v>874739</v>
+      </c>
+      <c r="K24" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="L24" s="69">
         <v>874733</v>
       </c>
-      <c r="M24" s="10" t="s">
+      <c r="M24" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="O24" s="11">
+      <c r="O24" s="64">
         <v>22272</v>
       </c>
-      <c r="P24" s="41">
+      <c r="P24" s="65">
         <v>44077</v>
       </c>
-      <c r="T24" s="11"/>
-      <c r="U24" s="46"/>
-      <c r="Y24" s="11"/>
+      <c r="T24" s="64"/>
+      <c r="U24" s="66"/>
+      <c r="Y24" s="64"/>
       <c r="AD24" s="47"/>
       <c r="AE24" s="47"/>
       <c r="AF24" s="47"/>
@@ -2566,15 +2633,7153 @@
       <c r="AH24" s="47"/>
       <c r="AI24" s="47"/>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="24"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="60"/>
       <c r="AF25" s="47"/>
       <c r="AG25" s="48"/>
       <c r="AH25" s="47"/>
       <c r="AI25" s="47"/>
     </row>
+    <row r="26" spans="1:35" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="24"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="60"/>
+    </row>
+    <row r="27" spans="1:35" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="24"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="58"/>
+      <c r="M27" s="60"/>
+    </row>
+    <row r="28" spans="1:35" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="24"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="58"/>
+      <c r="M28" s="60"/>
+    </row>
+    <row r="29" spans="1:35" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="24"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="58"/>
+      <c r="M29" s="60"/>
+    </row>
+    <row r="30" spans="1:35" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="24"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="58"/>
+      <c r="M30" s="60"/>
+    </row>
+    <row r="31" spans="1:35" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="24"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="58"/>
+      <c r="M31" s="60"/>
+    </row>
+    <row r="32" spans="1:35" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="24"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="58"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="58"/>
+      <c r="M32" s="60"/>
+    </row>
+    <row r="33" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="24"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="58"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="58"/>
+      <c r="M33" s="60"/>
+    </row>
+    <row r="34" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="24"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="58"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="58"/>
+      <c r="M34" s="60"/>
+    </row>
+    <row r="35" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="24"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="58"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="58"/>
+      <c r="M35" s="60"/>
+    </row>
+    <row r="36" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="24"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="58"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="58"/>
+      <c r="M36" s="60"/>
+    </row>
+    <row r="37" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="24"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="58"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="58"/>
+      <c r="M37" s="60"/>
+    </row>
+    <row r="38" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="24"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="58"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="58"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="58"/>
+      <c r="M38" s="60"/>
+    </row>
+    <row r="39" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="24"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="58"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="58"/>
+      <c r="M39" s="60"/>
+    </row>
+    <row r="40" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="24"/>
+      <c r="B40" s="55"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="58"/>
+      <c r="H40" s="58"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="58"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="58"/>
+      <c r="M40" s="60"/>
+    </row>
+    <row r="41" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="24"/>
+      <c r="B41" s="55"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="57"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="58"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="58"/>
+      <c r="M41" s="60"/>
+    </row>
+    <row r="42" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="24"/>
+      <c r="B42" s="55"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="58"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="58"/>
+      <c r="M42" s="60"/>
+    </row>
+    <row r="43" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="24"/>
+      <c r="B43" s="55"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="58"/>
+      <c r="K43" s="28"/>
+      <c r="L43" s="58"/>
+      <c r="M43" s="60"/>
+    </row>
+    <row r="44" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="24"/>
+      <c r="B44" s="55"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="58"/>
+      <c r="K44" s="28"/>
+      <c r="L44" s="58"/>
+      <c r="M44" s="60"/>
+    </row>
+    <row r="45" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="24"/>
+      <c r="B45" s="55"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="58"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="58"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="58"/>
+      <c r="M45" s="60"/>
+    </row>
+    <row r="46" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="24"/>
+      <c r="B46" s="55"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="57"/>
+      <c r="G46" s="58"/>
+      <c r="H46" s="58"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="58"/>
+      <c r="K46" s="28"/>
+      <c r="L46" s="58"/>
+      <c r="M46" s="60"/>
+    </row>
+    <row r="47" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="24"/>
+      <c r="B47" s="55"/>
+      <c r="C47" s="56"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="57"/>
+      <c r="G47" s="58"/>
+      <c r="H47" s="58"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="58"/>
+      <c r="K47" s="28"/>
+      <c r="L47" s="58"/>
+      <c r="M47" s="60"/>
+    </row>
+    <row r="48" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="24"/>
+      <c r="B48" s="55"/>
+      <c r="C48" s="56"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="57"/>
+      <c r="G48" s="58"/>
+      <c r="H48" s="58"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="58"/>
+      <c r="K48" s="28"/>
+      <c r="L48" s="58"/>
+      <c r="M48" s="60"/>
+    </row>
+    <row r="49" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="24"/>
+      <c r="B49" s="55"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="57"/>
+      <c r="G49" s="58"/>
+      <c r="H49" s="58"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="58"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="58"/>
+      <c r="M49" s="60"/>
+    </row>
+    <row r="50" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="24"/>
+      <c r="B50" s="55"/>
+      <c r="C50" s="56"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="57"/>
+      <c r="G50" s="58"/>
+      <c r="H50" s="58"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="58"/>
+      <c r="K50" s="28"/>
+      <c r="L50" s="58"/>
+      <c r="M50" s="60"/>
+    </row>
+    <row r="51" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="24"/>
+      <c r="B51" s="55"/>
+      <c r="C51" s="56"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="57"/>
+      <c r="G51" s="58"/>
+      <c r="H51" s="58"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="58"/>
+      <c r="K51" s="28"/>
+      <c r="L51" s="58"/>
+      <c r="M51" s="60"/>
+    </row>
+    <row r="52" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="24"/>
+      <c r="B52" s="55"/>
+      <c r="C52" s="56"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="57"/>
+      <c r="G52" s="58"/>
+      <c r="H52" s="58"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="58"/>
+      <c r="K52" s="28"/>
+      <c r="L52" s="58"/>
+      <c r="M52" s="60"/>
+    </row>
+    <row r="53" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="24"/>
+      <c r="B53" s="55"/>
+      <c r="C53" s="56"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="57"/>
+      <c r="G53" s="58"/>
+      <c r="H53" s="58"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="58"/>
+      <c r="K53" s="28"/>
+      <c r="L53" s="58"/>
+      <c r="M53" s="60"/>
+    </row>
+    <row r="54" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="24"/>
+      <c r="B54" s="55"/>
+      <c r="C54" s="56"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="57"/>
+      <c r="G54" s="58"/>
+      <c r="H54" s="58"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="58"/>
+      <c r="K54" s="28"/>
+      <c r="L54" s="58"/>
+      <c r="M54" s="60"/>
+    </row>
+    <row r="55" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="24"/>
+      <c r="B55" s="55"/>
+      <c r="C55" s="56"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="57"/>
+      <c r="G55" s="58"/>
+      <c r="H55" s="58"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="58"/>
+      <c r="K55" s="28"/>
+      <c r="L55" s="58"/>
+      <c r="M55" s="60"/>
+    </row>
+    <row r="56" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="24"/>
+      <c r="B56" s="55"/>
+      <c r="C56" s="56"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="57"/>
+      <c r="G56" s="58"/>
+      <c r="H56" s="58"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="58"/>
+      <c r="K56" s="28"/>
+      <c r="L56" s="58"/>
+      <c r="M56" s="60"/>
+    </row>
+    <row r="57" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="24"/>
+      <c r="B57" s="55"/>
+      <c r="C57" s="56"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="57"/>
+      <c r="G57" s="58"/>
+      <c r="H57" s="58"/>
+      <c r="I57" s="28"/>
+      <c r="J57" s="58"/>
+      <c r="K57" s="28"/>
+      <c r="L57" s="58"/>
+      <c r="M57" s="60"/>
+    </row>
+    <row r="58" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="24"/>
+      <c r="B58" s="55"/>
+      <c r="C58" s="56"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="57"/>
+      <c r="G58" s="58"/>
+      <c r="H58" s="58"/>
+      <c r="I58" s="28"/>
+      <c r="J58" s="58"/>
+      <c r="K58" s="28"/>
+      <c r="L58" s="58"/>
+      <c r="M58" s="60"/>
+    </row>
+    <row r="59" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="24"/>
+      <c r="B59" s="55"/>
+      <c r="C59" s="56"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="57"/>
+      <c r="G59" s="58"/>
+      <c r="H59" s="58"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="58"/>
+      <c r="K59" s="28"/>
+      <c r="L59" s="58"/>
+      <c r="M59" s="60"/>
+    </row>
+    <row r="60" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="24"/>
+      <c r="B60" s="55"/>
+      <c r="C60" s="56"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="57"/>
+      <c r="G60" s="58"/>
+      <c r="H60" s="58"/>
+      <c r="I60" s="28"/>
+      <c r="J60" s="58"/>
+      <c r="K60" s="28"/>
+      <c r="L60" s="58"/>
+      <c r="M60" s="60"/>
+    </row>
+    <row r="61" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="24"/>
+      <c r="B61" s="55"/>
+      <c r="C61" s="56"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="57"/>
+      <c r="G61" s="58"/>
+      <c r="H61" s="58"/>
+      <c r="I61" s="28"/>
+      <c r="J61" s="58"/>
+      <c r="K61" s="28"/>
+      <c r="L61" s="58"/>
+      <c r="M61" s="60"/>
+    </row>
+    <row r="62" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="24"/>
+      <c r="B62" s="55"/>
+      <c r="C62" s="56"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="57"/>
+      <c r="G62" s="58"/>
+      <c r="H62" s="58"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="58"/>
+      <c r="K62" s="28"/>
+      <c r="L62" s="58"/>
+      <c r="M62" s="60"/>
+    </row>
+    <row r="63" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="24"/>
+      <c r="B63" s="55"/>
+      <c r="C63" s="56"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="57"/>
+      <c r="G63" s="58"/>
+      <c r="H63" s="58"/>
+      <c r="I63" s="28"/>
+      <c r="J63" s="58"/>
+      <c r="K63" s="28"/>
+      <c r="L63" s="58"/>
+      <c r="M63" s="60"/>
+    </row>
+    <row r="64" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="24"/>
+      <c r="B64" s="55"/>
+      <c r="C64" s="56"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="57"/>
+      <c r="G64" s="58"/>
+      <c r="H64" s="58"/>
+      <c r="I64" s="28"/>
+      <c r="J64" s="58"/>
+      <c r="K64" s="28"/>
+      <c r="L64" s="58"/>
+      <c r="M64" s="60"/>
+    </row>
+    <row r="65" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="24"/>
+      <c r="B65" s="55"/>
+      <c r="C65" s="56"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="57"/>
+      <c r="G65" s="58"/>
+      <c r="H65" s="58"/>
+      <c r="I65" s="28"/>
+      <c r="J65" s="58"/>
+      <c r="K65" s="28"/>
+      <c r="L65" s="58"/>
+      <c r="M65" s="60"/>
+    </row>
+    <row r="66" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="24"/>
+      <c r="B66" s="55"/>
+      <c r="C66" s="56"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="57"/>
+      <c r="G66" s="58"/>
+      <c r="H66" s="58"/>
+      <c r="I66" s="28"/>
+      <c r="J66" s="58"/>
+      <c r="K66" s="28"/>
+      <c r="L66" s="58"/>
+      <c r="M66" s="60"/>
+    </row>
+    <row r="67" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="24"/>
+      <c r="B67" s="55"/>
+      <c r="C67" s="56"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="57"/>
+      <c r="G67" s="58"/>
+      <c r="H67" s="58"/>
+      <c r="I67" s="28"/>
+      <c r="J67" s="58"/>
+      <c r="K67" s="28"/>
+      <c r="L67" s="58"/>
+      <c r="M67" s="60"/>
+    </row>
+    <row r="68" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="24"/>
+      <c r="B68" s="55"/>
+      <c r="C68" s="56"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="57"/>
+      <c r="G68" s="58"/>
+      <c r="H68" s="58"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="58"/>
+      <c r="K68" s="28"/>
+      <c r="L68" s="58"/>
+      <c r="M68" s="60"/>
+    </row>
+    <row r="69" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="24"/>
+      <c r="B69" s="55"/>
+      <c r="C69" s="56"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="57"/>
+      <c r="G69" s="58"/>
+      <c r="H69" s="58"/>
+      <c r="I69" s="28"/>
+      <c r="J69" s="58"/>
+      <c r="K69" s="28"/>
+      <c r="L69" s="58"/>
+      <c r="M69" s="60"/>
+    </row>
+    <row r="70" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="24"/>
+      <c r="B70" s="55"/>
+      <c r="C70" s="56"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="57"/>
+      <c r="G70" s="58"/>
+      <c r="H70" s="58"/>
+      <c r="I70" s="28"/>
+      <c r="J70" s="58"/>
+      <c r="K70" s="28"/>
+      <c r="L70" s="58"/>
+      <c r="M70" s="60"/>
+    </row>
+    <row r="71" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="24"/>
+      <c r="B71" s="55"/>
+      <c r="C71" s="56"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="57"/>
+      <c r="G71" s="58"/>
+      <c r="H71" s="58"/>
+      <c r="I71" s="28"/>
+      <c r="J71" s="58"/>
+      <c r="K71" s="28"/>
+      <c r="L71" s="58"/>
+      <c r="M71" s="60"/>
+    </row>
+    <row r="72" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="24"/>
+      <c r="B72" s="55"/>
+      <c r="C72" s="56"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="57"/>
+      <c r="G72" s="58"/>
+      <c r="H72" s="58"/>
+      <c r="I72" s="28"/>
+      <c r="J72" s="58"/>
+      <c r="K72" s="28"/>
+      <c r="L72" s="58"/>
+      <c r="M72" s="60"/>
+    </row>
+    <row r="73" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="24"/>
+      <c r="B73" s="55"/>
+      <c r="C73" s="56"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="57"/>
+      <c r="G73" s="58"/>
+      <c r="H73" s="58"/>
+      <c r="I73" s="28"/>
+      <c r="J73" s="58"/>
+      <c r="K73" s="28"/>
+      <c r="L73" s="58"/>
+      <c r="M73" s="60"/>
+    </row>
+    <row r="74" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="24"/>
+      <c r="B74" s="55"/>
+      <c r="C74" s="56"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="57"/>
+      <c r="G74" s="58"/>
+      <c r="H74" s="58"/>
+      <c r="I74" s="28"/>
+      <c r="J74" s="58"/>
+      <c r="K74" s="28"/>
+      <c r="L74" s="58"/>
+      <c r="M74" s="60"/>
+    </row>
+    <row r="75" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="24"/>
+      <c r="B75" s="55"/>
+      <c r="C75" s="56"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="57"/>
+      <c r="G75" s="58"/>
+      <c r="H75" s="58"/>
+      <c r="I75" s="28"/>
+      <c r="J75" s="58"/>
+      <c r="K75" s="28"/>
+      <c r="L75" s="58"/>
+      <c r="M75" s="60"/>
+    </row>
+    <row r="76" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="24"/>
+      <c r="B76" s="55"/>
+      <c r="C76" s="56"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="57"/>
+      <c r="G76" s="58"/>
+      <c r="H76" s="58"/>
+      <c r="I76" s="28"/>
+      <c r="J76" s="58"/>
+      <c r="K76" s="28"/>
+      <c r="L76" s="58"/>
+      <c r="M76" s="60"/>
+    </row>
+    <row r="77" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="24"/>
+      <c r="B77" s="55"/>
+      <c r="C77" s="56"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="57"/>
+      <c r="G77" s="58"/>
+      <c r="H77" s="58"/>
+      <c r="I77" s="28"/>
+      <c r="J77" s="58"/>
+      <c r="K77" s="28"/>
+      <c r="L77" s="58"/>
+      <c r="M77" s="60"/>
+    </row>
+    <row r="78" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="24"/>
+      <c r="B78" s="55"/>
+      <c r="C78" s="56"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="57"/>
+      <c r="G78" s="58"/>
+      <c r="H78" s="58"/>
+      <c r="I78" s="28"/>
+      <c r="J78" s="58"/>
+      <c r="K78" s="28"/>
+      <c r="L78" s="58"/>
+      <c r="M78" s="60"/>
+    </row>
+    <row r="79" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="24"/>
+      <c r="B79" s="55"/>
+      <c r="C79" s="56"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="57"/>
+      <c r="G79" s="58"/>
+      <c r="H79" s="58"/>
+      <c r="I79" s="28"/>
+      <c r="J79" s="58"/>
+      <c r="K79" s="28"/>
+      <c r="L79" s="58"/>
+      <c r="M79" s="60"/>
+    </row>
+    <row r="80" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="24"/>
+      <c r="B80" s="55"/>
+      <c r="C80" s="56"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="57"/>
+      <c r="G80" s="58"/>
+      <c r="H80" s="58"/>
+      <c r="I80" s="28"/>
+      <c r="J80" s="58"/>
+      <c r="K80" s="28"/>
+      <c r="L80" s="58"/>
+      <c r="M80" s="60"/>
+    </row>
+    <row r="81" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="24"/>
+      <c r="B81" s="55"/>
+      <c r="C81" s="56"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="57"/>
+      <c r="G81" s="58"/>
+      <c r="H81" s="58"/>
+      <c r="I81" s="28"/>
+      <c r="J81" s="58"/>
+      <c r="K81" s="28"/>
+      <c r="L81" s="58"/>
+      <c r="M81" s="60"/>
+    </row>
+    <row r="82" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="24"/>
+      <c r="B82" s="55"/>
+      <c r="C82" s="56"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="57"/>
+      <c r="G82" s="58"/>
+      <c r="H82" s="58"/>
+      <c r="I82" s="28"/>
+      <c r="J82" s="58"/>
+      <c r="K82" s="28"/>
+      <c r="L82" s="58"/>
+      <c r="M82" s="60"/>
+    </row>
+    <row r="83" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="24"/>
+      <c r="B83" s="55"/>
+      <c r="C83" s="56"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="57"/>
+      <c r="G83" s="58"/>
+      <c r="H83" s="58"/>
+      <c r="I83" s="28"/>
+      <c r="J83" s="58"/>
+      <c r="K83" s="28"/>
+      <c r="L83" s="58"/>
+      <c r="M83" s="60"/>
+    </row>
+    <row r="84" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="24"/>
+      <c r="B84" s="55"/>
+      <c r="C84" s="56"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="57"/>
+      <c r="G84" s="58"/>
+      <c r="H84" s="58"/>
+      <c r="I84" s="28"/>
+      <c r="J84" s="58"/>
+      <c r="K84" s="28"/>
+      <c r="L84" s="58"/>
+      <c r="M84" s="60"/>
+    </row>
+    <row r="85" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="24"/>
+      <c r="B85" s="55"/>
+      <c r="C85" s="56"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="57"/>
+      <c r="G85" s="58"/>
+      <c r="H85" s="58"/>
+      <c r="I85" s="28"/>
+      <c r="J85" s="58"/>
+      <c r="K85" s="28"/>
+      <c r="L85" s="58"/>
+      <c r="M85" s="60"/>
+    </row>
+    <row r="86" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="24"/>
+      <c r="B86" s="55"/>
+      <c r="C86" s="56"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="57"/>
+      <c r="G86" s="58"/>
+      <c r="H86" s="58"/>
+      <c r="I86" s="28"/>
+      <c r="J86" s="58"/>
+      <c r="K86" s="28"/>
+      <c r="L86" s="58"/>
+      <c r="M86" s="60"/>
+    </row>
+    <row r="87" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="24"/>
+      <c r="B87" s="55"/>
+      <c r="C87" s="56"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="57"/>
+      <c r="G87" s="58"/>
+      <c r="H87" s="58"/>
+      <c r="I87" s="28"/>
+      <c r="J87" s="58"/>
+      <c r="K87" s="28"/>
+      <c r="L87" s="58"/>
+      <c r="M87" s="60"/>
+    </row>
+    <row r="88" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="24"/>
+      <c r="B88" s="55"/>
+      <c r="C88" s="56"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="57"/>
+      <c r="G88" s="58"/>
+      <c r="H88" s="58"/>
+      <c r="I88" s="28"/>
+      <c r="J88" s="58"/>
+      <c r="K88" s="28"/>
+      <c r="L88" s="58"/>
+      <c r="M88" s="60"/>
+    </row>
+    <row r="89" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="24"/>
+      <c r="B89" s="55"/>
+      <c r="C89" s="56"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="57"/>
+      <c r="G89" s="58"/>
+      <c r="H89" s="58"/>
+      <c r="I89" s="28"/>
+      <c r="J89" s="58"/>
+      <c r="K89" s="28"/>
+      <c r="L89" s="58"/>
+      <c r="M89" s="60"/>
+    </row>
+    <row r="90" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="24"/>
+      <c r="B90" s="55"/>
+      <c r="C90" s="56"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="57"/>
+      <c r="G90" s="58"/>
+      <c r="H90" s="58"/>
+      <c r="I90" s="28"/>
+      <c r="J90" s="58"/>
+      <c r="K90" s="28"/>
+      <c r="L90" s="58"/>
+      <c r="M90" s="60"/>
+    </row>
+    <row r="91" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="24"/>
+      <c r="B91" s="55"/>
+      <c r="C91" s="56"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="57"/>
+      <c r="G91" s="58"/>
+      <c r="H91" s="58"/>
+      <c r="I91" s="28"/>
+      <c r="J91" s="58"/>
+      <c r="K91" s="28"/>
+      <c r="L91" s="58"/>
+      <c r="M91" s="60"/>
+    </row>
+    <row r="92" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="24"/>
+      <c r="B92" s="55"/>
+      <c r="C92" s="56"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="57"/>
+      <c r="G92" s="58"/>
+      <c r="H92" s="58"/>
+      <c r="I92" s="28"/>
+      <c r="J92" s="58"/>
+      <c r="K92" s="28"/>
+      <c r="L92" s="58"/>
+      <c r="M92" s="60"/>
+    </row>
+    <row r="93" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="24"/>
+      <c r="B93" s="55"/>
+      <c r="C93" s="56"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="57"/>
+      <c r="G93" s="58"/>
+      <c r="H93" s="58"/>
+      <c r="I93" s="28"/>
+      <c r="J93" s="58"/>
+      <c r="K93" s="28"/>
+      <c r="L93" s="58"/>
+      <c r="M93" s="60"/>
+    </row>
+    <row r="94" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="24"/>
+      <c r="B94" s="55"/>
+      <c r="C94" s="56"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="57"/>
+      <c r="G94" s="58"/>
+      <c r="H94" s="58"/>
+      <c r="I94" s="28"/>
+      <c r="J94" s="58"/>
+      <c r="K94" s="28"/>
+      <c r="L94" s="58"/>
+      <c r="M94" s="60"/>
+    </row>
+    <row r="95" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="24"/>
+      <c r="B95" s="55"/>
+      <c r="C95" s="56"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="57"/>
+      <c r="G95" s="58"/>
+      <c r="H95" s="58"/>
+      <c r="I95" s="28"/>
+      <c r="J95" s="58"/>
+      <c r="K95" s="28"/>
+      <c r="L95" s="58"/>
+      <c r="M95" s="60"/>
+    </row>
+    <row r="96" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="24"/>
+      <c r="B96" s="55"/>
+      <c r="C96" s="56"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="57"/>
+      <c r="G96" s="58"/>
+      <c r="H96" s="58"/>
+      <c r="I96" s="28"/>
+      <c r="J96" s="58"/>
+      <c r="K96" s="28"/>
+      <c r="L96" s="58"/>
+      <c r="M96" s="60"/>
+    </row>
+    <row r="97" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="24"/>
+      <c r="B97" s="55"/>
+      <c r="C97" s="56"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="57"/>
+      <c r="G97" s="58"/>
+      <c r="H97" s="58"/>
+      <c r="I97" s="28"/>
+      <c r="J97" s="58"/>
+      <c r="K97" s="28"/>
+      <c r="L97" s="58"/>
+      <c r="M97" s="60"/>
+    </row>
+    <row r="98" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="24"/>
+      <c r="B98" s="55"/>
+      <c r="C98" s="56"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="57"/>
+      <c r="G98" s="58"/>
+      <c r="H98" s="58"/>
+      <c r="I98" s="28"/>
+      <c r="J98" s="58"/>
+      <c r="K98" s="28"/>
+      <c r="L98" s="58"/>
+      <c r="M98" s="60"/>
+    </row>
+    <row r="99" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="24"/>
+      <c r="B99" s="55"/>
+      <c r="C99" s="56"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="57"/>
+      <c r="G99" s="58"/>
+      <c r="H99" s="58"/>
+      <c r="I99" s="28"/>
+      <c r="J99" s="58"/>
+      <c r="K99" s="28"/>
+      <c r="L99" s="58"/>
+      <c r="M99" s="60"/>
+    </row>
+    <row r="100" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="24"/>
+      <c r="B100" s="55"/>
+      <c r="C100" s="56"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="57"/>
+      <c r="G100" s="58"/>
+      <c r="H100" s="58"/>
+      <c r="I100" s="28"/>
+      <c r="J100" s="58"/>
+      <c r="K100" s="28"/>
+      <c r="L100" s="58"/>
+      <c r="M100" s="60"/>
+    </row>
+    <row r="101" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="24"/>
+      <c r="B101" s="55"/>
+      <c r="C101" s="56"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="57"/>
+      <c r="G101" s="58"/>
+      <c r="H101" s="58"/>
+      <c r="I101" s="28"/>
+      <c r="J101" s="58"/>
+      <c r="K101" s="28"/>
+      <c r="L101" s="58"/>
+      <c r="M101" s="60"/>
+    </row>
+    <row r="102" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="24"/>
+      <c r="B102" s="55"/>
+      <c r="C102" s="56"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="57"/>
+      <c r="G102" s="58"/>
+      <c r="H102" s="58"/>
+      <c r="I102" s="28"/>
+      <c r="J102" s="58"/>
+      <c r="K102" s="28"/>
+      <c r="L102" s="58"/>
+      <c r="M102" s="60"/>
+    </row>
+    <row r="103" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="24"/>
+      <c r="B103" s="55"/>
+      <c r="C103" s="56"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="57"/>
+      <c r="G103" s="58"/>
+      <c r="H103" s="58"/>
+      <c r="I103" s="28"/>
+      <c r="J103" s="58"/>
+      <c r="K103" s="28"/>
+      <c r="L103" s="58"/>
+      <c r="M103" s="60"/>
+    </row>
+    <row r="104" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="24"/>
+      <c r="B104" s="55"/>
+      <c r="C104" s="56"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="57"/>
+      <c r="G104" s="58"/>
+      <c r="H104" s="58"/>
+      <c r="I104" s="28"/>
+      <c r="J104" s="58"/>
+      <c r="K104" s="28"/>
+      <c r="L104" s="58"/>
+      <c r="M104" s="60"/>
+    </row>
+    <row r="105" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="24"/>
+      <c r="B105" s="55"/>
+      <c r="C105" s="56"/>
+      <c r="D105" s="9"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="57"/>
+      <c r="G105" s="58"/>
+      <c r="H105" s="58"/>
+      <c r="I105" s="28"/>
+      <c r="J105" s="58"/>
+      <c r="K105" s="28"/>
+      <c r="L105" s="58"/>
+      <c r="M105" s="60"/>
+    </row>
+    <row r="106" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="24"/>
+      <c r="B106" s="55"/>
+      <c r="C106" s="56"/>
+      <c r="D106" s="9"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="57"/>
+      <c r="G106" s="58"/>
+      <c r="H106" s="58"/>
+      <c r="I106" s="28"/>
+      <c r="J106" s="58"/>
+      <c r="K106" s="28"/>
+      <c r="L106" s="58"/>
+      <c r="M106" s="60"/>
+    </row>
+    <row r="107" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="24"/>
+      <c r="B107" s="55"/>
+      <c r="C107" s="56"/>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="57"/>
+      <c r="G107" s="58"/>
+      <c r="H107" s="58"/>
+      <c r="I107" s="28"/>
+      <c r="J107" s="58"/>
+      <c r="K107" s="28"/>
+      <c r="L107" s="58"/>
+      <c r="M107" s="60"/>
+    </row>
+    <row r="108" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="24"/>
+      <c r="B108" s="55"/>
+      <c r="C108" s="56"/>
+      <c r="D108" s="9"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="57"/>
+      <c r="G108" s="58"/>
+      <c r="H108" s="58"/>
+      <c r="I108" s="28"/>
+      <c r="J108" s="58"/>
+      <c r="K108" s="28"/>
+      <c r="L108" s="58"/>
+      <c r="M108" s="60"/>
+    </row>
+    <row r="109" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="24"/>
+      <c r="B109" s="55"/>
+      <c r="C109" s="56"/>
+      <c r="D109" s="9"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="57"/>
+      <c r="G109" s="58"/>
+      <c r="H109" s="58"/>
+      <c r="I109" s="28"/>
+      <c r="J109" s="58"/>
+      <c r="K109" s="28"/>
+      <c r="L109" s="58"/>
+      <c r="M109" s="60"/>
+    </row>
+    <row r="110" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="24"/>
+      <c r="B110" s="55"/>
+      <c r="C110" s="56"/>
+      <c r="D110" s="9"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="57"/>
+      <c r="G110" s="58"/>
+      <c r="H110" s="58"/>
+      <c r="I110" s="28"/>
+      <c r="J110" s="58"/>
+      <c r="K110" s="28"/>
+      <c r="L110" s="58"/>
+      <c r="M110" s="60"/>
+    </row>
+    <row r="111" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="24"/>
+      <c r="B111" s="55"/>
+      <c r="C111" s="56"/>
+      <c r="D111" s="9"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="57"/>
+      <c r="G111" s="58"/>
+      <c r="H111" s="58"/>
+      <c r="I111" s="28"/>
+      <c r="J111" s="58"/>
+      <c r="K111" s="28"/>
+      <c r="L111" s="58"/>
+      <c r="M111" s="60"/>
+    </row>
+    <row r="112" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="24"/>
+      <c r="B112" s="55"/>
+      <c r="C112" s="56"/>
+      <c r="D112" s="9"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="57"/>
+      <c r="G112" s="58"/>
+      <c r="H112" s="58"/>
+      <c r="I112" s="28"/>
+      <c r="J112" s="58"/>
+      <c r="K112" s="28"/>
+      <c r="L112" s="58"/>
+      <c r="M112" s="60"/>
+    </row>
+    <row r="113" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="24"/>
+      <c r="B113" s="55"/>
+      <c r="C113" s="56"/>
+      <c r="D113" s="9"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="57"/>
+      <c r="G113" s="58"/>
+      <c r="H113" s="58"/>
+      <c r="I113" s="28"/>
+      <c r="J113" s="58"/>
+      <c r="K113" s="28"/>
+      <c r="L113" s="58"/>
+      <c r="M113" s="60"/>
+    </row>
+    <row r="114" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="24"/>
+      <c r="B114" s="55"/>
+      <c r="C114" s="56"/>
+      <c r="D114" s="9"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="57"/>
+      <c r="G114" s="58"/>
+      <c r="H114" s="58"/>
+      <c r="I114" s="28"/>
+      <c r="J114" s="58"/>
+      <c r="K114" s="28"/>
+      <c r="L114" s="58"/>
+      <c r="M114" s="60"/>
+    </row>
+    <row r="115" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="24"/>
+      <c r="B115" s="55"/>
+      <c r="C115" s="56"/>
+      <c r="D115" s="9"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="57"/>
+      <c r="G115" s="58"/>
+      <c r="H115" s="58"/>
+      <c r="I115" s="28"/>
+      <c r="J115" s="58"/>
+      <c r="K115" s="28"/>
+      <c r="L115" s="58"/>
+      <c r="M115" s="60"/>
+    </row>
+    <row r="116" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="24"/>
+      <c r="B116" s="55"/>
+      <c r="C116" s="56"/>
+      <c r="D116" s="9"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="57"/>
+      <c r="G116" s="58"/>
+      <c r="H116" s="58"/>
+      <c r="I116" s="28"/>
+      <c r="J116" s="58"/>
+      <c r="K116" s="28"/>
+      <c r="L116" s="58"/>
+      <c r="M116" s="60"/>
+    </row>
+    <row r="117" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="24"/>
+      <c r="B117" s="55"/>
+      <c r="C117" s="56"/>
+      <c r="D117" s="9"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="57"/>
+      <c r="G117" s="58"/>
+      <c r="H117" s="58"/>
+      <c r="I117" s="28"/>
+      <c r="J117" s="58"/>
+      <c r="K117" s="28"/>
+      <c r="L117" s="58"/>
+      <c r="M117" s="60"/>
+    </row>
+    <row r="118" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="24"/>
+      <c r="B118" s="55"/>
+      <c r="C118" s="56"/>
+      <c r="D118" s="9"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="57"/>
+      <c r="G118" s="58"/>
+      <c r="H118" s="58"/>
+      <c r="I118" s="28"/>
+      <c r="J118" s="58"/>
+      <c r="K118" s="28"/>
+      <c r="L118" s="58"/>
+      <c r="M118" s="60"/>
+    </row>
+    <row r="119" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="24"/>
+      <c r="B119" s="55"/>
+      <c r="C119" s="56"/>
+      <c r="D119" s="9"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="57"/>
+      <c r="G119" s="58"/>
+      <c r="H119" s="58"/>
+      <c r="I119" s="28"/>
+      <c r="J119" s="58"/>
+      <c r="K119" s="28"/>
+      <c r="L119" s="58"/>
+      <c r="M119" s="60"/>
+    </row>
+    <row r="120" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="24"/>
+      <c r="B120" s="55"/>
+      <c r="C120" s="56"/>
+      <c r="D120" s="9"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="57"/>
+      <c r="G120" s="58"/>
+      <c r="H120" s="58"/>
+      <c r="I120" s="28"/>
+      <c r="J120" s="58"/>
+      <c r="K120" s="28"/>
+      <c r="L120" s="58"/>
+      <c r="M120" s="60"/>
+    </row>
+    <row r="121" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="24"/>
+      <c r="B121" s="55"/>
+      <c r="C121" s="56"/>
+      <c r="D121" s="9"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="57"/>
+      <c r="G121" s="58"/>
+      <c r="H121" s="58"/>
+      <c r="I121" s="28"/>
+      <c r="J121" s="58"/>
+      <c r="K121" s="28"/>
+      <c r="L121" s="58"/>
+      <c r="M121" s="60"/>
+    </row>
+    <row r="122" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="24"/>
+      <c r="B122" s="55"/>
+      <c r="C122" s="56"/>
+      <c r="D122" s="9"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="57"/>
+      <c r="G122" s="58"/>
+      <c r="H122" s="58"/>
+      <c r="I122" s="28"/>
+      <c r="J122" s="58"/>
+      <c r="K122" s="28"/>
+      <c r="L122" s="58"/>
+      <c r="M122" s="60"/>
+    </row>
+    <row r="123" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="24"/>
+      <c r="B123" s="55"/>
+      <c r="C123" s="56"/>
+      <c r="D123" s="9"/>
+      <c r="E123" s="9"/>
+      <c r="F123" s="57"/>
+      <c r="G123" s="58"/>
+      <c r="H123" s="58"/>
+      <c r="I123" s="28"/>
+      <c r="J123" s="58"/>
+      <c r="K123" s="28"/>
+      <c r="L123" s="58"/>
+      <c r="M123" s="60"/>
+    </row>
+    <row r="124" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="24"/>
+      <c r="B124" s="55"/>
+      <c r="C124" s="56"/>
+      <c r="D124" s="9"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="57"/>
+      <c r="G124" s="58"/>
+      <c r="H124" s="58"/>
+      <c r="I124" s="28"/>
+      <c r="J124" s="58"/>
+      <c r="K124" s="28"/>
+      <c r="L124" s="58"/>
+      <c r="M124" s="60"/>
+    </row>
+    <row r="125" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="24"/>
+      <c r="B125" s="55"/>
+      <c r="C125" s="56"/>
+      <c r="D125" s="9"/>
+      <c r="E125" s="9"/>
+      <c r="F125" s="57"/>
+      <c r="G125" s="58"/>
+      <c r="H125" s="58"/>
+      <c r="I125" s="28"/>
+      <c r="J125" s="58"/>
+      <c r="K125" s="28"/>
+      <c r="L125" s="58"/>
+      <c r="M125" s="60"/>
+    </row>
+    <row r="126" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="24"/>
+      <c r="B126" s="55"/>
+      <c r="C126" s="56"/>
+      <c r="D126" s="9"/>
+      <c r="E126" s="9"/>
+      <c r="F126" s="57"/>
+      <c r="G126" s="58"/>
+      <c r="H126" s="58"/>
+      <c r="I126" s="28"/>
+      <c r="J126" s="58"/>
+      <c r="K126" s="28"/>
+      <c r="L126" s="58"/>
+      <c r="M126" s="60"/>
+    </row>
+    <row r="127" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="24"/>
+      <c r="B127" s="55"/>
+      <c r="C127" s="56"/>
+      <c r="D127" s="9"/>
+      <c r="E127" s="9"/>
+      <c r="F127" s="57"/>
+      <c r="G127" s="58"/>
+      <c r="H127" s="58"/>
+      <c r="I127" s="28"/>
+      <c r="J127" s="58"/>
+      <c r="K127" s="28"/>
+      <c r="L127" s="58"/>
+      <c r="M127" s="60"/>
+    </row>
+    <row r="128" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="24"/>
+      <c r="B128" s="55"/>
+      <c r="C128" s="56"/>
+      <c r="D128" s="9"/>
+      <c r="E128" s="9"/>
+      <c r="F128" s="57"/>
+      <c r="G128" s="58"/>
+      <c r="H128" s="58"/>
+      <c r="I128" s="28"/>
+      <c r="J128" s="58"/>
+      <c r="K128" s="28"/>
+      <c r="L128" s="58"/>
+      <c r="M128" s="60"/>
+    </row>
+    <row r="129" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="24"/>
+      <c r="B129" s="55"/>
+      <c r="C129" s="56"/>
+      <c r="D129" s="9"/>
+      <c r="E129" s="9"/>
+      <c r="F129" s="57"/>
+      <c r="G129" s="58"/>
+      <c r="H129" s="58"/>
+      <c r="I129" s="28"/>
+      <c r="J129" s="58"/>
+      <c r="K129" s="28"/>
+      <c r="L129" s="58"/>
+      <c r="M129" s="60"/>
+    </row>
+    <row r="130" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="24"/>
+      <c r="B130" s="55"/>
+      <c r="C130" s="56"/>
+      <c r="D130" s="9"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="57"/>
+      <c r="G130" s="58"/>
+      <c r="H130" s="58"/>
+      <c r="I130" s="28"/>
+      <c r="J130" s="58"/>
+      <c r="K130" s="28"/>
+      <c r="L130" s="58"/>
+      <c r="M130" s="60"/>
+    </row>
+    <row r="131" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="24"/>
+      <c r="B131" s="55"/>
+      <c r="C131" s="56"/>
+      <c r="D131" s="9"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="57"/>
+      <c r="G131" s="58"/>
+      <c r="H131" s="58"/>
+      <c r="I131" s="28"/>
+      <c r="J131" s="58"/>
+      <c r="K131" s="28"/>
+      <c r="L131" s="58"/>
+      <c r="M131" s="60"/>
+    </row>
+    <row r="132" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="24"/>
+      <c r="B132" s="55"/>
+      <c r="C132" s="56"/>
+      <c r="D132" s="9"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="57"/>
+      <c r="G132" s="58"/>
+      <c r="H132" s="58"/>
+      <c r="I132" s="28"/>
+      <c r="J132" s="58"/>
+      <c r="K132" s="28"/>
+      <c r="L132" s="58"/>
+      <c r="M132" s="60"/>
+    </row>
+    <row r="133" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="24"/>
+      <c r="B133" s="55"/>
+      <c r="C133" s="56"/>
+      <c r="D133" s="9"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="57"/>
+      <c r="G133" s="58"/>
+      <c r="H133" s="58"/>
+      <c r="I133" s="28"/>
+      <c r="J133" s="58"/>
+      <c r="K133" s="28"/>
+      <c r="L133" s="58"/>
+      <c r="M133" s="60"/>
+    </row>
+    <row r="134" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="24"/>
+      <c r="B134" s="55"/>
+      <c r="C134" s="56"/>
+      <c r="D134" s="9"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="57"/>
+      <c r="G134" s="58"/>
+      <c r="H134" s="58"/>
+      <c r="I134" s="28"/>
+      <c r="J134" s="58"/>
+      <c r="K134" s="28"/>
+      <c r="L134" s="58"/>
+      <c r="M134" s="60"/>
+    </row>
+    <row r="135" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="24"/>
+      <c r="B135" s="55"/>
+      <c r="C135" s="56"/>
+      <c r="D135" s="9"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="57"/>
+      <c r="G135" s="58"/>
+      <c r="H135" s="58"/>
+      <c r="I135" s="28"/>
+      <c r="J135" s="58"/>
+      <c r="K135" s="28"/>
+      <c r="L135" s="58"/>
+      <c r="M135" s="60"/>
+    </row>
+    <row r="136" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="24"/>
+      <c r="B136" s="55"/>
+      <c r="C136" s="56"/>
+      <c r="D136" s="9"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="57"/>
+      <c r="G136" s="58"/>
+      <c r="H136" s="58"/>
+      <c r="I136" s="28"/>
+      <c r="J136" s="58"/>
+      <c r="K136" s="28"/>
+      <c r="L136" s="58"/>
+      <c r="M136" s="60"/>
+    </row>
+    <row r="137" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="24"/>
+      <c r="B137" s="55"/>
+      <c r="C137" s="56"/>
+      <c r="D137" s="9"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="57"/>
+      <c r="G137" s="58"/>
+      <c r="H137" s="58"/>
+      <c r="I137" s="28"/>
+      <c r="J137" s="58"/>
+      <c r="K137" s="28"/>
+      <c r="L137" s="58"/>
+      <c r="M137" s="60"/>
+    </row>
+    <row r="138" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="24"/>
+      <c r="B138" s="55"/>
+      <c r="C138" s="56"/>
+      <c r="D138" s="9"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="57"/>
+      <c r="G138" s="58"/>
+      <c r="H138" s="58"/>
+      <c r="I138" s="28"/>
+      <c r="J138" s="58"/>
+      <c r="K138" s="28"/>
+      <c r="L138" s="58"/>
+      <c r="M138" s="60"/>
+    </row>
+    <row r="139" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="24"/>
+      <c r="B139" s="55"/>
+      <c r="C139" s="56"/>
+      <c r="D139" s="9"/>
+      <c r="E139" s="9"/>
+      <c r="F139" s="57"/>
+      <c r="G139" s="58"/>
+      <c r="H139" s="58"/>
+      <c r="I139" s="28"/>
+      <c r="J139" s="58"/>
+      <c r="K139" s="28"/>
+      <c r="L139" s="58"/>
+      <c r="M139" s="60"/>
+    </row>
+    <row r="140" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="24"/>
+      <c r="B140" s="55"/>
+      <c r="C140" s="56"/>
+      <c r="D140" s="9"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="57"/>
+      <c r="G140" s="58"/>
+      <c r="H140" s="58"/>
+      <c r="I140" s="28"/>
+      <c r="J140" s="58"/>
+      <c r="K140" s="28"/>
+      <c r="L140" s="58"/>
+      <c r="M140" s="60"/>
+    </row>
+    <row r="141" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="24"/>
+      <c r="B141" s="55"/>
+      <c r="C141" s="56"/>
+      <c r="D141" s="9"/>
+      <c r="E141" s="9"/>
+      <c r="F141" s="57"/>
+      <c r="G141" s="58"/>
+      <c r="H141" s="58"/>
+      <c r="I141" s="28"/>
+      <c r="J141" s="58"/>
+      <c r="K141" s="28"/>
+      <c r="L141" s="58"/>
+      <c r="M141" s="60"/>
+    </row>
+    <row r="142" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="24"/>
+      <c r="B142" s="55"/>
+      <c r="C142" s="56"/>
+      <c r="D142" s="9"/>
+      <c r="E142" s="9"/>
+      <c r="F142" s="57"/>
+      <c r="G142" s="58"/>
+      <c r="H142" s="58"/>
+      <c r="I142" s="28"/>
+      <c r="J142" s="58"/>
+      <c r="K142" s="28"/>
+      <c r="L142" s="58"/>
+      <c r="M142" s="60"/>
+    </row>
+    <row r="143" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="24"/>
+      <c r="B143" s="55"/>
+      <c r="C143" s="56"/>
+      <c r="D143" s="9"/>
+      <c r="E143" s="9"/>
+      <c r="F143" s="57"/>
+      <c r="G143" s="58"/>
+      <c r="H143" s="58"/>
+      <c r="I143" s="28"/>
+      <c r="J143" s="58"/>
+      <c r="K143" s="28"/>
+      <c r="L143" s="58"/>
+      <c r="M143" s="60"/>
+    </row>
+    <row r="144" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="24"/>
+      <c r="B144" s="55"/>
+      <c r="C144" s="56"/>
+      <c r="D144" s="9"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="57"/>
+      <c r="G144" s="58"/>
+      <c r="H144" s="58"/>
+      <c r="I144" s="28"/>
+      <c r="J144" s="58"/>
+      <c r="K144" s="28"/>
+      <c r="L144" s="58"/>
+      <c r="M144" s="60"/>
+    </row>
+    <row r="145" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="24"/>
+      <c r="B145" s="55"/>
+      <c r="C145" s="56"/>
+      <c r="D145" s="9"/>
+      <c r="E145" s="9"/>
+      <c r="F145" s="57"/>
+      <c r="G145" s="58"/>
+      <c r="H145" s="58"/>
+      <c r="I145" s="28"/>
+      <c r="J145" s="58"/>
+      <c r="K145" s="28"/>
+      <c r="L145" s="58"/>
+      <c r="M145" s="60"/>
+    </row>
+    <row r="146" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="24"/>
+      <c r="B146" s="55"/>
+      <c r="C146" s="56"/>
+      <c r="D146" s="9"/>
+      <c r="E146" s="9"/>
+      <c r="F146" s="57"/>
+      <c r="G146" s="58"/>
+      <c r="H146" s="58"/>
+      <c r="I146" s="28"/>
+      <c r="J146" s="58"/>
+      <c r="K146" s="28"/>
+      <c r="L146" s="58"/>
+      <c r="M146" s="60"/>
+    </row>
+    <row r="147" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="24"/>
+      <c r="B147" s="55"/>
+      <c r="C147" s="56"/>
+      <c r="D147" s="9"/>
+      <c r="E147" s="9"/>
+      <c r="F147" s="57"/>
+      <c r="G147" s="58"/>
+      <c r="H147" s="58"/>
+      <c r="I147" s="28"/>
+      <c r="J147" s="58"/>
+      <c r="K147" s="28"/>
+      <c r="L147" s="58"/>
+      <c r="M147" s="60"/>
+    </row>
+    <row r="148" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="24"/>
+      <c r="B148" s="55"/>
+      <c r="C148" s="56"/>
+      <c r="D148" s="9"/>
+      <c r="E148" s="9"/>
+      <c r="F148" s="57"/>
+      <c r="G148" s="58"/>
+      <c r="H148" s="58"/>
+      <c r="I148" s="28"/>
+      <c r="J148" s="58"/>
+      <c r="K148" s="28"/>
+      <c r="L148" s="58"/>
+      <c r="M148" s="60"/>
+    </row>
+    <row r="149" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="24"/>
+      <c r="B149" s="55"/>
+      <c r="C149" s="56"/>
+      <c r="D149" s="9"/>
+      <c r="E149" s="9"/>
+      <c r="F149" s="57"/>
+      <c r="G149" s="58"/>
+      <c r="H149" s="58"/>
+      <c r="I149" s="28"/>
+      <c r="J149" s="58"/>
+      <c r="K149" s="28"/>
+      <c r="L149" s="58"/>
+      <c r="M149" s="60"/>
+    </row>
+    <row r="150" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="24"/>
+      <c r="B150" s="55"/>
+      <c r="C150" s="56"/>
+      <c r="D150" s="9"/>
+      <c r="E150" s="9"/>
+      <c r="F150" s="57"/>
+      <c r="G150" s="58"/>
+      <c r="H150" s="58"/>
+      <c r="I150" s="28"/>
+      <c r="J150" s="58"/>
+      <c r="K150" s="28"/>
+      <c r="L150" s="58"/>
+      <c r="M150" s="60"/>
+    </row>
+    <row r="151" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="24"/>
+      <c r="B151" s="55"/>
+      <c r="C151" s="56"/>
+      <c r="D151" s="9"/>
+      <c r="E151" s="9"/>
+      <c r="F151" s="57"/>
+      <c r="G151" s="58"/>
+      <c r="H151" s="58"/>
+      <c r="I151" s="28"/>
+      <c r="J151" s="58"/>
+      <c r="K151" s="28"/>
+      <c r="L151" s="58"/>
+      <c r="M151" s="60"/>
+    </row>
+    <row r="152" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="24"/>
+      <c r="B152" s="55"/>
+      <c r="C152" s="56"/>
+      <c r="D152" s="9"/>
+      <c r="E152" s="9"/>
+      <c r="F152" s="57"/>
+      <c r="G152" s="58"/>
+      <c r="H152" s="58"/>
+      <c r="I152" s="28"/>
+      <c r="J152" s="58"/>
+      <c r="K152" s="28"/>
+      <c r="L152" s="58"/>
+      <c r="M152" s="60"/>
+    </row>
+    <row r="153" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="24"/>
+      <c r="B153" s="55"/>
+      <c r="C153" s="56"/>
+      <c r="D153" s="9"/>
+      <c r="E153" s="9"/>
+      <c r="F153" s="57"/>
+      <c r="G153" s="58"/>
+      <c r="H153" s="58"/>
+      <c r="I153" s="28"/>
+      <c r="J153" s="58"/>
+      <c r="K153" s="28"/>
+      <c r="L153" s="58"/>
+      <c r="M153" s="60"/>
+    </row>
+    <row r="154" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="24"/>
+      <c r="B154" s="55"/>
+      <c r="C154" s="56"/>
+      <c r="D154" s="9"/>
+      <c r="E154" s="9"/>
+      <c r="F154" s="57"/>
+      <c r="G154" s="58"/>
+      <c r="H154" s="58"/>
+      <c r="I154" s="28"/>
+      <c r="J154" s="58"/>
+      <c r="K154" s="28"/>
+      <c r="L154" s="58"/>
+      <c r="M154" s="60"/>
+    </row>
+    <row r="155" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="24"/>
+      <c r="B155" s="55"/>
+      <c r="C155" s="56"/>
+      <c r="D155" s="9"/>
+      <c r="E155" s="9"/>
+      <c r="F155" s="57"/>
+      <c r="G155" s="58"/>
+      <c r="H155" s="58"/>
+      <c r="I155" s="28"/>
+      <c r="J155" s="58"/>
+      <c r="K155" s="28"/>
+      <c r="L155" s="58"/>
+      <c r="M155" s="60"/>
+    </row>
+    <row r="156" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="24"/>
+      <c r="B156" s="55"/>
+      <c r="C156" s="56"/>
+      <c r="D156" s="9"/>
+      <c r="E156" s="9"/>
+      <c r="F156" s="57"/>
+      <c r="G156" s="58"/>
+      <c r="H156" s="58"/>
+      <c r="I156" s="28"/>
+      <c r="J156" s="58"/>
+      <c r="K156" s="28"/>
+      <c r="L156" s="58"/>
+      <c r="M156" s="60"/>
+    </row>
+    <row r="157" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="24"/>
+      <c r="B157" s="55"/>
+      <c r="C157" s="56"/>
+      <c r="D157" s="9"/>
+      <c r="E157" s="9"/>
+      <c r="F157" s="57"/>
+      <c r="G157" s="58"/>
+      <c r="H157" s="58"/>
+      <c r="I157" s="28"/>
+      <c r="J157" s="58"/>
+      <c r="K157" s="28"/>
+      <c r="L157" s="58"/>
+      <c r="M157" s="60"/>
+    </row>
+    <row r="158" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="24"/>
+      <c r="B158" s="55"/>
+      <c r="C158" s="56"/>
+      <c r="D158" s="9"/>
+      <c r="E158" s="9"/>
+      <c r="F158" s="57"/>
+      <c r="G158" s="58"/>
+      <c r="H158" s="58"/>
+      <c r="I158" s="28"/>
+      <c r="J158" s="58"/>
+      <c r="K158" s="28"/>
+      <c r="L158" s="58"/>
+      <c r="M158" s="60"/>
+    </row>
+    <row r="159" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="24"/>
+      <c r="B159" s="55"/>
+      <c r="C159" s="56"/>
+      <c r="D159" s="9"/>
+      <c r="E159" s="9"/>
+      <c r="F159" s="57"/>
+      <c r="G159" s="58"/>
+      <c r="H159" s="58"/>
+      <c r="I159" s="28"/>
+      <c r="J159" s="58"/>
+      <c r="K159" s="28"/>
+      <c r="L159" s="58"/>
+      <c r="M159" s="60"/>
+    </row>
+    <row r="160" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="24"/>
+      <c r="B160" s="55"/>
+      <c r="C160" s="56"/>
+      <c r="D160" s="9"/>
+      <c r="E160" s="9"/>
+      <c r="F160" s="57"/>
+      <c r="G160" s="58"/>
+      <c r="H160" s="58"/>
+      <c r="I160" s="28"/>
+      <c r="J160" s="58"/>
+      <c r="K160" s="28"/>
+      <c r="L160" s="58"/>
+      <c r="M160" s="60"/>
+    </row>
+    <row r="161" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="24"/>
+      <c r="B161" s="55"/>
+      <c r="C161" s="56"/>
+      <c r="D161" s="9"/>
+      <c r="E161" s="9"/>
+      <c r="F161" s="57"/>
+      <c r="G161" s="58"/>
+      <c r="H161" s="58"/>
+      <c r="I161" s="28"/>
+      <c r="J161" s="58"/>
+      <c r="K161" s="28"/>
+      <c r="L161" s="58"/>
+      <c r="M161" s="60"/>
+    </row>
+    <row r="162" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="24"/>
+      <c r="B162" s="55"/>
+      <c r="C162" s="56"/>
+      <c r="D162" s="9"/>
+      <c r="E162" s="9"/>
+      <c r="F162" s="57"/>
+      <c r="G162" s="58"/>
+      <c r="H162" s="58"/>
+      <c r="I162" s="28"/>
+      <c r="J162" s="58"/>
+      <c r="K162" s="28"/>
+      <c r="L162" s="58"/>
+      <c r="M162" s="60"/>
+    </row>
+    <row r="163" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="24"/>
+      <c r="B163" s="55"/>
+      <c r="C163" s="56"/>
+      <c r="D163" s="9"/>
+      <c r="E163" s="9"/>
+      <c r="F163" s="57"/>
+      <c r="G163" s="58"/>
+      <c r="H163" s="58"/>
+      <c r="I163" s="28"/>
+      <c r="J163" s="58"/>
+      <c r="K163" s="28"/>
+      <c r="L163" s="58"/>
+      <c r="M163" s="60"/>
+    </row>
+    <row r="164" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="24"/>
+      <c r="B164" s="55"/>
+      <c r="C164" s="56"/>
+      <c r="D164" s="9"/>
+      <c r="E164" s="9"/>
+      <c r="F164" s="57"/>
+      <c r="G164" s="58"/>
+      <c r="H164" s="58"/>
+      <c r="I164" s="28"/>
+      <c r="J164" s="58"/>
+      <c r="K164" s="28"/>
+      <c r="L164" s="58"/>
+      <c r="M164" s="60"/>
+    </row>
+    <row r="165" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="24"/>
+      <c r="B165" s="55"/>
+      <c r="C165" s="56"/>
+      <c r="D165" s="9"/>
+      <c r="E165" s="9"/>
+      <c r="F165" s="57"/>
+      <c r="G165" s="58"/>
+      <c r="H165" s="58"/>
+      <c r="I165" s="28"/>
+      <c r="J165" s="58"/>
+      <c r="K165" s="28"/>
+      <c r="L165" s="58"/>
+      <c r="M165" s="60"/>
+    </row>
+    <row r="166" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="24"/>
+      <c r="B166" s="55"/>
+      <c r="C166" s="56"/>
+      <c r="D166" s="9"/>
+      <c r="E166" s="9"/>
+      <c r="F166" s="57"/>
+      <c r="G166" s="58"/>
+      <c r="H166" s="58"/>
+      <c r="I166" s="28"/>
+      <c r="J166" s="58"/>
+      <c r="K166" s="28"/>
+      <c r="L166" s="58"/>
+      <c r="M166" s="60"/>
+    </row>
+    <row r="167" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="24"/>
+      <c r="B167" s="55"/>
+      <c r="C167" s="56"/>
+      <c r="D167" s="9"/>
+      <c r="E167" s="9"/>
+      <c r="F167" s="57"/>
+      <c r="G167" s="58"/>
+      <c r="H167" s="58"/>
+      <c r="I167" s="28"/>
+      <c r="J167" s="58"/>
+      <c r="K167" s="28"/>
+      <c r="L167" s="58"/>
+      <c r="M167" s="60"/>
+    </row>
+    <row r="168" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="24"/>
+      <c r="B168" s="55"/>
+      <c r="C168" s="56"/>
+      <c r="D168" s="9"/>
+      <c r="E168" s="9"/>
+      <c r="F168" s="57"/>
+      <c r="G168" s="58"/>
+      <c r="H168" s="58"/>
+      <c r="I168" s="28"/>
+      <c r="J168" s="58"/>
+      <c r="K168" s="28"/>
+      <c r="L168" s="58"/>
+      <c r="M168" s="60"/>
+    </row>
+    <row r="169" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="24"/>
+      <c r="B169" s="55"/>
+      <c r="C169" s="56"/>
+      <c r="D169" s="9"/>
+      <c r="E169" s="9"/>
+      <c r="F169" s="57"/>
+      <c r="G169" s="58"/>
+      <c r="H169" s="58"/>
+      <c r="I169" s="28"/>
+      <c r="J169" s="58"/>
+      <c r="K169" s="28"/>
+      <c r="L169" s="58"/>
+      <c r="M169" s="60"/>
+    </row>
+    <row r="170" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="24"/>
+      <c r="B170" s="55"/>
+      <c r="C170" s="56"/>
+      <c r="D170" s="9"/>
+      <c r="E170" s="9"/>
+      <c r="F170" s="57"/>
+      <c r="G170" s="58"/>
+      <c r="H170" s="58"/>
+      <c r="I170" s="28"/>
+      <c r="J170" s="58"/>
+      <c r="K170" s="28"/>
+      <c r="L170" s="58"/>
+      <c r="M170" s="60"/>
+    </row>
+    <row r="171" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="24"/>
+      <c r="B171" s="55"/>
+      <c r="C171" s="56"/>
+      <c r="D171" s="9"/>
+      <c r="E171" s="9"/>
+      <c r="F171" s="57"/>
+      <c r="G171" s="58"/>
+      <c r="H171" s="58"/>
+      <c r="I171" s="28"/>
+      <c r="J171" s="58"/>
+      <c r="K171" s="28"/>
+      <c r="L171" s="58"/>
+      <c r="M171" s="60"/>
+    </row>
+    <row r="172" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="24"/>
+      <c r="B172" s="55"/>
+      <c r="C172" s="56"/>
+      <c r="D172" s="9"/>
+      <c r="E172" s="9"/>
+      <c r="F172" s="57"/>
+      <c r="G172" s="58"/>
+      <c r="H172" s="58"/>
+      <c r="I172" s="28"/>
+      <c r="J172" s="58"/>
+      <c r="K172" s="28"/>
+      <c r="L172" s="58"/>
+      <c r="M172" s="60"/>
+    </row>
+    <row r="173" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="24"/>
+      <c r="B173" s="55"/>
+      <c r="C173" s="56"/>
+      <c r="D173" s="9"/>
+      <c r="E173" s="9"/>
+      <c r="F173" s="57"/>
+      <c r="G173" s="58"/>
+      <c r="H173" s="58"/>
+      <c r="I173" s="28"/>
+      <c r="J173" s="58"/>
+      <c r="K173" s="28"/>
+      <c r="L173" s="58"/>
+      <c r="M173" s="60"/>
+    </row>
+    <row r="174" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="24"/>
+      <c r="B174" s="55"/>
+      <c r="C174" s="56"/>
+      <c r="D174" s="9"/>
+      <c r="E174" s="9"/>
+      <c r="F174" s="57"/>
+      <c r="G174" s="58"/>
+      <c r="H174" s="58"/>
+      <c r="I174" s="28"/>
+      <c r="J174" s="58"/>
+      <c r="K174" s="28"/>
+      <c r="L174" s="58"/>
+      <c r="M174" s="60"/>
+    </row>
+    <row r="175" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="24"/>
+      <c r="B175" s="55"/>
+      <c r="C175" s="56"/>
+      <c r="D175" s="9"/>
+      <c r="E175" s="9"/>
+      <c r="F175" s="57"/>
+      <c r="G175" s="58"/>
+      <c r="H175" s="58"/>
+      <c r="I175" s="28"/>
+      <c r="J175" s="58"/>
+      <c r="K175" s="28"/>
+      <c r="L175" s="58"/>
+      <c r="M175" s="60"/>
+    </row>
+    <row r="176" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="24"/>
+      <c r="B176" s="55"/>
+      <c r="C176" s="56"/>
+      <c r="D176" s="9"/>
+      <c r="E176" s="9"/>
+      <c r="F176" s="57"/>
+      <c r="G176" s="58"/>
+      <c r="H176" s="58"/>
+      <c r="I176" s="28"/>
+      <c r="J176" s="58"/>
+      <c r="K176" s="28"/>
+      <c r="L176" s="58"/>
+      <c r="M176" s="60"/>
+    </row>
+    <row r="177" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="24"/>
+      <c r="B177" s="55"/>
+      <c r="C177" s="56"/>
+      <c r="D177" s="9"/>
+      <c r="E177" s="9"/>
+      <c r="F177" s="57"/>
+      <c r="G177" s="58"/>
+      <c r="H177" s="58"/>
+      <c r="I177" s="28"/>
+      <c r="J177" s="58"/>
+      <c r="K177" s="28"/>
+      <c r="L177" s="58"/>
+      <c r="M177" s="60"/>
+    </row>
+    <row r="178" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="24"/>
+      <c r="B178" s="55"/>
+      <c r="C178" s="56"/>
+      <c r="D178" s="9"/>
+      <c r="E178" s="9"/>
+      <c r="F178" s="57"/>
+      <c r="G178" s="58"/>
+      <c r="H178" s="58"/>
+      <c r="I178" s="28"/>
+      <c r="J178" s="58"/>
+      <c r="K178" s="28"/>
+      <c r="L178" s="58"/>
+      <c r="M178" s="60"/>
+    </row>
+    <row r="179" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="24"/>
+      <c r="B179" s="55"/>
+      <c r="C179" s="56"/>
+      <c r="D179" s="9"/>
+      <c r="E179" s="9"/>
+      <c r="F179" s="57"/>
+      <c r="G179" s="58"/>
+      <c r="H179" s="58"/>
+      <c r="I179" s="28"/>
+      <c r="J179" s="58"/>
+      <c r="K179" s="28"/>
+      <c r="L179" s="58"/>
+      <c r="M179" s="60"/>
+    </row>
+    <row r="180" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="24"/>
+      <c r="B180" s="55"/>
+      <c r="C180" s="56"/>
+      <c r="D180" s="9"/>
+      <c r="E180" s="9"/>
+      <c r="F180" s="57"/>
+      <c r="G180" s="58"/>
+      <c r="H180" s="58"/>
+      <c r="I180" s="28"/>
+      <c r="J180" s="58"/>
+      <c r="K180" s="28"/>
+      <c r="L180" s="58"/>
+      <c r="M180" s="60"/>
+    </row>
+    <row r="181" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="24"/>
+      <c r="B181" s="55"/>
+      <c r="C181" s="56"/>
+      <c r="D181" s="9"/>
+      <c r="E181" s="9"/>
+      <c r="F181" s="57"/>
+      <c r="G181" s="58"/>
+      <c r="H181" s="58"/>
+      <c r="I181" s="28"/>
+      <c r="J181" s="58"/>
+      <c r="K181" s="28"/>
+      <c r="L181" s="58"/>
+      <c r="M181" s="60"/>
+    </row>
+    <row r="182" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="24"/>
+      <c r="B182" s="55"/>
+      <c r="C182" s="56"/>
+      <c r="D182" s="9"/>
+      <c r="E182" s="9"/>
+      <c r="F182" s="57"/>
+      <c r="G182" s="58"/>
+      <c r="H182" s="58"/>
+      <c r="I182" s="28"/>
+      <c r="J182" s="58"/>
+      <c r="K182" s="28"/>
+      <c r="L182" s="58"/>
+      <c r="M182" s="60"/>
+    </row>
+    <row r="183" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="24"/>
+      <c r="B183" s="55"/>
+      <c r="C183" s="56"/>
+      <c r="D183" s="9"/>
+      <c r="E183" s="9"/>
+      <c r="F183" s="57"/>
+      <c r="G183" s="58"/>
+      <c r="H183" s="58"/>
+      <c r="I183" s="28"/>
+      <c r="J183" s="58"/>
+      <c r="K183" s="28"/>
+      <c r="L183" s="58"/>
+      <c r="M183" s="60"/>
+    </row>
+    <row r="184" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="24"/>
+      <c r="B184" s="55"/>
+      <c r="C184" s="56"/>
+      <c r="D184" s="9"/>
+      <c r="E184" s="9"/>
+      <c r="F184" s="57"/>
+      <c r="G184" s="58"/>
+      <c r="H184" s="58"/>
+      <c r="I184" s="28"/>
+      <c r="J184" s="58"/>
+      <c r="K184" s="28"/>
+      <c r="L184" s="58"/>
+      <c r="M184" s="60"/>
+    </row>
+    <row r="185" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="24"/>
+      <c r="B185" s="55"/>
+      <c r="C185" s="56"/>
+      <c r="D185" s="9"/>
+      <c r="E185" s="9"/>
+      <c r="F185" s="57"/>
+      <c r="G185" s="58"/>
+      <c r="H185" s="58"/>
+      <c r="I185" s="28"/>
+      <c r="J185" s="58"/>
+      <c r="K185" s="28"/>
+      <c r="L185" s="58"/>
+      <c r="M185" s="60"/>
+    </row>
+    <row r="186" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="24"/>
+      <c r="B186" s="55"/>
+      <c r="C186" s="56"/>
+      <c r="D186" s="9"/>
+      <c r="E186" s="9"/>
+      <c r="F186" s="57"/>
+      <c r="G186" s="58"/>
+      <c r="H186" s="58"/>
+      <c r="I186" s="28"/>
+      <c r="J186" s="58"/>
+      <c r="K186" s="28"/>
+      <c r="L186" s="58"/>
+      <c r="M186" s="60"/>
+    </row>
+    <row r="187" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="24"/>
+      <c r="B187" s="55"/>
+      <c r="C187" s="56"/>
+      <c r="D187" s="9"/>
+      <c r="E187" s="9"/>
+      <c r="F187" s="57"/>
+      <c r="G187" s="58"/>
+      <c r="H187" s="58"/>
+      <c r="I187" s="28"/>
+      <c r="J187" s="58"/>
+      <c r="K187" s="28"/>
+      <c r="L187" s="58"/>
+      <c r="M187" s="60"/>
+    </row>
+    <row r="188" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="24"/>
+      <c r="B188" s="55"/>
+      <c r="C188" s="56"/>
+      <c r="D188" s="9"/>
+      <c r="E188" s="9"/>
+      <c r="F188" s="57"/>
+      <c r="G188" s="58"/>
+      <c r="H188" s="58"/>
+      <c r="I188" s="28"/>
+      <c r="J188" s="58"/>
+      <c r="K188" s="28"/>
+      <c r="L188" s="58"/>
+      <c r="M188" s="60"/>
+    </row>
+    <row r="189" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="24"/>
+      <c r="B189" s="55"/>
+      <c r="C189" s="56"/>
+      <c r="D189" s="9"/>
+      <c r="E189" s="9"/>
+      <c r="F189" s="57"/>
+      <c r="G189" s="58"/>
+      <c r="H189" s="58"/>
+      <c r="I189" s="28"/>
+      <c r="J189" s="58"/>
+      <c r="K189" s="28"/>
+      <c r="L189" s="58"/>
+      <c r="M189" s="60"/>
+    </row>
+    <row r="190" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="24"/>
+      <c r="B190" s="55"/>
+      <c r="C190" s="56"/>
+      <c r="D190" s="9"/>
+      <c r="E190" s="9"/>
+      <c r="F190" s="57"/>
+      <c r="G190" s="58"/>
+      <c r="H190" s="58"/>
+      <c r="I190" s="28"/>
+      <c r="J190" s="58"/>
+      <c r="K190" s="28"/>
+      <c r="L190" s="58"/>
+      <c r="M190" s="60"/>
+    </row>
+    <row r="191" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="24"/>
+      <c r="B191" s="55"/>
+      <c r="C191" s="56"/>
+      <c r="D191" s="9"/>
+      <c r="E191" s="9"/>
+      <c r="F191" s="57"/>
+      <c r="G191" s="58"/>
+      <c r="H191" s="58"/>
+      <c r="I191" s="28"/>
+      <c r="J191" s="58"/>
+      <c r="K191" s="28"/>
+      <c r="L191" s="58"/>
+      <c r="M191" s="60"/>
+    </row>
+    <row r="192" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="24"/>
+      <c r="B192" s="55"/>
+      <c r="C192" s="56"/>
+      <c r="D192" s="9"/>
+      <c r="E192" s="9"/>
+      <c r="F192" s="57"/>
+      <c r="G192" s="58"/>
+      <c r="H192" s="58"/>
+      <c r="I192" s="28"/>
+      <c r="J192" s="58"/>
+      <c r="K192" s="28"/>
+      <c r="L192" s="58"/>
+      <c r="M192" s="60"/>
+    </row>
+    <row r="193" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="24"/>
+      <c r="B193" s="55"/>
+      <c r="C193" s="56"/>
+      <c r="D193" s="9"/>
+      <c r="E193" s="9"/>
+      <c r="F193" s="57"/>
+      <c r="G193" s="58"/>
+      <c r="H193" s="58"/>
+      <c r="I193" s="28"/>
+      <c r="J193" s="58"/>
+      <c r="K193" s="28"/>
+      <c r="L193" s="58"/>
+      <c r="M193" s="60"/>
+    </row>
+    <row r="194" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="24"/>
+      <c r="B194" s="55"/>
+      <c r="C194" s="56"/>
+      <c r="D194" s="9"/>
+      <c r="E194" s="9"/>
+      <c r="F194" s="57"/>
+      <c r="G194" s="58"/>
+      <c r="H194" s="58"/>
+      <c r="I194" s="28"/>
+      <c r="J194" s="58"/>
+      <c r="K194" s="28"/>
+      <c r="L194" s="58"/>
+      <c r="M194" s="60"/>
+    </row>
+    <row r="195" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="24"/>
+      <c r="B195" s="55"/>
+      <c r="C195" s="56"/>
+      <c r="D195" s="9"/>
+      <c r="E195" s="9"/>
+      <c r="F195" s="57"/>
+      <c r="G195" s="58"/>
+      <c r="H195" s="58"/>
+      <c r="I195" s="28"/>
+      <c r="J195" s="58"/>
+      <c r="K195" s="28"/>
+      <c r="L195" s="58"/>
+      <c r="M195" s="60"/>
+    </row>
+    <row r="196" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="24"/>
+      <c r="B196" s="55"/>
+      <c r="C196" s="56"/>
+      <c r="D196" s="9"/>
+      <c r="E196" s="9"/>
+      <c r="F196" s="57"/>
+      <c r="G196" s="58"/>
+      <c r="H196" s="58"/>
+      <c r="I196" s="28"/>
+      <c r="J196" s="58"/>
+      <c r="K196" s="28"/>
+      <c r="L196" s="58"/>
+      <c r="M196" s="60"/>
+    </row>
+    <row r="197" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="24"/>
+      <c r="B197" s="55"/>
+      <c r="C197" s="56"/>
+      <c r="D197" s="9"/>
+      <c r="E197" s="9"/>
+      <c r="F197" s="57"/>
+      <c r="G197" s="58"/>
+      <c r="H197" s="58"/>
+      <c r="I197" s="28"/>
+      <c r="J197" s="58"/>
+      <c r="K197" s="28"/>
+      <c r="L197" s="58"/>
+      <c r="M197" s="60"/>
+    </row>
+    <row r="198" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="24"/>
+      <c r="B198" s="55"/>
+      <c r="C198" s="56"/>
+      <c r="D198" s="9"/>
+      <c r="E198" s="9"/>
+      <c r="F198" s="57"/>
+      <c r="G198" s="58"/>
+      <c r="H198" s="58"/>
+      <c r="I198" s="28"/>
+      <c r="J198" s="58"/>
+      <c r="K198" s="28"/>
+      <c r="L198" s="58"/>
+      <c r="M198" s="60"/>
+    </row>
+    <row r="199" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="24"/>
+      <c r="B199" s="55"/>
+      <c r="C199" s="56"/>
+      <c r="D199" s="9"/>
+      <c r="E199" s="9"/>
+      <c r="F199" s="57"/>
+      <c r="G199" s="58"/>
+      <c r="H199" s="58"/>
+      <c r="I199" s="28"/>
+      <c r="J199" s="58"/>
+      <c r="K199" s="28"/>
+      <c r="L199" s="58"/>
+      <c r="M199" s="60"/>
+    </row>
+    <row r="200" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="24"/>
+      <c r="B200" s="55"/>
+      <c r="C200" s="56"/>
+      <c r="D200" s="9"/>
+      <c r="E200" s="9"/>
+      <c r="F200" s="57"/>
+      <c r="G200" s="58"/>
+      <c r="H200" s="58"/>
+      <c r="I200" s="28"/>
+      <c r="J200" s="58"/>
+      <c r="K200" s="28"/>
+      <c r="L200" s="58"/>
+      <c r="M200" s="60"/>
+    </row>
+    <row r="201" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="24"/>
+      <c r="B201" s="55"/>
+      <c r="C201" s="56"/>
+      <c r="D201" s="9"/>
+      <c r="E201" s="9"/>
+      <c r="F201" s="57"/>
+      <c r="G201" s="58"/>
+      <c r="H201" s="58"/>
+      <c r="I201" s="28"/>
+      <c r="J201" s="58"/>
+      <c r="K201" s="28"/>
+      <c r="L201" s="58"/>
+      <c r="M201" s="60"/>
+    </row>
+    <row r="202" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="24"/>
+      <c r="B202" s="55"/>
+      <c r="C202" s="56"/>
+      <c r="D202" s="9"/>
+      <c r="E202" s="9"/>
+      <c r="F202" s="57"/>
+      <c r="G202" s="58"/>
+      <c r="H202" s="58"/>
+      <c r="I202" s="28"/>
+      <c r="J202" s="58"/>
+      <c r="K202" s="28"/>
+      <c r="L202" s="58"/>
+      <c r="M202" s="60"/>
+    </row>
+    <row r="203" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="24"/>
+      <c r="B203" s="55"/>
+      <c r="C203" s="56"/>
+      <c r="D203" s="9"/>
+      <c r="E203" s="9"/>
+      <c r="F203" s="57"/>
+      <c r="G203" s="58"/>
+      <c r="H203" s="58"/>
+      <c r="I203" s="28"/>
+      <c r="J203" s="58"/>
+      <c r="K203" s="28"/>
+      <c r="L203" s="58"/>
+      <c r="M203" s="60"/>
+    </row>
+    <row r="204" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="24"/>
+      <c r="B204" s="55"/>
+      <c r="C204" s="56"/>
+      <c r="D204" s="9"/>
+      <c r="E204" s="9"/>
+      <c r="F204" s="57"/>
+      <c r="G204" s="58"/>
+      <c r="H204" s="58"/>
+      <c r="I204" s="28"/>
+      <c r="J204" s="58"/>
+      <c r="K204" s="28"/>
+      <c r="L204" s="58"/>
+      <c r="M204" s="60"/>
+    </row>
+    <row r="205" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="24"/>
+      <c r="B205" s="55"/>
+      <c r="C205" s="56"/>
+      <c r="D205" s="9"/>
+      <c r="E205" s="9"/>
+      <c r="F205" s="57"/>
+      <c r="G205" s="58"/>
+      <c r="H205" s="58"/>
+      <c r="I205" s="28"/>
+      <c r="J205" s="58"/>
+      <c r="K205" s="28"/>
+      <c r="L205" s="58"/>
+      <c r="M205" s="60"/>
+    </row>
+    <row r="206" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="24"/>
+      <c r="B206" s="55"/>
+      <c r="C206" s="56"/>
+      <c r="D206" s="9"/>
+      <c r="E206" s="9"/>
+      <c r="F206" s="57"/>
+      <c r="G206" s="58"/>
+      <c r="H206" s="58"/>
+      <c r="I206" s="28"/>
+      <c r="J206" s="58"/>
+      <c r="K206" s="28"/>
+      <c r="L206" s="58"/>
+      <c r="M206" s="60"/>
+    </row>
+    <row r="207" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="24"/>
+      <c r="B207" s="55"/>
+      <c r="C207" s="56"/>
+      <c r="D207" s="9"/>
+      <c r="E207" s="9"/>
+      <c r="F207" s="57"/>
+      <c r="G207" s="58"/>
+      <c r="H207" s="58"/>
+      <c r="I207" s="28"/>
+      <c r="J207" s="58"/>
+      <c r="K207" s="28"/>
+      <c r="L207" s="58"/>
+      <c r="M207" s="60"/>
+    </row>
+    <row r="208" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="24"/>
+      <c r="B208" s="55"/>
+      <c r="C208" s="56"/>
+      <c r="D208" s="9"/>
+      <c r="E208" s="9"/>
+      <c r="F208" s="57"/>
+      <c r="G208" s="58"/>
+      <c r="H208" s="58"/>
+      <c r="I208" s="28"/>
+      <c r="J208" s="58"/>
+      <c r="K208" s="28"/>
+      <c r="L208" s="58"/>
+      <c r="M208" s="60"/>
+    </row>
+    <row r="209" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="24"/>
+      <c r="B209" s="55"/>
+      <c r="C209" s="56"/>
+      <c r="D209" s="9"/>
+      <c r="E209" s="9"/>
+      <c r="F209" s="57"/>
+      <c r="G209" s="58"/>
+      <c r="H209" s="58"/>
+      <c r="I209" s="28"/>
+      <c r="J209" s="58"/>
+      <c r="K209" s="28"/>
+      <c r="L209" s="58"/>
+      <c r="M209" s="60"/>
+    </row>
+    <row r="210" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="24"/>
+      <c r="B210" s="55"/>
+      <c r="C210" s="56"/>
+      <c r="D210" s="9"/>
+      <c r="E210" s="9"/>
+      <c r="F210" s="57"/>
+      <c r="G210" s="58"/>
+      <c r="H210" s="58"/>
+      <c r="I210" s="28"/>
+      <c r="J210" s="58"/>
+      <c r="K210" s="28"/>
+      <c r="L210" s="58"/>
+      <c r="M210" s="60"/>
+    </row>
+    <row r="211" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="24"/>
+      <c r="B211" s="55"/>
+      <c r="C211" s="56"/>
+      <c r="D211" s="9"/>
+      <c r="E211" s="9"/>
+      <c r="F211" s="57"/>
+      <c r="G211" s="58"/>
+      <c r="H211" s="58"/>
+      <c r="I211" s="28"/>
+      <c r="J211" s="58"/>
+      <c r="K211" s="28"/>
+      <c r="L211" s="58"/>
+      <c r="M211" s="60"/>
+    </row>
+    <row r="212" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="24"/>
+      <c r="B212" s="55"/>
+      <c r="C212" s="56"/>
+      <c r="D212" s="9"/>
+      <c r="E212" s="9"/>
+      <c r="F212" s="57"/>
+      <c r="G212" s="58"/>
+      <c r="H212" s="58"/>
+      <c r="I212" s="28"/>
+      <c r="J212" s="58"/>
+      <c r="K212" s="28"/>
+      <c r="L212" s="58"/>
+      <c r="M212" s="60"/>
+    </row>
+    <row r="213" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="24"/>
+      <c r="B213" s="55"/>
+      <c r="C213" s="56"/>
+      <c r="D213" s="9"/>
+      <c r="E213" s="9"/>
+      <c r="F213" s="57"/>
+      <c r="G213" s="58"/>
+      <c r="H213" s="58"/>
+      <c r="I213" s="28"/>
+      <c r="J213" s="58"/>
+      <c r="K213" s="28"/>
+      <c r="L213" s="58"/>
+      <c r="M213" s="60"/>
+    </row>
+    <row r="214" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="24"/>
+      <c r="B214" s="55"/>
+      <c r="C214" s="56"/>
+      <c r="D214" s="9"/>
+      <c r="E214" s="9"/>
+      <c r="F214" s="57"/>
+      <c r="G214" s="58"/>
+      <c r="H214" s="58"/>
+      <c r="I214" s="28"/>
+      <c r="J214" s="58"/>
+      <c r="K214" s="28"/>
+      <c r="L214" s="58"/>
+      <c r="M214" s="60"/>
+    </row>
+    <row r="215" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="24"/>
+      <c r="B215" s="55"/>
+      <c r="C215" s="56"/>
+      <c r="D215" s="9"/>
+      <c r="E215" s="9"/>
+      <c r="F215" s="57"/>
+      <c r="G215" s="58"/>
+      <c r="H215" s="58"/>
+      <c r="I215" s="28"/>
+      <c r="J215" s="58"/>
+      <c r="K215" s="28"/>
+      <c r="L215" s="58"/>
+      <c r="M215" s="60"/>
+    </row>
+    <row r="216" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="24"/>
+      <c r="B216" s="55"/>
+      <c r="C216" s="56"/>
+      <c r="D216" s="9"/>
+      <c r="E216" s="9"/>
+      <c r="F216" s="57"/>
+      <c r="G216" s="58"/>
+      <c r="H216" s="58"/>
+      <c r="I216" s="28"/>
+      <c r="J216" s="58"/>
+      <c r="K216" s="28"/>
+      <c r="L216" s="58"/>
+      <c r="M216" s="60"/>
+    </row>
+    <row r="217" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="24"/>
+      <c r="B217" s="55"/>
+      <c r="C217" s="56"/>
+      <c r="D217" s="9"/>
+      <c r="E217" s="9"/>
+      <c r="F217" s="57"/>
+      <c r="G217" s="58"/>
+      <c r="H217" s="58"/>
+      <c r="I217" s="28"/>
+      <c r="J217" s="58"/>
+      <c r="K217" s="28"/>
+      <c r="L217" s="58"/>
+      <c r="M217" s="60"/>
+    </row>
+    <row r="218" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="24"/>
+      <c r="B218" s="55"/>
+      <c r="C218" s="56"/>
+      <c r="D218" s="9"/>
+      <c r="E218" s="9"/>
+      <c r="F218" s="57"/>
+      <c r="G218" s="58"/>
+      <c r="H218" s="58"/>
+      <c r="I218" s="28"/>
+      <c r="J218" s="58"/>
+      <c r="K218" s="28"/>
+      <c r="L218" s="58"/>
+      <c r="M218" s="60"/>
+    </row>
+    <row r="219" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="24"/>
+      <c r="B219" s="55"/>
+      <c r="C219" s="56"/>
+      <c r="D219" s="9"/>
+      <c r="E219" s="9"/>
+      <c r="F219" s="57"/>
+      <c r="G219" s="58"/>
+      <c r="H219" s="58"/>
+      <c r="I219" s="28"/>
+      <c r="J219" s="58"/>
+      <c r="K219" s="28"/>
+      <c r="L219" s="58"/>
+      <c r="M219" s="60"/>
+    </row>
+    <row r="220" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="24"/>
+      <c r="B220" s="55"/>
+      <c r="C220" s="56"/>
+      <c r="D220" s="9"/>
+      <c r="E220" s="9"/>
+      <c r="F220" s="57"/>
+      <c r="G220" s="58"/>
+      <c r="H220" s="58"/>
+      <c r="I220" s="28"/>
+      <c r="J220" s="58"/>
+      <c r="K220" s="28"/>
+      <c r="L220" s="58"/>
+      <c r="M220" s="60"/>
+    </row>
+    <row r="221" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="24"/>
+      <c r="B221" s="55"/>
+      <c r="C221" s="56"/>
+      <c r="D221" s="9"/>
+      <c r="E221" s="9"/>
+      <c r="F221" s="57"/>
+      <c r="G221" s="58"/>
+      <c r="H221" s="58"/>
+      <c r="I221" s="28"/>
+      <c r="J221" s="58"/>
+      <c r="K221" s="28"/>
+      <c r="L221" s="58"/>
+      <c r="M221" s="60"/>
+    </row>
+    <row r="222" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="24"/>
+      <c r="B222" s="55"/>
+      <c r="C222" s="56"/>
+      <c r="D222" s="9"/>
+      <c r="E222" s="9"/>
+      <c r="F222" s="57"/>
+      <c r="G222" s="58"/>
+      <c r="H222" s="58"/>
+      <c r="I222" s="28"/>
+      <c r="J222" s="58"/>
+      <c r="K222" s="28"/>
+      <c r="L222" s="58"/>
+      <c r="M222" s="60"/>
+    </row>
+    <row r="223" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="24"/>
+      <c r="B223" s="55"/>
+      <c r="C223" s="56"/>
+      <c r="D223" s="9"/>
+      <c r="E223" s="9"/>
+      <c r="F223" s="57"/>
+      <c r="G223" s="58"/>
+      <c r="H223" s="58"/>
+      <c r="I223" s="28"/>
+      <c r="J223" s="58"/>
+      <c r="K223" s="28"/>
+      <c r="L223" s="58"/>
+      <c r="M223" s="60"/>
+    </row>
+    <row r="224" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="24"/>
+      <c r="B224" s="55"/>
+      <c r="C224" s="56"/>
+      <c r="D224" s="9"/>
+      <c r="E224" s="9"/>
+      <c r="F224" s="57"/>
+      <c r="G224" s="58"/>
+      <c r="H224" s="58"/>
+      <c r="I224" s="28"/>
+      <c r="J224" s="58"/>
+      <c r="K224" s="28"/>
+      <c r="L224" s="58"/>
+      <c r="M224" s="60"/>
+    </row>
+    <row r="225" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="24"/>
+      <c r="B225" s="55"/>
+      <c r="C225" s="56"/>
+      <c r="D225" s="9"/>
+      <c r="E225" s="9"/>
+      <c r="F225" s="57"/>
+      <c r="G225" s="58"/>
+      <c r="H225" s="58"/>
+      <c r="I225" s="28"/>
+      <c r="J225" s="58"/>
+      <c r="K225" s="28"/>
+      <c r="L225" s="58"/>
+      <c r="M225" s="60"/>
+    </row>
+    <row r="226" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A226" s="24"/>
+      <c r="B226" s="55"/>
+      <c r="C226" s="56"/>
+      <c r="D226" s="9"/>
+      <c r="E226" s="9"/>
+      <c r="F226" s="57"/>
+      <c r="G226" s="58"/>
+      <c r="H226" s="58"/>
+      <c r="I226" s="28"/>
+      <c r="J226" s="58"/>
+      <c r="K226" s="28"/>
+      <c r="L226" s="58"/>
+      <c r="M226" s="60"/>
+    </row>
+    <row r="227" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="24"/>
+      <c r="B227" s="55"/>
+      <c r="C227" s="56"/>
+      <c r="D227" s="9"/>
+      <c r="E227" s="9"/>
+      <c r="F227" s="57"/>
+      <c r="G227" s="58"/>
+      <c r="H227" s="58"/>
+      <c r="I227" s="28"/>
+      <c r="J227" s="58"/>
+      <c r="K227" s="28"/>
+      <c r="L227" s="58"/>
+      <c r="M227" s="60"/>
+    </row>
+    <row r="228" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A228" s="24"/>
+      <c r="B228" s="55"/>
+      <c r="C228" s="56"/>
+      <c r="D228" s="9"/>
+      <c r="E228" s="9"/>
+      <c r="F228" s="57"/>
+      <c r="G228" s="58"/>
+      <c r="H228" s="58"/>
+      <c r="I228" s="28"/>
+      <c r="J228" s="58"/>
+      <c r="K228" s="28"/>
+      <c r="L228" s="58"/>
+      <c r="M228" s="60"/>
+    </row>
+    <row r="229" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A229" s="24"/>
+      <c r="B229" s="55"/>
+      <c r="C229" s="56"/>
+      <c r="D229" s="9"/>
+      <c r="E229" s="9"/>
+      <c r="F229" s="57"/>
+      <c r="G229" s="58"/>
+      <c r="H229" s="58"/>
+      <c r="I229" s="28"/>
+      <c r="J229" s="58"/>
+      <c r="K229" s="28"/>
+      <c r="L229" s="58"/>
+      <c r="M229" s="60"/>
+    </row>
+    <row r="230" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="24"/>
+      <c r="B230" s="55"/>
+      <c r="C230" s="56"/>
+      <c r="D230" s="9"/>
+      <c r="E230" s="9"/>
+      <c r="F230" s="57"/>
+      <c r="G230" s="58"/>
+      <c r="H230" s="58"/>
+      <c r="I230" s="28"/>
+      <c r="J230" s="58"/>
+      <c r="K230" s="28"/>
+      <c r="L230" s="58"/>
+      <c r="M230" s="60"/>
+    </row>
+    <row r="231" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A231" s="24"/>
+      <c r="B231" s="55"/>
+      <c r="C231" s="56"/>
+      <c r="D231" s="9"/>
+      <c r="E231" s="9"/>
+      <c r="F231" s="57"/>
+      <c r="G231" s="58"/>
+      <c r="H231" s="58"/>
+      <c r="I231" s="28"/>
+      <c r="J231" s="58"/>
+      <c r="K231" s="28"/>
+      <c r="L231" s="58"/>
+      <c r="M231" s="60"/>
+    </row>
+    <row r="232" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A232" s="24"/>
+      <c r="B232" s="55"/>
+      <c r="C232" s="56"/>
+      <c r="D232" s="9"/>
+      <c r="E232" s="9"/>
+      <c r="F232" s="57"/>
+      <c r="G232" s="58"/>
+      <c r="H232" s="58"/>
+      <c r="I232" s="28"/>
+      <c r="J232" s="58"/>
+      <c r="K232" s="28"/>
+      <c r="L232" s="58"/>
+      <c r="M232" s="60"/>
+    </row>
+    <row r="233" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A233" s="24"/>
+      <c r="B233" s="55"/>
+      <c r="C233" s="56"/>
+      <c r="D233" s="9"/>
+      <c r="E233" s="9"/>
+      <c r="F233" s="57"/>
+      <c r="G233" s="58"/>
+      <c r="H233" s="58"/>
+      <c r="I233" s="28"/>
+      <c r="J233" s="58"/>
+      <c r="K233" s="28"/>
+      <c r="L233" s="58"/>
+      <c r="M233" s="60"/>
+    </row>
+    <row r="234" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A234" s="24"/>
+      <c r="B234" s="55"/>
+      <c r="C234" s="56"/>
+      <c r="D234" s="9"/>
+      <c r="E234" s="9"/>
+      <c r="F234" s="57"/>
+      <c r="G234" s="58"/>
+      <c r="H234" s="58"/>
+      <c r="I234" s="28"/>
+      <c r="J234" s="58"/>
+      <c r="K234" s="28"/>
+      <c r="L234" s="58"/>
+      <c r="M234" s="60"/>
+    </row>
+    <row r="235" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A235" s="24"/>
+      <c r="B235" s="55"/>
+      <c r="C235" s="56"/>
+      <c r="D235" s="9"/>
+      <c r="E235" s="9"/>
+      <c r="F235" s="57"/>
+      <c r="G235" s="58"/>
+      <c r="H235" s="58"/>
+      <c r="I235" s="28"/>
+      <c r="J235" s="58"/>
+      <c r="K235" s="28"/>
+      <c r="L235" s="58"/>
+      <c r="M235" s="60"/>
+    </row>
+    <row r="236" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A236" s="24"/>
+      <c r="B236" s="55"/>
+      <c r="C236" s="56"/>
+      <c r="D236" s="9"/>
+      <c r="E236" s="9"/>
+      <c r="F236" s="57"/>
+      <c r="G236" s="58"/>
+      <c r="H236" s="58"/>
+      <c r="I236" s="28"/>
+      <c r="J236" s="58"/>
+      <c r="K236" s="28"/>
+      <c r="L236" s="58"/>
+      <c r="M236" s="60"/>
+    </row>
+    <row r="237" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A237" s="24"/>
+      <c r="B237" s="55"/>
+      <c r="C237" s="56"/>
+      <c r="D237" s="9"/>
+      <c r="E237" s="9"/>
+      <c r="F237" s="57"/>
+      <c r="G237" s="58"/>
+      <c r="H237" s="58"/>
+      <c r="I237" s="28"/>
+      <c r="J237" s="58"/>
+      <c r="K237" s="28"/>
+      <c r="L237" s="58"/>
+      <c r="M237" s="60"/>
+    </row>
+    <row r="238" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="24"/>
+      <c r="B238" s="55"/>
+      <c r="C238" s="56"/>
+      <c r="D238" s="9"/>
+      <c r="E238" s="9"/>
+      <c r="F238" s="57"/>
+      <c r="G238" s="58"/>
+      <c r="H238" s="58"/>
+      <c r="I238" s="28"/>
+      <c r="J238" s="58"/>
+      <c r="K238" s="28"/>
+      <c r="L238" s="58"/>
+      <c r="M238" s="60"/>
+    </row>
+    <row r="239" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="24"/>
+      <c r="B239" s="55"/>
+      <c r="C239" s="56"/>
+      <c r="D239" s="9"/>
+      <c r="E239" s="9"/>
+      <c r="F239" s="57"/>
+      <c r="G239" s="58"/>
+      <c r="H239" s="58"/>
+      <c r="I239" s="28"/>
+      <c r="J239" s="58"/>
+      <c r="K239" s="28"/>
+      <c r="L239" s="58"/>
+      <c r="M239" s="60"/>
+    </row>
+    <row r="240" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="24"/>
+      <c r="B240" s="55"/>
+      <c r="C240" s="56"/>
+      <c r="D240" s="9"/>
+      <c r="E240" s="9"/>
+      <c r="F240" s="57"/>
+      <c r="G240" s="58"/>
+      <c r="H240" s="58"/>
+      <c r="I240" s="28"/>
+      <c r="J240" s="58"/>
+      <c r="K240" s="28"/>
+      <c r="L240" s="58"/>
+      <c r="M240" s="60"/>
+    </row>
+    <row r="241" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="24"/>
+      <c r="B241" s="55"/>
+      <c r="C241" s="56"/>
+      <c r="D241" s="9"/>
+      <c r="E241" s="9"/>
+      <c r="F241" s="57"/>
+      <c r="G241" s="58"/>
+      <c r="H241" s="58"/>
+      <c r="I241" s="28"/>
+      <c r="J241" s="58"/>
+      <c r="K241" s="28"/>
+      <c r="L241" s="58"/>
+      <c r="M241" s="60"/>
+    </row>
+    <row r="242" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="24"/>
+      <c r="B242" s="55"/>
+      <c r="C242" s="56"/>
+      <c r="D242" s="9"/>
+      <c r="E242" s="9"/>
+      <c r="F242" s="57"/>
+      <c r="G242" s="58"/>
+      <c r="H242" s="58"/>
+      <c r="I242" s="28"/>
+      <c r="J242" s="58"/>
+      <c r="K242" s="28"/>
+      <c r="L242" s="58"/>
+      <c r="M242" s="60"/>
+    </row>
+    <row r="243" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="24"/>
+      <c r="B243" s="55"/>
+      <c r="C243" s="56"/>
+      <c r="D243" s="9"/>
+      <c r="E243" s="9"/>
+      <c r="F243" s="57"/>
+      <c r="G243" s="58"/>
+      <c r="H243" s="58"/>
+      <c r="I243" s="28"/>
+      <c r="J243" s="58"/>
+      <c r="K243" s="28"/>
+      <c r="L243" s="58"/>
+      <c r="M243" s="60"/>
+    </row>
+    <row r="244" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A244" s="24"/>
+      <c r="B244" s="55"/>
+      <c r="C244" s="56"/>
+      <c r="D244" s="9"/>
+      <c r="E244" s="9"/>
+      <c r="F244" s="57"/>
+      <c r="G244" s="58"/>
+      <c r="H244" s="58"/>
+      <c r="I244" s="28"/>
+      <c r="J244" s="58"/>
+      <c r="K244" s="28"/>
+      <c r="L244" s="58"/>
+      <c r="M244" s="60"/>
+    </row>
+    <row r="245" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="24"/>
+      <c r="B245" s="55"/>
+      <c r="C245" s="56"/>
+      <c r="D245" s="9"/>
+      <c r="E245" s="9"/>
+      <c r="F245" s="57"/>
+      <c r="G245" s="58"/>
+      <c r="H245" s="58"/>
+      <c r="I245" s="28"/>
+      <c r="J245" s="58"/>
+      <c r="K245" s="28"/>
+      <c r="L245" s="58"/>
+      <c r="M245" s="60"/>
+    </row>
+    <row r="246" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A246" s="24"/>
+      <c r="B246" s="55"/>
+      <c r="C246" s="56"/>
+      <c r="D246" s="9"/>
+      <c r="E246" s="9"/>
+      <c r="F246" s="57"/>
+      <c r="G246" s="58"/>
+      <c r="H246" s="58"/>
+      <c r="I246" s="28"/>
+      <c r="J246" s="58"/>
+      <c r="K246" s="28"/>
+      <c r="L246" s="58"/>
+      <c r="M246" s="60"/>
+    </row>
+    <row r="247" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A247" s="24"/>
+      <c r="B247" s="55"/>
+      <c r="C247" s="56"/>
+      <c r="D247" s="9"/>
+      <c r="E247" s="9"/>
+      <c r="F247" s="57"/>
+      <c r="G247" s="58"/>
+      <c r="H247" s="58"/>
+      <c r="I247" s="28"/>
+      <c r="J247" s="58"/>
+      <c r="K247" s="28"/>
+      <c r="L247" s="58"/>
+      <c r="M247" s="60"/>
+    </row>
+    <row r="248" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A248" s="24"/>
+      <c r="B248" s="55"/>
+      <c r="C248" s="56"/>
+      <c r="D248" s="9"/>
+      <c r="E248" s="9"/>
+      <c r="F248" s="57"/>
+      <c r="G248" s="58"/>
+      <c r="H248" s="58"/>
+      <c r="I248" s="28"/>
+      <c r="J248" s="58"/>
+      <c r="K248" s="28"/>
+      <c r="L248" s="58"/>
+      <c r="M248" s="60"/>
+    </row>
+    <row r="249" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A249" s="24"/>
+      <c r="B249" s="55"/>
+      <c r="C249" s="56"/>
+      <c r="D249" s="9"/>
+      <c r="E249" s="9"/>
+      <c r="F249" s="57"/>
+      <c r="G249" s="58"/>
+      <c r="H249" s="58"/>
+      <c r="I249" s="28"/>
+      <c r="J249" s="58"/>
+      <c r="K249" s="28"/>
+      <c r="L249" s="58"/>
+      <c r="M249" s="60"/>
+    </row>
+    <row r="250" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A250" s="24"/>
+      <c r="B250" s="55"/>
+      <c r="C250" s="56"/>
+      <c r="D250" s="9"/>
+      <c r="E250" s="9"/>
+      <c r="F250" s="57"/>
+      <c r="G250" s="58"/>
+      <c r="H250" s="58"/>
+      <c r="I250" s="28"/>
+      <c r="J250" s="58"/>
+      <c r="K250" s="28"/>
+      <c r="L250" s="58"/>
+      <c r="M250" s="60"/>
+    </row>
+    <row r="251" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A251" s="24"/>
+      <c r="B251" s="55"/>
+      <c r="C251" s="56"/>
+      <c r="D251" s="9"/>
+      <c r="E251" s="9"/>
+      <c r="F251" s="57"/>
+      <c r="G251" s="58"/>
+      <c r="H251" s="58"/>
+      <c r="I251" s="28"/>
+      <c r="J251" s="58"/>
+      <c r="K251" s="28"/>
+      <c r="L251" s="58"/>
+      <c r="M251" s="60"/>
+    </row>
+    <row r="252" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A252" s="24"/>
+      <c r="B252" s="55"/>
+      <c r="C252" s="56"/>
+      <c r="D252" s="9"/>
+      <c r="E252" s="9"/>
+      <c r="F252" s="57"/>
+      <c r="G252" s="58"/>
+      <c r="H252" s="58"/>
+      <c r="I252" s="28"/>
+      <c r="J252" s="58"/>
+      <c r="K252" s="28"/>
+      <c r="L252" s="58"/>
+      <c r="M252" s="60"/>
+    </row>
+    <row r="253" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A253" s="24"/>
+      <c r="B253" s="55"/>
+      <c r="C253" s="56"/>
+      <c r="D253" s="9"/>
+      <c r="E253" s="9"/>
+      <c r="F253" s="57"/>
+      <c r="G253" s="58"/>
+      <c r="H253" s="58"/>
+      <c r="I253" s="28"/>
+      <c r="J253" s="58"/>
+      <c r="K253" s="28"/>
+      <c r="L253" s="58"/>
+      <c r="M253" s="60"/>
+    </row>
+    <row r="254" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A254" s="24"/>
+      <c r="B254" s="55"/>
+      <c r="C254" s="56"/>
+      <c r="D254" s="9"/>
+      <c r="E254" s="9"/>
+      <c r="F254" s="57"/>
+      <c r="G254" s="58"/>
+      <c r="H254" s="58"/>
+      <c r="I254" s="28"/>
+      <c r="J254" s="58"/>
+      <c r="K254" s="28"/>
+      <c r="L254" s="58"/>
+      <c r="M254" s="60"/>
+    </row>
+    <row r="255" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A255" s="24"/>
+      <c r="B255" s="55"/>
+      <c r="C255" s="56"/>
+      <c r="D255" s="9"/>
+      <c r="E255" s="9"/>
+      <c r="F255" s="57"/>
+      <c r="G255" s="58"/>
+      <c r="H255" s="58"/>
+      <c r="I255" s="28"/>
+      <c r="J255" s="58"/>
+      <c r="K255" s="28"/>
+      <c r="L255" s="58"/>
+      <c r="M255" s="60"/>
+    </row>
+    <row r="256" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A256" s="24"/>
+      <c r="B256" s="55"/>
+      <c r="C256" s="56"/>
+      <c r="D256" s="9"/>
+      <c r="E256" s="9"/>
+      <c r="F256" s="57"/>
+      <c r="G256" s="58"/>
+      <c r="H256" s="58"/>
+      <c r="I256" s="28"/>
+      <c r="J256" s="58"/>
+      <c r="K256" s="28"/>
+      <c r="L256" s="58"/>
+      <c r="M256" s="60"/>
+    </row>
+    <row r="257" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A257" s="24"/>
+      <c r="B257" s="55"/>
+      <c r="C257" s="56"/>
+      <c r="D257" s="9"/>
+      <c r="E257" s="9"/>
+      <c r="F257" s="57"/>
+      <c r="G257" s="58"/>
+      <c r="H257" s="58"/>
+      <c r="I257" s="28"/>
+      <c r="J257" s="58"/>
+      <c r="K257" s="28"/>
+      <c r="L257" s="58"/>
+      <c r="M257" s="60"/>
+    </row>
+    <row r="258" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A258" s="24"/>
+      <c r="B258" s="55"/>
+      <c r="C258" s="56"/>
+      <c r="D258" s="9"/>
+      <c r="E258" s="9"/>
+      <c r="F258" s="57"/>
+      <c r="G258" s="58"/>
+      <c r="H258" s="58"/>
+      <c r="I258" s="28"/>
+      <c r="J258" s="58"/>
+      <c r="K258" s="28"/>
+      <c r="L258" s="58"/>
+      <c r="M258" s="60"/>
+    </row>
+    <row r="259" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A259" s="24"/>
+      <c r="B259" s="55"/>
+      <c r="C259" s="56"/>
+      <c r="D259" s="9"/>
+      <c r="E259" s="9"/>
+      <c r="F259" s="57"/>
+      <c r="G259" s="58"/>
+      <c r="H259" s="58"/>
+      <c r="I259" s="28"/>
+      <c r="J259" s="58"/>
+      <c r="K259" s="28"/>
+      <c r="L259" s="58"/>
+      <c r="M259" s="60"/>
+    </row>
+    <row r="260" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A260" s="24"/>
+      <c r="B260" s="55"/>
+      <c r="C260" s="56"/>
+      <c r="D260" s="9"/>
+      <c r="E260" s="9"/>
+      <c r="F260" s="57"/>
+      <c r="G260" s="58"/>
+      <c r="H260" s="58"/>
+      <c r="I260" s="28"/>
+      <c r="J260" s="58"/>
+      <c r="K260" s="28"/>
+      <c r="L260" s="58"/>
+      <c r="M260" s="60"/>
+    </row>
+    <row r="261" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A261" s="24"/>
+      <c r="B261" s="55"/>
+      <c r="C261" s="56"/>
+      <c r="D261" s="9"/>
+      <c r="E261" s="9"/>
+      <c r="F261" s="57"/>
+      <c r="G261" s="58"/>
+      <c r="H261" s="58"/>
+      <c r="I261" s="28"/>
+      <c r="J261" s="58"/>
+      <c r="K261" s="28"/>
+      <c r="L261" s="58"/>
+      <c r="M261" s="60"/>
+    </row>
+    <row r="262" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A262" s="24"/>
+      <c r="B262" s="55"/>
+      <c r="C262" s="56"/>
+      <c r="D262" s="9"/>
+      <c r="E262" s="9"/>
+      <c r="F262" s="57"/>
+      <c r="G262" s="58"/>
+      <c r="H262" s="58"/>
+      <c r="I262" s="28"/>
+      <c r="J262" s="58"/>
+      <c r="K262" s="28"/>
+      <c r="L262" s="58"/>
+      <c r="M262" s="60"/>
+    </row>
+    <row r="263" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A263" s="24"/>
+      <c r="B263" s="55"/>
+      <c r="C263" s="56"/>
+      <c r="D263" s="9"/>
+      <c r="E263" s="9"/>
+      <c r="F263" s="57"/>
+      <c r="G263" s="58"/>
+      <c r="H263" s="58"/>
+      <c r="I263" s="28"/>
+      <c r="J263" s="58"/>
+      <c r="K263" s="28"/>
+      <c r="L263" s="58"/>
+      <c r="M263" s="60"/>
+    </row>
+    <row r="264" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A264" s="24"/>
+      <c r="B264" s="55"/>
+      <c r="C264" s="56"/>
+      <c r="D264" s="9"/>
+      <c r="E264" s="9"/>
+      <c r="F264" s="57"/>
+      <c r="G264" s="58"/>
+      <c r="H264" s="58"/>
+      <c r="I264" s="28"/>
+      <c r="J264" s="58"/>
+      <c r="K264" s="28"/>
+      <c r="L264" s="58"/>
+      <c r="M264" s="60"/>
+    </row>
+    <row r="265" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A265" s="24"/>
+      <c r="B265" s="55"/>
+      <c r="C265" s="56"/>
+      <c r="D265" s="9"/>
+      <c r="E265" s="9"/>
+      <c r="F265" s="57"/>
+      <c r="G265" s="58"/>
+      <c r="H265" s="58"/>
+      <c r="I265" s="28"/>
+      <c r="J265" s="58"/>
+      <c r="K265" s="28"/>
+      <c r="L265" s="58"/>
+      <c r="M265" s="60"/>
+    </row>
+    <row r="266" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A266" s="24"/>
+      <c r="B266" s="55"/>
+      <c r="C266" s="56"/>
+      <c r="D266" s="9"/>
+      <c r="E266" s="9"/>
+      <c r="F266" s="57"/>
+      <c r="G266" s="58"/>
+      <c r="H266" s="58"/>
+      <c r="I266" s="28"/>
+      <c r="J266" s="58"/>
+      <c r="K266" s="28"/>
+      <c r="L266" s="58"/>
+      <c r="M266" s="60"/>
+    </row>
+    <row r="267" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A267" s="24"/>
+      <c r="B267" s="55"/>
+      <c r="C267" s="56"/>
+      <c r="D267" s="9"/>
+      <c r="E267" s="9"/>
+      <c r="F267" s="57"/>
+      <c r="G267" s="58"/>
+      <c r="H267" s="58"/>
+      <c r="I267" s="28"/>
+      <c r="J267" s="58"/>
+      <c r="K267" s="28"/>
+      <c r="L267" s="58"/>
+      <c r="M267" s="60"/>
+    </row>
+    <row r="268" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A268" s="24"/>
+      <c r="B268" s="55"/>
+      <c r="C268" s="56"/>
+      <c r="D268" s="9"/>
+      <c r="E268" s="9"/>
+      <c r="F268" s="57"/>
+      <c r="G268" s="58"/>
+      <c r="H268" s="58"/>
+      <c r="I268" s="28"/>
+      <c r="J268" s="58"/>
+      <c r="K268" s="28"/>
+      <c r="L268" s="58"/>
+      <c r="M268" s="60"/>
+    </row>
+    <row r="269" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A269" s="24"/>
+      <c r="B269" s="55"/>
+      <c r="C269" s="56"/>
+      <c r="D269" s="9"/>
+      <c r="E269" s="9"/>
+      <c r="F269" s="57"/>
+      <c r="G269" s="58"/>
+      <c r="H269" s="58"/>
+      <c r="I269" s="28"/>
+      <c r="J269" s="58"/>
+      <c r="K269" s="28"/>
+      <c r="L269" s="58"/>
+      <c r="M269" s="60"/>
+    </row>
+    <row r="270" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A270" s="24"/>
+      <c r="B270" s="55"/>
+      <c r="C270" s="56"/>
+      <c r="D270" s="9"/>
+      <c r="E270" s="9"/>
+      <c r="F270" s="57"/>
+      <c r="G270" s="58"/>
+      <c r="H270" s="58"/>
+      <c r="I270" s="28"/>
+      <c r="J270" s="58"/>
+      <c r="K270" s="28"/>
+      <c r="L270" s="58"/>
+      <c r="M270" s="60"/>
+    </row>
+    <row r="271" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A271" s="24"/>
+      <c r="B271" s="55"/>
+      <c r="C271" s="56"/>
+      <c r="D271" s="9"/>
+      <c r="E271" s="9"/>
+      <c r="F271" s="57"/>
+      <c r="G271" s="58"/>
+      <c r="H271" s="58"/>
+      <c r="I271" s="28"/>
+      <c r="J271" s="58"/>
+      <c r="K271" s="28"/>
+      <c r="L271" s="58"/>
+      <c r="M271" s="60"/>
+    </row>
+    <row r="272" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A272" s="24"/>
+      <c r="B272" s="55"/>
+      <c r="C272" s="56"/>
+      <c r="D272" s="9"/>
+      <c r="E272" s="9"/>
+      <c r="F272" s="57"/>
+      <c r="G272" s="58"/>
+      <c r="H272" s="58"/>
+      <c r="I272" s="28"/>
+      <c r="J272" s="58"/>
+      <c r="K272" s="28"/>
+      <c r="L272" s="58"/>
+      <c r="M272" s="60"/>
+    </row>
+    <row r="273" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A273" s="24"/>
+      <c r="B273" s="55"/>
+      <c r="C273" s="56"/>
+      <c r="D273" s="9"/>
+      <c r="E273" s="9"/>
+      <c r="F273" s="57"/>
+      <c r="G273" s="58"/>
+      <c r="H273" s="58"/>
+      <c r="I273" s="28"/>
+      <c r="J273" s="58"/>
+      <c r="K273" s="28"/>
+      <c r="L273" s="58"/>
+      <c r="M273" s="60"/>
+    </row>
+    <row r="274" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A274" s="24"/>
+      <c r="B274" s="55"/>
+      <c r="C274" s="56"/>
+      <c r="D274" s="9"/>
+      <c r="E274" s="9"/>
+      <c r="F274" s="57"/>
+      <c r="G274" s="58"/>
+      <c r="H274" s="58"/>
+      <c r="I274" s="28"/>
+      <c r="J274" s="58"/>
+      <c r="K274" s="28"/>
+      <c r="L274" s="58"/>
+      <c r="M274" s="60"/>
+    </row>
+    <row r="275" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A275" s="24"/>
+      <c r="B275" s="55"/>
+      <c r="C275" s="56"/>
+      <c r="D275" s="9"/>
+      <c r="E275" s="9"/>
+      <c r="F275" s="57"/>
+      <c r="G275" s="58"/>
+      <c r="H275" s="58"/>
+      <c r="I275" s="28"/>
+      <c r="J275" s="58"/>
+      <c r="K275" s="28"/>
+      <c r="L275" s="58"/>
+      <c r="M275" s="60"/>
+    </row>
+    <row r="276" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A276" s="24"/>
+      <c r="B276" s="55"/>
+      <c r="C276" s="56"/>
+      <c r="D276" s="9"/>
+      <c r="E276" s="9"/>
+      <c r="F276" s="57"/>
+      <c r="G276" s="58"/>
+      <c r="H276" s="58"/>
+      <c r="I276" s="28"/>
+      <c r="J276" s="58"/>
+      <c r="K276" s="28"/>
+      <c r="L276" s="58"/>
+      <c r="M276" s="60"/>
+    </row>
+    <row r="277" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A277" s="24"/>
+      <c r="B277" s="55"/>
+      <c r="C277" s="56"/>
+      <c r="D277" s="9"/>
+      <c r="E277" s="9"/>
+      <c r="F277" s="57"/>
+      <c r="G277" s="58"/>
+      <c r="H277" s="58"/>
+      <c r="I277" s="28"/>
+      <c r="J277" s="58"/>
+      <c r="K277" s="28"/>
+      <c r="L277" s="58"/>
+      <c r="M277" s="60"/>
+    </row>
+    <row r="278" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A278" s="24"/>
+      <c r="B278" s="55"/>
+      <c r="C278" s="56"/>
+      <c r="D278" s="9"/>
+      <c r="E278" s="9"/>
+      <c r="F278" s="57"/>
+      <c r="G278" s="58"/>
+      <c r="H278" s="58"/>
+      <c r="I278" s="28"/>
+      <c r="J278" s="58"/>
+      <c r="K278" s="28"/>
+      <c r="L278" s="58"/>
+      <c r="M278" s="60"/>
+    </row>
+    <row r="279" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A279" s="24"/>
+      <c r="B279" s="55"/>
+      <c r="C279" s="56"/>
+      <c r="D279" s="9"/>
+      <c r="E279" s="9"/>
+      <c r="F279" s="57"/>
+      <c r="G279" s="58"/>
+      <c r="H279" s="58"/>
+      <c r="I279" s="28"/>
+      <c r="J279" s="58"/>
+      <c r="K279" s="28"/>
+      <c r="L279" s="58"/>
+      <c r="M279" s="60"/>
+    </row>
+    <row r="280" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A280" s="24"/>
+      <c r="B280" s="55"/>
+      <c r="C280" s="56"/>
+      <c r="D280" s="9"/>
+      <c r="E280" s="9"/>
+      <c r="F280" s="57"/>
+      <c r="G280" s="58"/>
+      <c r="H280" s="58"/>
+      <c r="I280" s="28"/>
+      <c r="J280" s="58"/>
+      <c r="K280" s="28"/>
+      <c r="L280" s="58"/>
+      <c r="M280" s="60"/>
+    </row>
+    <row r="281" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A281" s="24"/>
+      <c r="B281" s="55"/>
+      <c r="C281" s="56"/>
+      <c r="D281" s="9"/>
+      <c r="E281" s="9"/>
+      <c r="F281" s="57"/>
+      <c r="G281" s="58"/>
+      <c r="H281" s="58"/>
+      <c r="I281" s="28"/>
+      <c r="J281" s="58"/>
+      <c r="K281" s="28"/>
+      <c r="L281" s="58"/>
+      <c r="M281" s="60"/>
+    </row>
+    <row r="282" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A282" s="24"/>
+      <c r="B282" s="55"/>
+      <c r="C282" s="56"/>
+      <c r="D282" s="9"/>
+      <c r="E282" s="9"/>
+      <c r="F282" s="57"/>
+      <c r="G282" s="58"/>
+      <c r="H282" s="58"/>
+      <c r="I282" s="28"/>
+      <c r="J282" s="58"/>
+      <c r="K282" s="28"/>
+      <c r="L282" s="58"/>
+      <c r="M282" s="60"/>
+    </row>
+    <row r="283" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A283" s="24"/>
+      <c r="B283" s="55"/>
+      <c r="C283" s="56"/>
+      <c r="D283" s="9"/>
+      <c r="E283" s="9"/>
+      <c r="F283" s="57"/>
+      <c r="G283" s="58"/>
+      <c r="H283" s="58"/>
+      <c r="I283" s="28"/>
+      <c r="J283" s="58"/>
+      <c r="K283" s="28"/>
+      <c r="L283" s="58"/>
+      <c r="M283" s="60"/>
+    </row>
+    <row r="284" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A284" s="24"/>
+      <c r="B284" s="55"/>
+      <c r="C284" s="56"/>
+      <c r="D284" s="9"/>
+      <c r="E284" s="9"/>
+      <c r="F284" s="57"/>
+      <c r="G284" s="58"/>
+      <c r="H284" s="58"/>
+      <c r="I284" s="28"/>
+      <c r="J284" s="58"/>
+      <c r="K284" s="28"/>
+      <c r="L284" s="58"/>
+      <c r="M284" s="60"/>
+    </row>
+    <row r="285" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A285" s="24"/>
+      <c r="B285" s="55"/>
+      <c r="C285" s="56"/>
+      <c r="D285" s="9"/>
+      <c r="E285" s="9"/>
+      <c r="F285" s="57"/>
+      <c r="G285" s="58"/>
+      <c r="H285" s="58"/>
+      <c r="I285" s="28"/>
+      <c r="J285" s="58"/>
+      <c r="K285" s="28"/>
+      <c r="L285" s="58"/>
+      <c r="M285" s="60"/>
+    </row>
+    <row r="286" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A286" s="24"/>
+      <c r="B286" s="55"/>
+      <c r="C286" s="56"/>
+      <c r="D286" s="9"/>
+      <c r="E286" s="9"/>
+      <c r="F286" s="57"/>
+      <c r="G286" s="58"/>
+      <c r="H286" s="58"/>
+      <c r="I286" s="28"/>
+      <c r="J286" s="58"/>
+      <c r="K286" s="28"/>
+      <c r="L286" s="58"/>
+      <c r="M286" s="60"/>
+    </row>
+    <row r="287" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A287" s="24"/>
+      <c r="B287" s="55"/>
+      <c r="C287" s="56"/>
+      <c r="D287" s="9"/>
+      <c r="E287" s="9"/>
+      <c r="F287" s="57"/>
+      <c r="G287" s="58"/>
+      <c r="H287" s="58"/>
+      <c r="I287" s="28"/>
+      <c r="J287" s="58"/>
+      <c r="K287" s="28"/>
+      <c r="L287" s="58"/>
+      <c r="M287" s="60"/>
+    </row>
+    <row r="288" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A288" s="24"/>
+      <c r="B288" s="55"/>
+      <c r="C288" s="56"/>
+      <c r="D288" s="9"/>
+      <c r="E288" s="9"/>
+      <c r="F288" s="57"/>
+      <c r="G288" s="58"/>
+      <c r="H288" s="58"/>
+      <c r="I288" s="28"/>
+      <c r="J288" s="58"/>
+      <c r="K288" s="28"/>
+      <c r="L288" s="58"/>
+      <c r="M288" s="60"/>
+    </row>
+    <row r="289" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A289" s="24"/>
+      <c r="B289" s="55"/>
+      <c r="C289" s="56"/>
+      <c r="D289" s="9"/>
+      <c r="E289" s="9"/>
+      <c r="F289" s="57"/>
+      <c r="G289" s="58"/>
+      <c r="H289" s="58"/>
+      <c r="I289" s="28"/>
+      <c r="J289" s="58"/>
+      <c r="K289" s="28"/>
+      <c r="L289" s="58"/>
+      <c r="M289" s="60"/>
+    </row>
+    <row r="290" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A290" s="24"/>
+      <c r="B290" s="55"/>
+      <c r="C290" s="56"/>
+      <c r="D290" s="9"/>
+      <c r="E290" s="9"/>
+      <c r="F290" s="57"/>
+      <c r="G290" s="58"/>
+      <c r="H290" s="58"/>
+      <c r="I290" s="28"/>
+      <c r="J290" s="58"/>
+      <c r="K290" s="28"/>
+      <c r="L290" s="58"/>
+      <c r="M290" s="60"/>
+    </row>
+    <row r="291" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A291" s="24"/>
+      <c r="B291" s="55"/>
+      <c r="C291" s="56"/>
+      <c r="D291" s="9"/>
+      <c r="E291" s="9"/>
+      <c r="F291" s="57"/>
+      <c r="G291" s="58"/>
+      <c r="H291" s="58"/>
+      <c r="I291" s="28"/>
+      <c r="J291" s="58"/>
+      <c r="K291" s="28"/>
+      <c r="L291" s="58"/>
+      <c r="M291" s="60"/>
+    </row>
+    <row r="292" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A292" s="24"/>
+      <c r="B292" s="55"/>
+      <c r="C292" s="56"/>
+      <c r="D292" s="9"/>
+      <c r="E292" s="9"/>
+      <c r="F292" s="57"/>
+      <c r="G292" s="58"/>
+      <c r="H292" s="58"/>
+      <c r="I292" s="28"/>
+      <c r="J292" s="58"/>
+      <c r="K292" s="28"/>
+      <c r="L292" s="58"/>
+      <c r="M292" s="60"/>
+    </row>
+    <row r="293" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A293" s="24"/>
+      <c r="B293" s="55"/>
+      <c r="C293" s="56"/>
+      <c r="D293" s="9"/>
+      <c r="E293" s="9"/>
+      <c r="F293" s="57"/>
+      <c r="G293" s="58"/>
+      <c r="H293" s="58"/>
+      <c r="I293" s="28"/>
+      <c r="J293" s="58"/>
+      <c r="K293" s="28"/>
+      <c r="L293" s="58"/>
+      <c r="M293" s="60"/>
+    </row>
+    <row r="294" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A294" s="24"/>
+      <c r="B294" s="55"/>
+      <c r="C294" s="56"/>
+      <c r="D294" s="9"/>
+      <c r="E294" s="9"/>
+      <c r="F294" s="57"/>
+      <c r="G294" s="58"/>
+      <c r="H294" s="58"/>
+      <c r="I294" s="28"/>
+      <c r="J294" s="58"/>
+      <c r="K294" s="28"/>
+      <c r="L294" s="58"/>
+      <c r="M294" s="60"/>
+    </row>
+    <row r="295" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A295" s="24"/>
+      <c r="B295" s="55"/>
+      <c r="C295" s="56"/>
+      <c r="D295" s="9"/>
+      <c r="E295" s="9"/>
+      <c r="F295" s="57"/>
+      <c r="G295" s="58"/>
+      <c r="H295" s="58"/>
+      <c r="I295" s="28"/>
+      <c r="J295" s="58"/>
+      <c r="K295" s="28"/>
+      <c r="L295" s="58"/>
+      <c r="M295" s="60"/>
+    </row>
+    <row r="296" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A296" s="24"/>
+      <c r="B296" s="55"/>
+      <c r="C296" s="56"/>
+      <c r="D296" s="9"/>
+      <c r="E296" s="9"/>
+      <c r="F296" s="57"/>
+      <c r="G296" s="58"/>
+      <c r="H296" s="58"/>
+      <c r="I296" s="28"/>
+      <c r="J296" s="58"/>
+      <c r="K296" s="28"/>
+      <c r="L296" s="58"/>
+      <c r="M296" s="60"/>
+    </row>
+    <row r="297" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A297" s="24"/>
+      <c r="B297" s="55"/>
+      <c r="C297" s="56"/>
+      <c r="D297" s="9"/>
+      <c r="E297" s="9"/>
+      <c r="F297" s="57"/>
+      <c r="G297" s="58"/>
+      <c r="H297" s="58"/>
+      <c r="I297" s="28"/>
+      <c r="J297" s="58"/>
+      <c r="K297" s="28"/>
+      <c r="L297" s="58"/>
+      <c r="M297" s="60"/>
+    </row>
+    <row r="298" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A298" s="24"/>
+      <c r="B298" s="55"/>
+      <c r="C298" s="56"/>
+      <c r="D298" s="9"/>
+      <c r="E298" s="9"/>
+      <c r="F298" s="57"/>
+      <c r="G298" s="58"/>
+      <c r="H298" s="58"/>
+      <c r="I298" s="28"/>
+      <c r="J298" s="58"/>
+      <c r="K298" s="28"/>
+      <c r="L298" s="58"/>
+      <c r="M298" s="60"/>
+    </row>
+    <row r="299" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A299" s="24"/>
+      <c r="B299" s="55"/>
+      <c r="C299" s="56"/>
+      <c r="D299" s="9"/>
+      <c r="E299" s="9"/>
+      <c r="F299" s="57"/>
+      <c r="G299" s="58"/>
+      <c r="H299" s="58"/>
+      <c r="I299" s="28"/>
+      <c r="J299" s="58"/>
+      <c r="K299" s="28"/>
+      <c r="L299" s="58"/>
+      <c r="M299" s="60"/>
+    </row>
+    <row r="300" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A300" s="24"/>
+      <c r="B300" s="55"/>
+      <c r="C300" s="56"/>
+      <c r="D300" s="9"/>
+      <c r="E300" s="9"/>
+      <c r="F300" s="57"/>
+      <c r="G300" s="58"/>
+      <c r="H300" s="58"/>
+      <c r="I300" s="28"/>
+      <c r="J300" s="58"/>
+      <c r="K300" s="28"/>
+      <c r="L300" s="58"/>
+      <c r="M300" s="60"/>
+    </row>
+    <row r="301" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A301" s="24"/>
+      <c r="B301" s="55"/>
+      <c r="C301" s="56"/>
+      <c r="D301" s="9"/>
+      <c r="E301" s="9"/>
+      <c r="F301" s="57"/>
+      <c r="G301" s="58"/>
+      <c r="H301" s="58"/>
+      <c r="I301" s="28"/>
+      <c r="J301" s="58"/>
+      <c r="K301" s="28"/>
+      <c r="L301" s="58"/>
+      <c r="M301" s="60"/>
+    </row>
+    <row r="302" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A302" s="24"/>
+      <c r="B302" s="55"/>
+      <c r="C302" s="56"/>
+      <c r="D302" s="9"/>
+      <c r="E302" s="9"/>
+      <c r="F302" s="57"/>
+      <c r="G302" s="58"/>
+      <c r="H302" s="58"/>
+      <c r="I302" s="28"/>
+      <c r="J302" s="58"/>
+      <c r="K302" s="28"/>
+      <c r="L302" s="58"/>
+      <c r="M302" s="60"/>
+    </row>
+    <row r="303" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A303" s="24"/>
+      <c r="B303" s="55"/>
+      <c r="C303" s="56"/>
+      <c r="D303" s="9"/>
+      <c r="E303" s="9"/>
+      <c r="F303" s="57"/>
+      <c r="G303" s="58"/>
+      <c r="H303" s="58"/>
+      <c r="I303" s="28"/>
+      <c r="J303" s="58"/>
+      <c r="K303" s="28"/>
+      <c r="L303" s="58"/>
+      <c r="M303" s="60"/>
+    </row>
+    <row r="304" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A304" s="24"/>
+      <c r="B304" s="55"/>
+      <c r="C304" s="56"/>
+      <c r="D304" s="9"/>
+      <c r="E304" s="9"/>
+      <c r="F304" s="57"/>
+      <c r="G304" s="58"/>
+      <c r="H304" s="58"/>
+      <c r="I304" s="28"/>
+      <c r="J304" s="58"/>
+      <c r="K304" s="28"/>
+      <c r="L304" s="58"/>
+      <c r="M304" s="60"/>
+    </row>
+    <row r="305" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A305" s="24"/>
+      <c r="B305" s="55"/>
+      <c r="C305" s="56"/>
+      <c r="D305" s="9"/>
+      <c r="E305" s="9"/>
+      <c r="F305" s="57"/>
+      <c r="G305" s="58"/>
+      <c r="H305" s="58"/>
+      <c r="I305" s="28"/>
+      <c r="J305" s="58"/>
+      <c r="K305" s="28"/>
+      <c r="L305" s="58"/>
+      <c r="M305" s="60"/>
+    </row>
+    <row r="306" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A306" s="24"/>
+      <c r="B306" s="55"/>
+      <c r="C306" s="56"/>
+      <c r="D306" s="9"/>
+      <c r="E306" s="9"/>
+      <c r="F306" s="57"/>
+      <c r="G306" s="58"/>
+      <c r="H306" s="58"/>
+      <c r="I306" s="28"/>
+      <c r="J306" s="58"/>
+      <c r="K306" s="28"/>
+      <c r="L306" s="58"/>
+      <c r="M306" s="60"/>
+    </row>
+    <row r="307" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A307" s="24"/>
+      <c r="B307" s="55"/>
+      <c r="C307" s="56"/>
+      <c r="D307" s="9"/>
+      <c r="E307" s="9"/>
+      <c r="F307" s="57"/>
+      <c r="G307" s="58"/>
+      <c r="H307" s="58"/>
+      <c r="I307" s="28"/>
+      <c r="J307" s="58"/>
+      <c r="K307" s="28"/>
+      <c r="L307" s="58"/>
+      <c r="M307" s="60"/>
+    </row>
+    <row r="308" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A308" s="24"/>
+      <c r="B308" s="55"/>
+      <c r="C308" s="56"/>
+      <c r="D308" s="9"/>
+      <c r="E308" s="9"/>
+      <c r="F308" s="57"/>
+      <c r="G308" s="58"/>
+      <c r="H308" s="58"/>
+      <c r="I308" s="28"/>
+      <c r="J308" s="58"/>
+      <c r="K308" s="28"/>
+      <c r="L308" s="58"/>
+      <c r="M308" s="60"/>
+    </row>
+    <row r="309" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A309" s="24"/>
+      <c r="B309" s="55"/>
+      <c r="C309" s="56"/>
+      <c r="D309" s="9"/>
+      <c r="E309" s="9"/>
+      <c r="F309" s="57"/>
+      <c r="G309" s="58"/>
+      <c r="H309" s="58"/>
+      <c r="I309" s="28"/>
+      <c r="J309" s="58"/>
+      <c r="K309" s="28"/>
+      <c r="L309" s="58"/>
+      <c r="M309" s="60"/>
+    </row>
+    <row r="310" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A310" s="24"/>
+      <c r="B310" s="55"/>
+      <c r="C310" s="56"/>
+      <c r="D310" s="9"/>
+      <c r="E310" s="9"/>
+      <c r="F310" s="57"/>
+      <c r="G310" s="58"/>
+      <c r="H310" s="58"/>
+      <c r="I310" s="28"/>
+      <c r="J310" s="58"/>
+      <c r="K310" s="28"/>
+      <c r="L310" s="58"/>
+      <c r="M310" s="60"/>
+    </row>
+    <row r="311" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A311" s="24"/>
+      <c r="B311" s="55"/>
+      <c r="C311" s="56"/>
+      <c r="D311" s="9"/>
+      <c r="E311" s="9"/>
+      <c r="F311" s="57"/>
+      <c r="G311" s="58"/>
+      <c r="H311" s="58"/>
+      <c r="I311" s="28"/>
+      <c r="J311" s="58"/>
+      <c r="K311" s="28"/>
+      <c r="L311" s="58"/>
+      <c r="M311" s="60"/>
+    </row>
+    <row r="312" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A312" s="24"/>
+      <c r="B312" s="55"/>
+      <c r="C312" s="56"/>
+      <c r="D312" s="9"/>
+      <c r="E312" s="9"/>
+      <c r="F312" s="57"/>
+      <c r="G312" s="58"/>
+      <c r="H312" s="58"/>
+      <c r="I312" s="28"/>
+      <c r="J312" s="58"/>
+      <c r="K312" s="28"/>
+      <c r="L312" s="58"/>
+      <c r="M312" s="60"/>
+    </row>
+    <row r="313" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A313" s="24"/>
+      <c r="B313" s="55"/>
+      <c r="C313" s="56"/>
+      <c r="D313" s="9"/>
+      <c r="E313" s="9"/>
+      <c r="F313" s="57"/>
+      <c r="G313" s="58"/>
+      <c r="H313" s="58"/>
+      <c r="I313" s="28"/>
+      <c r="J313" s="58"/>
+      <c r="K313" s="28"/>
+      <c r="L313" s="58"/>
+      <c r="M313" s="60"/>
+    </row>
+    <row r="314" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A314" s="24"/>
+      <c r="B314" s="55"/>
+      <c r="C314" s="56"/>
+      <c r="D314" s="9"/>
+      <c r="E314" s="9"/>
+      <c r="F314" s="57"/>
+      <c r="G314" s="58"/>
+      <c r="H314" s="58"/>
+      <c r="I314" s="28"/>
+      <c r="J314" s="58"/>
+      <c r="K314" s="28"/>
+      <c r="L314" s="58"/>
+      <c r="M314" s="60"/>
+    </row>
+    <row r="315" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A315" s="24"/>
+      <c r="B315" s="55"/>
+      <c r="C315" s="56"/>
+      <c r="D315" s="9"/>
+      <c r="E315" s="9"/>
+      <c r="F315" s="57"/>
+      <c r="G315" s="58"/>
+      <c r="H315" s="58"/>
+      <c r="I315" s="28"/>
+      <c r="J315" s="58"/>
+      <c r="K315" s="28"/>
+      <c r="L315" s="58"/>
+      <c r="M315" s="60"/>
+    </row>
+    <row r="316" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A316" s="24"/>
+      <c r="B316" s="55"/>
+      <c r="C316" s="56"/>
+      <c r="D316" s="9"/>
+      <c r="E316" s="9"/>
+      <c r="F316" s="57"/>
+      <c r="G316" s="58"/>
+      <c r="H316" s="58"/>
+      <c r="I316" s="28"/>
+      <c r="J316" s="58"/>
+      <c r="K316" s="28"/>
+      <c r="L316" s="58"/>
+      <c r="M316" s="60"/>
+    </row>
+    <row r="317" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A317" s="24"/>
+      <c r="B317" s="55"/>
+      <c r="C317" s="56"/>
+      <c r="D317" s="9"/>
+      <c r="E317" s="9"/>
+      <c r="F317" s="57"/>
+      <c r="G317" s="58"/>
+      <c r="H317" s="58"/>
+      <c r="I317" s="28"/>
+      <c r="J317" s="58"/>
+      <c r="K317" s="28"/>
+      <c r="L317" s="58"/>
+      <c r="M317" s="60"/>
+    </row>
+    <row r="318" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A318" s="24"/>
+      <c r="B318" s="55"/>
+      <c r="C318" s="56"/>
+      <c r="D318" s="9"/>
+      <c r="E318" s="9"/>
+      <c r="F318" s="57"/>
+      <c r="G318" s="58"/>
+      <c r="H318" s="58"/>
+      <c r="I318" s="28"/>
+      <c r="J318" s="58"/>
+      <c r="K318" s="28"/>
+      <c r="L318" s="58"/>
+      <c r="M318" s="60"/>
+    </row>
+    <row r="319" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A319" s="24"/>
+      <c r="B319" s="55"/>
+      <c r="C319" s="56"/>
+      <c r="D319" s="9"/>
+      <c r="E319" s="9"/>
+      <c r="F319" s="57"/>
+      <c r="G319" s="58"/>
+      <c r="H319" s="58"/>
+      <c r="I319" s="28"/>
+      <c r="J319" s="58"/>
+      <c r="K319" s="28"/>
+      <c r="L319" s="58"/>
+      <c r="M319" s="60"/>
+    </row>
+    <row r="320" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A320" s="24"/>
+      <c r="B320" s="55"/>
+      <c r="C320" s="56"/>
+      <c r="D320" s="9"/>
+      <c r="E320" s="9"/>
+      <c r="F320" s="57"/>
+      <c r="G320" s="58"/>
+      <c r="H320" s="58"/>
+      <c r="I320" s="28"/>
+      <c r="J320" s="58"/>
+      <c r="K320" s="28"/>
+      <c r="L320" s="58"/>
+      <c r="M320" s="60"/>
+    </row>
+    <row r="321" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A321" s="24"/>
+      <c r="B321" s="55"/>
+      <c r="C321" s="56"/>
+      <c r="D321" s="9"/>
+      <c r="E321" s="9"/>
+      <c r="F321" s="57"/>
+      <c r="G321" s="58"/>
+      <c r="H321" s="58"/>
+      <c r="I321" s="28"/>
+      <c r="J321" s="58"/>
+      <c r="K321" s="28"/>
+      <c r="L321" s="58"/>
+      <c r="M321" s="60"/>
+    </row>
+    <row r="322" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A322" s="24"/>
+      <c r="B322" s="55"/>
+      <c r="C322" s="56"/>
+      <c r="D322" s="9"/>
+      <c r="E322" s="9"/>
+      <c r="F322" s="57"/>
+      <c r="G322" s="58"/>
+      <c r="H322" s="58"/>
+      <c r="I322" s="28"/>
+      <c r="J322" s="58"/>
+      <c r="K322" s="28"/>
+      <c r="L322" s="58"/>
+      <c r="M322" s="60"/>
+    </row>
+    <row r="323" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A323" s="24"/>
+      <c r="B323" s="55"/>
+      <c r="C323" s="56"/>
+      <c r="D323" s="9"/>
+      <c r="E323" s="9"/>
+      <c r="F323" s="57"/>
+      <c r="G323" s="58"/>
+      <c r="H323" s="58"/>
+      <c r="I323" s="28"/>
+      <c r="J323" s="58"/>
+      <c r="K323" s="28"/>
+      <c r="L323" s="58"/>
+      <c r="M323" s="60"/>
+    </row>
+    <row r="324" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A324" s="24"/>
+      <c r="B324" s="55"/>
+      <c r="C324" s="56"/>
+      <c r="D324" s="9"/>
+      <c r="E324" s="9"/>
+      <c r="F324" s="57"/>
+      <c r="G324" s="58"/>
+      <c r="H324" s="58"/>
+      <c r="I324" s="28"/>
+      <c r="J324" s="58"/>
+      <c r="K324" s="28"/>
+      <c r="L324" s="58"/>
+      <c r="M324" s="60"/>
+    </row>
+    <row r="325" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A325" s="24"/>
+      <c r="B325" s="55"/>
+      <c r="C325" s="56"/>
+      <c r="D325" s="9"/>
+      <c r="E325" s="9"/>
+      <c r="F325" s="57"/>
+      <c r="G325" s="58"/>
+      <c r="H325" s="58"/>
+      <c r="I325" s="28"/>
+      <c r="J325" s="58"/>
+      <c r="K325" s="28"/>
+      <c r="L325" s="58"/>
+      <c r="M325" s="60"/>
+    </row>
+    <row r="326" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A326" s="24"/>
+      <c r="B326" s="55"/>
+      <c r="C326" s="56"/>
+      <c r="D326" s="9"/>
+      <c r="E326" s="9"/>
+      <c r="F326" s="57"/>
+      <c r="G326" s="58"/>
+      <c r="H326" s="58"/>
+      <c r="I326" s="28"/>
+      <c r="J326" s="58"/>
+      <c r="K326" s="28"/>
+      <c r="L326" s="58"/>
+      <c r="M326" s="60"/>
+    </row>
+    <row r="327" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A327" s="24"/>
+      <c r="B327" s="55"/>
+      <c r="C327" s="56"/>
+      <c r="D327" s="9"/>
+      <c r="E327" s="9"/>
+      <c r="F327" s="57"/>
+      <c r="G327" s="58"/>
+      <c r="H327" s="58"/>
+      <c r="I327" s="28"/>
+      <c r="J327" s="58"/>
+      <c r="K327" s="28"/>
+      <c r="L327" s="58"/>
+      <c r="M327" s="60"/>
+    </row>
+    <row r="328" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A328" s="24"/>
+      <c r="B328" s="55"/>
+      <c r="C328" s="56"/>
+      <c r="D328" s="9"/>
+      <c r="E328" s="9"/>
+      <c r="F328" s="57"/>
+      <c r="G328" s="58"/>
+      <c r="H328" s="58"/>
+      <c r="I328" s="28"/>
+      <c r="J328" s="58"/>
+      <c r="K328" s="28"/>
+      <c r="L328" s="58"/>
+      <c r="M328" s="60"/>
+    </row>
+    <row r="329" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A329" s="24"/>
+      <c r="B329" s="55"/>
+      <c r="C329" s="56"/>
+      <c r="D329" s="9"/>
+      <c r="E329" s="9"/>
+      <c r="F329" s="57"/>
+      <c r="G329" s="58"/>
+      <c r="H329" s="58"/>
+      <c r="I329" s="28"/>
+      <c r="J329" s="58"/>
+      <c r="K329" s="28"/>
+      <c r="L329" s="58"/>
+      <c r="M329" s="60"/>
+    </row>
+    <row r="330" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A330" s="24"/>
+      <c r="B330" s="55"/>
+      <c r="C330" s="56"/>
+      <c r="D330" s="9"/>
+      <c r="E330" s="9"/>
+      <c r="F330" s="57"/>
+      <c r="G330" s="58"/>
+      <c r="H330" s="58"/>
+      <c r="I330" s="28"/>
+      <c r="J330" s="58"/>
+      <c r="K330" s="28"/>
+      <c r="L330" s="58"/>
+      <c r="M330" s="60"/>
+    </row>
+    <row r="331" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A331" s="24"/>
+      <c r="B331" s="55"/>
+      <c r="C331" s="56"/>
+      <c r="D331" s="9"/>
+      <c r="E331" s="9"/>
+      <c r="F331" s="57"/>
+      <c r="G331" s="58"/>
+      <c r="H331" s="58"/>
+      <c r="I331" s="28"/>
+      <c r="J331" s="58"/>
+      <c r="K331" s="28"/>
+      <c r="L331" s="58"/>
+      <c r="M331" s="60"/>
+    </row>
+    <row r="332" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A332" s="24"/>
+      <c r="B332" s="55"/>
+      <c r="C332" s="56"/>
+      <c r="D332" s="9"/>
+      <c r="E332" s="9"/>
+      <c r="F332" s="57"/>
+      <c r="G332" s="58"/>
+      <c r="H332" s="58"/>
+      <c r="I332" s="28"/>
+      <c r="J332" s="58"/>
+      <c r="K332" s="28"/>
+      <c r="L332" s="58"/>
+      <c r="M332" s="60"/>
+    </row>
+    <row r="333" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A333" s="24"/>
+      <c r="B333" s="55"/>
+      <c r="C333" s="56"/>
+      <c r="D333" s="9"/>
+      <c r="E333" s="9"/>
+      <c r="F333" s="57"/>
+      <c r="G333" s="58"/>
+      <c r="H333" s="58"/>
+      <c r="I333" s="28"/>
+      <c r="J333" s="58"/>
+      <c r="K333" s="28"/>
+      <c r="L333" s="58"/>
+      <c r="M333" s="60"/>
+    </row>
+    <row r="334" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A334" s="24"/>
+      <c r="B334" s="55"/>
+      <c r="C334" s="56"/>
+      <c r="D334" s="9"/>
+      <c r="E334" s="9"/>
+      <c r="F334" s="57"/>
+      <c r="G334" s="58"/>
+      <c r="H334" s="58"/>
+      <c r="I334" s="28"/>
+      <c r="J334" s="58"/>
+      <c r="K334" s="28"/>
+      <c r="L334" s="58"/>
+      <c r="M334" s="60"/>
+    </row>
+    <row r="335" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A335" s="24"/>
+      <c r="B335" s="55"/>
+      <c r="C335" s="56"/>
+      <c r="D335" s="9"/>
+      <c r="E335" s="9"/>
+      <c r="F335" s="57"/>
+      <c r="G335" s="58"/>
+      <c r="H335" s="58"/>
+      <c r="I335" s="28"/>
+      <c r="J335" s="58"/>
+      <c r="K335" s="28"/>
+      <c r="L335" s="58"/>
+      <c r="M335" s="60"/>
+    </row>
+    <row r="336" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A336" s="24"/>
+      <c r="B336" s="55"/>
+      <c r="C336" s="56"/>
+      <c r="D336" s="9"/>
+      <c r="E336" s="9"/>
+      <c r="F336" s="57"/>
+      <c r="G336" s="58"/>
+      <c r="H336" s="58"/>
+      <c r="I336" s="28"/>
+      <c r="J336" s="58"/>
+      <c r="K336" s="28"/>
+      <c r="L336" s="58"/>
+      <c r="M336" s="60"/>
+    </row>
+    <row r="337" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A337" s="24"/>
+      <c r="B337" s="55"/>
+      <c r="C337" s="56"/>
+      <c r="D337" s="9"/>
+      <c r="E337" s="9"/>
+      <c r="F337" s="57"/>
+      <c r="G337" s="58"/>
+      <c r="H337" s="58"/>
+      <c r="I337" s="28"/>
+      <c r="J337" s="58"/>
+      <c r="K337" s="28"/>
+      <c r="L337" s="58"/>
+      <c r="M337" s="60"/>
+    </row>
+    <row r="338" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A338" s="24"/>
+      <c r="B338" s="55"/>
+      <c r="C338" s="56"/>
+      <c r="D338" s="9"/>
+      <c r="E338" s="9"/>
+      <c r="F338" s="57"/>
+      <c r="G338" s="58"/>
+      <c r="H338" s="58"/>
+      <c r="I338" s="28"/>
+      <c r="J338" s="58"/>
+      <c r="K338" s="28"/>
+      <c r="L338" s="58"/>
+      <c r="M338" s="60"/>
+    </row>
+    <row r="339" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A339" s="24"/>
+      <c r="B339" s="55"/>
+      <c r="C339" s="56"/>
+      <c r="D339" s="9"/>
+      <c r="E339" s="9"/>
+      <c r="F339" s="57"/>
+      <c r="G339" s="58"/>
+      <c r="H339" s="58"/>
+      <c r="I339" s="28"/>
+      <c r="J339" s="58"/>
+      <c r="K339" s="28"/>
+      <c r="L339" s="58"/>
+      <c r="M339" s="60"/>
+    </row>
+    <row r="340" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A340" s="24"/>
+      <c r="B340" s="55"/>
+      <c r="C340" s="56"/>
+      <c r="D340" s="9"/>
+      <c r="E340" s="9"/>
+      <c r="F340" s="57"/>
+      <c r="G340" s="58"/>
+      <c r="H340" s="58"/>
+      <c r="I340" s="28"/>
+      <c r="J340" s="58"/>
+      <c r="K340" s="28"/>
+      <c r="L340" s="58"/>
+      <c r="M340" s="60"/>
+    </row>
+    <row r="341" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A341" s="24"/>
+      <c r="B341" s="55"/>
+      <c r="C341" s="56"/>
+      <c r="D341" s="9"/>
+      <c r="E341" s="9"/>
+      <c r="F341" s="57"/>
+      <c r="G341" s="58"/>
+      <c r="H341" s="58"/>
+      <c r="I341" s="28"/>
+      <c r="J341" s="58"/>
+      <c r="K341" s="28"/>
+      <c r="L341" s="58"/>
+      <c r="M341" s="60"/>
+    </row>
+    <row r="342" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A342" s="24"/>
+      <c r="B342" s="55"/>
+      <c r="C342" s="56"/>
+      <c r="D342" s="9"/>
+      <c r="E342" s="9"/>
+      <c r="F342" s="57"/>
+      <c r="G342" s="58"/>
+      <c r="H342" s="58"/>
+      <c r="I342" s="28"/>
+      <c r="J342" s="58"/>
+      <c r="K342" s="28"/>
+      <c r="L342" s="58"/>
+      <c r="M342" s="60"/>
+    </row>
+    <row r="343" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A343" s="24"/>
+      <c r="B343" s="55"/>
+      <c r="C343" s="56"/>
+      <c r="D343" s="9"/>
+      <c r="E343" s="9"/>
+      <c r="F343" s="57"/>
+      <c r="G343" s="58"/>
+      <c r="H343" s="58"/>
+      <c r="I343" s="28"/>
+      <c r="J343" s="58"/>
+      <c r="K343" s="28"/>
+      <c r="L343" s="58"/>
+      <c r="M343" s="60"/>
+    </row>
+    <row r="344" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A344" s="24"/>
+      <c r="B344" s="55"/>
+      <c r="C344" s="56"/>
+      <c r="D344" s="9"/>
+      <c r="E344" s="9"/>
+      <c r="F344" s="57"/>
+      <c r="G344" s="58"/>
+      <c r="H344" s="58"/>
+      <c r="I344" s="28"/>
+      <c r="J344" s="58"/>
+      <c r="K344" s="28"/>
+      <c r="L344" s="58"/>
+      <c r="M344" s="60"/>
+    </row>
+    <row r="345" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A345" s="24"/>
+      <c r="B345" s="55"/>
+      <c r="C345" s="56"/>
+      <c r="D345" s="9"/>
+      <c r="E345" s="9"/>
+      <c r="F345" s="57"/>
+      <c r="G345" s="58"/>
+      <c r="H345" s="58"/>
+      <c r="I345" s="28"/>
+      <c r="J345" s="58"/>
+      <c r="K345" s="28"/>
+      <c r="L345" s="58"/>
+      <c r="M345" s="60"/>
+    </row>
+    <row r="346" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A346" s="24"/>
+      <c r="B346" s="55"/>
+      <c r="C346" s="56"/>
+      <c r="D346" s="9"/>
+      <c r="E346" s="9"/>
+      <c r="F346" s="57"/>
+      <c r="G346" s="58"/>
+      <c r="H346" s="58"/>
+      <c r="I346" s="28"/>
+      <c r="J346" s="58"/>
+      <c r="K346" s="28"/>
+      <c r="L346" s="58"/>
+      <c r="M346" s="60"/>
+    </row>
+    <row r="347" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A347" s="24"/>
+      <c r="B347" s="55"/>
+      <c r="C347" s="56"/>
+      <c r="D347" s="9"/>
+      <c r="E347" s="9"/>
+      <c r="F347" s="57"/>
+      <c r="G347" s="58"/>
+      <c r="H347" s="58"/>
+      <c r="I347" s="28"/>
+      <c r="J347" s="58"/>
+      <c r="K347" s="28"/>
+      <c r="L347" s="58"/>
+      <c r="M347" s="60"/>
+    </row>
+    <row r="348" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A348" s="24"/>
+      <c r="B348" s="55"/>
+      <c r="C348" s="56"/>
+      <c r="D348" s="9"/>
+      <c r="E348" s="9"/>
+      <c r="F348" s="57"/>
+      <c r="G348" s="58"/>
+      <c r="H348" s="58"/>
+      <c r="I348" s="28"/>
+      <c r="J348" s="58"/>
+      <c r="K348" s="28"/>
+      <c r="L348" s="58"/>
+      <c r="M348" s="60"/>
+    </row>
+    <row r="349" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A349" s="24"/>
+      <c r="B349" s="55"/>
+      <c r="C349" s="56"/>
+      <c r="D349" s="9"/>
+      <c r="E349" s="9"/>
+      <c r="F349" s="57"/>
+      <c r="G349" s="58"/>
+      <c r="H349" s="58"/>
+      <c r="I349" s="28"/>
+      <c r="J349" s="58"/>
+      <c r="K349" s="28"/>
+      <c r="L349" s="58"/>
+      <c r="M349" s="60"/>
+    </row>
+    <row r="350" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A350" s="24"/>
+      <c r="B350" s="55"/>
+      <c r="C350" s="56"/>
+      <c r="D350" s="9"/>
+      <c r="E350" s="9"/>
+      <c r="F350" s="57"/>
+      <c r="G350" s="58"/>
+      <c r="H350" s="58"/>
+      <c r="I350" s="28"/>
+      <c r="J350" s="58"/>
+      <c r="K350" s="28"/>
+      <c r="L350" s="58"/>
+      <c r="M350" s="60"/>
+    </row>
+    <row r="351" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A351" s="24"/>
+      <c r="B351" s="55"/>
+      <c r="C351" s="56"/>
+      <c r="D351" s="9"/>
+      <c r="E351" s="9"/>
+      <c r="F351" s="57"/>
+      <c r="G351" s="58"/>
+      <c r="H351" s="58"/>
+      <c r="I351" s="28"/>
+      <c r="J351" s="58"/>
+      <c r="K351" s="28"/>
+      <c r="L351" s="58"/>
+      <c r="M351" s="60"/>
+    </row>
+    <row r="352" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A352" s="24"/>
+      <c r="B352" s="55"/>
+      <c r="C352" s="56"/>
+      <c r="D352" s="9"/>
+      <c r="E352" s="9"/>
+      <c r="F352" s="57"/>
+      <c r="G352" s="58"/>
+      <c r="H352" s="58"/>
+      <c r="I352" s="28"/>
+      <c r="J352" s="58"/>
+      <c r="K352" s="28"/>
+      <c r="L352" s="58"/>
+      <c r="M352" s="60"/>
+    </row>
+    <row r="353" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A353" s="24"/>
+      <c r="B353" s="55"/>
+      <c r="C353" s="56"/>
+      <c r="D353" s="9"/>
+      <c r="E353" s="9"/>
+      <c r="F353" s="57"/>
+      <c r="G353" s="58"/>
+      <c r="H353" s="58"/>
+      <c r="I353" s="28"/>
+      <c r="J353" s="58"/>
+      <c r="K353" s="28"/>
+      <c r="L353" s="58"/>
+      <c r="M353" s="60"/>
+    </row>
+    <row r="354" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A354" s="24"/>
+      <c r="B354" s="55"/>
+      <c r="C354" s="56"/>
+      <c r="D354" s="9"/>
+      <c r="E354" s="9"/>
+      <c r="F354" s="57"/>
+      <c r="G354" s="58"/>
+      <c r="H354" s="58"/>
+      <c r="I354" s="28"/>
+      <c r="J354" s="58"/>
+      <c r="K354" s="28"/>
+      <c r="L354" s="58"/>
+      <c r="M354" s="60"/>
+    </row>
+    <row r="355" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A355" s="24"/>
+      <c r="B355" s="55"/>
+      <c r="C355" s="56"/>
+      <c r="D355" s="9"/>
+      <c r="E355" s="9"/>
+      <c r="F355" s="57"/>
+      <c r="G355" s="58"/>
+      <c r="H355" s="58"/>
+      <c r="I355" s="28"/>
+      <c r="J355" s="58"/>
+      <c r="K355" s="28"/>
+      <c r="L355" s="58"/>
+      <c r="M355" s="60"/>
+    </row>
+    <row r="356" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A356" s="24"/>
+      <c r="B356" s="55"/>
+      <c r="C356" s="56"/>
+      <c r="D356" s="9"/>
+      <c r="E356" s="9"/>
+      <c r="F356" s="57"/>
+      <c r="G356" s="58"/>
+      <c r="H356" s="58"/>
+      <c r="I356" s="28"/>
+      <c r="J356" s="58"/>
+      <c r="K356" s="28"/>
+      <c r="L356" s="58"/>
+      <c r="M356" s="60"/>
+    </row>
+    <row r="357" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A357" s="24"/>
+      <c r="B357" s="55"/>
+      <c r="C357" s="56"/>
+      <c r="D357" s="9"/>
+      <c r="E357" s="9"/>
+      <c r="F357" s="57"/>
+      <c r="G357" s="58"/>
+      <c r="H357" s="58"/>
+      <c r="I357" s="28"/>
+      <c r="J357" s="58"/>
+      <c r="K357" s="28"/>
+      <c r="L357" s="58"/>
+      <c r="M357" s="60"/>
+    </row>
+    <row r="358" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A358" s="24"/>
+      <c r="B358" s="55"/>
+      <c r="C358" s="56"/>
+      <c r="D358" s="9"/>
+      <c r="E358" s="9"/>
+      <c r="F358" s="57"/>
+      <c r="G358" s="58"/>
+      <c r="H358" s="58"/>
+      <c r="I358" s="28"/>
+      <c r="J358" s="58"/>
+      <c r="K358" s="28"/>
+      <c r="L358" s="58"/>
+      <c r="M358" s="60"/>
+    </row>
+    <row r="359" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A359" s="24"/>
+      <c r="B359" s="55"/>
+      <c r="C359" s="56"/>
+      <c r="D359" s="9"/>
+      <c r="E359" s="9"/>
+      <c r="F359" s="57"/>
+      <c r="G359" s="58"/>
+      <c r="H359" s="58"/>
+      <c r="I359" s="28"/>
+      <c r="J359" s="58"/>
+      <c r="K359" s="28"/>
+      <c r="L359" s="58"/>
+      <c r="M359" s="60"/>
+    </row>
+    <row r="360" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A360" s="24"/>
+      <c r="B360" s="55"/>
+      <c r="C360" s="56"/>
+      <c r="D360" s="9"/>
+      <c r="E360" s="9"/>
+      <c r="F360" s="57"/>
+      <c r="G360" s="58"/>
+      <c r="H360" s="58"/>
+      <c r="I360" s="28"/>
+      <c r="J360" s="58"/>
+      <c r="K360" s="28"/>
+      <c r="L360" s="58"/>
+      <c r="M360" s="60"/>
+    </row>
+    <row r="361" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A361" s="24"/>
+      <c r="B361" s="55"/>
+      <c r="C361" s="56"/>
+      <c r="D361" s="9"/>
+      <c r="E361" s="9"/>
+      <c r="F361" s="57"/>
+      <c r="G361" s="58"/>
+      <c r="H361" s="58"/>
+      <c r="I361" s="28"/>
+      <c r="J361" s="58"/>
+      <c r="K361" s="28"/>
+      <c r="L361" s="58"/>
+      <c r="M361" s="60"/>
+    </row>
+    <row r="362" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A362" s="24"/>
+      <c r="B362" s="55"/>
+      <c r="C362" s="56"/>
+      <c r="D362" s="9"/>
+      <c r="E362" s="9"/>
+      <c r="F362" s="57"/>
+      <c r="G362" s="58"/>
+      <c r="H362" s="58"/>
+      <c r="I362" s="28"/>
+      <c r="J362" s="58"/>
+      <c r="K362" s="28"/>
+      <c r="L362" s="58"/>
+      <c r="M362" s="60"/>
+    </row>
+    <row r="363" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A363" s="24"/>
+      <c r="B363" s="55"/>
+      <c r="C363" s="56"/>
+      <c r="D363" s="9"/>
+      <c r="E363" s="9"/>
+      <c r="F363" s="57"/>
+      <c r="G363" s="58"/>
+      <c r="H363" s="58"/>
+      <c r="I363" s="28"/>
+      <c r="J363" s="58"/>
+      <c r="K363" s="28"/>
+      <c r="L363" s="58"/>
+      <c r="M363" s="60"/>
+    </row>
+    <row r="364" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A364" s="24"/>
+      <c r="B364" s="55"/>
+      <c r="C364" s="56"/>
+      <c r="D364" s="9"/>
+      <c r="E364" s="9"/>
+      <c r="F364" s="57"/>
+      <c r="G364" s="58"/>
+      <c r="H364" s="58"/>
+      <c r="I364" s="28"/>
+      <c r="J364" s="58"/>
+      <c r="K364" s="28"/>
+      <c r="L364" s="58"/>
+      <c r="M364" s="60"/>
+    </row>
+    <row r="365" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A365" s="24"/>
+      <c r="B365" s="55"/>
+      <c r="C365" s="56"/>
+      <c r="D365" s="9"/>
+      <c r="E365" s="9"/>
+      <c r="F365" s="57"/>
+      <c r="G365" s="58"/>
+      <c r="H365" s="58"/>
+      <c r="I365" s="28"/>
+      <c r="J365" s="58"/>
+      <c r="K365" s="28"/>
+      <c r="L365" s="58"/>
+      <c r="M365" s="60"/>
+    </row>
+    <row r="366" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A366" s="24"/>
+      <c r="B366" s="55"/>
+      <c r="C366" s="56"/>
+      <c r="D366" s="9"/>
+      <c r="E366" s="9"/>
+      <c r="F366" s="57"/>
+      <c r="G366" s="58"/>
+      <c r="H366" s="58"/>
+      <c r="I366" s="28"/>
+      <c r="J366" s="58"/>
+      <c r="K366" s="28"/>
+      <c r="L366" s="58"/>
+      <c r="M366" s="60"/>
+    </row>
+    <row r="367" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A367" s="24"/>
+      <c r="B367" s="55"/>
+      <c r="C367" s="56"/>
+      <c r="D367" s="9"/>
+      <c r="E367" s="9"/>
+      <c r="F367" s="57"/>
+      <c r="G367" s="58"/>
+      <c r="H367" s="58"/>
+      <c r="I367" s="28"/>
+      <c r="J367" s="58"/>
+      <c r="K367" s="28"/>
+      <c r="L367" s="58"/>
+      <c r="M367" s="60"/>
+    </row>
+    <row r="368" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A368" s="24"/>
+      <c r="B368" s="55"/>
+      <c r="C368" s="56"/>
+      <c r="D368" s="9"/>
+      <c r="E368" s="9"/>
+      <c r="F368" s="57"/>
+      <c r="G368" s="58"/>
+      <c r="H368" s="58"/>
+      <c r="I368" s="28"/>
+      <c r="J368" s="58"/>
+      <c r="K368" s="28"/>
+      <c r="L368" s="58"/>
+      <c r="M368" s="60"/>
+    </row>
+    <row r="369" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A369" s="24"/>
+      <c r="B369" s="55"/>
+      <c r="C369" s="56"/>
+      <c r="D369" s="9"/>
+      <c r="E369" s="9"/>
+      <c r="F369" s="57"/>
+      <c r="G369" s="58"/>
+      <c r="H369" s="58"/>
+      <c r="I369" s="28"/>
+      <c r="J369" s="58"/>
+      <c r="K369" s="28"/>
+      <c r="L369" s="58"/>
+      <c r="M369" s="60"/>
+    </row>
+    <row r="370" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A370" s="24"/>
+      <c r="B370" s="55"/>
+      <c r="C370" s="56"/>
+      <c r="D370" s="9"/>
+      <c r="E370" s="9"/>
+      <c r="F370" s="57"/>
+      <c r="G370" s="58"/>
+      <c r="H370" s="58"/>
+      <c r="I370" s="28"/>
+      <c r="J370" s="58"/>
+      <c r="K370" s="28"/>
+      <c r="L370" s="58"/>
+      <c r="M370" s="60"/>
+    </row>
+    <row r="371" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A371" s="24"/>
+      <c r="B371" s="55"/>
+      <c r="C371" s="56"/>
+      <c r="D371" s="9"/>
+      <c r="E371" s="9"/>
+      <c r="F371" s="57"/>
+      <c r="G371" s="58"/>
+      <c r="H371" s="58"/>
+      <c r="I371" s="28"/>
+      <c r="J371" s="58"/>
+      <c r="K371" s="28"/>
+      <c r="L371" s="58"/>
+      <c r="M371" s="60"/>
+    </row>
+    <row r="372" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A372" s="24"/>
+      <c r="B372" s="55"/>
+      <c r="C372" s="56"/>
+      <c r="D372" s="9"/>
+      <c r="E372" s="9"/>
+      <c r="F372" s="57"/>
+      <c r="G372" s="58"/>
+      <c r="H372" s="58"/>
+      <c r="I372" s="28"/>
+      <c r="J372" s="58"/>
+      <c r="K372" s="28"/>
+      <c r="L372" s="58"/>
+      <c r="M372" s="60"/>
+    </row>
+    <row r="373" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A373" s="24"/>
+      <c r="B373" s="55"/>
+      <c r="C373" s="56"/>
+      <c r="D373" s="9"/>
+      <c r="E373" s="9"/>
+      <c r="F373" s="57"/>
+      <c r="G373" s="58"/>
+      <c r="H373" s="58"/>
+      <c r="I373" s="28"/>
+      <c r="J373" s="58"/>
+      <c r="K373" s="28"/>
+      <c r="L373" s="58"/>
+      <c r="M373" s="60"/>
+    </row>
+    <row r="374" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A374" s="24"/>
+      <c r="B374" s="55"/>
+      <c r="C374" s="56"/>
+      <c r="D374" s="9"/>
+      <c r="E374" s="9"/>
+      <c r="F374" s="57"/>
+      <c r="G374" s="58"/>
+      <c r="H374" s="58"/>
+      <c r="I374" s="28"/>
+      <c r="J374" s="58"/>
+      <c r="K374" s="28"/>
+      <c r="L374" s="58"/>
+      <c r="M374" s="60"/>
+    </row>
+    <row r="375" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A375" s="24"/>
+      <c r="B375" s="55"/>
+      <c r="C375" s="56"/>
+      <c r="D375" s="9"/>
+      <c r="E375" s="9"/>
+      <c r="F375" s="57"/>
+      <c r="G375" s="58"/>
+      <c r="H375" s="58"/>
+      <c r="I375" s="28"/>
+      <c r="J375" s="58"/>
+      <c r="K375" s="28"/>
+      <c r="L375" s="58"/>
+      <c r="M375" s="60"/>
+    </row>
+    <row r="376" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A376" s="24"/>
+      <c r="B376" s="55"/>
+      <c r="C376" s="56"/>
+      <c r="D376" s="9"/>
+      <c r="E376" s="9"/>
+      <c r="F376" s="57"/>
+      <c r="G376" s="58"/>
+      <c r="H376" s="58"/>
+      <c r="I376" s="28"/>
+      <c r="J376" s="58"/>
+      <c r="K376" s="28"/>
+      <c r="L376" s="58"/>
+      <c r="M376" s="60"/>
+    </row>
+    <row r="377" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A377" s="24"/>
+      <c r="B377" s="55"/>
+      <c r="C377" s="56"/>
+      <c r="D377" s="9"/>
+      <c r="E377" s="9"/>
+      <c r="F377" s="57"/>
+      <c r="G377" s="58"/>
+      <c r="H377" s="58"/>
+      <c r="I377" s="28"/>
+      <c r="J377" s="58"/>
+      <c r="K377" s="28"/>
+      <c r="L377" s="58"/>
+      <c r="M377" s="60"/>
+    </row>
+    <row r="378" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A378" s="24"/>
+      <c r="B378" s="55"/>
+      <c r="C378" s="56"/>
+      <c r="D378" s="9"/>
+      <c r="E378" s="9"/>
+      <c r="F378" s="57"/>
+      <c r="G378" s="58"/>
+      <c r="H378" s="58"/>
+      <c r="I378" s="28"/>
+      <c r="J378" s="58"/>
+      <c r="K378" s="28"/>
+      <c r="L378" s="58"/>
+      <c r="M378" s="60"/>
+    </row>
+    <row r="379" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A379" s="24"/>
+      <c r="B379" s="55"/>
+      <c r="C379" s="56"/>
+      <c r="D379" s="9"/>
+      <c r="E379" s="9"/>
+      <c r="F379" s="57"/>
+      <c r="G379" s="58"/>
+      <c r="H379" s="58"/>
+      <c r="I379" s="28"/>
+      <c r="J379" s="58"/>
+      <c r="K379" s="28"/>
+      <c r="L379" s="58"/>
+      <c r="M379" s="60"/>
+    </row>
+    <row r="380" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A380" s="24"/>
+      <c r="B380" s="55"/>
+      <c r="C380" s="56"/>
+      <c r="D380" s="9"/>
+      <c r="E380" s="9"/>
+      <c r="F380" s="57"/>
+      <c r="G380" s="58"/>
+      <c r="H380" s="58"/>
+      <c r="I380" s="28"/>
+      <c r="J380" s="58"/>
+      <c r="K380" s="28"/>
+      <c r="L380" s="58"/>
+      <c r="M380" s="60"/>
+    </row>
+    <row r="381" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A381" s="24"/>
+      <c r="B381" s="55"/>
+      <c r="C381" s="56"/>
+      <c r="D381" s="9"/>
+      <c r="E381" s="9"/>
+      <c r="F381" s="57"/>
+      <c r="G381" s="58"/>
+      <c r="H381" s="58"/>
+      <c r="I381" s="28"/>
+      <c r="J381" s="58"/>
+      <c r="K381" s="28"/>
+      <c r="L381" s="58"/>
+      <c r="M381" s="60"/>
+    </row>
+    <row r="382" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A382" s="24"/>
+      <c r="B382" s="55"/>
+      <c r="C382" s="56"/>
+      <c r="D382" s="9"/>
+      <c r="E382" s="9"/>
+      <c r="F382" s="57"/>
+      <c r="G382" s="58"/>
+      <c r="H382" s="58"/>
+      <c r="I382" s="28"/>
+      <c r="J382" s="58"/>
+      <c r="K382" s="28"/>
+      <c r="L382" s="58"/>
+      <c r="M382" s="60"/>
+    </row>
+    <row r="383" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A383" s="24"/>
+      <c r="B383" s="55"/>
+      <c r="C383" s="56"/>
+      <c r="D383" s="9"/>
+      <c r="E383" s="9"/>
+      <c r="F383" s="57"/>
+      <c r="G383" s="58"/>
+      <c r="H383" s="58"/>
+      <c r="I383" s="28"/>
+      <c r="J383" s="58"/>
+      <c r="K383" s="28"/>
+      <c r="L383" s="58"/>
+      <c r="M383" s="60"/>
+    </row>
+    <row r="384" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A384" s="24"/>
+      <c r="B384" s="55"/>
+      <c r="C384" s="56"/>
+      <c r="D384" s="9"/>
+      <c r="E384" s="9"/>
+      <c r="F384" s="57"/>
+      <c r="G384" s="58"/>
+      <c r="H384" s="58"/>
+      <c r="I384" s="28"/>
+      <c r="J384" s="58"/>
+      <c r="K384" s="28"/>
+      <c r="L384" s="58"/>
+      <c r="M384" s="60"/>
+    </row>
+    <row r="385" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A385" s="24"/>
+      <c r="B385" s="55"/>
+      <c r="C385" s="56"/>
+      <c r="D385" s="9"/>
+      <c r="E385" s="9"/>
+      <c r="F385" s="57"/>
+      <c r="G385" s="58"/>
+      <c r="H385" s="58"/>
+      <c r="I385" s="28"/>
+      <c r="J385" s="58"/>
+      <c r="K385" s="28"/>
+      <c r="L385" s="58"/>
+      <c r="M385" s="60"/>
+    </row>
+    <row r="386" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A386" s="24"/>
+      <c r="B386" s="55"/>
+      <c r="C386" s="56"/>
+      <c r="D386" s="9"/>
+      <c r="E386" s="9"/>
+      <c r="F386" s="57"/>
+      <c r="G386" s="58"/>
+      <c r="H386" s="58"/>
+      <c r="I386" s="28"/>
+      <c r="J386" s="58"/>
+      <c r="K386" s="28"/>
+      <c r="L386" s="58"/>
+      <c r="M386" s="60"/>
+    </row>
+    <row r="387" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A387" s="24"/>
+      <c r="B387" s="55"/>
+      <c r="C387" s="56"/>
+      <c r="D387" s="9"/>
+      <c r="E387" s="9"/>
+      <c r="F387" s="57"/>
+      <c r="G387" s="58"/>
+      <c r="H387" s="58"/>
+      <c r="I387" s="28"/>
+      <c r="J387" s="58"/>
+      <c r="K387" s="28"/>
+      <c r="L387" s="58"/>
+      <c r="M387" s="60"/>
+    </row>
+    <row r="388" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A388" s="24"/>
+      <c r="B388" s="55"/>
+      <c r="C388" s="56"/>
+      <c r="D388" s="9"/>
+      <c r="E388" s="9"/>
+      <c r="F388" s="57"/>
+      <c r="G388" s="58"/>
+      <c r="H388" s="58"/>
+      <c r="I388" s="28"/>
+      <c r="J388" s="58"/>
+      <c r="K388" s="28"/>
+      <c r="L388" s="58"/>
+      <c r="M388" s="60"/>
+    </row>
+    <row r="389" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A389" s="24"/>
+      <c r="B389" s="55"/>
+      <c r="C389" s="56"/>
+      <c r="D389" s="9"/>
+      <c r="E389" s="9"/>
+      <c r="F389" s="57"/>
+      <c r="G389" s="58"/>
+      <c r="H389" s="58"/>
+      <c r="I389" s="28"/>
+      <c r="J389" s="58"/>
+      <c r="K389" s="28"/>
+      <c r="L389" s="58"/>
+      <c r="M389" s="60"/>
+    </row>
+    <row r="390" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A390" s="24"/>
+      <c r="B390" s="55"/>
+      <c r="C390" s="56"/>
+      <c r="D390" s="9"/>
+      <c r="E390" s="9"/>
+      <c r="F390" s="57"/>
+      <c r="G390" s="58"/>
+      <c r="H390" s="58"/>
+      <c r="I390" s="28"/>
+      <c r="J390" s="58"/>
+      <c r="K390" s="28"/>
+      <c r="L390" s="58"/>
+      <c r="M390" s="60"/>
+    </row>
+    <row r="391" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A391" s="24"/>
+      <c r="B391" s="55"/>
+      <c r="C391" s="56"/>
+      <c r="D391" s="9"/>
+      <c r="E391" s="9"/>
+      <c r="F391" s="57"/>
+      <c r="G391" s="58"/>
+      <c r="H391" s="58"/>
+      <c r="I391" s="28"/>
+      <c r="J391" s="58"/>
+      <c r="K391" s="28"/>
+      <c r="L391" s="58"/>
+      <c r="M391" s="60"/>
+    </row>
+    <row r="392" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A392" s="24"/>
+      <c r="B392" s="55"/>
+      <c r="C392" s="56"/>
+      <c r="D392" s="9"/>
+      <c r="E392" s="9"/>
+      <c r="F392" s="57"/>
+      <c r="G392" s="58"/>
+      <c r="H392" s="58"/>
+      <c r="I392" s="28"/>
+      <c r="J392" s="58"/>
+      <c r="K392" s="28"/>
+      <c r="L392" s="58"/>
+      <c r="M392" s="60"/>
+    </row>
+    <row r="393" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A393" s="24"/>
+      <c r="B393" s="55"/>
+      <c r="C393" s="56"/>
+      <c r="D393" s="9"/>
+      <c r="E393" s="9"/>
+      <c r="F393" s="57"/>
+      <c r="G393" s="58"/>
+      <c r="H393" s="58"/>
+      <c r="I393" s="28"/>
+      <c r="J393" s="58"/>
+      <c r="K393" s="28"/>
+      <c r="L393" s="58"/>
+      <c r="M393" s="60"/>
+    </row>
+    <row r="394" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A394" s="24"/>
+      <c r="B394" s="55"/>
+      <c r="C394" s="56"/>
+      <c r="D394" s="9"/>
+      <c r="E394" s="9"/>
+      <c r="F394" s="57"/>
+      <c r="G394" s="58"/>
+      <c r="H394" s="58"/>
+      <c r="I394" s="28"/>
+      <c r="J394" s="58"/>
+      <c r="K394" s="28"/>
+      <c r="L394" s="58"/>
+      <c r="M394" s="60"/>
+    </row>
+    <row r="395" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A395" s="24"/>
+      <c r="B395" s="55"/>
+      <c r="C395" s="56"/>
+      <c r="D395" s="9"/>
+      <c r="E395" s="9"/>
+      <c r="F395" s="57"/>
+      <c r="G395" s="58"/>
+      <c r="H395" s="58"/>
+      <c r="I395" s="28"/>
+      <c r="J395" s="58"/>
+      <c r="K395" s="28"/>
+      <c r="L395" s="58"/>
+      <c r="M395" s="60"/>
+    </row>
+    <row r="396" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A396" s="24"/>
+      <c r="B396" s="55"/>
+      <c r="C396" s="56"/>
+      <c r="D396" s="9"/>
+      <c r="E396" s="9"/>
+      <c r="F396" s="57"/>
+      <c r="G396" s="58"/>
+      <c r="H396" s="58"/>
+      <c r="I396" s="28"/>
+      <c r="J396" s="58"/>
+      <c r="K396" s="28"/>
+      <c r="L396" s="58"/>
+      <c r="M396" s="60"/>
+    </row>
+    <row r="397" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A397" s="24"/>
+      <c r="B397" s="55"/>
+      <c r="C397" s="56"/>
+      <c r="D397" s="9"/>
+      <c r="E397" s="9"/>
+      <c r="F397" s="57"/>
+      <c r="G397" s="58"/>
+      <c r="H397" s="58"/>
+      <c r="I397" s="28"/>
+      <c r="J397" s="58"/>
+      <c r="K397" s="28"/>
+      <c r="L397" s="58"/>
+      <c r="M397" s="60"/>
+    </row>
+    <row r="398" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A398" s="24"/>
+      <c r="B398" s="55"/>
+      <c r="C398" s="56"/>
+      <c r="D398" s="9"/>
+      <c r="E398" s="9"/>
+      <c r="F398" s="57"/>
+      <c r="G398" s="58"/>
+      <c r="H398" s="58"/>
+      <c r="I398" s="28"/>
+      <c r="J398" s="58"/>
+      <c r="K398" s="28"/>
+      <c r="L398" s="58"/>
+      <c r="M398" s="60"/>
+    </row>
+    <row r="399" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A399" s="24"/>
+      <c r="B399" s="55"/>
+      <c r="C399" s="56"/>
+      <c r="D399" s="9"/>
+      <c r="E399" s="9"/>
+      <c r="F399" s="57"/>
+      <c r="G399" s="58"/>
+      <c r="H399" s="58"/>
+      <c r="I399" s="28"/>
+      <c r="J399" s="58"/>
+      <c r="K399" s="28"/>
+      <c r="L399" s="58"/>
+      <c r="M399" s="60"/>
+    </row>
+    <row r="400" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A400" s="24"/>
+      <c r="B400" s="55"/>
+      <c r="C400" s="56"/>
+      <c r="D400" s="9"/>
+      <c r="E400" s="9"/>
+      <c r="F400" s="57"/>
+      <c r="G400" s="58"/>
+      <c r="H400" s="58"/>
+      <c r="I400" s="28"/>
+      <c r="J400" s="58"/>
+      <c r="K400" s="28"/>
+      <c r="L400" s="58"/>
+      <c r="M400" s="60"/>
+    </row>
+    <row r="401" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A401" s="24"/>
+      <c r="B401" s="55"/>
+      <c r="C401" s="56"/>
+      <c r="D401" s="9"/>
+      <c r="E401" s="9"/>
+      <c r="F401" s="57"/>
+      <c r="G401" s="58"/>
+      <c r="H401" s="58"/>
+      <c r="I401" s="28"/>
+      <c r="J401" s="58"/>
+      <c r="K401" s="28"/>
+      <c r="L401" s="58"/>
+      <c r="M401" s="60"/>
+    </row>
+    <row r="402" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A402" s="24"/>
+      <c r="B402" s="55"/>
+      <c r="C402" s="56"/>
+      <c r="D402" s="9"/>
+      <c r="E402" s="9"/>
+      <c r="F402" s="57"/>
+      <c r="G402" s="58"/>
+      <c r="H402" s="58"/>
+      <c r="I402" s="28"/>
+      <c r="J402" s="58"/>
+      <c r="K402" s="28"/>
+      <c r="L402" s="58"/>
+      <c r="M402" s="60"/>
+    </row>
+    <row r="403" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A403" s="24"/>
+      <c r="B403" s="55"/>
+      <c r="C403" s="56"/>
+      <c r="D403" s="9"/>
+      <c r="E403" s="9"/>
+      <c r="F403" s="57"/>
+      <c r="G403" s="58"/>
+      <c r="H403" s="58"/>
+      <c r="I403" s="28"/>
+      <c r="J403" s="58"/>
+      <c r="K403" s="28"/>
+      <c r="L403" s="58"/>
+      <c r="M403" s="60"/>
+    </row>
+    <row r="404" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A404" s="24"/>
+      <c r="B404" s="55"/>
+      <c r="C404" s="56"/>
+      <c r="D404" s="9"/>
+      <c r="E404" s="9"/>
+      <c r="F404" s="57"/>
+      <c r="G404" s="58"/>
+      <c r="H404" s="58"/>
+      <c r="I404" s="28"/>
+      <c r="J404" s="58"/>
+      <c r="K404" s="28"/>
+      <c r="L404" s="58"/>
+      <c r="M404" s="60"/>
+    </row>
+    <row r="405" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A405" s="24"/>
+      <c r="B405" s="55"/>
+      <c r="C405" s="56"/>
+      <c r="D405" s="9"/>
+      <c r="E405" s="9"/>
+      <c r="F405" s="57"/>
+      <c r="G405" s="58"/>
+      <c r="H405" s="58"/>
+      <c r="I405" s="28"/>
+      <c r="J405" s="58"/>
+      <c r="K405" s="28"/>
+      <c r="L405" s="58"/>
+      <c r="M405" s="60"/>
+    </row>
+    <row r="406" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A406" s="24"/>
+      <c r="B406" s="55"/>
+      <c r="C406" s="56"/>
+      <c r="D406" s="9"/>
+      <c r="E406" s="9"/>
+      <c r="F406" s="57"/>
+      <c r="G406" s="58"/>
+      <c r="H406" s="58"/>
+      <c r="I406" s="28"/>
+      <c r="J406" s="58"/>
+      <c r="K406" s="28"/>
+      <c r="L406" s="58"/>
+      <c r="M406" s="60"/>
+    </row>
+    <row r="407" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A407" s="24"/>
+      <c r="B407" s="55"/>
+      <c r="C407" s="56"/>
+      <c r="D407" s="9"/>
+      <c r="E407" s="9"/>
+      <c r="F407" s="57"/>
+      <c r="G407" s="58"/>
+      <c r="H407" s="58"/>
+      <c r="I407" s="28"/>
+      <c r="J407" s="58"/>
+      <c r="K407" s="28"/>
+      <c r="L407" s="58"/>
+      <c r="M407" s="60"/>
+    </row>
+    <row r="408" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A408" s="24"/>
+      <c r="B408" s="55"/>
+      <c r="C408" s="56"/>
+      <c r="D408" s="9"/>
+      <c r="E408" s="9"/>
+      <c r="F408" s="57"/>
+      <c r="G408" s="58"/>
+      <c r="H408" s="58"/>
+      <c r="I408" s="28"/>
+      <c r="J408" s="58"/>
+      <c r="K408" s="28"/>
+      <c r="L408" s="58"/>
+      <c r="M408" s="60"/>
+    </row>
+    <row r="409" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A409" s="24"/>
+      <c r="B409" s="55"/>
+      <c r="C409" s="56"/>
+      <c r="D409" s="9"/>
+      <c r="E409" s="9"/>
+      <c r="F409" s="57"/>
+      <c r="G409" s="58"/>
+      <c r="H409" s="58"/>
+      <c r="I409" s="28"/>
+      <c r="J409" s="58"/>
+      <c r="K409" s="28"/>
+      <c r="L409" s="58"/>
+      <c r="M409" s="60"/>
+    </row>
+    <row r="410" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A410" s="24"/>
+      <c r="B410" s="55"/>
+      <c r="C410" s="56"/>
+      <c r="D410" s="9"/>
+      <c r="E410" s="9"/>
+      <c r="F410" s="57"/>
+      <c r="G410" s="58"/>
+      <c r="H410" s="58"/>
+      <c r="I410" s="28"/>
+      <c r="J410" s="58"/>
+      <c r="K410" s="28"/>
+      <c r="L410" s="58"/>
+      <c r="M410" s="60"/>
+    </row>
+    <row r="411" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A411" s="24"/>
+      <c r="B411" s="55"/>
+      <c r="C411" s="56"/>
+      <c r="D411" s="9"/>
+      <c r="E411" s="9"/>
+      <c r="F411" s="57"/>
+      <c r="G411" s="58"/>
+      <c r="H411" s="58"/>
+      <c r="I411" s="28"/>
+      <c r="J411" s="58"/>
+      <c r="K411" s="28"/>
+      <c r="L411" s="58"/>
+      <c r="M411" s="60"/>
+    </row>
+    <row r="412" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A412" s="24"/>
+      <c r="B412" s="55"/>
+      <c r="C412" s="56"/>
+      <c r="D412" s="9"/>
+      <c r="E412" s="9"/>
+      <c r="F412" s="57"/>
+      <c r="G412" s="58"/>
+      <c r="H412" s="58"/>
+      <c r="I412" s="28"/>
+      <c r="J412" s="58"/>
+      <c r="K412" s="28"/>
+      <c r="L412" s="58"/>
+      <c r="M412" s="60"/>
+    </row>
+    <row r="413" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A413" s="24"/>
+      <c r="B413" s="55"/>
+      <c r="C413" s="56"/>
+      <c r="D413" s="9"/>
+      <c r="E413" s="9"/>
+      <c r="F413" s="57"/>
+      <c r="G413" s="58"/>
+      <c r="H413" s="58"/>
+      <c r="I413" s="28"/>
+      <c r="J413" s="58"/>
+      <c r="K413" s="28"/>
+      <c r="L413" s="58"/>
+      <c r="M413" s="60"/>
+    </row>
+    <row r="414" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A414" s="24"/>
+      <c r="B414" s="55"/>
+      <c r="C414" s="56"/>
+      <c r="D414" s="9"/>
+      <c r="E414" s="9"/>
+      <c r="F414" s="57"/>
+      <c r="G414" s="58"/>
+      <c r="H414" s="58"/>
+      <c r="I414" s="28"/>
+      <c r="J414" s="58"/>
+      <c r="K414" s="28"/>
+      <c r="L414" s="58"/>
+      <c r="M414" s="60"/>
+    </row>
+    <row r="415" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A415" s="24"/>
+      <c r="B415" s="55"/>
+      <c r="C415" s="56"/>
+      <c r="D415" s="9"/>
+      <c r="E415" s="9"/>
+      <c r="F415" s="57"/>
+      <c r="G415" s="58"/>
+      <c r="H415" s="58"/>
+      <c r="I415" s="28"/>
+      <c r="J415" s="58"/>
+      <c r="K415" s="28"/>
+      <c r="L415" s="58"/>
+      <c r="M415" s="60"/>
+    </row>
+    <row r="416" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A416" s="24"/>
+      <c r="B416" s="55"/>
+      <c r="C416" s="56"/>
+      <c r="D416" s="9"/>
+      <c r="E416" s="9"/>
+      <c r="F416" s="57"/>
+      <c r="G416" s="58"/>
+      <c r="H416" s="58"/>
+      <c r="I416" s="28"/>
+      <c r="J416" s="58"/>
+      <c r="K416" s="28"/>
+      <c r="L416" s="58"/>
+      <c r="M416" s="60"/>
+    </row>
+    <row r="417" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A417" s="24"/>
+      <c r="B417" s="55"/>
+      <c r="C417" s="56"/>
+      <c r="D417" s="9"/>
+      <c r="E417" s="9"/>
+      <c r="F417" s="57"/>
+      <c r="G417" s="58"/>
+      <c r="H417" s="58"/>
+      <c r="I417" s="28"/>
+      <c r="J417" s="58"/>
+      <c r="K417" s="28"/>
+      <c r="L417" s="58"/>
+      <c r="M417" s="60"/>
+    </row>
+    <row r="418" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A418" s="24"/>
+      <c r="B418" s="55"/>
+      <c r="C418" s="56"/>
+      <c r="D418" s="9"/>
+      <c r="E418" s="9"/>
+      <c r="F418" s="57"/>
+      <c r="G418" s="58"/>
+      <c r="H418" s="58"/>
+      <c r="I418" s="28"/>
+      <c r="J418" s="58"/>
+      <c r="K418" s="28"/>
+      <c r="L418" s="58"/>
+      <c r="M418" s="60"/>
+    </row>
+    <row r="419" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A419" s="24"/>
+      <c r="B419" s="55"/>
+      <c r="C419" s="56"/>
+      <c r="D419" s="9"/>
+      <c r="E419" s="9"/>
+      <c r="F419" s="57"/>
+      <c r="G419" s="58"/>
+      <c r="H419" s="58"/>
+      <c r="I419" s="28"/>
+      <c r="J419" s="58"/>
+      <c r="K419" s="28"/>
+      <c r="L419" s="58"/>
+      <c r="M419" s="60"/>
+    </row>
+    <row r="420" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A420" s="24"/>
+      <c r="B420" s="55"/>
+      <c r="C420" s="56"/>
+      <c r="D420" s="9"/>
+      <c r="E420" s="9"/>
+      <c r="F420" s="57"/>
+      <c r="G420" s="58"/>
+      <c r="H420" s="58"/>
+      <c r="I420" s="28"/>
+      <c r="J420" s="58"/>
+      <c r="K420" s="28"/>
+      <c r="L420" s="58"/>
+      <c r="M420" s="60"/>
+    </row>
+    <row r="421" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A421" s="24"/>
+      <c r="B421" s="55"/>
+      <c r="C421" s="56"/>
+      <c r="D421" s="9"/>
+      <c r="E421" s="9"/>
+      <c r="F421" s="57"/>
+      <c r="G421" s="58"/>
+      <c r="H421" s="58"/>
+      <c r="I421" s="28"/>
+      <c r="J421" s="58"/>
+      <c r="K421" s="28"/>
+      <c r="L421" s="58"/>
+      <c r="M421" s="60"/>
+    </row>
+    <row r="422" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A422" s="24"/>
+      <c r="B422" s="55"/>
+      <c r="C422" s="56"/>
+      <c r="D422" s="9"/>
+      <c r="E422" s="9"/>
+      <c r="F422" s="57"/>
+      <c r="G422" s="58"/>
+      <c r="H422" s="58"/>
+      <c r="I422" s="28"/>
+      <c r="J422" s="58"/>
+      <c r="K422" s="28"/>
+      <c r="L422" s="58"/>
+      <c r="M422" s="60"/>
+    </row>
+    <row r="423" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A423" s="24"/>
+      <c r="B423" s="55"/>
+      <c r="C423" s="56"/>
+      <c r="D423" s="9"/>
+      <c r="E423" s="9"/>
+      <c r="F423" s="57"/>
+      <c r="G423" s="58"/>
+      <c r="H423" s="58"/>
+      <c r="I423" s="28"/>
+      <c r="J423" s="58"/>
+      <c r="K423" s="28"/>
+      <c r="L423" s="58"/>
+      <c r="M423" s="60"/>
+    </row>
+    <row r="424" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A424" s="24"/>
+      <c r="B424" s="55"/>
+      <c r="C424" s="56"/>
+      <c r="D424" s="9"/>
+      <c r="E424" s="9"/>
+      <c r="F424" s="57"/>
+      <c r="G424" s="58"/>
+      <c r="H424" s="58"/>
+      <c r="I424" s="28"/>
+      <c r="J424" s="58"/>
+      <c r="K424" s="28"/>
+      <c r="L424" s="58"/>
+      <c r="M424" s="60"/>
+    </row>
+    <row r="425" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A425" s="24"/>
+      <c r="B425" s="55"/>
+      <c r="C425" s="56"/>
+      <c r="D425" s="9"/>
+      <c r="E425" s="9"/>
+      <c r="F425" s="57"/>
+      <c r="G425" s="58"/>
+      <c r="H425" s="58"/>
+      <c r="I425" s="28"/>
+      <c r="J425" s="58"/>
+      <c r="K425" s="28"/>
+      <c r="L425" s="58"/>
+      <c r="M425" s="60"/>
+    </row>
+    <row r="426" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A426" s="24"/>
+      <c r="B426" s="55"/>
+      <c r="C426" s="56"/>
+      <c r="D426" s="9"/>
+      <c r="E426" s="9"/>
+      <c r="F426" s="57"/>
+      <c r="G426" s="58"/>
+      <c r="H426" s="58"/>
+      <c r="I426" s="28"/>
+      <c r="J426" s="58"/>
+      <c r="K426" s="28"/>
+      <c r="L426" s="58"/>
+      <c r="M426" s="60"/>
+    </row>
+    <row r="427" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A427" s="24"/>
+      <c r="B427" s="55"/>
+      <c r="C427" s="56"/>
+      <c r="D427" s="9"/>
+      <c r="E427" s="9"/>
+      <c r="F427" s="57"/>
+      <c r="G427" s="58"/>
+      <c r="H427" s="58"/>
+      <c r="I427" s="28"/>
+      <c r="J427" s="58"/>
+      <c r="K427" s="28"/>
+      <c r="L427" s="58"/>
+      <c r="M427" s="60"/>
+    </row>
+    <row r="428" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A428" s="24"/>
+      <c r="B428" s="55"/>
+      <c r="C428" s="56"/>
+      <c r="D428" s="9"/>
+      <c r="E428" s="9"/>
+      <c r="F428" s="57"/>
+      <c r="G428" s="58"/>
+      <c r="H428" s="58"/>
+      <c r="I428" s="28"/>
+      <c r="J428" s="58"/>
+      <c r="K428" s="28"/>
+      <c r="L428" s="58"/>
+      <c r="M428" s="60"/>
+    </row>
+    <row r="429" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A429" s="24"/>
+      <c r="B429" s="55"/>
+      <c r="C429" s="56"/>
+      <c r="D429" s="9"/>
+      <c r="E429" s="9"/>
+      <c r="F429" s="57"/>
+      <c r="G429" s="58"/>
+      <c r="H429" s="58"/>
+      <c r="I429" s="28"/>
+      <c r="J429" s="58"/>
+      <c r="K429" s="28"/>
+      <c r="L429" s="58"/>
+      <c r="M429" s="60"/>
+    </row>
+    <row r="430" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A430" s="24"/>
+      <c r="B430" s="55"/>
+      <c r="C430" s="56"/>
+      <c r="D430" s="9"/>
+      <c r="E430" s="9"/>
+      <c r="F430" s="57"/>
+      <c r="G430" s="58"/>
+      <c r="H430" s="58"/>
+      <c r="I430" s="28"/>
+      <c r="J430" s="58"/>
+      <c r="K430" s="28"/>
+      <c r="L430" s="58"/>
+      <c r="M430" s="60"/>
+    </row>
+    <row r="431" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A431" s="24"/>
+      <c r="B431" s="55"/>
+      <c r="C431" s="56"/>
+      <c r="D431" s="9"/>
+      <c r="E431" s="9"/>
+      <c r="F431" s="57"/>
+      <c r="G431" s="58"/>
+      <c r="H431" s="58"/>
+      <c r="I431" s="28"/>
+      <c r="J431" s="58"/>
+      <c r="K431" s="28"/>
+      <c r="L431" s="58"/>
+      <c r="M431" s="60"/>
+    </row>
+    <row r="432" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A432" s="24"/>
+      <c r="B432" s="55"/>
+      <c r="C432" s="56"/>
+      <c r="D432" s="9"/>
+      <c r="E432" s="9"/>
+      <c r="F432" s="57"/>
+      <c r="G432" s="58"/>
+      <c r="H432" s="58"/>
+      <c r="I432" s="28"/>
+      <c r="J432" s="58"/>
+      <c r="K432" s="28"/>
+      <c r="L432" s="58"/>
+      <c r="M432" s="60"/>
+    </row>
+    <row r="433" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A433" s="24"/>
+      <c r="B433" s="55"/>
+      <c r="C433" s="56"/>
+      <c r="D433" s="9"/>
+      <c r="E433" s="9"/>
+      <c r="F433" s="57"/>
+      <c r="G433" s="58"/>
+      <c r="H433" s="58"/>
+      <c r="I433" s="28"/>
+      <c r="J433" s="58"/>
+      <c r="K433" s="28"/>
+      <c r="L433" s="58"/>
+      <c r="M433" s="60"/>
+    </row>
+    <row r="434" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A434" s="24"/>
+      <c r="B434" s="55"/>
+      <c r="C434" s="56"/>
+      <c r="D434" s="9"/>
+      <c r="E434" s="9"/>
+      <c r="F434" s="57"/>
+      <c r="G434" s="58"/>
+      <c r="H434" s="58"/>
+      <c r="I434" s="28"/>
+      <c r="J434" s="58"/>
+      <c r="K434" s="28"/>
+      <c r="L434" s="58"/>
+      <c r="M434" s="60"/>
+    </row>
+    <row r="435" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A435" s="24"/>
+      <c r="B435" s="55"/>
+      <c r="C435" s="56"/>
+      <c r="D435" s="9"/>
+      <c r="E435" s="9"/>
+      <c r="F435" s="57"/>
+      <c r="G435" s="58"/>
+      <c r="H435" s="58"/>
+      <c r="I435" s="28"/>
+      <c r="J435" s="58"/>
+      <c r="K435" s="28"/>
+      <c r="L435" s="58"/>
+      <c r="M435" s="60"/>
+    </row>
+    <row r="436" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A436" s="24"/>
+      <c r="B436" s="55"/>
+      <c r="C436" s="56"/>
+      <c r="D436" s="9"/>
+      <c r="E436" s="9"/>
+      <c r="F436" s="57"/>
+      <c r="G436" s="58"/>
+      <c r="H436" s="58"/>
+      <c r="I436" s="28"/>
+      <c r="J436" s="58"/>
+      <c r="K436" s="28"/>
+      <c r="L436" s="58"/>
+      <c r="M436" s="60"/>
+    </row>
+    <row r="437" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A437" s="24"/>
+      <c r="B437" s="55"/>
+      <c r="C437" s="56"/>
+      <c r="D437" s="9"/>
+      <c r="E437" s="9"/>
+      <c r="F437" s="57"/>
+      <c r="G437" s="58"/>
+      <c r="H437" s="58"/>
+      <c r="I437" s="28"/>
+      <c r="J437" s="58"/>
+      <c r="K437" s="28"/>
+      <c r="L437" s="58"/>
+      <c r="M437" s="60"/>
+    </row>
+    <row r="438" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A438" s="24"/>
+      <c r="B438" s="55"/>
+      <c r="C438" s="56"/>
+      <c r="D438" s="9"/>
+      <c r="E438" s="9"/>
+      <c r="F438" s="57"/>
+      <c r="G438" s="58"/>
+      <c r="H438" s="58"/>
+      <c r="I438" s="28"/>
+      <c r="J438" s="58"/>
+      <c r="K438" s="28"/>
+      <c r="L438" s="58"/>
+      <c r="M438" s="60"/>
+    </row>
+    <row r="439" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A439" s="24"/>
+      <c r="B439" s="55"/>
+      <c r="C439" s="56"/>
+      <c r="D439" s="9"/>
+      <c r="E439" s="9"/>
+      <c r="F439" s="57"/>
+      <c r="G439" s="58"/>
+      <c r="H439" s="58"/>
+      <c r="I439" s="28"/>
+      <c r="J439" s="58"/>
+      <c r="K439" s="28"/>
+      <c r="L439" s="58"/>
+      <c r="M439" s="60"/>
+    </row>
+    <row r="440" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A440" s="24"/>
+      <c r="B440" s="55"/>
+      <c r="C440" s="56"/>
+      <c r="D440" s="9"/>
+      <c r="E440" s="9"/>
+      <c r="F440" s="57"/>
+      <c r="G440" s="58"/>
+      <c r="H440" s="58"/>
+      <c r="I440" s="28"/>
+      <c r="J440" s="58"/>
+      <c r="K440" s="28"/>
+      <c r="L440" s="58"/>
+      <c r="M440" s="60"/>
+    </row>
+    <row r="441" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A441" s="24"/>
+      <c r="B441" s="55"/>
+      <c r="C441" s="56"/>
+      <c r="D441" s="9"/>
+      <c r="E441" s="9"/>
+      <c r="F441" s="57"/>
+      <c r="G441" s="58"/>
+      <c r="H441" s="58"/>
+      <c r="I441" s="28"/>
+      <c r="J441" s="58"/>
+      <c r="K441" s="28"/>
+      <c r="L441" s="58"/>
+      <c r="M441" s="60"/>
+    </row>
+    <row r="442" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A442" s="24"/>
+      <c r="B442" s="55"/>
+      <c r="C442" s="56"/>
+      <c r="D442" s="9"/>
+      <c r="E442" s="9"/>
+      <c r="F442" s="57"/>
+      <c r="G442" s="58"/>
+      <c r="H442" s="58"/>
+      <c r="I442" s="28"/>
+      <c r="J442" s="58"/>
+      <c r="K442" s="28"/>
+      <c r="L442" s="58"/>
+      <c r="M442" s="60"/>
+    </row>
+    <row r="443" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A443" s="24"/>
+      <c r="B443" s="55"/>
+      <c r="C443" s="56"/>
+      <c r="D443" s="9"/>
+      <c r="E443" s="9"/>
+      <c r="F443" s="57"/>
+      <c r="G443" s="58"/>
+      <c r="H443" s="58"/>
+      <c r="I443" s="28"/>
+      <c r="J443" s="58"/>
+      <c r="K443" s="28"/>
+      <c r="L443" s="58"/>
+      <c r="M443" s="60"/>
+    </row>
+    <row r="444" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A444" s="24"/>
+      <c r="B444" s="55"/>
+      <c r="C444" s="56"/>
+      <c r="D444" s="9"/>
+      <c r="E444" s="9"/>
+      <c r="F444" s="57"/>
+      <c r="G444" s="58"/>
+      <c r="H444" s="58"/>
+      <c r="I444" s="28"/>
+      <c r="J444" s="58"/>
+      <c r="K444" s="28"/>
+      <c r="L444" s="58"/>
+      <c r="M444" s="60"/>
+    </row>
+    <row r="445" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A445" s="24"/>
+      <c r="B445" s="55"/>
+      <c r="C445" s="56"/>
+      <c r="D445" s="9"/>
+      <c r="E445" s="9"/>
+      <c r="F445" s="57"/>
+      <c r="G445" s="58"/>
+      <c r="H445" s="58"/>
+      <c r="I445" s="28"/>
+      <c r="J445" s="58"/>
+      <c r="K445" s="28"/>
+      <c r="L445" s="58"/>
+      <c r="M445" s="60"/>
+    </row>
+    <row r="446" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A446" s="24"/>
+      <c r="B446" s="55"/>
+      <c r="C446" s="56"/>
+      <c r="D446" s="9"/>
+      <c r="E446" s="9"/>
+      <c r="F446" s="57"/>
+      <c r="G446" s="58"/>
+      <c r="H446" s="58"/>
+      <c r="I446" s="28"/>
+      <c r="J446" s="58"/>
+      <c r="K446" s="28"/>
+      <c r="L446" s="58"/>
+      <c r="M446" s="60"/>
+    </row>
+    <row r="447" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A447" s="24"/>
+      <c r="B447" s="55"/>
+      <c r="C447" s="56"/>
+      <c r="D447" s="9"/>
+      <c r="E447" s="9"/>
+      <c r="F447" s="57"/>
+      <c r="G447" s="58"/>
+      <c r="H447" s="58"/>
+      <c r="I447" s="28"/>
+      <c r="J447" s="58"/>
+      <c r="K447" s="28"/>
+      <c r="L447" s="58"/>
+      <c r="M447" s="60"/>
+    </row>
+    <row r="448" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A448" s="24"/>
+      <c r="B448" s="55"/>
+      <c r="C448" s="56"/>
+      <c r="D448" s="9"/>
+      <c r="E448" s="9"/>
+      <c r="F448" s="57"/>
+      <c r="G448" s="58"/>
+      <c r="H448" s="58"/>
+      <c r="I448" s="28"/>
+      <c r="J448" s="58"/>
+      <c r="K448" s="28"/>
+      <c r="L448" s="58"/>
+      <c r="M448" s="60"/>
+    </row>
+    <row r="449" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A449" s="24"/>
+      <c r="B449" s="55"/>
+      <c r="C449" s="56"/>
+      <c r="D449" s="9"/>
+      <c r="E449" s="9"/>
+      <c r="F449" s="57"/>
+      <c r="G449" s="58"/>
+      <c r="H449" s="58"/>
+      <c r="I449" s="28"/>
+      <c r="J449" s="58"/>
+      <c r="K449" s="28"/>
+      <c r="L449" s="58"/>
+      <c r="M449" s="60"/>
+    </row>
+    <row r="450" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A450" s="24"/>
+      <c r="B450" s="55"/>
+      <c r="C450" s="56"/>
+      <c r="D450" s="9"/>
+      <c r="E450" s="9"/>
+      <c r="F450" s="57"/>
+      <c r="G450" s="58"/>
+      <c r="H450" s="58"/>
+      <c r="I450" s="28"/>
+      <c r="J450" s="58"/>
+      <c r="K450" s="28"/>
+      <c r="L450" s="58"/>
+      <c r="M450" s="60"/>
+    </row>
+    <row r="451" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A451" s="24"/>
+      <c r="B451" s="55"/>
+      <c r="C451" s="56"/>
+      <c r="D451" s="9"/>
+      <c r="E451" s="9"/>
+      <c r="F451" s="57"/>
+      <c r="G451" s="58"/>
+      <c r="H451" s="58"/>
+      <c r="I451" s="28"/>
+      <c r="J451" s="58"/>
+      <c r="K451" s="28"/>
+      <c r="L451" s="58"/>
+      <c r="M451" s="60"/>
+    </row>
+    <row r="452" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A452" s="24"/>
+      <c r="B452" s="55"/>
+      <c r="C452" s="56"/>
+      <c r="D452" s="9"/>
+      <c r="E452" s="9"/>
+      <c r="F452" s="57"/>
+      <c r="G452" s="58"/>
+      <c r="H452" s="58"/>
+      <c r="I452" s="28"/>
+      <c r="J452" s="58"/>
+      <c r="K452" s="28"/>
+      <c r="L452" s="58"/>
+      <c r="M452" s="60"/>
+    </row>
+    <row r="453" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A453" s="24"/>
+      <c r="B453" s="55"/>
+      <c r="C453" s="56"/>
+      <c r="D453" s="9"/>
+      <c r="E453" s="9"/>
+      <c r="F453" s="57"/>
+      <c r="G453" s="58"/>
+      <c r="H453" s="58"/>
+      <c r="I453" s="28"/>
+      <c r="J453" s="58"/>
+      <c r="K453" s="28"/>
+      <c r="L453" s="58"/>
+      <c r="M453" s="60"/>
+    </row>
+    <row r="454" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A454" s="24"/>
+      <c r="B454" s="55"/>
+      <c r="C454" s="56"/>
+      <c r="D454" s="9"/>
+      <c r="E454" s="9"/>
+      <c r="F454" s="57"/>
+      <c r="G454" s="58"/>
+      <c r="H454" s="58"/>
+      <c r="I454" s="28"/>
+      <c r="J454" s="58"/>
+      <c r="K454" s="28"/>
+      <c r="L454" s="58"/>
+      <c r="M454" s="60"/>
+    </row>
+    <row r="455" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A455" s="24"/>
+      <c r="B455" s="55"/>
+      <c r="C455" s="56"/>
+      <c r="D455" s="9"/>
+      <c r="E455" s="9"/>
+      <c r="F455" s="57"/>
+      <c r="G455" s="58"/>
+      <c r="H455" s="58"/>
+      <c r="I455" s="28"/>
+      <c r="J455" s="58"/>
+      <c r="K455" s="28"/>
+      <c r="L455" s="58"/>
+      <c r="M455" s="60"/>
+    </row>
+    <row r="456" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A456" s="24"/>
+      <c r="B456" s="55"/>
+      <c r="C456" s="56"/>
+      <c r="D456" s="9"/>
+      <c r="E456" s="9"/>
+      <c r="F456" s="57"/>
+      <c r="G456" s="58"/>
+      <c r="H456" s="58"/>
+      <c r="I456" s="28"/>
+      <c r="J456" s="58"/>
+      <c r="K456" s="28"/>
+      <c r="L456" s="58"/>
+      <c r="M456" s="60"/>
+    </row>
+    <row r="457" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A457" s="24"/>
+      <c r="B457" s="55"/>
+      <c r="C457" s="56"/>
+      <c r="D457" s="9"/>
+      <c r="E457" s="9"/>
+      <c r="F457" s="57"/>
+      <c r="G457" s="58"/>
+      <c r="H457" s="58"/>
+      <c r="I457" s="28"/>
+      <c r="J457" s="58"/>
+      <c r="K457" s="28"/>
+      <c r="L457" s="58"/>
+      <c r="M457" s="60"/>
+    </row>
+    <row r="458" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A458" s="24"/>
+      <c r="B458" s="55"/>
+      <c r="C458" s="56"/>
+      <c r="D458" s="9"/>
+      <c r="E458" s="9"/>
+      <c r="F458" s="57"/>
+      <c r="G458" s="58"/>
+      <c r="H458" s="58"/>
+      <c r="I458" s="28"/>
+      <c r="J458" s="58"/>
+      <c r="K458" s="28"/>
+      <c r="L458" s="58"/>
+      <c r="M458" s="60"/>
+    </row>
+    <row r="459" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A459" s="24"/>
+      <c r="B459" s="55"/>
+      <c r="C459" s="56"/>
+      <c r="D459" s="9"/>
+      <c r="E459" s="9"/>
+      <c r="F459" s="57"/>
+      <c r="G459" s="58"/>
+      <c r="H459" s="58"/>
+      <c r="I459" s="28"/>
+      <c r="J459" s="58"/>
+      <c r="K459" s="28"/>
+      <c r="L459" s="58"/>
+      <c r="M459" s="60"/>
+    </row>
+    <row r="460" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A460" s="24"/>
+      <c r="B460" s="55"/>
+      <c r="C460" s="56"/>
+      <c r="D460" s="9"/>
+      <c r="E460" s="9"/>
+      <c r="F460" s="57"/>
+      <c r="G460" s="58"/>
+      <c r="H460" s="58"/>
+      <c r="I460" s="28"/>
+      <c r="J460" s="58"/>
+      <c r="K460" s="28"/>
+      <c r="L460" s="58"/>
+      <c r="M460" s="60"/>
+    </row>
+    <row r="461" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A461" s="24"/>
+      <c r="B461" s="55"/>
+      <c r="C461" s="56"/>
+      <c r="D461" s="9"/>
+      <c r="E461" s="9"/>
+      <c r="F461" s="57"/>
+      <c r="G461" s="58"/>
+      <c r="H461" s="58"/>
+      <c r="I461" s="28"/>
+      <c r="J461" s="58"/>
+      <c r="K461" s="28"/>
+      <c r="L461" s="58"/>
+      <c r="M461" s="60"/>
+    </row>
+    <row r="462" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A462" s="24"/>
+      <c r="B462" s="55"/>
+      <c r="C462" s="56"/>
+      <c r="D462" s="9"/>
+      <c r="E462" s="9"/>
+      <c r="F462" s="57"/>
+      <c r="G462" s="58"/>
+      <c r="H462" s="58"/>
+      <c r="I462" s="28"/>
+      <c r="J462" s="58"/>
+      <c r="K462" s="28"/>
+      <c r="L462" s="58"/>
+      <c r="M462" s="60"/>
+    </row>
+    <row r="463" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A463" s="24"/>
+      <c r="B463" s="55"/>
+      <c r="C463" s="56"/>
+      <c r="D463" s="9"/>
+      <c r="E463" s="9"/>
+      <c r="F463" s="57"/>
+      <c r="G463" s="58"/>
+      <c r="H463" s="58"/>
+      <c r="I463" s="28"/>
+      <c r="J463" s="58"/>
+      <c r="K463" s="28"/>
+      <c r="L463" s="58"/>
+      <c r="M463" s="60"/>
+    </row>
+    <row r="464" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A464" s="24"/>
+      <c r="B464" s="55"/>
+      <c r="C464" s="56"/>
+      <c r="D464" s="9"/>
+      <c r="E464" s="9"/>
+      <c r="F464" s="57"/>
+      <c r="G464" s="58"/>
+      <c r="H464" s="58"/>
+      <c r="I464" s="28"/>
+      <c r="J464" s="58"/>
+      <c r="K464" s="28"/>
+      <c r="L464" s="58"/>
+      <c r="M464" s="60"/>
+    </row>
+    <row r="465" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A465" s="24"/>
+      <c r="B465" s="55"/>
+      <c r="C465" s="56"/>
+      <c r="D465" s="9"/>
+      <c r="E465" s="9"/>
+      <c r="F465" s="57"/>
+      <c r="G465" s="58"/>
+      <c r="H465" s="58"/>
+      <c r="I465" s="28"/>
+      <c r="J465" s="58"/>
+      <c r="K465" s="28"/>
+      <c r="L465" s="58"/>
+      <c r="M465" s="60"/>
+    </row>
+    <row r="466" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A466" s="24"/>
+      <c r="B466" s="55"/>
+      <c r="C466" s="56"/>
+      <c r="D466" s="9"/>
+      <c r="E466" s="9"/>
+      <c r="F466" s="57"/>
+      <c r="G466" s="58"/>
+      <c r="H466" s="58"/>
+      <c r="I466" s="28"/>
+      <c r="J466" s="58"/>
+      <c r="K466" s="28"/>
+      <c r="L466" s="58"/>
+      <c r="M466" s="60"/>
+    </row>
+    <row r="467" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A467" s="24"/>
+      <c r="B467" s="55"/>
+      <c r="C467" s="56"/>
+      <c r="D467" s="9"/>
+      <c r="E467" s="9"/>
+      <c r="F467" s="57"/>
+      <c r="G467" s="58"/>
+      <c r="H467" s="58"/>
+      <c r="I467" s="28"/>
+      <c r="J467" s="58"/>
+      <c r="K467" s="28"/>
+      <c r="L467" s="58"/>
+      <c r="M467" s="60"/>
+    </row>
+    <row r="468" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A468" s="24"/>
+      <c r="B468" s="55"/>
+      <c r="C468" s="56"/>
+      <c r="D468" s="9"/>
+      <c r="E468" s="9"/>
+      <c r="F468" s="57"/>
+      <c r="G468" s="58"/>
+      <c r="H468" s="58"/>
+      <c r="I468" s="28"/>
+      <c r="J468" s="58"/>
+      <c r="K468" s="28"/>
+      <c r="L468" s="58"/>
+      <c r="M468" s="60"/>
+    </row>
+    <row r="469" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A469" s="24"/>
+      <c r="B469" s="55"/>
+      <c r="C469" s="56"/>
+      <c r="D469" s="9"/>
+      <c r="E469" s="9"/>
+      <c r="F469" s="57"/>
+      <c r="G469" s="58"/>
+      <c r="H469" s="58"/>
+      <c r="I469" s="28"/>
+      <c r="J469" s="58"/>
+      <c r="K469" s="28"/>
+      <c r="L469" s="58"/>
+      <c r="M469" s="60"/>
+    </row>
+    <row r="470" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A470" s="24"/>
+      <c r="B470" s="55"/>
+      <c r="C470" s="56"/>
+      <c r="D470" s="9"/>
+      <c r="E470" s="9"/>
+      <c r="F470" s="57"/>
+      <c r="G470" s="58"/>
+      <c r="H470" s="58"/>
+      <c r="I470" s="28"/>
+      <c r="J470" s="58"/>
+      <c r="K470" s="28"/>
+      <c r="L470" s="58"/>
+      <c r="M470" s="60"/>
+    </row>
+    <row r="471" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A471" s="24"/>
+      <c r="B471" s="55"/>
+      <c r="C471" s="56"/>
+      <c r="D471" s="9"/>
+      <c r="E471" s="9"/>
+      <c r="F471" s="57"/>
+      <c r="G471" s="58"/>
+      <c r="H471" s="58"/>
+      <c r="I471" s="28"/>
+      <c r="J471" s="58"/>
+      <c r="K471" s="28"/>
+      <c r="L471" s="58"/>
+      <c r="M471" s="60"/>
+    </row>
+    <row r="472" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A472" s="24"/>
+      <c r="B472" s="55"/>
+      <c r="C472" s="56"/>
+      <c r="D472" s="9"/>
+      <c r="E472" s="9"/>
+      <c r="F472" s="57"/>
+      <c r="G472" s="58"/>
+      <c r="H472" s="58"/>
+      <c r="I472" s="28"/>
+      <c r="J472" s="58"/>
+      <c r="K472" s="28"/>
+      <c r="L472" s="58"/>
+      <c r="M472" s="60"/>
+    </row>
+    <row r="473" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A473" s="24"/>
+      <c r="B473" s="55"/>
+      <c r="C473" s="56"/>
+      <c r="D473" s="9"/>
+      <c r="E473" s="9"/>
+      <c r="F473" s="57"/>
+      <c r="G473" s="58"/>
+      <c r="H473" s="58"/>
+      <c r="I473" s="28"/>
+      <c r="J473" s="58"/>
+      <c r="K473" s="28"/>
+      <c r="L473" s="58"/>
+      <c r="M473" s="60"/>
+    </row>
+    <row r="474" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A474" s="24"/>
+      <c r="B474" s="55"/>
+      <c r="C474" s="56"/>
+      <c r="D474" s="9"/>
+      <c r="E474" s="9"/>
+      <c r="F474" s="57"/>
+      <c r="G474" s="58"/>
+      <c r="H474" s="58"/>
+      <c r="I474" s="28"/>
+      <c r="J474" s="58"/>
+      <c r="K474" s="28"/>
+      <c r="L474" s="58"/>
+      <c r="M474" s="60"/>
+    </row>
+    <row r="475" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A475" s="24"/>
+      <c r="B475" s="55"/>
+      <c r="C475" s="56"/>
+      <c r="D475" s="9"/>
+      <c r="E475" s="9"/>
+      <c r="F475" s="57"/>
+      <c r="G475" s="58"/>
+      <c r="H475" s="58"/>
+      <c r="I475" s="28"/>
+      <c r="J475" s="58"/>
+      <c r="K475" s="28"/>
+      <c r="L475" s="58"/>
+      <c r="M475" s="60"/>
+    </row>
+    <row r="476" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A476" s="24"/>
+      <c r="B476" s="55"/>
+      <c r="C476" s="56"/>
+      <c r="D476" s="9"/>
+      <c r="E476" s="9"/>
+      <c r="F476" s="57"/>
+      <c r="G476" s="58"/>
+      <c r="H476" s="58"/>
+      <c r="I476" s="28"/>
+      <c r="J476" s="58"/>
+      <c r="K476" s="28"/>
+      <c r="L476" s="58"/>
+      <c r="M476" s="60"/>
+    </row>
+    <row r="477" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A477" s="24"/>
+      <c r="B477" s="55"/>
+      <c r="C477" s="56"/>
+      <c r="D477" s="9"/>
+      <c r="E477" s="9"/>
+      <c r="F477" s="57"/>
+      <c r="G477" s="58"/>
+      <c r="H477" s="58"/>
+      <c r="I477" s="28"/>
+      <c r="J477" s="58"/>
+      <c r="K477" s="28"/>
+      <c r="L477" s="58"/>
+      <c r="M477" s="60"/>
+    </row>
+    <row r="478" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A478" s="24"/>
+      <c r="B478" s="55"/>
+      <c r="C478" s="56"/>
+      <c r="D478" s="9"/>
+      <c r="E478" s="9"/>
+      <c r="F478" s="57"/>
+      <c r="G478" s="58"/>
+      <c r="H478" s="58"/>
+      <c r="I478" s="28"/>
+      <c r="J478" s="58"/>
+      <c r="K478" s="28"/>
+      <c r="L478" s="58"/>
+      <c r="M478" s="60"/>
+    </row>
+    <row r="479" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A479" s="24"/>
+      <c r="B479" s="55"/>
+      <c r="C479" s="56"/>
+      <c r="D479" s="9"/>
+      <c r="E479" s="9"/>
+      <c r="F479" s="57"/>
+      <c r="G479" s="58"/>
+      <c r="H479" s="58"/>
+      <c r="I479" s="28"/>
+      <c r="J479" s="58"/>
+      <c r="K479" s="28"/>
+      <c r="L479" s="58"/>
+      <c r="M479" s="60"/>
+    </row>
+    <row r="480" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A480" s="24"/>
+      <c r="B480" s="55"/>
+      <c r="C480" s="56"/>
+      <c r="D480" s="9"/>
+      <c r="E480" s="9"/>
+      <c r="F480" s="57"/>
+      <c r="G480" s="58"/>
+      <c r="H480" s="58"/>
+      <c r="I480" s="28"/>
+      <c r="J480" s="58"/>
+      <c r="K480" s="28"/>
+      <c r="L480" s="58"/>
+      <c r="M480" s="60"/>
+    </row>
+    <row r="481" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A481" s="24"/>
+      <c r="B481" s="55"/>
+      <c r="C481" s="56"/>
+      <c r="D481" s="9"/>
+      <c r="E481" s="9"/>
+      <c r="F481" s="57"/>
+      <c r="G481" s="58"/>
+      <c r="H481" s="58"/>
+      <c r="I481" s="28"/>
+      <c r="J481" s="58"/>
+      <c r="K481" s="28"/>
+      <c r="L481" s="58"/>
+      <c r="M481" s="60"/>
+    </row>
+    <row r="482" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A482" s="24"/>
+      <c r="B482" s="55"/>
+      <c r="C482" s="56"/>
+      <c r="D482" s="9"/>
+      <c r="E482" s="9"/>
+      <c r="F482" s="57"/>
+      <c r="G482" s="58"/>
+      <c r="H482" s="58"/>
+      <c r="I482" s="28"/>
+      <c r="J482" s="58"/>
+      <c r="K482" s="28"/>
+      <c r="L482" s="58"/>
+      <c r="M482" s="60"/>
+    </row>
+    <row r="483" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A483" s="24"/>
+      <c r="B483" s="55"/>
+      <c r="C483" s="56"/>
+      <c r="D483" s="9"/>
+      <c r="E483" s="9"/>
+      <c r="F483" s="57"/>
+      <c r="G483" s="58"/>
+      <c r="H483" s="58"/>
+      <c r="I483" s="28"/>
+      <c r="J483" s="58"/>
+      <c r="K483" s="28"/>
+      <c r="L483" s="58"/>
+      <c r="M483" s="60"/>
+    </row>
+    <row r="484" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A484" s="24"/>
+      <c r="B484" s="55"/>
+      <c r="C484" s="56"/>
+      <c r="D484" s="9"/>
+      <c r="E484" s="9"/>
+      <c r="F484" s="57"/>
+      <c r="G484" s="58"/>
+      <c r="H484" s="58"/>
+      <c r="I484" s="28"/>
+      <c r="J484" s="58"/>
+      <c r="K484" s="28"/>
+      <c r="L484" s="58"/>
+      <c r="M484" s="60"/>
+    </row>
+    <row r="485" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A485" s="24"/>
+      <c r="B485" s="55"/>
+      <c r="C485" s="56"/>
+      <c r="D485" s="9"/>
+      <c r="E485" s="9"/>
+      <c r="F485" s="57"/>
+      <c r="G485" s="58"/>
+      <c r="H485" s="58"/>
+      <c r="I485" s="28"/>
+      <c r="J485" s="58"/>
+      <c r="K485" s="28"/>
+      <c r="L485" s="58"/>
+      <c r="M485" s="60"/>
+    </row>
+    <row r="486" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A486" s="24"/>
+      <c r="B486" s="55"/>
+      <c r="C486" s="56"/>
+      <c r="D486" s="9"/>
+      <c r="E486" s="9"/>
+      <c r="F486" s="57"/>
+      <c r="G486" s="58"/>
+      <c r="H486" s="58"/>
+      <c r="I486" s="28"/>
+      <c r="J486" s="58"/>
+      <c r="K486" s="28"/>
+      <c r="L486" s="58"/>
+      <c r="M486" s="60"/>
+    </row>
+    <row r="487" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A487" s="24"/>
+      <c r="B487" s="55"/>
+      <c r="C487" s="56"/>
+      <c r="D487" s="9"/>
+      <c r="E487" s="9"/>
+      <c r="F487" s="57"/>
+      <c r="G487" s="58"/>
+      <c r="H487" s="58"/>
+      <c r="I487" s="28"/>
+      <c r="J487" s="58"/>
+      <c r="K487" s="28"/>
+      <c r="L487" s="58"/>
+      <c r="M487" s="60"/>
+    </row>
+    <row r="488" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A488" s="24"/>
+      <c r="B488" s="55"/>
+      <c r="C488" s="56"/>
+      <c r="D488" s="9"/>
+      <c r="E488" s="9"/>
+      <c r="F488" s="57"/>
+      <c r="G488" s="58"/>
+      <c r="H488" s="58"/>
+      <c r="I488" s="28"/>
+      <c r="J488" s="58"/>
+      <c r="K488" s="28"/>
+      <c r="L488" s="58"/>
+      <c r="M488" s="60"/>
+    </row>
+    <row r="489" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A489" s="24"/>
+      <c r="B489" s="55"/>
+      <c r="C489" s="56"/>
+      <c r="D489" s="9"/>
+      <c r="E489" s="9"/>
+      <c r="F489" s="57"/>
+      <c r="G489" s="58"/>
+      <c r="H489" s="58"/>
+      <c r="I489" s="28"/>
+      <c r="J489" s="58"/>
+      <c r="K489" s="28"/>
+      <c r="L489" s="58"/>
+      <c r="M489" s="60"/>
+    </row>
+    <row r="490" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A490" s="24"/>
+      <c r="B490" s="55"/>
+      <c r="C490" s="56"/>
+      <c r="D490" s="9"/>
+      <c r="E490" s="9"/>
+      <c r="F490" s="57"/>
+      <c r="G490" s="58"/>
+      <c r="H490" s="58"/>
+      <c r="I490" s="28"/>
+      <c r="J490" s="58"/>
+      <c r="K490" s="28"/>
+      <c r="L490" s="58"/>
+      <c r="M490" s="60"/>
+    </row>
+    <row r="491" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A491" s="24"/>
+      <c r="B491" s="55"/>
+      <c r="C491" s="56"/>
+      <c r="D491" s="9"/>
+      <c r="E491" s="9"/>
+      <c r="F491" s="57"/>
+      <c r="G491" s="58"/>
+      <c r="H491" s="58"/>
+      <c r="I491" s="28"/>
+      <c r="J491" s="58"/>
+      <c r="K491" s="28"/>
+      <c r="L491" s="58"/>
+      <c r="M491" s="60"/>
+    </row>
+    <row r="492" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A492" s="24"/>
+      <c r="B492" s="55"/>
+      <c r="C492" s="56"/>
+      <c r="D492" s="9"/>
+      <c r="E492" s="9"/>
+      <c r="F492" s="57"/>
+      <c r="G492" s="58"/>
+      <c r="H492" s="58"/>
+      <c r="I492" s="28"/>
+      <c r="J492" s="58"/>
+      <c r="K492" s="28"/>
+      <c r="L492" s="58"/>
+      <c r="M492" s="60"/>
+    </row>
+    <row r="493" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A493" s="24"/>
+      <c r="B493" s="55"/>
+      <c r="C493" s="56"/>
+      <c r="D493" s="9"/>
+      <c r="E493" s="9"/>
+      <c r="F493" s="57"/>
+      <c r="G493" s="58"/>
+      <c r="H493" s="58"/>
+      <c r="I493" s="28"/>
+      <c r="J493" s="58"/>
+      <c r="K493" s="28"/>
+      <c r="L493" s="58"/>
+      <c r="M493" s="60"/>
+    </row>
+    <row r="494" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A494" s="24"/>
+      <c r="B494" s="55"/>
+      <c r="C494" s="56"/>
+      <c r="D494" s="9"/>
+      <c r="E494" s="9"/>
+      <c r="F494" s="57"/>
+      <c r="G494" s="58"/>
+      <c r="H494" s="58"/>
+      <c r="I494" s="28"/>
+      <c r="J494" s="58"/>
+      <c r="K494" s="28"/>
+      <c r="L494" s="58"/>
+      <c r="M494" s="60"/>
+    </row>
+    <row r="495" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A495" s="24"/>
+      <c r="B495" s="55"/>
+      <c r="C495" s="56"/>
+      <c r="D495" s="9"/>
+      <c r="E495" s="9"/>
+      <c r="F495" s="57"/>
+      <c r="G495" s="58"/>
+      <c r="H495" s="58"/>
+      <c r="I495" s="28"/>
+      <c r="J495" s="58"/>
+      <c r="K495" s="28"/>
+      <c r="L495" s="58"/>
+      <c r="M495" s="60"/>
+    </row>
+    <row r="496" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A496" s="24"/>
+      <c r="B496" s="55"/>
+      <c r="C496" s="56"/>
+      <c r="D496" s="9"/>
+      <c r="E496" s="9"/>
+      <c r="F496" s="57"/>
+      <c r="G496" s="58"/>
+      <c r="H496" s="58"/>
+      <c r="I496" s="28"/>
+      <c r="J496" s="58"/>
+      <c r="K496" s="28"/>
+      <c r="L496" s="58"/>
+      <c r="M496" s="60"/>
+    </row>
+    <row r="497" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A497" s="24"/>
+      <c r="B497" s="55"/>
+      <c r="C497" s="56"/>
+      <c r="D497" s="9"/>
+      <c r="E497" s="9"/>
+      <c r="F497" s="57"/>
+      <c r="G497" s="58"/>
+      <c r="H497" s="58"/>
+      <c r="I497" s="28"/>
+      <c r="J497" s="58"/>
+      <c r="K497" s="28"/>
+      <c r="L497" s="58"/>
+      <c r="M497" s="60"/>
+    </row>
+    <row r="498" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A498" s="24"/>
+      <c r="B498" s="55"/>
+      <c r="C498" s="56"/>
+      <c r="D498" s="9"/>
+      <c r="E498" s="9"/>
+      <c r="F498" s="57"/>
+      <c r="G498" s="58"/>
+      <c r="H498" s="58"/>
+      <c r="I498" s="28"/>
+      <c r="J498" s="58"/>
+      <c r="K498" s="28"/>
+      <c r="L498" s="58"/>
+      <c r="M498" s="60"/>
+    </row>
+    <row r="499" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A499" s="24"/>
+      <c r="B499" s="55"/>
+      <c r="C499" s="56"/>
+      <c r="D499" s="9"/>
+      <c r="E499" s="9"/>
+      <c r="F499" s="57"/>
+      <c r="G499" s="58"/>
+      <c r="H499" s="58"/>
+      <c r="I499" s="28"/>
+      <c r="J499" s="58"/>
+      <c r="K499" s="28"/>
+      <c r="L499" s="58"/>
+      <c r="M499" s="60"/>
+    </row>
+    <row r="500" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A500" s="24"/>
+      <c r="B500" s="55"/>
+      <c r="C500" s="56"/>
+      <c r="D500" s="9"/>
+      <c r="E500" s="9"/>
+      <c r="F500" s="57"/>
+      <c r="G500" s="58"/>
+      <c r="H500" s="58"/>
+      <c r="I500" s="28"/>
+      <c r="J500" s="58"/>
+      <c r="K500" s="28"/>
+      <c r="L500" s="58"/>
+      <c r="M500" s="60"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="31" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2589,29 +9794,29 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="37" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="12" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="40.7109375" style="13" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="10" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="10" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" style="10" customWidth="1"/>
-    <col min="8" max="8" width="40.7109375" style="10" customWidth="1"/>
-    <col min="9" max="10" width="10.7109375" style="10" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="10"/>
-    <col min="12" max="12" width="19.28515625" style="11" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="20" width="8.85546875" style="10"/>
-    <col min="21" max="21" width="30.42578125" style="10" customWidth="1"/>
-    <col min="22" max="26" width="8.85546875" style="10"/>
-    <col min="27" max="27" width="20.7109375" style="10" customWidth="1"/>
-    <col min="28" max="28" width="31.5703125" style="10" customWidth="1"/>
-    <col min="29" max="29" width="26.28515625" customWidth="1"/>
+    <col min="1" max="1" width="40.6640625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="37" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="12" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="40.6640625" style="13" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="40.6640625" style="10" customWidth="1"/>
+    <col min="9" max="10" width="10.6640625" style="10" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="10"/>
+    <col min="12" max="12" width="19.33203125" style="11" customWidth="1"/>
+    <col min="13" max="13" width="9.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="20" width="8.88671875" style="10"/>
+    <col min="21" max="21" width="30.44140625" style="10" customWidth="1"/>
+    <col min="22" max="26" width="8.88671875" style="10"/>
+    <col min="27" max="27" width="20.6640625" style="10" customWidth="1"/>
+    <col min="28" max="28" width="31.5546875" style="10" customWidth="1"/>
+    <col min="29" max="29" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="16" customFormat="1" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" s="16" customFormat="1" ht="40.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
         <v>82</v>
       </c>
@@ -2661,7 +9866,7 @@
       <c r="AA1" s="14"/>
       <c r="AB1" s="14"/>
     </row>
-    <row r="2" spans="1:32" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="23"/>
       <c r="B2" s="43" t="str">
         <f>TEXT(L2, "ДД.ММ.ГГГГ")</f>
@@ -2735,7 +9940,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23"/>
       <c r="B3" s="43" t="str">
         <f t="shared" ref="B3:B4" si="1">TEXT(L3, "ДД.ММ.ГГГГ")</f>
@@ -2809,7 +10014,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23"/>
       <c r="B4" s="43" t="str">
         <f t="shared" si="1"/>
@@ -2895,7 +10100,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24"/>
       <c r="B5" s="38" t="str">
         <f t="shared" ref="B5:B19" si="2">TEXT(L5, "ДД.ММ.ГГГГ")</f>
@@ -2981,7 +10186,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24"/>
       <c r="B6" s="38" t="str">
         <f t="shared" si="2"/>
@@ -3067,7 +10272,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:32" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="24"/>
       <c r="B7" s="38" t="str">
         <f t="shared" si="2"/>
@@ -3153,7 +10358,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:32" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="24"/>
       <c r="B8" s="38" t="str">
         <f t="shared" si="2"/>
@@ -3239,7 +10444,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:32" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="24"/>
       <c r="B9" s="38" t="str">
         <f t="shared" si="2"/>
@@ -3325,7 +10530,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="24"/>
       <c r="B10" s="38" t="str">
         <f t="shared" si="2"/>
@@ -3395,7 +10600,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:32" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="24"/>
       <c r="B11" s="38" t="str">
         <f t="shared" si="2"/>
@@ -3465,7 +10670,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:32" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="24"/>
       <c r="B12" s="38" t="str">
         <f t="shared" si="2"/>
@@ -3535,7 +10740,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:32" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="24"/>
       <c r="B13" s="38" t="str">
         <f t="shared" si="2"/>
@@ -3605,7 +10810,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:32" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="24"/>
       <c r="B14" s="38" t="str">
         <f t="shared" si="2"/>
@@ -3675,7 +10880,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:32" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="24"/>
       <c r="B15" s="38" t="str">
         <f t="shared" si="2"/>
@@ -3745,7 +10950,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:32" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="24"/>
       <c r="B16" s="38" t="str">
         <f t="shared" si="2"/>
@@ -3815,7 +11020,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:32" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="24"/>
       <c r="B17" s="38" t="str">
         <f t="shared" si="2"/>
@@ -3885,7 +11090,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:32" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="24"/>
       <c r="B18" s="38" t="str">
         <f t="shared" si="2"/>
@@ -3955,7 +11160,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:32" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="24"/>
       <c r="B19" s="38" t="str">
         <f t="shared" si="2"/>
@@ -4019,7 +11224,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
       <c r="O20" s="10" t="s">
         <v>2</v>
       </c>
@@ -4075,7 +11280,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
       <c r="O21" s="10" t="s">
         <v>2</v>
       </c>
@@ -4131,7 +11336,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
       <c r="O22" s="10" t="s">
         <v>2</v>
       </c>
@@ -4187,7 +11392,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
       <c r="O23" s="10" t="s">
         <v>2</v>
       </c>
@@ -4243,7 +11448,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
       <c r="O24" s="10" t="s">
         <v>2</v>
       </c>
@@ -4299,7 +11504,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
       <c r="AC25" s="47">
         <v>874739</v>
       </c>
@@ -4327,20 +11532,20 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="35.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="19.28515625" style="1" customWidth="1"/>
-    <col min="8" max="9" width="8.85546875" style="1"/>
-    <col min="14" max="14" width="19.28515625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="48.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="35.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="1"/>
+    <col min="7" max="7" width="19.33203125" style="1" customWidth="1"/>
+    <col min="8" max="9" width="8.88671875" style="1"/>
+    <col min="14" max="14" width="19.33203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -4364,7 +11569,7 @@
         <v>19647</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -4388,7 +11593,7 @@
         <v>19647</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -4412,7 +11617,7 @@
         <v>19647</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -4436,7 +11641,7 @@
         <v>21078</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -4460,7 +11665,7 @@
         <v>21078</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -4484,7 +11689,7 @@
         <v>21078</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -4508,7 +11713,7 @@
         <v>17351</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -4532,7 +11737,7 @@
         <v>17351</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
@@ -4556,7 +11761,7 @@
         <v>17351</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
@@ -4580,7 +11785,7 @@
         <v>21227</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
@@ -4604,7 +11809,7 @@
         <v>21227</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -4628,7 +11833,7 @@
         <v>21227</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -4652,7 +11857,7 @@
         <v>28474</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -4676,7 +11881,7 @@
         <v>28474</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
@@ -4700,7 +11905,7 @@
         <v>28474</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
@@ -4724,7 +11929,7 @@
         <v>32372</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
@@ -4748,7 +11953,7 @@
         <v>32372</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>28</v>
       </c>
@@ -4786,18 +11991,18 @@
       <selection activeCell="B10" sqref="B1:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="35.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="1"/>
-    <col min="7" max="7" width="19.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="48.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="35.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="19.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -4818,7 +12023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -4839,7 +12044,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -4860,7 +12065,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
@@ -4877,7 +12082,7 @@
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
@@ -4894,7 +12099,7 @@
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
@@ -4911,7 +12116,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>22</v>
       </c>
@@ -4928,7 +12133,7 @@
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>24</v>
       </c>
@@ -4945,7 +12150,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
@@ -4962,7 +12167,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>28</v>
       </c>
@@ -4993,15 +12198,15 @@
       <selection activeCell="H2" sqref="H2:H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="36.7109375" customWidth="1"/>
-    <col min="8" max="8" width="24.5703125" customWidth="1"/>
-    <col min="10" max="10" width="60.7109375" customWidth="1"/>
-    <col min="11" max="11" width="34.140625" customWidth="1"/>
+    <col min="7" max="7" width="36.6640625" customWidth="1"/>
+    <col min="8" max="8" width="24.5546875" customWidth="1"/>
+    <col min="10" max="10" width="60.6640625" customWidth="1"/>
+    <col min="11" max="11" width="34.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -5036,7 +12241,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -5071,7 +12276,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -5106,7 +12311,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -5141,7 +12346,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -5176,7 +12381,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -5211,7 +12416,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -5246,7 +12451,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -5281,7 +12486,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -5316,7 +12521,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -5351,7 +12556,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -5386,7 +12591,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -5418,7 +12623,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -5453,7 +12658,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -5488,7 +12693,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -5520,7 +12725,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -5555,7 +12760,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -5590,7 +12795,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -5625,7 +12830,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -5660,7 +12865,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -5695,7 +12900,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -5730,7 +12935,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -5765,7 +12970,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -5800,7 +13005,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>2</v>
       </c>
